--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CAD545-DF02-534D-9502-F63C50D5BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6BCBC0-E90E-454E-A443-B12FBC72FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="394">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1368,13 +1368,29 @@
   <si>
     <t>전문가 매칭 웹 사이트</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>10일</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서 수정</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1657,6 +1673,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -2710,7 +2734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2972,6 +2996,150 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="47" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,24 +3149,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3009,15 +3159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3122,15 +3263,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3155,121 +3287,19 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="47" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3643,3087 +3673,3290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12337408-0B41-B64E-BE03-9D72427C2EEB}">
-  <dimension ref="A3:CM31"/>
+  <dimension ref="A3:CM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR25" sqref="AR25"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="BS35" sqref="BS35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="148" customWidth="1"/>
-    <col min="2" max="3" width="30.83203125" style="148" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="148" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="148"/>
-    <col min="7" max="7" width="5.83203125" style="148" customWidth="1"/>
-    <col min="8" max="91" width="1.5" style="148" customWidth="1"/>
-    <col min="92" max="16384" width="10.83203125" style="148"/>
+    <col min="1" max="1" width="15.83203125" style="87" customWidth="1"/>
+    <col min="2" max="3" width="30.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="87" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="87"/>
+    <col min="7" max="7" width="5.83203125" style="87" customWidth="1"/>
+    <col min="8" max="91" width="1.5" style="87" customWidth="1"/>
+    <col min="92" max="16384" width="10.83203125" style="87"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:91">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="124" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150"/>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="150"/>
-      <c r="AX3" s="150"/>
-      <c r="AY3" s="150"/>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="150"/>
-      <c r="BB3" s="150"/>
-      <c r="BC3" s="150"/>
-      <c r="BD3" s="150"/>
-      <c r="BE3" s="150"/>
-      <c r="BF3" s="150"/>
-      <c r="BG3" s="150"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="150"/>
-      <c r="BJ3" s="150"/>
-      <c r="BK3" s="150"/>
-      <c r="BL3" s="150"/>
-      <c r="BM3" s="150"/>
-      <c r="BN3" s="150"/>
-      <c r="BO3" s="150"/>
-      <c r="BP3" s="149"/>
-      <c r="BQ3" s="149"/>
-      <c r="BR3" s="149"/>
-      <c r="BS3" s="149"/>
-      <c r="BT3" s="149"/>
-      <c r="BU3" s="149"/>
-      <c r="BV3" s="149"/>
-      <c r="BW3" s="149"/>
-      <c r="BX3" s="149"/>
-      <c r="BY3" s="149"/>
-      <c r="BZ3" s="149"/>
-      <c r="CA3" s="149"/>
-      <c r="CB3" s="149"/>
-      <c r="CC3" s="149"/>
-      <c r="CD3" s="149"/>
-      <c r="CE3" s="149"/>
-      <c r="CF3" s="149"/>
-      <c r="CG3" s="149"/>
-      <c r="CH3" s="149"/>
-      <c r="CI3" s="149"/>
-      <c r="CJ3" s="149"/>
-      <c r="CK3" s="149"/>
-      <c r="CL3" s="149"/>
-      <c r="CM3" s="149"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
+      <c r="BX3" s="88"/>
+      <c r="BY3" s="88"/>
+      <c r="BZ3" s="88"/>
+      <c r="CA3" s="88"/>
+      <c r="CB3" s="88"/>
+      <c r="CC3" s="88"/>
+      <c r="CD3" s="88"/>
+      <c r="CE3" s="88"/>
+      <c r="CF3" s="88"/>
+      <c r="CG3" s="88"/>
+      <c r="CH3" s="88"/>
+      <c r="CI3" s="88"/>
+      <c r="CJ3" s="88"/>
+      <c r="CK3" s="88"/>
+      <c r="CL3" s="88"/>
+      <c r="CM3" s="88"/>
     </row>
     <row r="4" spans="1:91">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="108" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="150"/>
-      <c r="AE4" s="150"/>
-      <c r="AF4" s="150"/>
-      <c r="AG4" s="150"/>
-      <c r="AH4" s="150"/>
-      <c r="AI4" s="150"/>
-      <c r="AJ4" s="150"/>
-      <c r="AK4" s="150"/>
-      <c r="AL4" s="150"/>
-      <c r="AM4" s="150"/>
-      <c r="AN4" s="150"/>
-      <c r="AO4" s="150"/>
-      <c r="AP4" s="150"/>
-      <c r="AQ4" s="150"/>
-      <c r="AR4" s="150"/>
-      <c r="AS4" s="150"/>
-      <c r="AT4" s="150"/>
-      <c r="AU4" s="150"/>
-      <c r="AV4" s="150"/>
-      <c r="AW4" s="150"/>
-      <c r="AX4" s="150"/>
-      <c r="AY4" s="150"/>
-      <c r="AZ4" s="150"/>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="150"/>
-      <c r="BC4" s="150"/>
-      <c r="BD4" s="150"/>
-      <c r="BE4" s="150"/>
-      <c r="BF4" s="150"/>
-      <c r="BG4" s="150"/>
-      <c r="BH4" s="150"/>
-      <c r="BI4" s="150"/>
-      <c r="BJ4" s="150"/>
-      <c r="BK4" s="150"/>
-      <c r="BL4" s="150"/>
-      <c r="BM4" s="150"/>
-      <c r="BN4" s="150"/>
-      <c r="BO4" s="150"/>
-      <c r="BP4" s="149"/>
-      <c r="BQ4" s="149"/>
-      <c r="BR4" s="149"/>
-      <c r="BS4" s="149"/>
-      <c r="BT4" s="149"/>
-      <c r="BU4" s="149"/>
-      <c r="BV4" s="149"/>
-      <c r="BW4" s="149"/>
-      <c r="BX4" s="149"/>
-      <c r="BY4" s="149"/>
-      <c r="BZ4" s="149"/>
-      <c r="CA4" s="149"/>
-      <c r="CB4" s="149"/>
-      <c r="CC4" s="149"/>
-      <c r="CD4" s="149"/>
-      <c r="CE4" s="149"/>
-      <c r="CF4" s="149"/>
-      <c r="CG4" s="149"/>
-      <c r="CH4" s="149"/>
-      <c r="CI4" s="149"/>
-      <c r="CJ4" s="149"/>
-      <c r="CK4" s="149"/>
-      <c r="CL4" s="149"/>
-      <c r="CM4" s="149"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="89"/>
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="88"/>
+      <c r="CH4" s="88"/>
+      <c r="CI4" s="88"/>
+      <c r="CJ4" s="88"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="88"/>
+      <c r="CM4" s="88"/>
     </row>
     <row r="5" spans="1:91">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="108" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="150"/>
-      <c r="AE5" s="150"/>
-      <c r="AF5" s="150"/>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="150"/>
-      <c r="AI5" s="150"/>
-      <c r="AJ5" s="150"/>
-      <c r="AK5" s="150"/>
-      <c r="AL5" s="150"/>
-      <c r="AM5" s="150"/>
-      <c r="AN5" s="150"/>
-      <c r="AO5" s="150"/>
-      <c r="AP5" s="150"/>
-      <c r="AQ5" s="150"/>
-      <c r="AR5" s="150"/>
-      <c r="AS5" s="150"/>
-      <c r="AT5" s="150"/>
-      <c r="AU5" s="150"/>
-      <c r="AV5" s="150"/>
-      <c r="AW5" s="150"/>
-      <c r="AX5" s="150"/>
-      <c r="AY5" s="150"/>
-      <c r="AZ5" s="150"/>
-      <c r="BA5" s="150"/>
-      <c r="BB5" s="150"/>
-      <c r="BC5" s="150"/>
-      <c r="BD5" s="150"/>
-      <c r="BE5" s="150"/>
-      <c r="BF5" s="150"/>
-      <c r="BG5" s="150"/>
-      <c r="BH5" s="150"/>
-      <c r="BI5" s="150"/>
-      <c r="BJ5" s="150"/>
-      <c r="BK5" s="150"/>
-      <c r="BL5" s="150"/>
-      <c r="BM5" s="150"/>
-      <c r="BN5" s="150"/>
-      <c r="BO5" s="150"/>
-      <c r="BP5" s="149"/>
-      <c r="BQ5" s="149"/>
-      <c r="BR5" s="149"/>
-      <c r="BS5" s="149"/>
-      <c r="BT5" s="149"/>
-      <c r="BU5" s="149"/>
-      <c r="BV5" s="149"/>
-      <c r="BW5" s="149"/>
-      <c r="BX5" s="149"/>
-      <c r="BY5" s="149"/>
-      <c r="BZ5" s="149"/>
-      <c r="CA5" s="149"/>
-      <c r="CB5" s="149"/>
-      <c r="CC5" s="149"/>
-      <c r="CD5" s="149"/>
-      <c r="CE5" s="149"/>
-      <c r="CF5" s="149"/>
-      <c r="CG5" s="149"/>
-      <c r="CH5" s="149"/>
-      <c r="CI5" s="149"/>
-      <c r="CJ5" s="149"/>
-      <c r="CK5" s="149"/>
-      <c r="CL5" s="149"/>
-      <c r="CM5" s="149"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="89"/>
+      <c r="BK5" s="89"/>
+      <c r="BL5" s="89"/>
+      <c r="BM5" s="89"/>
+      <c r="BN5" s="89"/>
+      <c r="BO5" s="89"/>
+      <c r="BP5" s="88"/>
+      <c r="BQ5" s="88"/>
+      <c r="BR5" s="88"/>
+      <c r="BS5" s="88"/>
+      <c r="BT5" s="88"/>
+      <c r="BU5" s="88"/>
+      <c r="BV5" s="88"/>
+      <c r="BW5" s="88"/>
+      <c r="BX5" s="88"/>
+      <c r="BY5" s="88"/>
+      <c r="BZ5" s="88"/>
+      <c r="CA5" s="88"/>
+      <c r="CB5" s="88"/>
+      <c r="CC5" s="88"/>
+      <c r="CD5" s="88"/>
+      <c r="CE5" s="88"/>
+      <c r="CF5" s="88"/>
+      <c r="CG5" s="88"/>
+      <c r="CH5" s="88"/>
+      <c r="CI5" s="88"/>
+      <c r="CJ5" s="88"/>
+      <c r="CK5" s="88"/>
+      <c r="CL5" s="88"/>
+      <c r="CM5" s="88"/>
     </row>
     <row r="6" spans="1:91">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="150"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="150"/>
-      <c r="AE6" s="150"/>
-      <c r="AF6" s="150"/>
-      <c r="AG6" s="150"/>
-      <c r="AH6" s="150"/>
-      <c r="AI6" s="150"/>
-      <c r="AJ6" s="150"/>
-      <c r="AK6" s="150"/>
-      <c r="AL6" s="150"/>
-      <c r="AM6" s="150"/>
-      <c r="AN6" s="150"/>
-      <c r="AO6" s="150"/>
-      <c r="AP6" s="150"/>
-      <c r="AQ6" s="150"/>
-      <c r="AR6" s="150"/>
-      <c r="AS6" s="150"/>
-      <c r="AT6" s="150"/>
-      <c r="AU6" s="150"/>
-      <c r="AV6" s="150"/>
-      <c r="AW6" s="150"/>
-      <c r="AX6" s="150"/>
-      <c r="AY6" s="150"/>
-      <c r="AZ6" s="150"/>
-      <c r="BA6" s="150"/>
-      <c r="BB6" s="150"/>
-      <c r="BC6" s="150"/>
-      <c r="BD6" s="150"/>
-      <c r="BE6" s="150"/>
-      <c r="BF6" s="150"/>
-      <c r="BG6" s="150"/>
-      <c r="BH6" s="150"/>
-      <c r="BI6" s="150"/>
-      <c r="BJ6" s="150"/>
-      <c r="BK6" s="150"/>
-      <c r="BL6" s="150"/>
-      <c r="BM6" s="150"/>
-      <c r="BN6" s="150"/>
-      <c r="BO6" s="150"/>
-      <c r="BP6" s="149"/>
-      <c r="BQ6" s="149"/>
-      <c r="BR6" s="149"/>
-      <c r="BS6" s="149"/>
-      <c r="BT6" s="149"/>
-      <c r="BU6" s="149"/>
-      <c r="BV6" s="149"/>
-      <c r="BW6" s="149"/>
-      <c r="BX6" s="149"/>
-      <c r="BY6" s="149"/>
-      <c r="BZ6" s="149"/>
-      <c r="CA6" s="149"/>
-      <c r="CB6" s="149"/>
-      <c r="CC6" s="149"/>
-      <c r="CD6" s="149"/>
-      <c r="CE6" s="149"/>
-      <c r="CF6" s="149"/>
-      <c r="CG6" s="149"/>
-      <c r="CH6" s="149"/>
-      <c r="CI6" s="149"/>
-      <c r="CJ6" s="149"/>
-      <c r="CK6" s="149"/>
-      <c r="CL6" s="149"/>
-      <c r="CM6" s="149"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="88"/>
+      <c r="BQ6" s="88"/>
+      <c r="BR6" s="88"/>
+      <c r="BS6" s="88"/>
+      <c r="BT6" s="88"/>
+      <c r="BU6" s="88"/>
+      <c r="BV6" s="88"/>
+      <c r="BW6" s="88"/>
+      <c r="BX6" s="88"/>
+      <c r="BY6" s="88"/>
+      <c r="BZ6" s="88"/>
+      <c r="CA6" s="88"/>
+      <c r="CB6" s="88"/>
+      <c r="CC6" s="88"/>
+      <c r="CD6" s="88"/>
+      <c r="CE6" s="88"/>
+      <c r="CF6" s="88"/>
+      <c r="CG6" s="88"/>
+      <c r="CH6" s="88"/>
+      <c r="CI6" s="88"/>
+      <c r="CJ6" s="88"/>
+      <c r="CK6" s="88"/>
+      <c r="CL6" s="88"/>
+      <c r="CM6" s="88"/>
     </row>
     <row r="7" spans="1:91">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="108" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="125">
         <v>45436</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="150"/>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="150"/>
-      <c r="AS7" s="150"/>
-      <c r="AT7" s="150"/>
-      <c r="AU7" s="150"/>
-      <c r="AV7" s="150"/>
-      <c r="AW7" s="150"/>
-      <c r="AX7" s="150"/>
-      <c r="AY7" s="150"/>
-      <c r="AZ7" s="150"/>
-      <c r="BA7" s="150"/>
-      <c r="BB7" s="150"/>
-      <c r="BC7" s="150"/>
-      <c r="BD7" s="150"/>
-      <c r="BE7" s="150"/>
-      <c r="BF7" s="150"/>
-      <c r="BG7" s="150"/>
-      <c r="BH7" s="150"/>
-      <c r="BI7" s="150"/>
-      <c r="BJ7" s="150"/>
-      <c r="BK7" s="150"/>
-      <c r="BL7" s="150"/>
-      <c r="BM7" s="150"/>
-      <c r="BN7" s="150"/>
-      <c r="BO7" s="150"/>
-      <c r="BP7" s="149"/>
-      <c r="BQ7" s="149"/>
-      <c r="BR7" s="149"/>
-      <c r="BS7" s="149"/>
-      <c r="BT7" s="149"/>
-      <c r="BU7" s="149"/>
-      <c r="BV7" s="149"/>
-      <c r="BW7" s="149"/>
-      <c r="BX7" s="149"/>
-      <c r="BY7" s="149"/>
-      <c r="BZ7" s="149"/>
-      <c r="CA7" s="149"/>
-      <c r="CB7" s="149"/>
-      <c r="CC7" s="149"/>
-      <c r="CD7" s="149"/>
-      <c r="CE7" s="149"/>
-      <c r="CF7" s="149"/>
-      <c r="CG7" s="149"/>
-      <c r="CH7" s="149"/>
-      <c r="CI7" s="149"/>
-      <c r="CJ7" s="149"/>
-      <c r="CK7" s="149"/>
-      <c r="CL7" s="149"/>
-      <c r="CM7" s="149"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="88"/>
+      <c r="BQ7" s="88"/>
+      <c r="BR7" s="88"/>
+      <c r="BS7" s="88"/>
+      <c r="BT7" s="88"/>
+      <c r="BU7" s="88"/>
+      <c r="BV7" s="88"/>
+      <c r="BW7" s="88"/>
+      <c r="BX7" s="88"/>
+      <c r="BY7" s="88"/>
+      <c r="BZ7" s="88"/>
+      <c r="CA7" s="88"/>
+      <c r="CB7" s="88"/>
+      <c r="CC7" s="88"/>
+      <c r="CD7" s="88"/>
+      <c r="CE7" s="88"/>
+      <c r="CF7" s="88"/>
+      <c r="CG7" s="88"/>
+      <c r="CH7" s="88"/>
+      <c r="CI7" s="88"/>
+      <c r="CJ7" s="88"/>
+      <c r="CK7" s="88"/>
+      <c r="CL7" s="88"/>
+      <c r="CM7" s="88"/>
     </row>
     <row r="8" spans="1:91">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="150"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="150"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="150"/>
-      <c r="AO8" s="150"/>
-      <c r="AP8" s="150"/>
-      <c r="AQ8" s="150"/>
-      <c r="AR8" s="150"/>
-      <c r="AS8" s="150"/>
-      <c r="AT8" s="150"/>
-      <c r="AU8" s="150"/>
-      <c r="AV8" s="150"/>
-      <c r="AW8" s="150"/>
-      <c r="AX8" s="150"/>
-      <c r="AY8" s="150"/>
-      <c r="AZ8" s="150"/>
-      <c r="BA8" s="150"/>
-      <c r="BB8" s="150"/>
-      <c r="BC8" s="150"/>
-      <c r="BD8" s="150"/>
-      <c r="BE8" s="150"/>
-      <c r="BF8" s="150"/>
-      <c r="BG8" s="150"/>
-      <c r="BH8" s="150"/>
-      <c r="BI8" s="150"/>
-      <c r="BJ8" s="150"/>
-      <c r="BK8" s="150"/>
-      <c r="BL8" s="150"/>
-      <c r="BM8" s="150"/>
-      <c r="BN8" s="150"/>
-      <c r="BO8" s="150"/>
-      <c r="BP8" s="149"/>
-      <c r="BQ8" s="149"/>
-      <c r="BR8" s="149"/>
-      <c r="BS8" s="149"/>
-      <c r="BT8" s="149"/>
-      <c r="BU8" s="149"/>
-      <c r="BV8" s="149"/>
-      <c r="BW8" s="149"/>
-      <c r="BX8" s="149"/>
-      <c r="BY8" s="149"/>
-      <c r="BZ8" s="149"/>
-      <c r="CA8" s="149"/>
-      <c r="CB8" s="149"/>
-      <c r="CC8" s="149"/>
-      <c r="CD8" s="149"/>
-      <c r="CE8" s="149"/>
-      <c r="CF8" s="149"/>
-      <c r="CG8" s="149"/>
-      <c r="CH8" s="149"/>
-      <c r="CI8" s="149"/>
-      <c r="CJ8" s="149"/>
-      <c r="CK8" s="149"/>
-      <c r="CL8" s="149"/>
-      <c r="CM8" s="149"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="89"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="89"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="89"/>
+      <c r="BP8" s="88"/>
+      <c r="BQ8" s="88"/>
+      <c r="BR8" s="88"/>
+      <c r="BS8" s="88"/>
+      <c r="BT8" s="88"/>
+      <c r="BU8" s="88"/>
+      <c r="BV8" s="88"/>
+      <c r="BW8" s="88"/>
+      <c r="BX8" s="88"/>
+      <c r="BY8" s="88"/>
+      <c r="BZ8" s="88"/>
+      <c r="CA8" s="88"/>
+      <c r="CB8" s="88"/>
+      <c r="CC8" s="88"/>
+      <c r="CD8" s="88"/>
+      <c r="CE8" s="88"/>
+      <c r="CF8" s="88"/>
+      <c r="CG8" s="88"/>
+      <c r="CH8" s="88"/>
+      <c r="CI8" s="88"/>
+      <c r="CJ8" s="88"/>
+      <c r="CK8" s="88"/>
+      <c r="CL8" s="88"/>
+      <c r="CM8" s="88"/>
     </row>
     <row r="9" spans="1:91">
-      <c r="A9" s="149"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="150">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89">
         <v>5.24</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="150"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="150"/>
-      <c r="AT9" s="150"/>
-      <c r="AU9" s="150"/>
-      <c r="AV9" s="150"/>
-      <c r="AW9" s="150"/>
-      <c r="AX9" s="150"/>
-      <c r="AY9" s="150"/>
-      <c r="AZ9" s="150"/>
-      <c r="BA9" s="150"/>
-      <c r="BB9" s="150"/>
-      <c r="BC9" s="150"/>
-      <c r="BD9" s="150"/>
-      <c r="BE9" s="150"/>
-      <c r="BF9" s="150"/>
-      <c r="BG9" s="150"/>
-      <c r="BH9" s="150"/>
-      <c r="BI9" s="150"/>
-      <c r="BJ9" s="150"/>
-      <c r="BK9" s="150"/>
-      <c r="BL9" s="150"/>
-      <c r="BM9" s="150"/>
-      <c r="BN9" s="150"/>
-      <c r="BO9" s="150"/>
-      <c r="BP9" s="149"/>
-      <c r="BQ9" s="149"/>
-      <c r="BR9" s="149"/>
-      <c r="BS9" s="149"/>
-      <c r="BT9" s="149"/>
-      <c r="BU9" s="149"/>
-      <c r="BV9" s="149"/>
-      <c r="BW9" s="149"/>
-      <c r="BX9" s="149"/>
-      <c r="BY9" s="149"/>
-      <c r="BZ9" s="149"/>
-      <c r="CA9" s="149"/>
-      <c r="CB9" s="149"/>
-      <c r="CC9" s="149"/>
-      <c r="CD9" s="149"/>
-      <c r="CE9" s="149"/>
-      <c r="CF9" s="149"/>
-      <c r="CG9" s="149"/>
-      <c r="CH9" s="149"/>
-      <c r="CI9" s="149"/>
-      <c r="CJ9" s="149"/>
-      <c r="CK9" s="149"/>
-      <c r="CL9" s="149"/>
-      <c r="CM9" s="149"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="89"/>
+      <c r="BL9" s="89"/>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="89"/>
+      <c r="BO9" s="89"/>
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="88"/>
+      <c r="BR9" s="88"/>
+      <c r="BS9" s="88"/>
+      <c r="BT9" s="88"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
+      <c r="BW9" s="88"/>
+      <c r="BX9" s="88"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CB9" s="88"/>
+      <c r="CC9" s="88"/>
+      <c r="CD9" s="88"/>
+      <c r="CE9" s="88"/>
+      <c r="CF9" s="88"/>
+      <c r="CG9" s="88"/>
+      <c r="CH9" s="88"/>
+      <c r="CI9" s="88"/>
+      <c r="CJ9" s="88"/>
+      <c r="CK9" s="88"/>
+      <c r="CL9" s="88"/>
+      <c r="CM9" s="88"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="123" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="123" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="123" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="177" t="s">
+      <c r="F10" s="123" t="s">
         <v>376</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="121" t="s">
         <v>374</v>
       </c>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="181"/>
-      <c r="AD10" s="181"/>
-      <c r="AE10" s="181"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="181"/>
-      <c r="AI10" s="181"/>
-      <c r="AJ10" s="182" t="s">
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="AK10" s="181"/>
-      <c r="AL10" s="181"/>
-      <c r="AM10" s="181"/>
-      <c r="AN10" s="181"/>
-      <c r="AO10" s="181"/>
-      <c r="AP10" s="181"/>
-      <c r="AQ10" s="181"/>
-      <c r="AR10" s="181"/>
-      <c r="AS10" s="181"/>
-      <c r="AT10" s="181"/>
-      <c r="AU10" s="181"/>
-      <c r="AV10" s="181"/>
-      <c r="AW10" s="181"/>
-      <c r="AX10" s="181"/>
-      <c r="AY10" s="181"/>
-      <c r="AZ10" s="181"/>
-      <c r="BA10" s="181"/>
-      <c r="BB10" s="181"/>
-      <c r="BC10" s="181"/>
-      <c r="BD10" s="181"/>
-      <c r="BE10" s="181"/>
-      <c r="BF10" s="181"/>
-      <c r="BG10" s="181"/>
-      <c r="BH10" s="181"/>
-      <c r="BI10" s="181"/>
-      <c r="BJ10" s="181"/>
-      <c r="BK10" s="181"/>
-      <c r="BL10" s="182" t="s">
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="122"/>
+      <c r="AQ10" s="122"/>
+      <c r="AR10" s="122"/>
+      <c r="AS10" s="122"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="122"/>
+      <c r="AV10" s="122"/>
+      <c r="AW10" s="122"/>
+      <c r="AX10" s="122"/>
+      <c r="AY10" s="122"/>
+      <c r="AZ10" s="122"/>
+      <c r="BA10" s="122"/>
+      <c r="BB10" s="122"/>
+      <c r="BC10" s="122"/>
+      <c r="BD10" s="122"/>
+      <c r="BE10" s="122"/>
+      <c r="BF10" s="122"/>
+      <c r="BG10" s="122"/>
+      <c r="BH10" s="122"/>
+      <c r="BI10" s="122"/>
+      <c r="BJ10" s="122"/>
+      <c r="BK10" s="122"/>
+      <c r="BL10" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BM10" s="181"/>
-      <c r="BN10" s="181"/>
-      <c r="BO10" s="181"/>
-      <c r="BP10" s="181"/>
-      <c r="BQ10" s="181"/>
-      <c r="BR10" s="181"/>
-      <c r="BS10" s="181"/>
-      <c r="BT10" s="181"/>
-      <c r="BU10" s="181"/>
-      <c r="BV10" s="181"/>
-      <c r="BW10" s="181"/>
-      <c r="BX10" s="181"/>
-      <c r="BY10" s="181"/>
-      <c r="BZ10" s="181"/>
-      <c r="CA10" s="181"/>
-      <c r="CB10" s="181"/>
-      <c r="CC10" s="181"/>
-      <c r="CD10" s="181"/>
-      <c r="CE10" s="181"/>
-      <c r="CF10" s="181"/>
-      <c r="CG10" s="181"/>
-      <c r="CH10" s="181"/>
-      <c r="CI10" s="181"/>
-      <c r="CJ10" s="181"/>
-      <c r="CK10" s="181"/>
-      <c r="CL10" s="181"/>
-      <c r="CM10" s="181"/>
+      <c r="BM10" s="122"/>
+      <c r="BN10" s="122"/>
+      <c r="BO10" s="122"/>
+      <c r="BP10" s="122"/>
+      <c r="BQ10" s="122"/>
+      <c r="BR10" s="122"/>
+      <c r="BS10" s="122"/>
+      <c r="BT10" s="122"/>
+      <c r="BU10" s="122"/>
+      <c r="BV10" s="122"/>
+      <c r="BW10" s="122"/>
+      <c r="BX10" s="122"/>
+      <c r="BY10" s="122"/>
+      <c r="BZ10" s="122"/>
+      <c r="CA10" s="122"/>
+      <c r="CB10" s="122"/>
+      <c r="CC10" s="122"/>
+      <c r="CD10" s="122"/>
+      <c r="CE10" s="122"/>
+      <c r="CF10" s="122"/>
+      <c r="CG10" s="122"/>
+      <c r="CH10" s="122"/>
+      <c r="CI10" s="122"/>
+      <c r="CJ10" s="122"/>
+      <c r="CK10" s="122"/>
+      <c r="CL10" s="122"/>
+      <c r="CM10" s="122"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="176" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="106" t="s">
         <v>371</v>
       </c>
-      <c r="H11" s="180" t="s">
+      <c r="H11" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="180" t="s">
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="179"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="180" t="s">
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="W11" s="179"/>
-      <c r="X11" s="179"/>
-      <c r="Y11" s="179"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="180" t="s">
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="AD11" s="179"/>
-      <c r="AE11" s="179"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="179"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="178"/>
-      <c r="AJ11" s="180" t="s">
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="AK11" s="179"/>
-      <c r="AL11" s="179"/>
-      <c r="AM11" s="179"/>
-      <c r="AN11" s="179"/>
-      <c r="AO11" s="179"/>
-      <c r="AP11" s="178"/>
-      <c r="AQ11" s="180" t="s">
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="AR11" s="179"/>
-      <c r="AS11" s="179"/>
-      <c r="AT11" s="179"/>
-      <c r="AU11" s="179"/>
-      <c r="AV11" s="179"/>
-      <c r="AW11" s="178"/>
-      <c r="AX11" s="180" t="s">
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="AY11" s="179"/>
-      <c r="AZ11" s="179"/>
-      <c r="BA11" s="179"/>
-      <c r="BB11" s="179"/>
-      <c r="BC11" s="179"/>
-      <c r="BD11" s="178"/>
-      <c r="BE11" s="180" t="s">
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="117"/>
+      <c r="BE11" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="BF11" s="179"/>
-      <c r="BG11" s="179"/>
-      <c r="BH11" s="179"/>
-      <c r="BI11" s="179"/>
-      <c r="BJ11" s="179"/>
-      <c r="BK11" s="178"/>
-      <c r="BL11" s="180" t="s">
+      <c r="BF11" s="116"/>
+      <c r="BG11" s="116"/>
+      <c r="BH11" s="116"/>
+      <c r="BI11" s="116"/>
+      <c r="BJ11" s="116"/>
+      <c r="BK11" s="117"/>
+      <c r="BL11" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="BM11" s="179"/>
-      <c r="BN11" s="179"/>
-      <c r="BO11" s="179"/>
-      <c r="BP11" s="179"/>
-      <c r="BQ11" s="179"/>
-      <c r="BR11" s="178"/>
-      <c r="BS11" s="180" t="s">
+      <c r="BM11" s="116"/>
+      <c r="BN11" s="116"/>
+      <c r="BO11" s="116"/>
+      <c r="BP11" s="116"/>
+      <c r="BQ11" s="116"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="BT11" s="179"/>
-      <c r="BU11" s="179"/>
-      <c r="BV11" s="179"/>
-      <c r="BW11" s="179"/>
-      <c r="BX11" s="179"/>
-      <c r="BY11" s="178"/>
-      <c r="BZ11" s="180" t="s">
+      <c r="BT11" s="116"/>
+      <c r="BU11" s="116"/>
+      <c r="BV11" s="116"/>
+      <c r="BW11" s="116"/>
+      <c r="BX11" s="116"/>
+      <c r="BY11" s="117"/>
+      <c r="BZ11" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="CA11" s="179"/>
-      <c r="CB11" s="179"/>
-      <c r="CC11" s="179"/>
-      <c r="CD11" s="179"/>
-      <c r="CE11" s="179"/>
-      <c r="CF11" s="178"/>
-      <c r="CG11" s="180" t="s">
+      <c r="CA11" s="116"/>
+      <c r="CB11" s="116"/>
+      <c r="CC11" s="116"/>
+      <c r="CD11" s="116"/>
+      <c r="CE11" s="116"/>
+      <c r="CF11" s="117"/>
+      <c r="CG11" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="CH11" s="179"/>
-      <c r="CI11" s="179"/>
-      <c r="CJ11" s="179"/>
-      <c r="CK11" s="179"/>
-      <c r="CL11" s="179"/>
-      <c r="CM11" s="178"/>
+      <c r="CH11" s="116"/>
+      <c r="CI11" s="116"/>
+      <c r="CJ11" s="116"/>
+      <c r="CK11" s="116"/>
+      <c r="CL11" s="116"/>
+      <c r="CM11" s="117"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="176" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="I12" s="175" t="s">
+      <c r="I12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="J12" s="175" t="s">
+      <c r="J12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="K12" s="175" t="s">
+      <c r="K12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="L12" s="175" t="s">
+      <c r="L12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="M12" s="175" t="s">
+      <c r="M12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="N12" s="175" t="s">
+      <c r="N12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="O12" s="175" t="s">
+      <c r="O12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="P12" s="175" t="s">
+      <c r="P12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="Q12" s="175" t="s">
+      <c r="Q12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="R12" s="175" t="s">
+      <c r="R12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="S12" s="175" t="s">
+      <c r="S12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="T12" s="175" t="s">
+      <c r="T12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="U12" s="175" t="s">
+      <c r="U12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="V12" s="175" t="s">
+      <c r="V12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="W12" s="175" t="s">
+      <c r="W12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="X12" s="175" t="s">
+      <c r="X12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="Y12" s="175" t="s">
+      <c r="Y12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="Z12" s="175" t="s">
+      <c r="Z12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="AA12" s="175" t="s">
+      <c r="AA12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="AB12" s="175" t="s">
+      <c r="AB12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="AC12" s="175" t="s">
+      <c r="AC12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="AD12" s="175" t="s">
+      <c r="AD12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="AE12" s="175" t="s">
+      <c r="AE12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="AF12" s="175" t="s">
+      <c r="AF12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="AG12" s="175" t="s">
+      <c r="AG12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="AH12" s="175" t="s">
+      <c r="AH12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="AI12" s="175" t="s">
+      <c r="AI12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="AJ12" s="175" t="s">
+      <c r="AJ12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="AK12" s="175" t="s">
+      <c r="AK12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="AL12" s="175" t="s">
+      <c r="AL12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="AM12" s="175" t="s">
+      <c r="AM12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="AN12" s="175" t="s">
+      <c r="AN12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="AO12" s="175" t="s">
+      <c r="AO12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="AP12" s="175" t="s">
+      <c r="AP12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="AQ12" s="175" t="s">
+      <c r="AQ12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="AR12" s="175" t="s">
+      <c r="AR12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="AS12" s="175" t="s">
+      <c r="AS12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="AT12" s="175" t="s">
+      <c r="AT12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="AU12" s="175" t="s">
+      <c r="AU12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="AV12" s="175" t="s">
+      <c r="AV12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="AW12" s="175" t="s">
+      <c r="AW12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="AX12" s="175" t="s">
+      <c r="AX12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="AY12" s="175" t="s">
+      <c r="AY12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="AZ12" s="175" t="s">
+      <c r="AZ12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="BA12" s="175" t="s">
+      <c r="BA12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="BB12" s="175" t="s">
+      <c r="BB12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="BC12" s="175" t="s">
+      <c r="BC12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="BD12" s="175" t="s">
+      <c r="BD12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="BE12" s="175" t="s">
+      <c r="BE12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="BF12" s="175" t="s">
+      <c r="BF12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="BG12" s="175" t="s">
+      <c r="BG12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="BH12" s="175" t="s">
+      <c r="BH12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="BI12" s="175" t="s">
+      <c r="BI12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="BJ12" s="175" t="s">
+      <c r="BJ12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="BK12" s="175" t="s">
+      <c r="BK12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="BL12" s="175" t="s">
+      <c r="BL12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="BM12" s="175" t="s">
+      <c r="BM12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="BN12" s="175" t="s">
+      <c r="BN12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="BO12" s="175" t="s">
+      <c r="BO12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="BP12" s="175" t="s">
+      <c r="BP12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="BQ12" s="175" t="s">
+      <c r="BQ12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="BR12" s="175" t="s">
+      <c r="BR12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="BS12" s="175" t="s">
+      <c r="BS12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="BT12" s="175" t="s">
+      <c r="BT12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="BU12" s="175" t="s">
+      <c r="BU12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="BV12" s="175" t="s">
+      <c r="BV12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="BW12" s="175" t="s">
+      <c r="BW12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="BX12" s="175" t="s">
+      <c r="BX12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="BY12" s="175" t="s">
+      <c r="BY12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="BZ12" s="175" t="s">
+      <c r="BZ12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="CA12" s="175" t="s">
+      <c r="CA12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="CB12" s="175" t="s">
+      <c r="CB12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="CC12" s="175" t="s">
+      <c r="CC12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="CD12" s="175" t="s">
+      <c r="CD12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="CE12" s="175" t="s">
+      <c r="CE12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="CF12" s="175" t="s">
+      <c r="CF12" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="CG12" s="175" t="s">
+      <c r="CG12" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="CH12" s="175" t="s">
+      <c r="CH12" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="CI12" s="175" t="s">
+      <c r="CI12" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="CJ12" s="175" t="s">
+      <c r="CJ12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="CK12" s="175" t="s">
+      <c r="CK12" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="CL12" s="175" t="s">
+      <c r="CL12" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="CM12" s="175" t="s">
+      <c r="CM12" s="105" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="118" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="93" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="E13" s="157">
+      <c r="E13" s="96">
         <v>45437</v>
       </c>
-      <c r="F13" s="157">
+      <c r="F13" s="96">
         <v>45439</v>
       </c>
-      <c r="G13" s="158" t="s">
+      <c r="G13" s="97" t="s">
         <v>355</v>
       </c>
-      <c r="H13" s="172"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="153"/>
-      <c r="AC13" s="153"/>
-      <c r="AD13" s="153"/>
-      <c r="AE13" s="153"/>
-      <c r="AF13" s="153"/>
-      <c r="AG13" s="153"/>
-      <c r="AH13" s="153"/>
-      <c r="AI13" s="153"/>
-      <c r="AJ13" s="154"/>
-      <c r="AK13" s="154"/>
-      <c r="AL13" s="154"/>
-      <c r="AM13" s="154"/>
-      <c r="AN13" s="154"/>
-      <c r="AO13" s="154"/>
-      <c r="AP13" s="154"/>
-      <c r="AQ13" s="154"/>
-      <c r="AR13" s="154"/>
-      <c r="AS13" s="154"/>
-      <c r="AT13" s="154"/>
-      <c r="AU13" s="154"/>
-      <c r="AV13" s="154"/>
-      <c r="AW13" s="154"/>
-      <c r="AX13" s="154"/>
-      <c r="AY13" s="154"/>
-      <c r="AZ13" s="155"/>
-      <c r="BA13" s="153"/>
-      <c r="BB13" s="153"/>
-      <c r="BC13" s="153"/>
-      <c r="BD13" s="153"/>
-      <c r="BE13" s="153"/>
-      <c r="BF13" s="153"/>
-      <c r="BG13" s="153"/>
-      <c r="BH13" s="153"/>
-      <c r="BI13" s="153"/>
-      <c r="BJ13" s="153"/>
-      <c r="BK13" s="153"/>
-      <c r="BL13" s="154"/>
-      <c r="BM13" s="154"/>
-      <c r="BN13" s="154"/>
-      <c r="BO13" s="154"/>
-      <c r="BP13" s="154"/>
-      <c r="BQ13" s="154"/>
-      <c r="BR13" s="154"/>
-      <c r="BS13" s="154"/>
-      <c r="BT13" s="154"/>
-      <c r="BU13" s="154"/>
-      <c r="BV13" s="154"/>
-      <c r="BW13" s="154"/>
-      <c r="BX13" s="154"/>
-      <c r="BY13" s="154"/>
-      <c r="BZ13" s="154"/>
-      <c r="CA13" s="154"/>
-      <c r="CB13" s="155"/>
-      <c r="CC13" s="153"/>
-      <c r="CD13" s="153"/>
-      <c r="CE13" s="153"/>
-      <c r="CF13" s="153"/>
-      <c r="CG13" s="153"/>
-      <c r="CH13" s="153"/>
-      <c r="CI13" s="153"/>
-      <c r="CJ13" s="153"/>
-      <c r="CK13" s="153"/>
-      <c r="CL13" s="153"/>
-      <c r="CM13" s="153"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="93"/>
+      <c r="BM13" s="93"/>
+      <c r="BN13" s="93"/>
+      <c r="BO13" s="93"/>
+      <c r="BP13" s="93"/>
+      <c r="BQ13" s="93"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="93"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="93"/>
+      <c r="BW13" s="93"/>
+      <c r="BX13" s="93"/>
+      <c r="BY13" s="93"/>
+      <c r="BZ13" s="93"/>
+      <c r="CA13" s="93"/>
+      <c r="CB13" s="94"/>
+      <c r="CC13" s="92"/>
+      <c r="CD13" s="92"/>
+      <c r="CE13" s="92"/>
+      <c r="CF13" s="92"/>
+      <c r="CG13" s="92"/>
+      <c r="CH13" s="92"/>
+      <c r="CI13" s="92"/>
+      <c r="CJ13" s="92"/>
+      <c r="CK13" s="92"/>
+      <c r="CL13" s="92"/>
+      <c r="CM13" s="92"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="171"/>
-      <c r="B14" s="174" t="s">
+      <c r="A14" s="119"/>
+      <c r="B14" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="170" t="s">
+      <c r="D14" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="157">
+      <c r="E14" s="96">
         <v>45440</v>
       </c>
-      <c r="F14" s="157">
+      <c r="F14" s="96">
         <v>45441</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="154"/>
-      <c r="AK14" s="154"/>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="154"/>
-      <c r="AO14" s="154"/>
-      <c r="AP14" s="154"/>
-      <c r="AQ14" s="154"/>
-      <c r="AR14" s="154"/>
-      <c r="AS14" s="154"/>
-      <c r="AT14" s="154"/>
-      <c r="AU14" s="154"/>
-      <c r="AV14" s="154"/>
-      <c r="AW14" s="154"/>
-      <c r="AX14" s="154"/>
-      <c r="AY14" s="153"/>
-      <c r="AZ14" s="153"/>
-      <c r="BA14" s="153"/>
-      <c r="BB14" s="153"/>
-      <c r="BC14" s="153"/>
-      <c r="BD14" s="153"/>
-      <c r="BE14" s="153"/>
-      <c r="BF14" s="153"/>
-      <c r="BG14" s="153"/>
-      <c r="BH14" s="153"/>
-      <c r="BI14" s="153"/>
-      <c r="BJ14" s="153"/>
-      <c r="BK14" s="153"/>
-      <c r="BL14" s="154"/>
-      <c r="BM14" s="154"/>
-      <c r="BN14" s="154"/>
-      <c r="BO14" s="154"/>
-      <c r="BP14" s="154"/>
-      <c r="BQ14" s="154"/>
-      <c r="BR14" s="154"/>
-      <c r="BS14" s="154"/>
-      <c r="BT14" s="154"/>
-      <c r="BU14" s="154"/>
-      <c r="BV14" s="154"/>
-      <c r="BW14" s="154"/>
-      <c r="BX14" s="154"/>
-      <c r="BY14" s="154"/>
-      <c r="BZ14" s="154"/>
-      <c r="CA14" s="153"/>
-      <c r="CB14" s="153"/>
-      <c r="CC14" s="153"/>
-      <c r="CD14" s="153"/>
-      <c r="CE14" s="153"/>
-      <c r="CF14" s="153"/>
-      <c r="CG14" s="153"/>
-      <c r="CH14" s="153"/>
-      <c r="CI14" s="153"/>
-      <c r="CJ14" s="153"/>
-      <c r="CK14" s="153"/>
-      <c r="CL14" s="153"/>
-      <c r="CM14" s="153"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="92"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="92"/>
+      <c r="BE14" s="92"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="92"/>
+      <c r="BH14" s="92"/>
+      <c r="BI14" s="92"/>
+      <c r="BJ14" s="92"/>
+      <c r="BK14" s="92"/>
+      <c r="BL14" s="93"/>
+      <c r="BM14" s="93"/>
+      <c r="BN14" s="93"/>
+      <c r="BO14" s="93"/>
+      <c r="BP14" s="93"/>
+      <c r="BQ14" s="93"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="93"/>
+      <c r="BU14" s="93"/>
+      <c r="BV14" s="93"/>
+      <c r="BW14" s="93"/>
+      <c r="BX14" s="93"/>
+      <c r="BY14" s="93"/>
+      <c r="BZ14" s="93"/>
+      <c r="CA14" s="92"/>
+      <c r="CB14" s="92"/>
+      <c r="CC14" s="92"/>
+      <c r="CD14" s="92"/>
+      <c r="CE14" s="92"/>
+      <c r="CF14" s="92"/>
+      <c r="CG14" s="92"/>
+      <c r="CH14" s="92"/>
+      <c r="CI14" s="92"/>
+      <c r="CJ14" s="92"/>
+      <c r="CK14" s="92"/>
+      <c r="CL14" s="92"/>
+      <c r="CM14" s="92"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="154" t="s">
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="E15" s="157">
+      <c r="E15" s="96">
         <v>45441</v>
       </c>
-      <c r="F15" s="157">
+      <c r="F15" s="96">
         <v>45442</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="154"/>
-      <c r="AK15" s="154"/>
-      <c r="AL15" s="154"/>
-      <c r="AM15" s="154"/>
-      <c r="AN15" s="154"/>
-      <c r="AO15" s="154"/>
-      <c r="AP15" s="154"/>
-      <c r="AQ15" s="154"/>
-      <c r="AR15" s="154"/>
-      <c r="AS15" s="154"/>
-      <c r="AT15" s="154"/>
-      <c r="AU15" s="154"/>
-      <c r="AV15" s="154"/>
-      <c r="AW15" s="154"/>
-      <c r="AX15" s="154"/>
-      <c r="AY15" s="153"/>
-      <c r="AZ15" s="153"/>
-      <c r="BA15" s="153"/>
-      <c r="BB15" s="153"/>
-      <c r="BC15" s="153"/>
-      <c r="BD15" s="153"/>
-      <c r="BE15" s="153"/>
-      <c r="BF15" s="153"/>
-      <c r="BG15" s="153"/>
-      <c r="BH15" s="153"/>
-      <c r="BI15" s="153"/>
-      <c r="BJ15" s="153"/>
-      <c r="BK15" s="153"/>
-      <c r="BL15" s="154"/>
-      <c r="BM15" s="154"/>
-      <c r="BN15" s="154"/>
-      <c r="BO15" s="154"/>
-      <c r="BP15" s="154"/>
-      <c r="BQ15" s="154"/>
-      <c r="BR15" s="154"/>
-      <c r="BS15" s="154"/>
-      <c r="BT15" s="154"/>
-      <c r="BU15" s="154"/>
-      <c r="BV15" s="154"/>
-      <c r="BW15" s="154"/>
-      <c r="BX15" s="154"/>
-      <c r="BY15" s="154"/>
-      <c r="BZ15" s="154"/>
-      <c r="CA15" s="153"/>
-      <c r="CB15" s="153"/>
-      <c r="CC15" s="153"/>
-      <c r="CD15" s="153"/>
-      <c r="CE15" s="153"/>
-      <c r="CF15" s="153"/>
-      <c r="CG15" s="153"/>
-      <c r="CH15" s="153"/>
-      <c r="CI15" s="153"/>
-      <c r="CJ15" s="153"/>
-      <c r="CK15" s="153"/>
-      <c r="CL15" s="153"/>
-      <c r="CM15" s="153"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="92"/>
+      <c r="BH15" s="92"/>
+      <c r="BI15" s="92"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="92"/>
+      <c r="BL15" s="93"/>
+      <c r="BM15" s="93"/>
+      <c r="BN15" s="93"/>
+      <c r="BO15" s="93"/>
+      <c r="BP15" s="93"/>
+      <c r="BQ15" s="93"/>
+      <c r="BR15" s="93"/>
+      <c r="BS15" s="93"/>
+      <c r="BT15" s="93"/>
+      <c r="BU15" s="93"/>
+      <c r="BV15" s="93"/>
+      <c r="BW15" s="93"/>
+      <c r="BX15" s="93"/>
+      <c r="BY15" s="93"/>
+      <c r="BZ15" s="93"/>
+      <c r="CA15" s="92"/>
+      <c r="CB15" s="92"/>
+      <c r="CC15" s="92"/>
+      <c r="CD15" s="92"/>
+      <c r="CE15" s="92"/>
+      <c r="CF15" s="92"/>
+      <c r="CG15" s="92"/>
+      <c r="CH15" s="92"/>
+      <c r="CI15" s="92"/>
+      <c r="CJ15" s="92"/>
+      <c r="CK15" s="92"/>
+      <c r="CL15" s="92"/>
+      <c r="CM15" s="92"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="155" t="s">
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="94" t="s">
         <v>351</v>
       </c>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="157">
+      <c r="E16" s="96">
         <v>45442</v>
       </c>
-      <c r="F16" s="157">
+      <c r="F16" s="96">
         <v>45443</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="153"/>
-      <c r="AJ16" s="154"/>
-      <c r="AK16" s="154"/>
-      <c r="AL16" s="154"/>
-      <c r="AM16" s="154"/>
-      <c r="AN16" s="154"/>
-      <c r="AO16" s="154"/>
-      <c r="AP16" s="154"/>
-      <c r="AQ16" s="154"/>
-      <c r="AR16" s="154"/>
-      <c r="AS16" s="154"/>
-      <c r="AT16" s="154"/>
-      <c r="AU16" s="154"/>
-      <c r="AV16" s="154"/>
-      <c r="AW16" s="154"/>
-      <c r="AX16" s="154"/>
-      <c r="AY16" s="153"/>
-      <c r="AZ16" s="153"/>
-      <c r="BA16" s="153"/>
-      <c r="BB16" s="153"/>
-      <c r="BC16" s="153"/>
-      <c r="BD16" s="153"/>
-      <c r="BE16" s="153"/>
-      <c r="BF16" s="153"/>
-      <c r="BG16" s="153"/>
-      <c r="BH16" s="153"/>
-      <c r="BI16" s="153"/>
-      <c r="BJ16" s="153"/>
-      <c r="BK16" s="153"/>
-      <c r="BL16" s="154"/>
-      <c r="BM16" s="154"/>
-      <c r="BN16" s="154"/>
-      <c r="BO16" s="154"/>
-      <c r="BP16" s="154"/>
-      <c r="BQ16" s="154"/>
-      <c r="BR16" s="154"/>
-      <c r="BS16" s="154"/>
-      <c r="BT16" s="154"/>
-      <c r="BU16" s="154"/>
-      <c r="BV16" s="154"/>
-      <c r="BW16" s="154"/>
-      <c r="BX16" s="154"/>
-      <c r="BY16" s="154"/>
-      <c r="BZ16" s="154"/>
-      <c r="CA16" s="153"/>
-      <c r="CB16" s="153"/>
-      <c r="CC16" s="153"/>
-      <c r="CD16" s="153"/>
-      <c r="CE16" s="153"/>
-      <c r="CF16" s="153"/>
-      <c r="CG16" s="153"/>
-      <c r="CH16" s="153"/>
-      <c r="CI16" s="153"/>
-      <c r="CJ16" s="153"/>
-      <c r="CK16" s="153"/>
-      <c r="CL16" s="153"/>
-      <c r="CM16" s="153"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="92"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="93"/>
+      <c r="BQ16" s="93"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="93"/>
+      <c r="BU16" s="93"/>
+      <c r="BV16" s="93"/>
+      <c r="BW16" s="93"/>
+      <c r="BX16" s="93"/>
+      <c r="BY16" s="93"/>
+      <c r="BZ16" s="93"/>
+      <c r="CA16" s="92"/>
+      <c r="CB16" s="92"/>
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="92"/>
+      <c r="CE16" s="92"/>
+      <c r="CF16" s="92"/>
+      <c r="CG16" s="92"/>
+      <c r="CH16" s="92"/>
+      <c r="CI16" s="92"/>
+      <c r="CJ16" s="92"/>
+      <c r="CK16" s="92"/>
+      <c r="CL16" s="92"/>
+      <c r="CM16" s="92"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="155" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="102" t="s">
         <v>348</v>
       </c>
-      <c r="E17" s="157">
+      <c r="E17" s="96">
         <v>45443</v>
       </c>
-      <c r="F17" s="157">
+      <c r="F17" s="96">
         <v>45443</v>
       </c>
-      <c r="G17" s="158" t="s">
+      <c r="G17" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="153"/>
-      <c r="AI17" s="153"/>
-      <c r="AJ17" s="154"/>
-      <c r="AK17" s="154"/>
-      <c r="AL17" s="154"/>
-      <c r="AM17" s="154"/>
-      <c r="AN17" s="154"/>
-      <c r="AO17" s="154"/>
-      <c r="AP17" s="154"/>
-      <c r="AQ17" s="154"/>
-      <c r="AR17" s="154"/>
-      <c r="AS17" s="154"/>
-      <c r="AT17" s="154"/>
-      <c r="AU17" s="154"/>
-      <c r="AV17" s="154"/>
-      <c r="AW17" s="154"/>
-      <c r="AX17" s="154"/>
-      <c r="AY17" s="153"/>
-      <c r="AZ17" s="153"/>
-      <c r="BA17" s="153"/>
-      <c r="BB17" s="153"/>
-      <c r="BC17" s="153"/>
-      <c r="BD17" s="153"/>
-      <c r="BE17" s="153"/>
-      <c r="BF17" s="153"/>
-      <c r="BG17" s="153"/>
-      <c r="BH17" s="153"/>
-      <c r="BI17" s="153"/>
-      <c r="BJ17" s="153"/>
-      <c r="BK17" s="153"/>
-      <c r="BL17" s="154"/>
-      <c r="BM17" s="154"/>
-      <c r="BN17" s="154"/>
-      <c r="BO17" s="154"/>
-      <c r="BP17" s="154"/>
-      <c r="BQ17" s="154"/>
-      <c r="BR17" s="154"/>
-      <c r="BS17" s="154"/>
-      <c r="BT17" s="154"/>
-      <c r="BU17" s="154"/>
-      <c r="BV17" s="154"/>
-      <c r="BW17" s="154"/>
-      <c r="BX17" s="154"/>
-      <c r="BY17" s="154"/>
-      <c r="BZ17" s="154"/>
-      <c r="CA17" s="153"/>
-      <c r="CB17" s="153"/>
-      <c r="CC17" s="153"/>
-      <c r="CD17" s="153"/>
-      <c r="CE17" s="153"/>
-      <c r="CF17" s="153"/>
-      <c r="CG17" s="153"/>
-      <c r="CH17" s="153"/>
-      <c r="CI17" s="153"/>
-      <c r="CJ17" s="153"/>
-      <c r="CK17" s="153"/>
-      <c r="CL17" s="153"/>
-      <c r="CM17" s="153"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="92"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="92"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="92"/>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="92"/>
+      <c r="BJ17" s="92"/>
+      <c r="BK17" s="92"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="93"/>
+      <c r="BQ17" s="93"/>
+      <c r="BR17" s="93"/>
+      <c r="BS17" s="93"/>
+      <c r="BT17" s="93"/>
+      <c r="BU17" s="93"/>
+      <c r="BV17" s="93"/>
+      <c r="BW17" s="93"/>
+      <c r="BX17" s="93"/>
+      <c r="BY17" s="93"/>
+      <c r="BZ17" s="93"/>
+      <c r="CA17" s="92"/>
+      <c r="CB17" s="92"/>
+      <c r="CC17" s="92"/>
+      <c r="CD17" s="92"/>
+      <c r="CE17" s="92"/>
+      <c r="CF17" s="92"/>
+      <c r="CG17" s="92"/>
+      <c r="CH17" s="92"/>
+      <c r="CI17" s="92"/>
+      <c r="CJ17" s="92"/>
+      <c r="CK17" s="92"/>
+      <c r="CL17" s="92"/>
+      <c r="CM17" s="92"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="167"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="155" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="D18" s="155" t="s">
+      <c r="D18" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="157">
+      <c r="E18" s="96">
         <v>45449</v>
       </c>
-      <c r="F18" s="157">
+      <c r="F18" s="96">
         <v>45449</v>
       </c>
-      <c r="G18" s="158" t="s">
+      <c r="G18" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="154"/>
-      <c r="AK18" s="154"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="154"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="154"/>
-      <c r="AV18" s="154"/>
-      <c r="AW18" s="154"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="153"/>
-      <c r="AZ18" s="153"/>
-      <c r="BA18" s="153"/>
-      <c r="BB18" s="153"/>
-      <c r="BC18" s="153"/>
-      <c r="BD18" s="153"/>
-      <c r="BE18" s="153"/>
-      <c r="BF18" s="153"/>
-      <c r="BG18" s="153"/>
-      <c r="BH18" s="153"/>
-      <c r="BI18" s="153"/>
-      <c r="BJ18" s="153"/>
-      <c r="BK18" s="153"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="154"/>
-      <c r="BO18" s="154"/>
-      <c r="BP18" s="154"/>
-      <c r="BQ18" s="154"/>
-      <c r="BR18" s="154"/>
-      <c r="BS18" s="154"/>
-      <c r="BT18" s="154"/>
-      <c r="BU18" s="154"/>
-      <c r="BV18" s="154"/>
-      <c r="BW18" s="154"/>
-      <c r="BX18" s="154"/>
-      <c r="BY18" s="154"/>
-      <c r="BZ18" s="154"/>
-      <c r="CA18" s="153"/>
-      <c r="CB18" s="153"/>
-      <c r="CC18" s="153"/>
-      <c r="CD18" s="153"/>
-      <c r="CE18" s="153"/>
-      <c r="CF18" s="153"/>
-      <c r="CG18" s="153"/>
-      <c r="CH18" s="153"/>
-      <c r="CI18" s="153"/>
-      <c r="CJ18" s="153"/>
-      <c r="CK18" s="153"/>
-      <c r="CL18" s="153"/>
-      <c r="CM18" s="153"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="92"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="92"/>
+      <c r="BK18" s="92"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="93"/>
+      <c r="BQ18" s="93"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="93"/>
+      <c r="BU18" s="93"/>
+      <c r="BV18" s="93"/>
+      <c r="BW18" s="93"/>
+      <c r="BX18" s="93"/>
+      <c r="BY18" s="93"/>
+      <c r="BZ18" s="93"/>
+      <c r="CA18" s="92"/>
+      <c r="CB18" s="92"/>
+      <c r="CC18" s="92"/>
+      <c r="CD18" s="92"/>
+      <c r="CE18" s="92"/>
+      <c r="CF18" s="92"/>
+      <c r="CG18" s="92"/>
+      <c r="CH18" s="92"/>
+      <c r="CI18" s="92"/>
+      <c r="CJ18" s="92"/>
+      <c r="CK18" s="92"/>
+      <c r="CL18" s="92"/>
+      <c r="CM18" s="92"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="109" t="s">
         <v>346</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="94" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="97" t="s">
         <v>341</v>
       </c>
-      <c r="E19" s="157">
+      <c r="E19" s="96">
         <v>45450</v>
       </c>
-      <c r="F19" s="157">
+      <c r="F19" s="96">
         <v>45453</v>
       </c>
-      <c r="G19" s="158" t="s">
+      <c r="G19" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="159"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="153"/>
-      <c r="AI19" s="153"/>
-      <c r="AJ19" s="154"/>
-      <c r="AK19" s="154"/>
-      <c r="AL19" s="154"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="154"/>
-      <c r="AO19" s="154"/>
-      <c r="AP19" s="154"/>
-      <c r="AQ19" s="154"/>
-      <c r="AR19" s="154"/>
-      <c r="AS19" s="154"/>
-      <c r="AT19" s="154"/>
-      <c r="AU19" s="154"/>
-      <c r="AV19" s="154"/>
-      <c r="AW19" s="154"/>
-      <c r="AX19" s="154"/>
-      <c r="AY19" s="153"/>
-      <c r="AZ19" s="153"/>
-      <c r="BA19" s="153"/>
-      <c r="BB19" s="153"/>
-      <c r="BC19" s="153"/>
-      <c r="BD19" s="153"/>
-      <c r="BE19" s="153"/>
-      <c r="BF19" s="153"/>
-      <c r="BG19" s="153"/>
-      <c r="BH19" s="153"/>
-      <c r="BI19" s="153"/>
-      <c r="BJ19" s="153"/>
-      <c r="BK19" s="153"/>
-      <c r="BL19" s="154"/>
-      <c r="BM19" s="154"/>
-      <c r="BN19" s="154"/>
-      <c r="BO19" s="154"/>
-      <c r="BP19" s="154"/>
-      <c r="BQ19" s="154"/>
-      <c r="BR19" s="154"/>
-      <c r="BS19" s="154"/>
-      <c r="BT19" s="154"/>
-      <c r="BU19" s="154"/>
-      <c r="BV19" s="154"/>
-      <c r="BW19" s="154"/>
-      <c r="BX19" s="154"/>
-      <c r="BY19" s="154"/>
-      <c r="BZ19" s="154"/>
-      <c r="CA19" s="153"/>
-      <c r="CB19" s="153"/>
-      <c r="CC19" s="153"/>
-      <c r="CD19" s="153"/>
-      <c r="CE19" s="153"/>
-      <c r="CF19" s="153"/>
-      <c r="CG19" s="153"/>
-      <c r="CH19" s="153"/>
-      <c r="CI19" s="153"/>
-      <c r="CJ19" s="153"/>
-      <c r="CK19" s="153"/>
-      <c r="CL19" s="153"/>
-      <c r="CM19" s="153"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="92"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="92"/>
+      <c r="BH19" s="92"/>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="92"/>
+      <c r="BK19" s="92"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="93"/>
+      <c r="BQ19" s="93"/>
+      <c r="BR19" s="93"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="93"/>
+      <c r="BV19" s="93"/>
+      <c r="BW19" s="93"/>
+      <c r="BX19" s="93"/>
+      <c r="BY19" s="93"/>
+      <c r="BZ19" s="93"/>
+      <c r="CA19" s="92"/>
+      <c r="CB19" s="92"/>
+      <c r="CC19" s="92"/>
+      <c r="CD19" s="92"/>
+      <c r="CE19" s="92"/>
+      <c r="CF19" s="92"/>
+      <c r="CG19" s="92"/>
+      <c r="CH19" s="92"/>
+      <c r="CI19" s="92"/>
+      <c r="CJ19" s="92"/>
+      <c r="CK19" s="92"/>
+      <c r="CL19" s="92"/>
+      <c r="CM19" s="92"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="162"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="155" t="s">
+      <c r="A20" s="110"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="97" t="s">
         <v>341</v>
       </c>
-      <c r="E20" s="157">
+      <c r="E20" s="96">
         <v>45460</v>
       </c>
-      <c r="F20" s="157">
+      <c r="F20" s="96">
         <v>45460</v>
       </c>
-      <c r="G20" s="158" t="s">
+      <c r="G20" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="154"/>
-      <c r="AK20" s="154"/>
-      <c r="AL20" s="154"/>
-      <c r="AM20" s="154"/>
-      <c r="AN20" s="154"/>
-      <c r="AO20" s="154"/>
-      <c r="AP20" s="154"/>
-      <c r="AQ20" s="154"/>
-      <c r="AR20" s="154"/>
-      <c r="AS20" s="154"/>
-      <c r="AT20" s="154"/>
-      <c r="AU20" s="154"/>
-      <c r="AV20" s="154"/>
-      <c r="AW20" s="154"/>
-      <c r="AX20" s="154"/>
-      <c r="AY20" s="153"/>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="153"/>
-      <c r="BB20" s="153"/>
-      <c r="BC20" s="153"/>
-      <c r="BD20" s="153"/>
-      <c r="BE20" s="153"/>
-      <c r="BF20" s="153"/>
-      <c r="BG20" s="153"/>
-      <c r="BH20" s="153"/>
-      <c r="BI20" s="153"/>
-      <c r="BJ20" s="153"/>
-      <c r="BK20" s="153"/>
-      <c r="BL20" s="154"/>
-      <c r="BM20" s="154"/>
-      <c r="BN20" s="154"/>
-      <c r="BO20" s="154"/>
-      <c r="BP20" s="154"/>
-      <c r="BQ20" s="154"/>
-      <c r="BR20" s="154"/>
-      <c r="BS20" s="154"/>
-      <c r="BT20" s="154"/>
-      <c r="BU20" s="154"/>
-      <c r="BV20" s="154"/>
-      <c r="BW20" s="154"/>
-      <c r="BX20" s="154"/>
-      <c r="BY20" s="154"/>
-      <c r="BZ20" s="154"/>
-      <c r="CA20" s="153"/>
-      <c r="CB20" s="153"/>
-      <c r="CC20" s="153"/>
-      <c r="CD20" s="153"/>
-      <c r="CE20" s="153"/>
-      <c r="CF20" s="153"/>
-      <c r="CG20" s="153"/>
-      <c r="CH20" s="153"/>
-      <c r="CI20" s="153"/>
-      <c r="CJ20" s="153"/>
-      <c r="CK20" s="153"/>
-      <c r="CL20" s="153"/>
-      <c r="CM20" s="153"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="93"/>
+      <c r="BN20" s="93"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="93"/>
+      <c r="BQ20" s="93"/>
+      <c r="BR20" s="93"/>
+      <c r="BS20" s="93"/>
+      <c r="BT20" s="93"/>
+      <c r="BU20" s="93"/>
+      <c r="BV20" s="93"/>
+      <c r="BW20" s="93"/>
+      <c r="BX20" s="93"/>
+      <c r="BY20" s="93"/>
+      <c r="BZ20" s="93"/>
+      <c r="CA20" s="92"/>
+      <c r="CB20" s="92"/>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="92"/>
+      <c r="CE20" s="92"/>
+      <c r="CF20" s="92"/>
+      <c r="CG20" s="92"/>
+      <c r="CH20" s="92"/>
+      <c r="CI20" s="92"/>
+      <c r="CJ20" s="92"/>
+      <c r="CK20" s="92"/>
+      <c r="CL20" s="92"/>
+      <c r="CM20" s="92"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="162"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="158" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="97" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="157">
+      <c r="E21" s="96">
         <v>45460</v>
       </c>
-      <c r="F21" s="157">
+      <c r="F21" s="96">
         <v>45467</v>
       </c>
-      <c r="G21" s="158" t="s">
+      <c r="G21" s="97" t="s">
         <v>337</v>
       </c>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="159"/>
-      <c r="AJ21" s="156"/>
-      <c r="AK21" s="156"/>
-      <c r="AL21" s="156"/>
-      <c r="AM21" s="156"/>
-      <c r="AN21" s="154"/>
-      <c r="AO21" s="154"/>
-      <c r="AP21" s="154"/>
-      <c r="AQ21" s="154"/>
-      <c r="AR21" s="154"/>
-      <c r="AS21" s="154"/>
-      <c r="AT21" s="154"/>
-      <c r="AU21" s="154"/>
-      <c r="AV21" s="154"/>
-      <c r="AW21" s="154"/>
-      <c r="AX21" s="154"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
-      <c r="BB21" s="153"/>
-      <c r="BC21" s="153"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
-      <c r="BI21" s="153"/>
-      <c r="BJ21" s="153"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="154"/>
-      <c r="BM21" s="154"/>
-      <c r="BN21" s="154"/>
-      <c r="BO21" s="154"/>
-      <c r="BP21" s="154"/>
-      <c r="BQ21" s="154"/>
-      <c r="BR21" s="154"/>
-      <c r="BS21" s="154"/>
-      <c r="BT21" s="154"/>
-      <c r="BU21" s="154"/>
-      <c r="BV21" s="154"/>
-      <c r="BW21" s="154"/>
-      <c r="BX21" s="154"/>
-      <c r="BY21" s="154"/>
-      <c r="BZ21" s="154"/>
-      <c r="CA21" s="153"/>
-      <c r="CB21" s="153"/>
-      <c r="CC21" s="153"/>
-      <c r="CD21" s="153"/>
-      <c r="CE21" s="153"/>
-      <c r="CF21" s="153"/>
-      <c r="CG21" s="153"/>
-      <c r="CH21" s="153"/>
-      <c r="CI21" s="153"/>
-      <c r="CJ21" s="153"/>
-      <c r="CK21" s="153"/>
-      <c r="CL21" s="153"/>
-      <c r="CM21" s="153"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="93"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="93"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="93"/>
+      <c r="AY21" s="92"/>
+      <c r="AZ21" s="92"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="92"/>
+      <c r="BD21" s="92"/>
+      <c r="BE21" s="92"/>
+      <c r="BF21" s="92"/>
+      <c r="BG21" s="92"/>
+      <c r="BH21" s="92"/>
+      <c r="BI21" s="92"/>
+      <c r="BJ21" s="92"/>
+      <c r="BK21" s="92"/>
+      <c r="BL21" s="93"/>
+      <c r="BM21" s="93"/>
+      <c r="BN21" s="93"/>
+      <c r="BO21" s="93"/>
+      <c r="BP21" s="93"/>
+      <c r="BQ21" s="93"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="93"/>
+      <c r="BW21" s="93"/>
+      <c r="BX21" s="93"/>
+      <c r="BY21" s="93"/>
+      <c r="BZ21" s="93"/>
+      <c r="CA21" s="92"/>
+      <c r="CB21" s="92"/>
+      <c r="CC21" s="92"/>
+      <c r="CD21" s="92"/>
+      <c r="CE21" s="92"/>
+      <c r="CF21" s="92"/>
+      <c r="CG21" s="92"/>
+      <c r="CH21" s="92"/>
+      <c r="CI21" s="92"/>
+      <c r="CJ21" s="92"/>
+      <c r="CK21" s="92"/>
+      <c r="CL21" s="92"/>
+      <c r="CM21" s="92"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="160"/>
-      <c r="B22" s="158" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="157">
+      <c r="E22" s="96">
         <v>45460</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="159"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="153"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="154"/>
-      <c r="AK22" s="154"/>
-      <c r="AL22" s="154"/>
-      <c r="AM22" s="154"/>
-      <c r="AN22" s="154"/>
-      <c r="AO22" s="154"/>
-      <c r="AP22" s="154"/>
-      <c r="AQ22" s="154"/>
-      <c r="AR22" s="154"/>
-      <c r="AS22" s="154"/>
-      <c r="AT22" s="154"/>
-      <c r="AU22" s="154"/>
-      <c r="AV22" s="154"/>
-      <c r="AW22" s="154"/>
-      <c r="AX22" s="154"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
-      <c r="BB22" s="153"/>
-      <c r="BC22" s="153"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
-      <c r="BI22" s="153"/>
-      <c r="BJ22" s="153"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="154"/>
-      <c r="BM22" s="154"/>
-      <c r="BN22" s="154"/>
-      <c r="BO22" s="154"/>
-      <c r="BP22" s="154"/>
-      <c r="BQ22" s="154"/>
-      <c r="BR22" s="154"/>
-      <c r="BS22" s="154"/>
-      <c r="BT22" s="154"/>
-      <c r="BU22" s="154"/>
-      <c r="BV22" s="154"/>
-      <c r="BW22" s="154"/>
-      <c r="BX22" s="154"/>
-      <c r="BY22" s="154"/>
-      <c r="BZ22" s="154"/>
-      <c r="CA22" s="153"/>
-      <c r="CB22" s="153"/>
-      <c r="CC22" s="153"/>
-      <c r="CD22" s="153"/>
-      <c r="CE22" s="153"/>
-      <c r="CF22" s="153"/>
-      <c r="CG22" s="153"/>
-      <c r="CH22" s="153"/>
-      <c r="CI22" s="153"/>
-      <c r="CJ22" s="153"/>
-      <c r="CK22" s="153"/>
-      <c r="CL22" s="153"/>
-      <c r="CM22" s="153"/>
+      <c r="F22" s="187">
+        <v>45469</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
+      <c r="AW22" s="93"/>
+      <c r="AX22" s="93"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="92"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="92"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="92"/>
+      <c r="BG22" s="92"/>
+      <c r="BH22" s="92"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="92"/>
+      <c r="BK22" s="92"/>
+      <c r="BL22" s="93"/>
+      <c r="BM22" s="93"/>
+      <c r="BN22" s="93"/>
+      <c r="BO22" s="93"/>
+      <c r="BP22" s="93"/>
+      <c r="BQ22" s="93"/>
+      <c r="BR22" s="93"/>
+      <c r="BS22" s="93"/>
+      <c r="BT22" s="93"/>
+      <c r="BU22" s="93"/>
+      <c r="BV22" s="93"/>
+      <c r="BW22" s="93"/>
+      <c r="BX22" s="93"/>
+      <c r="BY22" s="93"/>
+      <c r="BZ22" s="93"/>
+      <c r="CA22" s="92"/>
+      <c r="CB22" s="92"/>
+      <c r="CC22" s="92"/>
+      <c r="CD22" s="92"/>
+      <c r="CE22" s="92"/>
+      <c r="CF22" s="92"/>
+      <c r="CG22" s="92"/>
+      <c r="CH22" s="92"/>
+      <c r="CI22" s="92"/>
+      <c r="CJ22" s="92"/>
+      <c r="CK22" s="92"/>
+      <c r="CL22" s="92"/>
+      <c r="CM22" s="92"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="153"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="154"/>
-      <c r="AK23" s="154"/>
-      <c r="AL23" s="154"/>
-      <c r="AM23" s="154"/>
-      <c r="AN23" s="154"/>
-      <c r="AO23" s="154"/>
-      <c r="AP23" s="154"/>
-      <c r="AQ23" s="154"/>
-      <c r="AR23" s="154"/>
-      <c r="AS23" s="154"/>
-      <c r="AT23" s="154"/>
-      <c r="AU23" s="154"/>
-      <c r="AV23" s="154"/>
-      <c r="AW23" s="154"/>
-      <c r="AX23" s="154"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
-      <c r="BB23" s="153"/>
-      <c r="BC23" s="153"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
-      <c r="BI23" s="153"/>
-      <c r="BJ23" s="153"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="154"/>
-      <c r="BM23" s="154"/>
-      <c r="BN23" s="154"/>
-      <c r="BO23" s="154"/>
-      <c r="BP23" s="154"/>
-      <c r="BQ23" s="154"/>
-      <c r="BR23" s="154"/>
-      <c r="BS23" s="154"/>
-      <c r="BT23" s="154"/>
-      <c r="BU23" s="154"/>
-      <c r="BV23" s="154"/>
-      <c r="BW23" s="154"/>
-      <c r="BX23" s="154"/>
-      <c r="BY23" s="154"/>
-      <c r="BZ23" s="154"/>
-      <c r="CA23" s="153"/>
-      <c r="CB23" s="153"/>
-      <c r="CC23" s="153"/>
-      <c r="CD23" s="153"/>
-      <c r="CE23" s="153"/>
-      <c r="CF23" s="153"/>
-      <c r="CG23" s="153"/>
-      <c r="CH23" s="153"/>
-      <c r="CI23" s="153"/>
-      <c r="CJ23" s="153"/>
-      <c r="CK23" s="153"/>
-      <c r="CL23" s="153"/>
-      <c r="CM23" s="153"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="93"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="93"/>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="93"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="92"/>
+      <c r="AZ23" s="92"/>
+      <c r="BA23" s="92"/>
+      <c r="BB23" s="92"/>
+      <c r="BC23" s="92"/>
+      <c r="BD23" s="92"/>
+      <c r="BE23" s="92"/>
+      <c r="BF23" s="92"/>
+      <c r="BG23" s="92"/>
+      <c r="BH23" s="92"/>
+      <c r="BI23" s="92"/>
+      <c r="BJ23" s="92"/>
+      <c r="BK23" s="92"/>
+      <c r="BL23" s="93"/>
+      <c r="BM23" s="93"/>
+      <c r="BN23" s="93"/>
+      <c r="BO23" s="93"/>
+      <c r="BP23" s="93"/>
+      <c r="BQ23" s="93"/>
+      <c r="BR23" s="93"/>
+      <c r="BS23" s="93"/>
+      <c r="BT23" s="93"/>
+      <c r="BU23" s="93"/>
+      <c r="BV23" s="93"/>
+      <c r="BW23" s="93"/>
+      <c r="BX23" s="93"/>
+      <c r="BY23" s="93"/>
+      <c r="BZ23" s="93"/>
+      <c r="CA23" s="92"/>
+      <c r="CB23" s="92"/>
+      <c r="CC23" s="92"/>
+      <c r="CD23" s="92"/>
+      <c r="CE23" s="92"/>
+      <c r="CF23" s="92"/>
+      <c r="CG23" s="92"/>
+      <c r="CH23" s="92"/>
+      <c r="CI23" s="92"/>
+      <c r="CJ23" s="92"/>
+      <c r="CK23" s="92"/>
+      <c r="CL23" s="92"/>
+      <c r="CM23" s="92"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="154"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="154"/>
-      <c r="AK24" s="154"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="154"/>
-      <c r="AV24" s="154"/>
-      <c r="AW24" s="154"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="153"/>
-      <c r="AZ24" s="153"/>
-      <c r="BA24" s="153"/>
-      <c r="BB24" s="153"/>
-      <c r="BC24" s="153"/>
-      <c r="BD24" s="153"/>
-      <c r="BE24" s="153"/>
-      <c r="BF24" s="153"/>
-      <c r="BG24" s="153"/>
-      <c r="BH24" s="153"/>
-      <c r="BI24" s="153"/>
-      <c r="BJ24" s="153"/>
-      <c r="BK24" s="153"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="154"/>
-      <c r="BO24" s="154"/>
-      <c r="BP24" s="154"/>
-      <c r="BQ24" s="154"/>
-      <c r="BR24" s="154"/>
-      <c r="BS24" s="154"/>
-      <c r="BT24" s="154"/>
-      <c r="BU24" s="154"/>
-      <c r="BV24" s="154"/>
-      <c r="BW24" s="154"/>
-      <c r="BX24" s="154"/>
-      <c r="BY24" s="154"/>
-      <c r="BZ24" s="154"/>
-      <c r="CA24" s="153"/>
-      <c r="CB24" s="153"/>
-      <c r="CC24" s="153"/>
-      <c r="CD24" s="153"/>
-      <c r="CE24" s="153"/>
-      <c r="CF24" s="153"/>
-      <c r="CG24" s="153"/>
-      <c r="CH24" s="153"/>
-      <c r="CI24" s="153"/>
-      <c r="CJ24" s="153"/>
-      <c r="CK24" s="153"/>
-      <c r="CL24" s="153"/>
-      <c r="CM24" s="153"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="93"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="93"/>
+      <c r="BM24" s="93"/>
+      <c r="BN24" s="93"/>
+      <c r="BO24" s="93"/>
+      <c r="BP24" s="93"/>
+      <c r="BQ24" s="93"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="93"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="93"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="92"/>
+      <c r="CB24" s="92"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="92"/>
+      <c r="CE24" s="92"/>
+      <c r="CF24" s="92"/>
+      <c r="CG24" s="92"/>
+      <c r="CH24" s="92"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="92"/>
+      <c r="CK24" s="92"/>
+      <c r="CL24" s="92"/>
+      <c r="CM24" s="92"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="154" t="s">
+      <c r="A25" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="C25" s="158" t="s">
+      <c r="C25" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="E25" s="157">
+      <c r="E25" s="96">
         <v>45470</v>
       </c>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="154"/>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="154"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="156"/>
-      <c r="AQ25" s="156"/>
-      <c r="AR25" s="154"/>
-      <c r="AS25" s="154"/>
-      <c r="AT25" s="154"/>
-      <c r="AU25" s="154"/>
-      <c r="AV25" s="154"/>
-      <c r="AW25" s="154"/>
-      <c r="AX25" s="154"/>
-      <c r="AY25" s="153"/>
-      <c r="AZ25" s="153"/>
-      <c r="BA25" s="153"/>
-      <c r="BB25" s="153"/>
-      <c r="BC25" s="153"/>
-      <c r="BD25" s="153"/>
-      <c r="BE25" s="153"/>
-      <c r="BF25" s="153"/>
-      <c r="BG25" s="153"/>
-      <c r="BH25" s="153"/>
-      <c r="BI25" s="153"/>
-      <c r="BJ25" s="153"/>
-      <c r="BK25" s="153"/>
-      <c r="BL25" s="154"/>
-      <c r="BM25" s="154"/>
-      <c r="BN25" s="154"/>
-      <c r="BO25" s="154"/>
-      <c r="BP25" s="154"/>
-      <c r="BQ25" s="154"/>
-      <c r="BR25" s="154"/>
-      <c r="BS25" s="154"/>
-      <c r="BT25" s="154"/>
-      <c r="BU25" s="154"/>
-      <c r="BV25" s="154"/>
-      <c r="BW25" s="154"/>
-      <c r="BX25" s="154"/>
-      <c r="BY25" s="154"/>
-      <c r="BZ25" s="154"/>
-      <c r="CA25" s="153"/>
-      <c r="CB25" s="153"/>
-      <c r="CC25" s="153"/>
-      <c r="CD25" s="153"/>
-      <c r="CE25" s="153"/>
-      <c r="CF25" s="153"/>
-      <c r="CG25" s="153"/>
-      <c r="CH25" s="153"/>
-      <c r="CI25" s="153"/>
-      <c r="CJ25" s="153"/>
-      <c r="CK25" s="153"/>
-      <c r="CL25" s="153"/>
-      <c r="CM25" s="153"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="93"/>
+      <c r="AW25" s="93"/>
+      <c r="AX25" s="93"/>
+      <c r="AY25" s="92"/>
+      <c r="AZ25" s="92"/>
+      <c r="BA25" s="92"/>
+      <c r="BB25" s="92"/>
+      <c r="BC25" s="92"/>
+      <c r="BD25" s="92"/>
+      <c r="BE25" s="92"/>
+      <c r="BF25" s="92"/>
+      <c r="BG25" s="92"/>
+      <c r="BH25" s="92"/>
+      <c r="BI25" s="92"/>
+      <c r="BJ25" s="92"/>
+      <c r="BK25" s="92"/>
+      <c r="BL25" s="93"/>
+      <c r="BM25" s="93"/>
+      <c r="BN25" s="93"/>
+      <c r="BO25" s="93"/>
+      <c r="BP25" s="93"/>
+      <c r="BQ25" s="93"/>
+      <c r="BR25" s="93"/>
+      <c r="BS25" s="93"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="93"/>
+      <c r="BV25" s="93"/>
+      <c r="BW25" s="93"/>
+      <c r="BX25" s="93"/>
+      <c r="BY25" s="93"/>
+      <c r="BZ25" s="93"/>
+      <c r="CA25" s="92"/>
+      <c r="CB25" s="92"/>
+      <c r="CC25" s="92"/>
+      <c r="CD25" s="92"/>
+      <c r="CE25" s="92"/>
+      <c r="CF25" s="92"/>
+      <c r="CG25" s="92"/>
+      <c r="CH25" s="92"/>
+      <c r="CI25" s="92"/>
+      <c r="CJ25" s="92"/>
+      <c r="CK25" s="92"/>
+      <c r="CL25" s="92"/>
+      <c r="CM25" s="92"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="154"/>
-      <c r="B26" s="155" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="97" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="96">
+        <v>45475</v>
+      </c>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="93"/>
+      <c r="AM26" s="93"/>
+      <c r="AN26" s="93"/>
+      <c r="AO26" s="93"/>
+      <c r="AP26" s="188"/>
+      <c r="AQ26" s="188"/>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="93"/>
+      <c r="AT26" s="93"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="93"/>
+      <c r="AW26" s="93"/>
+      <c r="AX26" s="93"/>
+      <c r="AY26" s="92"/>
+      <c r="AZ26" s="92"/>
+      <c r="BA26" s="92"/>
+      <c r="BB26" s="92"/>
+      <c r="BC26" s="92"/>
+      <c r="BD26" s="92"/>
+      <c r="BE26" s="92"/>
+      <c r="BF26" s="92"/>
+      <c r="BG26" s="92"/>
+      <c r="BH26" s="92"/>
+      <c r="BI26" s="92"/>
+      <c r="BJ26" s="92"/>
+      <c r="BK26" s="92"/>
+      <c r="BL26" s="93"/>
+      <c r="BM26" s="93"/>
+      <c r="BN26" s="93"/>
+      <c r="BO26" s="93"/>
+      <c r="BP26" s="93"/>
+      <c r="BQ26" s="93"/>
+      <c r="BR26" s="93"/>
+      <c r="BS26" s="93"/>
+      <c r="BT26" s="93"/>
+      <c r="BU26" s="93"/>
+      <c r="BV26" s="93"/>
+      <c r="BW26" s="93"/>
+      <c r="BX26" s="93"/>
+      <c r="BY26" s="93"/>
+      <c r="BZ26" s="93"/>
+      <c r="CA26" s="92"/>
+      <c r="CB26" s="92"/>
+      <c r="CC26" s="92"/>
+      <c r="CD26" s="92"/>
+      <c r="CE26" s="92"/>
+      <c r="CF26" s="92"/>
+      <c r="CG26" s="92"/>
+      <c r="CH26" s="92"/>
+      <c r="CI26" s="92"/>
+      <c r="CJ26" s="92"/>
+      <c r="CK26" s="92"/>
+      <c r="CL26" s="92"/>
+      <c r="CM26" s="92"/>
+    </row>
+    <row r="27" spans="1:91">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="93"/>
+      <c r="AN27" s="93"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="188"/>
+      <c r="AQ27" s="188"/>
+      <c r="AR27" s="93"/>
+      <c r="AS27" s="93"/>
+      <c r="AT27" s="93"/>
+      <c r="AU27" s="93"/>
+      <c r="AV27" s="93"/>
+      <c r="AW27" s="93"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="92"/>
+      <c r="AZ27" s="92"/>
+      <c r="BA27" s="92"/>
+      <c r="BB27" s="92"/>
+      <c r="BC27" s="92"/>
+      <c r="BD27" s="92"/>
+      <c r="BE27" s="92"/>
+      <c r="BF27" s="92"/>
+      <c r="BG27" s="92"/>
+      <c r="BH27" s="92"/>
+      <c r="BI27" s="92"/>
+      <c r="BJ27" s="92"/>
+      <c r="BK27" s="92"/>
+      <c r="BL27" s="93"/>
+      <c r="BM27" s="93"/>
+      <c r="BN27" s="93"/>
+      <c r="BO27" s="93"/>
+      <c r="BP27" s="93"/>
+      <c r="BQ27" s="93"/>
+      <c r="BR27" s="93"/>
+      <c r="BS27" s="93"/>
+      <c r="BT27" s="93"/>
+      <c r="BU27" s="93"/>
+      <c r="BV27" s="93"/>
+      <c r="BW27" s="93"/>
+      <c r="BX27" s="93"/>
+      <c r="BY27" s="93"/>
+      <c r="BZ27" s="93"/>
+      <c r="CA27" s="92"/>
+      <c r="CB27" s="92"/>
+      <c r="CC27" s="92"/>
+      <c r="CD27" s="92"/>
+      <c r="CE27" s="92"/>
+      <c r="CF27" s="92"/>
+      <c r="CG27" s="92"/>
+      <c r="CH27" s="92"/>
+      <c r="CI27" s="92"/>
+      <c r="CJ27" s="92"/>
+      <c r="CK27" s="92"/>
+      <c r="CL27" s="92"/>
+      <c r="CM27" s="92"/>
+    </row>
+    <row r="28" spans="1:91">
+      <c r="A28" s="93"/>
+      <c r="B28" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="153"/>
-      <c r="AJ26" s="154"/>
-      <c r="AK26" s="154"/>
-      <c r="AL26" s="154"/>
-      <c r="AM26" s="154"/>
-      <c r="AN26" s="154"/>
-      <c r="AO26" s="154"/>
-      <c r="AP26" s="154"/>
-      <c r="AQ26" s="154"/>
-      <c r="AR26" s="154"/>
-      <c r="AS26" s="154"/>
-      <c r="AT26" s="154"/>
-      <c r="AU26" s="154"/>
-      <c r="AV26" s="154"/>
-      <c r="AW26" s="154"/>
-      <c r="AX26" s="154"/>
-      <c r="AY26" s="153"/>
-      <c r="AZ26" s="153"/>
-      <c r="BA26" s="153"/>
-      <c r="BB26" s="153"/>
-      <c r="BC26" s="153"/>
-      <c r="BD26" s="153"/>
-      <c r="BE26" s="153"/>
-      <c r="BF26" s="153"/>
-      <c r="BG26" s="153"/>
-      <c r="BH26" s="153"/>
-      <c r="BI26" s="153"/>
-      <c r="BJ26" s="153"/>
-      <c r="BK26" s="153"/>
-      <c r="BL26" s="154"/>
-      <c r="BM26" s="154"/>
-      <c r="BN26" s="154"/>
-      <c r="BO26" s="154"/>
-      <c r="BP26" s="154"/>
-      <c r="BQ26" s="154"/>
-      <c r="BR26" s="154"/>
-      <c r="BS26" s="154"/>
-      <c r="BT26" s="154"/>
-      <c r="BU26" s="154"/>
-      <c r="BV26" s="154"/>
-      <c r="BW26" s="154"/>
-      <c r="BX26" s="154"/>
-      <c r="BY26" s="154"/>
-      <c r="BZ26" s="154"/>
-      <c r="CA26" s="153"/>
-      <c r="CB26" s="153"/>
-      <c r="CC26" s="153"/>
-      <c r="CD26" s="153"/>
-      <c r="CE26" s="153"/>
-      <c r="CF26" s="153"/>
-      <c r="CG26" s="153"/>
-      <c r="CH26" s="153"/>
-      <c r="CI26" s="153"/>
-      <c r="CJ26" s="153"/>
-      <c r="CK26" s="153"/>
-      <c r="CL26" s="153"/>
-      <c r="CM26" s="153"/>
-    </row>
-    <row r="27" spans="1:91">
-      <c r="A27" s="154" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="93"/>
+      <c r="AL28" s="93"/>
+      <c r="AM28" s="93"/>
+      <c r="AN28" s="93"/>
+      <c r="AO28" s="93"/>
+      <c r="AP28" s="93"/>
+      <c r="AQ28" s="93"/>
+      <c r="AR28" s="93"/>
+      <c r="AS28" s="93"/>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="93"/>
+      <c r="AV28" s="93"/>
+      <c r="AW28" s="93"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="92"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="93"/>
+      <c r="BW28" s="93"/>
+      <c r="BX28" s="93"/>
+      <c r="BY28" s="93"/>
+      <c r="BZ28" s="93"/>
+      <c r="CA28" s="92"/>
+      <c r="CB28" s="92"/>
+      <c r="CC28" s="92"/>
+      <c r="CD28" s="92"/>
+      <c r="CE28" s="92"/>
+      <c r="CF28" s="92"/>
+      <c r="CG28" s="92"/>
+      <c r="CH28" s="92"/>
+      <c r="CI28" s="92"/>
+      <c r="CJ28" s="92"/>
+      <c r="CK28" s="92"/>
+      <c r="CL28" s="92"/>
+      <c r="CM28" s="92"/>
+    </row>
+    <row r="29" spans="1:91">
+      <c r="A29" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="154"/>
-      <c r="AK27" s="154"/>
-      <c r="AL27" s="154"/>
-      <c r="AM27" s="154"/>
-      <c r="AN27" s="154"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
-      <c r="AQ27" s="154"/>
-      <c r="AR27" s="154"/>
-      <c r="AS27" s="154"/>
-      <c r="AT27" s="154"/>
-      <c r="AU27" s="154"/>
-      <c r="AV27" s="154"/>
-      <c r="AW27" s="154"/>
-      <c r="AX27" s="154"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
-      <c r="BB27" s="153"/>
-      <c r="BC27" s="153"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
-      <c r="BI27" s="153"/>
-      <c r="BJ27" s="153"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="154"/>
-      <c r="BM27" s="154"/>
-      <c r="BN27" s="154"/>
-      <c r="BO27" s="154"/>
-      <c r="BP27" s="154"/>
-      <c r="BQ27" s="154"/>
-      <c r="BR27" s="154"/>
-      <c r="BS27" s="154"/>
-      <c r="BT27" s="154"/>
-      <c r="BU27" s="154"/>
-      <c r="BV27" s="154"/>
-      <c r="BW27" s="154"/>
-      <c r="BX27" s="154"/>
-      <c r="BY27" s="154"/>
-      <c r="BZ27" s="154"/>
-      <c r="CA27" s="153"/>
-      <c r="CB27" s="153"/>
-      <c r="CC27" s="153"/>
-      <c r="CD27" s="153"/>
-      <c r="CE27" s="153"/>
-      <c r="CF27" s="153"/>
-      <c r="CG27" s="153"/>
-      <c r="CH27" s="153"/>
-      <c r="CI27" s="153"/>
-      <c r="CJ27" s="153"/>
-      <c r="CK27" s="153"/>
-      <c r="CL27" s="153"/>
-      <c r="CM27" s="153"/>
-    </row>
-    <row r="28" spans="1:91">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="153"/>
-      <c r="AZ28" s="153"/>
-      <c r="BA28" s="153"/>
-      <c r="BB28" s="153"/>
-      <c r="BC28" s="153"/>
-      <c r="BD28" s="153"/>
-      <c r="BE28" s="153"/>
-      <c r="BF28" s="153"/>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="153"/>
-      <c r="BI28" s="153"/>
-      <c r="BJ28" s="153"/>
-      <c r="BK28" s="153"/>
-      <c r="BL28" s="154"/>
-      <c r="BM28" s="154"/>
-      <c r="BN28" s="154"/>
-      <c r="BO28" s="154"/>
-      <c r="BP28" s="154"/>
-      <c r="BQ28" s="154"/>
-      <c r="BR28" s="154"/>
-      <c r="BS28" s="154"/>
-      <c r="BT28" s="154"/>
-      <c r="BU28" s="154"/>
-      <c r="BV28" s="154"/>
-      <c r="BW28" s="154"/>
-      <c r="BX28" s="154"/>
-      <c r="BY28" s="154"/>
-      <c r="BZ28" s="154"/>
-      <c r="CA28" s="153"/>
-      <c r="CB28" s="153"/>
-      <c r="CC28" s="153"/>
-      <c r="CD28" s="153"/>
-      <c r="CE28" s="153"/>
-      <c r="CF28" s="153"/>
-      <c r="CG28" s="153"/>
-      <c r="CH28" s="153"/>
-      <c r="CI28" s="153"/>
-      <c r="CJ28" s="153"/>
-      <c r="CK28" s="153"/>
-      <c r="CL28" s="153"/>
-      <c r="CM28" s="153"/>
-    </row>
-    <row r="29" spans="1:91">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="150"/>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="150"/>
-      <c r="Z29" s="150"/>
-      <c r="AA29" s="150"/>
-      <c r="AB29" s="150"/>
-      <c r="AC29" s="150"/>
-      <c r="AD29" s="150"/>
-      <c r="AE29" s="150"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="150"/>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="150"/>
-      <c r="AJ29" s="150"/>
-      <c r="AK29" s="150"/>
-      <c r="AL29" s="150"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="150"/>
-      <c r="AO29" s="150"/>
-      <c r="AP29" s="150"/>
-      <c r="AQ29" s="150"/>
-      <c r="AR29" s="150"/>
-      <c r="AS29" s="150"/>
-      <c r="AT29" s="150"/>
-      <c r="AU29" s="150"/>
-      <c r="AV29" s="150"/>
-      <c r="AW29" s="150"/>
-      <c r="AX29" s="150"/>
-      <c r="AY29" s="150"/>
-      <c r="AZ29" s="150"/>
-      <c r="BA29" s="150"/>
-      <c r="BB29" s="150"/>
-      <c r="BC29" s="150"/>
-      <c r="BD29" s="150"/>
-      <c r="BE29" s="150"/>
-      <c r="BF29" s="150"/>
-      <c r="BG29" s="150"/>
-      <c r="BH29" s="150"/>
-      <c r="BI29" s="150"/>
-      <c r="BJ29" s="150"/>
-      <c r="BK29" s="150"/>
-      <c r="BL29" s="150"/>
-      <c r="BM29" s="150"/>
-      <c r="BN29" s="150"/>
-      <c r="BO29" s="150"/>
-      <c r="BP29" s="149"/>
-      <c r="BQ29" s="149"/>
-      <c r="BR29" s="149"/>
-      <c r="BS29" s="149"/>
-      <c r="BT29" s="149"/>
-      <c r="BU29" s="149"/>
-      <c r="BV29" s="149"/>
-      <c r="BW29" s="149"/>
-      <c r="BX29" s="149"/>
-      <c r="BY29" s="149"/>
-      <c r="BZ29" s="149"/>
-      <c r="CA29" s="149"/>
-      <c r="CB29" s="149"/>
-      <c r="CC29" s="149"/>
-      <c r="CD29" s="149"/>
-      <c r="CE29" s="149"/>
-      <c r="CF29" s="149"/>
-      <c r="CG29" s="149"/>
-      <c r="CH29" s="149"/>
-      <c r="CI29" s="149"/>
-      <c r="CJ29" s="149"/>
-      <c r="CK29" s="149"/>
-      <c r="CL29" s="149"/>
-      <c r="CM29" s="149"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="93"/>
+      <c r="AN29" s="93"/>
+      <c r="AO29" s="93"/>
+      <c r="AP29" s="93"/>
+      <c r="AQ29" s="93"/>
+      <c r="AR29" s="93"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="93"/>
+      <c r="AU29" s="93"/>
+      <c r="AV29" s="93"/>
+      <c r="AW29" s="93"/>
+      <c r="AX29" s="93"/>
+      <c r="AY29" s="92"/>
+      <c r="AZ29" s="92"/>
+      <c r="BA29" s="92"/>
+      <c r="BB29" s="92"/>
+      <c r="BC29" s="92"/>
+      <c r="BD29" s="92"/>
+      <c r="BE29" s="92"/>
+      <c r="BF29" s="92"/>
+      <c r="BG29" s="92"/>
+      <c r="BH29" s="92"/>
+      <c r="BI29" s="92"/>
+      <c r="BJ29" s="92"/>
+      <c r="BK29" s="92"/>
+      <c r="BL29" s="93"/>
+      <c r="BM29" s="93"/>
+      <c r="BN29" s="93"/>
+      <c r="BO29" s="93"/>
+      <c r="BP29" s="93"/>
+      <c r="BQ29" s="93"/>
+      <c r="BR29" s="93"/>
+      <c r="BS29" s="93"/>
+      <c r="BT29" s="93"/>
+      <c r="BU29" s="93"/>
+      <c r="BV29" s="93"/>
+      <c r="BW29" s="93"/>
+      <c r="BX29" s="93"/>
+      <c r="BY29" s="93"/>
+      <c r="BZ29" s="93"/>
+      <c r="CA29" s="92"/>
+      <c r="CB29" s="92"/>
+      <c r="CC29" s="92"/>
+      <c r="CD29" s="92"/>
+      <c r="CE29" s="92"/>
+      <c r="CF29" s="92"/>
+      <c r="CG29" s="92"/>
+      <c r="CH29" s="92"/>
+      <c r="CI29" s="92"/>
+      <c r="CJ29" s="92"/>
+      <c r="CK29" s="92"/>
+      <c r="CL29" s="92"/>
+      <c r="CM29" s="92"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="150"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="150"/>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="150"/>
-      <c r="AO30" s="150"/>
-      <c r="AP30" s="150"/>
-      <c r="AQ30" s="150"/>
-      <c r="AR30" s="150"/>
-      <c r="AS30" s="150"/>
-      <c r="AT30" s="150"/>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="150"/>
-      <c r="AW30" s="150"/>
-      <c r="AX30" s="150"/>
-      <c r="AY30" s="150"/>
-      <c r="AZ30" s="150"/>
-      <c r="BA30" s="150"/>
-      <c r="BB30" s="150"/>
-      <c r="BC30" s="150"/>
-      <c r="BD30" s="150"/>
-      <c r="BE30" s="150"/>
-      <c r="BF30" s="150"/>
-      <c r="BG30" s="150"/>
-      <c r="BH30" s="150"/>
-      <c r="BI30" s="150"/>
-      <c r="BJ30" s="150"/>
-      <c r="BK30" s="150"/>
-      <c r="BL30" s="150"/>
-      <c r="BM30" s="150"/>
-      <c r="BN30" s="150"/>
-      <c r="BO30" s="150"/>
-      <c r="BP30" s="149"/>
-      <c r="BQ30" s="149"/>
-      <c r="BR30" s="149"/>
-      <c r="BS30" s="149"/>
-      <c r="BT30" s="149"/>
-      <c r="BU30" s="149"/>
-      <c r="BV30" s="149"/>
-      <c r="BW30" s="149"/>
-      <c r="BX30" s="149"/>
-      <c r="BY30" s="149"/>
-      <c r="BZ30" s="149"/>
-      <c r="CA30" s="149"/>
-      <c r="CB30" s="149"/>
-      <c r="CC30" s="149"/>
-      <c r="CD30" s="149"/>
-      <c r="CE30" s="149"/>
-      <c r="CF30" s="149"/>
-      <c r="CG30" s="149"/>
-      <c r="CH30" s="149"/>
-      <c r="CI30" s="149"/>
-      <c r="CJ30" s="149"/>
-      <c r="CK30" s="149"/>
-      <c r="CL30" s="149"/>
-      <c r="CM30" s="149"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="93"/>
+      <c r="AN30" s="93"/>
+      <c r="AO30" s="93"/>
+      <c r="AP30" s="93"/>
+      <c r="AQ30" s="93"/>
+      <c r="AR30" s="93"/>
+      <c r="AS30" s="93"/>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="93"/>
+      <c r="AV30" s="93"/>
+      <c r="AW30" s="93"/>
+      <c r="AX30" s="93"/>
+      <c r="AY30" s="92"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
+      <c r="BC30" s="92"/>
+      <c r="BD30" s="92"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="92"/>
+      <c r="BH30" s="92"/>
+      <c r="BI30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="92"/>
+      <c r="BL30" s="93"/>
+      <c r="BM30" s="93"/>
+      <c r="BN30" s="93"/>
+      <c r="BO30" s="93"/>
+      <c r="BP30" s="93"/>
+      <c r="BQ30" s="93"/>
+      <c r="BR30" s="93"/>
+      <c r="BS30" s="93"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="93"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="93"/>
+      <c r="BX30" s="93"/>
+      <c r="BY30" s="93"/>
+      <c r="BZ30" s="93"/>
+      <c r="CA30" s="92"/>
+      <c r="CB30" s="92"/>
+      <c r="CC30" s="92"/>
+      <c r="CD30" s="92"/>
+      <c r="CE30" s="92"/>
+      <c r="CF30" s="92"/>
+      <c r="CG30" s="92"/>
+      <c r="CH30" s="92"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
+      <c r="CK30" s="92"/>
+      <c r="CL30" s="92"/>
+      <c r="CM30" s="92"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="151"/>
-      <c r="W31" s="150"/>
-      <c r="X31" s="150"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="150"/>
-      <c r="AE31" s="150"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="150"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="150"/>
-      <c r="AJ31" s="150"/>
-      <c r="AK31" s="150"/>
-      <c r="AL31" s="150"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="150"/>
-      <c r="AO31" s="150"/>
-      <c r="AP31" s="150"/>
-      <c r="AQ31" s="150"/>
-      <c r="AR31" s="150"/>
-      <c r="AS31" s="150"/>
-      <c r="AT31" s="150"/>
-      <c r="AU31" s="150"/>
-      <c r="AV31" s="150"/>
-      <c r="AW31" s="150"/>
-      <c r="AX31" s="150"/>
-      <c r="AY31" s="150"/>
-      <c r="AZ31" s="150"/>
-      <c r="BA31" s="150"/>
-      <c r="BB31" s="150"/>
-      <c r="BC31" s="150"/>
-      <c r="BD31" s="150"/>
-      <c r="BE31" s="150"/>
-      <c r="BF31" s="150"/>
-      <c r="BG31" s="150"/>
-      <c r="BH31" s="150"/>
-      <c r="BI31" s="150"/>
-      <c r="BJ31" s="150"/>
-      <c r="BK31" s="150"/>
-      <c r="BL31" s="150"/>
-      <c r="BM31" s="150"/>
-      <c r="BN31" s="150"/>
-      <c r="BO31" s="150"/>
-      <c r="BP31" s="149"/>
-      <c r="BQ31" s="149"/>
-      <c r="BR31" s="149"/>
-      <c r="BS31" s="149"/>
-      <c r="BT31" s="149"/>
-      <c r="BU31" s="149"/>
-      <c r="BV31" s="149"/>
-      <c r="BW31" s="149"/>
-      <c r="BX31" s="149"/>
-      <c r="BY31" s="149"/>
-      <c r="BZ31" s="149"/>
-      <c r="CA31" s="149"/>
-      <c r="CB31" s="149"/>
-      <c r="CC31" s="149"/>
-      <c r="CD31" s="149"/>
-      <c r="CE31" s="149"/>
-      <c r="CF31" s="149"/>
-      <c r="CG31" s="149"/>
-      <c r="CH31" s="149"/>
-      <c r="CI31" s="149"/>
-      <c r="CJ31" s="149"/>
-      <c r="CK31" s="149"/>
-      <c r="CL31" s="149"/>
-      <c r="CM31" s="149"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="89"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="89"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="89"/>
+      <c r="AQ31" s="89"/>
+      <c r="AR31" s="89"/>
+      <c r="AS31" s="89"/>
+      <c r="AT31" s="89"/>
+      <c r="AU31" s="89"/>
+      <c r="AV31" s="89"/>
+      <c r="AW31" s="89"/>
+      <c r="AX31" s="89"/>
+      <c r="AY31" s="89"/>
+      <c r="AZ31" s="89"/>
+      <c r="BA31" s="89"/>
+      <c r="BB31" s="89"/>
+      <c r="BC31" s="89"/>
+      <c r="BD31" s="89"/>
+      <c r="BE31" s="89"/>
+      <c r="BF31" s="89"/>
+      <c r="BG31" s="89"/>
+      <c r="BH31" s="89"/>
+      <c r="BI31" s="89"/>
+      <c r="BJ31" s="89"/>
+      <c r="BK31" s="89"/>
+      <c r="BL31" s="89"/>
+      <c r="BM31" s="89"/>
+      <c r="BN31" s="89"/>
+      <c r="BO31" s="89"/>
+      <c r="BP31" s="88"/>
+      <c r="BQ31" s="88"/>
+      <c r="BR31" s="88"/>
+      <c r="BS31" s="88"/>
+      <c r="BT31" s="88"/>
+      <c r="BU31" s="88"/>
+      <c r="BV31" s="88"/>
+      <c r="BW31" s="88"/>
+      <c r="BX31" s="88"/>
+      <c r="BY31" s="88"/>
+      <c r="BZ31" s="88"/>
+      <c r="CA31" s="88"/>
+      <c r="CB31" s="88"/>
+      <c r="CC31" s="88"/>
+      <c r="CD31" s="88"/>
+      <c r="CE31" s="88"/>
+      <c r="CF31" s="88"/>
+      <c r="CG31" s="88"/>
+      <c r="CH31" s="88"/>
+      <c r="CI31" s="88"/>
+      <c r="CJ31" s="88"/>
+      <c r="CK31" s="88"/>
+      <c r="CL31" s="88"/>
+      <c r="CM31" s="88"/>
+    </row>
+    <row r="32" spans="1:91">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="89"/>
+      <c r="AK32" s="89"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="89"/>
+      <c r="AO32" s="89"/>
+      <c r="AP32" s="89"/>
+      <c r="AQ32" s="89"/>
+      <c r="AR32" s="89"/>
+      <c r="AS32" s="89"/>
+      <c r="AT32" s="89"/>
+      <c r="AU32" s="89"/>
+      <c r="AV32" s="89"/>
+      <c r="AW32" s="89"/>
+      <c r="AX32" s="89"/>
+      <c r="AY32" s="89"/>
+      <c r="AZ32" s="89"/>
+      <c r="BA32" s="89"/>
+      <c r="BB32" s="89"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="89"/>
+      <c r="BE32" s="89"/>
+      <c r="BF32" s="89"/>
+      <c r="BG32" s="89"/>
+      <c r="BH32" s="89"/>
+      <c r="BI32" s="89"/>
+      <c r="BJ32" s="89"/>
+      <c r="BK32" s="89"/>
+      <c r="BL32" s="89"/>
+      <c r="BM32" s="89"/>
+      <c r="BN32" s="89"/>
+      <c r="BO32" s="89"/>
+      <c r="BP32" s="88"/>
+      <c r="BQ32" s="88"/>
+      <c r="BR32" s="88"/>
+      <c r="BS32" s="88"/>
+      <c r="BT32" s="88"/>
+      <c r="BU32" s="88"/>
+      <c r="BV32" s="88"/>
+      <c r="BW32" s="88"/>
+      <c r="BX32" s="88"/>
+      <c r="BY32" s="88"/>
+      <c r="BZ32" s="88"/>
+      <c r="CA32" s="88"/>
+      <c r="CB32" s="88"/>
+      <c r="CC32" s="88"/>
+      <c r="CD32" s="88"/>
+      <c r="CE32" s="88"/>
+      <c r="CF32" s="88"/>
+      <c r="CG32" s="88"/>
+      <c r="CH32" s="88"/>
+      <c r="CI32" s="88"/>
+      <c r="CJ32" s="88"/>
+      <c r="CK32" s="88"/>
+      <c r="CL32" s="88"/>
+      <c r="CM32" s="88"/>
+    </row>
+    <row r="33" spans="1:91">
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="89"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="89"/>
+      <c r="AJ33" s="89"/>
+      <c r="AK33" s="89"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="89"/>
+      <c r="AO33" s="89"/>
+      <c r="AP33" s="89"/>
+      <c r="AQ33" s="89"/>
+      <c r="AR33" s="89"/>
+      <c r="AS33" s="89"/>
+      <c r="AT33" s="89"/>
+      <c r="AU33" s="89"/>
+      <c r="AV33" s="89"/>
+      <c r="AW33" s="89"/>
+      <c r="AX33" s="89"/>
+      <c r="AY33" s="89"/>
+      <c r="AZ33" s="89"/>
+      <c r="BA33" s="89"/>
+      <c r="BB33" s="89"/>
+      <c r="BC33" s="89"/>
+      <c r="BD33" s="89"/>
+      <c r="BE33" s="89"/>
+      <c r="BF33" s="89"/>
+      <c r="BG33" s="89"/>
+      <c r="BH33" s="89"/>
+      <c r="BI33" s="89"/>
+      <c r="BJ33" s="89"/>
+      <c r="BK33" s="89"/>
+      <c r="BL33" s="89"/>
+      <c r="BM33" s="89"/>
+      <c r="BN33" s="89"/>
+      <c r="BO33" s="89"/>
+      <c r="BP33" s="88"/>
+      <c r="BQ33" s="88"/>
+      <c r="BR33" s="88"/>
+      <c r="BS33" s="88"/>
+      <c r="BT33" s="88"/>
+      <c r="BU33" s="88"/>
+      <c r="BV33" s="88"/>
+      <c r="BW33" s="88"/>
+      <c r="BX33" s="88"/>
+      <c r="BY33" s="88"/>
+      <c r="BZ33" s="88"/>
+      <c r="CA33" s="88"/>
+      <c r="CB33" s="88"/>
+      <c r="CC33" s="88"/>
+      <c r="CD33" s="88"/>
+      <c r="CE33" s="88"/>
+      <c r="CF33" s="88"/>
+      <c r="CG33" s="88"/>
+      <c r="CH33" s="88"/>
+      <c r="CI33" s="88"/>
+      <c r="CJ33" s="88"/>
+      <c r="CK33" s="88"/>
+      <c r="CL33" s="88"/>
+      <c r="CM33" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -6740,16 +6973,15 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6778,61 +7010,61 @@
       <c r="A2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="135">
         <v>1</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="B4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="102"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="34" t="s">
         <v>192</v>
       </c>
@@ -6891,13 +7123,13 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="20">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="B12" s="33" t="s">
@@ -6940,13 +7172,13 @@
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="23">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
     </row>
     <row r="17" spans="2:6" ht="18">
       <c r="B17" s="33" t="s">
@@ -7076,61 +7308,61 @@
       <c r="F33" s="21"/>
     </row>
     <row r="36" spans="2:6" ht="20">
-      <c r="B36" s="87">
+      <c r="B36" s="135">
         <v>2</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="137"/>
     </row>
     <row r="37" spans="2:6" ht="20">
       <c r="B37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="139"/>
     </row>
     <row r="38" spans="2:6" ht="20">
       <c r="B38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="2:6" ht="20">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="92"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
     </row>
     <row r="40" spans="2:6" ht="18">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="128"/>
     </row>
     <row r="41" spans="2:6" ht="18">
-      <c r="B41" s="102"/>
-      <c r="C41" s="100"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="34" t="s">
         <v>192</v>
       </c>
@@ -7170,13 +7402,13 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="2:6" ht="20">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
     </row>
     <row r="47" spans="2:6" ht="18">
       <c r="B47" s="33" t="s">
@@ -7213,13 +7445,13 @@
       <c r="F50" s="29"/>
     </row>
     <row r="51" spans="2:6" ht="23">
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="134"/>
     </row>
     <row r="52" spans="2:6" ht="18">
       <c r="B52" s="33" t="s">
@@ -7326,61 +7558,61 @@
       <c r="F65" s="29"/>
     </row>
     <row r="68" spans="2:6" ht="20">
-      <c r="B68" s="87">
+      <c r="B68" s="135">
         <v>3</v>
       </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="89"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="137"/>
     </row>
     <row r="69" spans="2:6" ht="20">
       <c r="B69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="96" t="s">
+      <c r="C69" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="97"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="139"/>
     </row>
     <row r="70" spans="2:6" ht="20">
       <c r="B70" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="98" t="s">
+      <c r="C70" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="99"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="141"/>
     </row>
     <row r="71" spans="2:6" ht="20">
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="92"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131"/>
     </row>
     <row r="72" spans="2:6" ht="18">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="100" t="s">
+      <c r="C72" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="100" t="s">
+      <c r="D72" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="100"/>
-      <c r="F72" s="101"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
     </row>
     <row r="73" spans="2:6" ht="18">
-      <c r="B73" s="102"/>
-      <c r="C73" s="100"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="34" t="s">
         <v>192</v>
       </c>
@@ -7420,13 +7652,13 @@
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="2:6" ht="20">
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="92"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="131"/>
     </row>
     <row r="79" spans="2:6" ht="18">
       <c r="B79" s="33" t="s">
@@ -7463,13 +7695,13 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="2:6" ht="23">
-      <c r="B83" s="93" t="s">
+      <c r="B83" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="95"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="133"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="134"/>
     </row>
     <row r="84" spans="2:6" ht="18">
       <c r="B84" s="33" t="s">
@@ -7576,61 +7808,61 @@
       <c r="F97" s="29"/>
     </row>
     <row r="100" spans="2:6" ht="20">
-      <c r="B100" s="87">
+      <c r="B100" s="135">
         <v>4</v>
       </c>
-      <c r="C100" s="88"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="89"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="137"/>
     </row>
     <row r="101" spans="2:6" ht="20">
       <c r="B101" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="96" t="s">
+      <c r="C101" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="97"/>
+      <c r="D101" s="138"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="139"/>
     </row>
     <row r="102" spans="2:6" ht="20">
       <c r="B102" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="98" t="s">
+      <c r="C102" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D102" s="98"/>
-      <c r="E102" s="98"/>
-      <c r="F102" s="99"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="141"/>
     </row>
     <row r="103" spans="2:6" ht="20">
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="92"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="131"/>
     </row>
     <row r="104" spans="2:6" ht="18">
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="100" t="s">
+      <c r="C104" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="100" t="s">
+      <c r="D104" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="100"/>
-      <c r="F104" s="101"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="128"/>
     </row>
     <row r="105" spans="2:6" ht="18">
-      <c r="B105" s="102"/>
-      <c r="C105" s="100"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="127"/>
       <c r="D105" s="34" t="s">
         <v>192</v>
       </c>
@@ -7670,13 +7902,13 @@
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="2:6" ht="20">
-      <c r="B110" s="90" t="s">
+      <c r="B110" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="91"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="92"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="130"/>
+      <c r="E110" s="130"/>
+      <c r="F110" s="131"/>
     </row>
     <row r="111" spans="2:6" ht="18">
       <c r="B111" s="33" t="s">
@@ -7713,13 +7945,13 @@
       <c r="F114" s="29"/>
     </row>
     <row r="115" spans="2:6" ht="23">
-      <c r="B115" s="93" t="s">
+      <c r="B115" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="94"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="94"/>
-      <c r="F115" s="95"/>
+      <c r="C115" s="133"/>
+      <c r="D115" s="133"/>
+      <c r="E115" s="133"/>
+      <c r="F115" s="134"/>
     </row>
     <row r="116" spans="2:6" ht="18">
       <c r="B116" s="33" t="s">
@@ -7827,33 +8059,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:F40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B16:F16"/>
@@ -7863,6 +8068,33 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B115:F115"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -7876,7 +8108,7 @@
   <dimension ref="C2:K46"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -7894,17 +8126,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="3:11" ht="20">
       <c r="C3" s="54" t="s">
@@ -7936,10 +8168,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="142" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="21"/>
@@ -7957,8 +8189,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="105"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -7974,8 +8206,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="105"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -7991,8 +8223,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="105"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -8008,8 +8240,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="105"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -8025,8 +8257,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="105"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -8042,8 +8274,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="105"/>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="144"/>
+      <c r="D10" s="142" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="21"/>
@@ -8061,8 +8293,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -8078,8 +8310,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="106"/>
-      <c r="D12" s="103" t="s">
+      <c r="C12" s="145"/>
+      <c r="D12" s="142" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="21"/>
@@ -8097,8 +8329,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="106"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -8114,8 +8346,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="106"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -8131,8 +8363,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="106"/>
-      <c r="D15" s="103" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="142" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="21"/>
@@ -8150,8 +8382,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="106"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -8167,8 +8399,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="106"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -8184,8 +8416,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="106"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -8201,8 +8433,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="106"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -8218,8 +8450,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="106"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -8235,8 +8467,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="106"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -8252,8 +8484,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="106"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="142"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -8269,8 +8501,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="106"/>
-      <c r="D23" s="103"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="142"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -8286,8 +8518,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="106"/>
-      <c r="D24" s="103"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="142"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -8303,8 +8535,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="106"/>
-      <c r="D25" s="103" t="s">
+      <c r="C25" s="145"/>
+      <c r="D25" s="142" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="21"/>
@@ -8322,8 +8554,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="106"/>
-      <c r="D26" s="103"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -8339,8 +8571,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="106"/>
-      <c r="D27" s="103"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="142"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -8356,8 +8588,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="107"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -8373,8 +8605,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="107"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -8390,8 +8622,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="107"/>
-      <c r="D30" s="103"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="142"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -8407,8 +8639,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="107"/>
-      <c r="D31" s="103"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="142"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -8424,8 +8656,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="107"/>
-      <c r="D32" s="103"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="142"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -8441,8 +8673,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="107"/>
-      <c r="D33" s="103"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="142"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -8458,8 +8690,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="107"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="142"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -8475,8 +8707,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="107"/>
-      <c r="D35" s="103"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="142"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -8492,8 +8724,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="107"/>
-      <c r="D36" s="103"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="142"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -8509,8 +8741,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="107"/>
-      <c r="D37" s="103" t="s">
+      <c r="C37" s="146"/>
+      <c r="D37" s="142" t="s">
         <v>103</v>
       </c>
       <c r="E37" s="21"/>
@@ -8528,8 +8760,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="107"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="142"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -8545,8 +8777,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="107"/>
-      <c r="D39" s="103"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="142"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -8562,8 +8794,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="107"/>
-      <c r="D40" s="103"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="142"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -8579,8 +8811,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="107"/>
-      <c r="D41" s="103"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -8596,8 +8828,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="107"/>
-      <c r="D42" s="103"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="142"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -8613,8 +8845,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="107"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="142"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -8630,8 +8862,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="107"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="142"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -8647,8 +8879,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="107"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="142"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -8664,8 +8896,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="108"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="142"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -8718,61 +8950,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
-      <c r="N1" s="113" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="155"/>
+      <c r="N1" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="152"/>
+      <c r="AN1" s="152"/>
+      <c r="AO1" s="152"/>
+      <c r="AP1" s="152"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="152"/>
+      <c r="AT1" s="152"/>
+      <c r="AU1" s="152"/>
+      <c r="AV1" s="152"/>
+      <c r="AW1" s="152"/>
+      <c r="AX1" s="152"/>
+      <c r="AY1" s="152"/>
+      <c r="AZ1" s="152"/>
+      <c r="BA1" s="152"/>
     </row>
     <row r="2" spans="2:53" ht="31" thickBot="1">
       <c r="B2" s="56" t="s">
@@ -11270,17 +11502,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -11368,17 +11600,17 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="20">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -11491,18 +11723,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
@@ -11517,20 +11749,20 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="126" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="167"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="49" t="s">
@@ -11545,12 +11777,12 @@
       <c r="G4" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="133"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
     </row>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="39" t="s">
@@ -11560,13 +11792,13 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="37"/>
@@ -11680,13 +11912,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="37"/>
@@ -11938,181 +12170,181 @@
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="185"/>
     </row>
     <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B3" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="139"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="142"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="178"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B5" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="142"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="178"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B6" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="142"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="178"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="178"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B8" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="147"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="183"/>
     </row>
     <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="179" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143" t="s">
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="179" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="143" t="s">
+      <c r="K11" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="143" t="s">
+      <c r="L11" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="143" t="s">
+      <c r="M11" s="179" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="8" t="s">
         <v>165</v>
       </c>
@@ -12125,12 +12357,12 @@
       <c r="G12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -12422,6 +12654,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -12434,11 +12671,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WoonHo\IdeaProjects\CloseUp\architecture\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAEBDEF-95C6-194C-806F-56E2F2C2434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2315E-DAE8-4375-8656-B8539493ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="2740" windowWidth="22240" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="397">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1387,6 +1387,22 @@
   <si>
     <t xml:space="preserve">아이디 자동저장 checked시, </t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 소개</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1786,7 +1802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2710,6 +2726,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2737,7 +2797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3065,55 +3125,85 @@
     <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3125,24 +3215,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3155,13 +3227,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3266,19 +3341,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3299,19 +3362,31 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3691,25 +3766,25 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="86" customWidth="1"/>
-    <col min="2" max="3" width="30.83203125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="86" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="86"/>
-    <col min="7" max="7" width="5.83203125" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="86" customWidth="1"/>
+    <col min="2" max="3" width="30.875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="86" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="86"/>
+    <col min="7" max="7" width="5.875" style="86" customWidth="1"/>
     <col min="8" max="91" width="1.5" style="86" customWidth="1"/>
-    <col min="92" max="16384" width="10.83203125" style="86"/>
+    <col min="92" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:91">
       <c r="A3" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="126" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -3803,8 +3878,8 @@
       <c r="A4" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -3898,10 +3973,10 @@
       <c r="A5" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -3995,10 +4070,10 @@
       <c r="A6" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="126" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4092,10 +4167,10 @@
       <c r="A7" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="B7" s="109">
+      <c r="B7" s="125">
         <v>45436</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4189,8 +4264,8 @@
       <c r="A8" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4397,96 +4472,96 @@
       <c r="G10" s="106" t="s">
         <v>368</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="123" t="s">
         <v>367</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="117" t="s">
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="123" t="s">
         <v>366</v>
       </c>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="118"/>
-      <c r="AU10" s="118"/>
-      <c r="AV10" s="118"/>
-      <c r="AW10" s="118"/>
-      <c r="AX10" s="118"/>
-      <c r="AY10" s="118"/>
-      <c r="AZ10" s="118"/>
-      <c r="BA10" s="118"/>
-      <c r="BB10" s="118"/>
-      <c r="BC10" s="118"/>
-      <c r="BD10" s="118"/>
-      <c r="BE10" s="118"/>
-      <c r="BF10" s="118"/>
-      <c r="BG10" s="118"/>
-      <c r="BH10" s="118"/>
-      <c r="BI10" s="118"/>
-      <c r="BJ10" s="118"/>
-      <c r="BK10" s="118"/>
-      <c r="BL10" s="117" t="s">
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="124"/>
+      <c r="BA10" s="124"/>
+      <c r="BB10" s="124"/>
+      <c r="BC10" s="124"/>
+      <c r="BD10" s="124"/>
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="124"/>
+      <c r="BH10" s="124"/>
+      <c r="BI10" s="124"/>
+      <c r="BJ10" s="124"/>
+      <c r="BK10" s="124"/>
+      <c r="BL10" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="BM10" s="118"/>
-      <c r="BN10" s="118"/>
-      <c r="BO10" s="118"/>
-      <c r="BP10" s="118"/>
-      <c r="BQ10" s="118"/>
-      <c r="BR10" s="118"/>
-      <c r="BS10" s="118"/>
-      <c r="BT10" s="118"/>
-      <c r="BU10" s="118"/>
-      <c r="BV10" s="118"/>
-      <c r="BW10" s="118"/>
-      <c r="BX10" s="118"/>
-      <c r="BY10" s="118"/>
-      <c r="BZ10" s="118"/>
-      <c r="CA10" s="118"/>
-      <c r="CB10" s="118"/>
-      <c r="CC10" s="118"/>
-      <c r="CD10" s="118"/>
-      <c r="CE10" s="118"/>
-      <c r="CF10" s="118"/>
-      <c r="CG10" s="118"/>
-      <c r="CH10" s="118"/>
-      <c r="CI10" s="118"/>
-      <c r="CJ10" s="118"/>
-      <c r="CK10" s="118"/>
-      <c r="CL10" s="118"/>
-      <c r="CM10" s="118"/>
+      <c r="BM10" s="124"/>
+      <c r="BN10" s="124"/>
+      <c r="BO10" s="124"/>
+      <c r="BP10" s="124"/>
+      <c r="BQ10" s="124"/>
+      <c r="BR10" s="124"/>
+      <c r="BS10" s="124"/>
+      <c r="BT10" s="124"/>
+      <c r="BU10" s="124"/>
+      <c r="BV10" s="124"/>
+      <c r="BW10" s="124"/>
+      <c r="BX10" s="124"/>
+      <c r="BY10" s="124"/>
+      <c r="BZ10" s="124"/>
+      <c r="CA10" s="124"/>
+      <c r="CB10" s="124"/>
+      <c r="CC10" s="124"/>
+      <c r="CD10" s="124"/>
+      <c r="CE10" s="124"/>
+      <c r="CF10" s="124"/>
+      <c r="CG10" s="124"/>
+      <c r="CH10" s="124"/>
+      <c r="CI10" s="124"/>
+      <c r="CJ10" s="124"/>
+      <c r="CK10" s="124"/>
+      <c r="CL10" s="124"/>
+      <c r="CM10" s="124"/>
     </row>
     <row r="11" spans="1:91">
       <c r="A11" s="119"/>
@@ -4498,114 +4573,114 @@
       <c r="G11" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="H11" s="111" t="s">
+      <c r="H11" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="111" t="s">
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="111" t="s">
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="111" t="s">
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="111" t="s">
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="112"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="111" t="s">
+      <c r="AK11" s="117"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="111" t="s">
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="117"/>
+      <c r="AW11" s="118"/>
+      <c r="AX11" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="AY11" s="112"/>
-      <c r="AZ11" s="112"/>
-      <c r="BA11" s="112"/>
-      <c r="BB11" s="112"/>
-      <c r="BC11" s="112"/>
-      <c r="BD11" s="113"/>
-      <c r="BE11" s="111" t="s">
+      <c r="AY11" s="117"/>
+      <c r="AZ11" s="117"/>
+      <c r="BA11" s="117"/>
+      <c r="BB11" s="117"/>
+      <c r="BC11" s="117"/>
+      <c r="BD11" s="118"/>
+      <c r="BE11" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="BF11" s="112"/>
-      <c r="BG11" s="112"/>
-      <c r="BH11" s="112"/>
-      <c r="BI11" s="112"/>
-      <c r="BJ11" s="112"/>
-      <c r="BK11" s="113"/>
-      <c r="BL11" s="111" t="s">
+      <c r="BF11" s="117"/>
+      <c r="BG11" s="117"/>
+      <c r="BH11" s="117"/>
+      <c r="BI11" s="117"/>
+      <c r="BJ11" s="117"/>
+      <c r="BK11" s="118"/>
+      <c r="BL11" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="BM11" s="112"/>
-      <c r="BN11" s="112"/>
-      <c r="BO11" s="112"/>
-      <c r="BP11" s="112"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="113"/>
-      <c r="BS11" s="111" t="s">
+      <c r="BM11" s="117"/>
+      <c r="BN11" s="117"/>
+      <c r="BO11" s="117"/>
+      <c r="BP11" s="117"/>
+      <c r="BQ11" s="117"/>
+      <c r="BR11" s="118"/>
+      <c r="BS11" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="BT11" s="112"/>
-      <c r="BU11" s="112"/>
-      <c r="BV11" s="112"/>
-      <c r="BW11" s="112"/>
-      <c r="BX11" s="112"/>
-      <c r="BY11" s="113"/>
-      <c r="BZ11" s="111" t="s">
+      <c r="BT11" s="117"/>
+      <c r="BU11" s="117"/>
+      <c r="BV11" s="117"/>
+      <c r="BW11" s="117"/>
+      <c r="BX11" s="117"/>
+      <c r="BY11" s="118"/>
+      <c r="BZ11" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="CA11" s="112"/>
-      <c r="CB11" s="112"/>
-      <c r="CC11" s="112"/>
-      <c r="CD11" s="112"/>
-      <c r="CE11" s="112"/>
-      <c r="CF11" s="113"/>
-      <c r="CG11" s="111" t="s">
+      <c r="CA11" s="117"/>
+      <c r="CB11" s="117"/>
+      <c r="CC11" s="117"/>
+      <c r="CD11" s="117"/>
+      <c r="CE11" s="117"/>
+      <c r="CF11" s="118"/>
+      <c r="CG11" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="CH11" s="112"/>
-      <c r="CI11" s="112"/>
-      <c r="CJ11" s="112"/>
-      <c r="CK11" s="112"/>
-      <c r="CL11" s="112"/>
-      <c r="CM11" s="113"/>
+      <c r="CH11" s="117"/>
+      <c r="CI11" s="117"/>
+      <c r="CJ11" s="117"/>
+      <c r="CK11" s="117"/>
+      <c r="CL11" s="117"/>
+      <c r="CM11" s="118"/>
     </row>
     <row r="12" spans="1:91">
       <c r="A12" s="119"/>
@@ -4871,7 +4946,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="120" t="s">
         <v>351</v>
       </c>
       <c r="B13" s="92" t="s">
@@ -4978,8 +5053,8 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="115"/>
-      <c r="B14" s="114" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="120" t="s">
         <v>347</v>
       </c>
       <c r="C14" s="93" t="s">
@@ -5083,8 +5158,8 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="92" t="s">
         <v>345</v>
       </c>
@@ -5186,8 +5261,8 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="93" t="s">
         <v>344</v>
       </c>
@@ -5289,8 +5364,8 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="93" t="s">
         <v>342</v>
       </c>
@@ -5392,8 +5467,8 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="93" t="s">
         <v>340</v>
       </c>
@@ -5495,10 +5570,10 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="113" t="s">
         <v>338</v>
       </c>
       <c r="C19" s="93" t="s">
@@ -5602,8 +5677,8 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="121"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="93" t="s">
         <v>335</v>
       </c>
@@ -5705,8 +5780,8 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="121"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="96" t="s">
         <v>332</v>
       </c>
@@ -5808,7 +5883,7 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="122"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="96" t="s">
         <v>329</v>
       </c>
@@ -6965,15 +7040,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -6990,12 +7062,15 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,78 +7082,78 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20">
+    <row r="2" spans="1:6" ht="20.25">
       <c r="A2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="189">
+      <c r="B2" s="143">
         <v>1</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-    </row>
-    <row r="3" spans="1:6" ht="20">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25">
       <c r="B3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-    </row>
-    <row r="4" spans="1:6" ht="20">
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25">
       <c r="B4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-    </row>
-    <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="190" t="s">
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25">
+      <c r="B5" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="139" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25">
+      <c r="B6" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25">
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="33" t="s">
         <v>185</v>
       </c>
@@ -7119,16 +7194,16 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="190" t="s">
+    <row r="10" spans="1:6" ht="20.25">
+      <c r="B10" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-    </row>
-    <row r="11" spans="1:6" ht="18">
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25">
       <c r="B11" s="33" t="s">
         <v>187</v>
       </c>
@@ -7172,16 +7247,16 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" ht="23">
-      <c r="B15" s="191" t="s">
+    <row r="15" spans="1:6" ht="26.25">
+      <c r="B15" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-    </row>
-    <row r="16" spans="1:6" ht="18">
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25">
       <c r="B16" s="33" t="s">
         <v>177</v>
       </c>
@@ -7281,89 +7356,68 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-    </row>
-    <row r="35" spans="2:6" ht="20">
-      <c r="B35" s="126">
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.25">
+      <c r="B35" s="136">
         <v>2</v>
       </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="128"/>
-    </row>
-    <row r="36" spans="2:6" ht="20">
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.25">
       <c r="B36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="136"/>
-    </row>
-    <row r="37" spans="2:6" ht="20">
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="140"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.25">
       <c r="B37" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-    </row>
-    <row r="38" spans="2:6" ht="20">
-      <c r="B38" s="129" t="s">
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="142"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.25">
+      <c r="B38" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131"/>
-    </row>
-    <row r="39" spans="2:6" ht="18">
-      <c r="B39" s="141" t="s">
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="132"/>
+    </row>
+    <row r="39" spans="2:6" ht="17.25">
+      <c r="B39" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="139" t="s">
+      <c r="C39" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="139" t="s">
+      <c r="D39" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-    </row>
-    <row r="40" spans="2:6" ht="18">
-      <c r="B40" s="141"/>
-      <c r="C40" s="139"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
+    </row>
+    <row r="40" spans="2:6" ht="17.25">
+      <c r="B40" s="127"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="33" t="s">
         <v>185</v>
       </c>
@@ -7402,16 +7456,16 @@
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="2:6" ht="20">
-      <c r="B45" s="129" t="s">
+    <row r="45" spans="2:6" ht="20.25">
+      <c r="B45" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="131"/>
-    </row>
-    <row r="46" spans="2:6" ht="18">
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="132"/>
+    </row>
+    <row r="46" spans="2:6" ht="17.25">
       <c r="B46" s="32" t="s">
         <v>187</v>
       </c>
@@ -7445,16 +7499,16 @@
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="2:6" ht="23">
-      <c r="B50" s="132" t="s">
+    <row r="50" spans="2:6" ht="26.25">
+      <c r="B50" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-    </row>
-    <row r="51" spans="2:6" ht="18">
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="135"/>
+    </row>
+    <row r="51" spans="2:6" ht="17.25">
       <c r="B51" s="32" t="s">
         <v>177</v>
       </c>
@@ -7558,62 +7612,62 @@
       <c r="E64" s="28"/>
       <c r="F64" s="29"/>
     </row>
-    <row r="67" spans="2:6" ht="20">
-      <c r="B67" s="126">
+    <row r="67" spans="2:6" ht="20.25">
+      <c r="B67" s="136">
         <v>3</v>
       </c>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="128"/>
-    </row>
-    <row r="68" spans="2:6" ht="20">
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="138"/>
+    </row>
+    <row r="68" spans="2:6" ht="20.25">
       <c r="B68" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="135" t="s">
+      <c r="C68" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="136"/>
-    </row>
-    <row r="69" spans="2:6" ht="20">
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="140"/>
+    </row>
+    <row r="69" spans="2:6" ht="20.25">
       <c r="B69" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="137" t="s">
+      <c r="C69" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="138"/>
-    </row>
-    <row r="70" spans="2:6" ht="20">
-      <c r="B70" s="129" t="s">
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="142"/>
+    </row>
+    <row r="70" spans="2:6" ht="20.25">
+      <c r="B70" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="131"/>
-    </row>
-    <row r="71" spans="2:6" ht="18">
-      <c r="B71" s="141" t="s">
+      <c r="C70" s="131"/>
+      <c r="D70" s="131"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="132"/>
+    </row>
+    <row r="71" spans="2:6" ht="17.25">
+      <c r="B71" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="139" t="s">
+      <c r="C71" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="139" t="s">
+      <c r="D71" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="139"/>
-      <c r="F71" s="140"/>
-    </row>
-    <row r="72" spans="2:6" ht="18">
-      <c r="B72" s="141"/>
-      <c r="C72" s="139"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="129"/>
+    </row>
+    <row r="72" spans="2:6" ht="17.25">
+      <c r="B72" s="127"/>
+      <c r="C72" s="128"/>
       <c r="D72" s="33" t="s">
         <v>185</v>
       </c>
@@ -7652,16 +7706,16 @@
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="2:6" ht="20">
-      <c r="B77" s="129" t="s">
+    <row r="77" spans="2:6" ht="20.25">
+      <c r="B77" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="130"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="130"/>
-      <c r="F77" s="131"/>
-    </row>
-    <row r="78" spans="2:6" ht="18">
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="132"/>
+    </row>
+    <row r="78" spans="2:6" ht="17.25">
       <c r="B78" s="32" t="s">
         <v>187</v>
       </c>
@@ -7695,16 +7749,16 @@
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="2:6" ht="23">
-      <c r="B82" s="132" t="s">
+    <row r="82" spans="2:6" ht="26.25">
+      <c r="B82" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="133"/>
-      <c r="D82" s="133"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="134"/>
-    </row>
-    <row r="83" spans="2:6" ht="18">
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="135"/>
+    </row>
+    <row r="83" spans="2:6" ht="17.25">
       <c r="B83" s="32" t="s">
         <v>177</v>
       </c>
@@ -7808,62 +7862,62 @@
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
     </row>
-    <row r="99" spans="2:6" ht="20">
-      <c r="B99" s="126">
+    <row r="99" spans="2:6" ht="20.25">
+      <c r="B99" s="136">
         <v>4</v>
       </c>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
-      <c r="F99" s="128"/>
-    </row>
-    <row r="100" spans="2:6" ht="20">
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
+      <c r="E99" s="137"/>
+      <c r="F99" s="138"/>
+    </row>
+    <row r="100" spans="2:6" ht="20.25">
       <c r="B100" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="135" t="s">
+      <c r="C100" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="D100" s="135"/>
-      <c r="E100" s="135"/>
-      <c r="F100" s="136"/>
-    </row>
-    <row r="101" spans="2:6" ht="20">
+      <c r="D100" s="139"/>
+      <c r="E100" s="139"/>
+      <c r="F100" s="140"/>
+    </row>
+    <row r="101" spans="2:6" ht="20.25">
       <c r="B101" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C101" s="137" t="s">
+      <c r="C101" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="137"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="138"/>
-    </row>
-    <row r="102" spans="2:6" ht="20">
-      <c r="B102" s="129" t="s">
+      <c r="D101" s="141"/>
+      <c r="E101" s="141"/>
+      <c r="F101" s="142"/>
+    </row>
+    <row r="102" spans="2:6" ht="20.25">
+      <c r="B102" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="130"/>
-      <c r="F102" s="131"/>
-    </row>
-    <row r="103" spans="2:6" ht="18">
-      <c r="B103" s="141" t="s">
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="132"/>
+    </row>
+    <row r="103" spans="2:6" ht="17.25">
+      <c r="B103" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="139" t="s">
+      <c r="C103" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="139" t="s">
+      <c r="D103" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="139"/>
-      <c r="F103" s="140"/>
-    </row>
-    <row r="104" spans="2:6" ht="18">
-      <c r="B104" s="141"/>
-      <c r="C104" s="139"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="129"/>
+    </row>
+    <row r="104" spans="2:6" ht="17.25">
+      <c r="B104" s="127"/>
+      <c r="C104" s="128"/>
       <c r="D104" s="33" t="s">
         <v>185</v>
       </c>
@@ -7902,16 +7956,16 @@
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="2:6" ht="20">
-      <c r="B109" s="129" t="s">
+    <row r="109" spans="2:6" ht="20.25">
+      <c r="B109" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="130"/>
-      <c r="D109" s="130"/>
-      <c r="E109" s="130"/>
-      <c r="F109" s="131"/>
-    </row>
-    <row r="110" spans="2:6" ht="18">
+      <c r="C109" s="131"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="132"/>
+    </row>
+    <row r="110" spans="2:6" ht="17.25">
       <c r="B110" s="32" t="s">
         <v>187</v>
       </c>
@@ -7945,16 +7999,16 @@
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="2:6" ht="23">
-      <c r="B114" s="132" t="s">
+    <row r="114" spans="2:6" ht="26.25">
+      <c r="B114" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="133"/>
-      <c r="D114" s="133"/>
-      <c r="E114" s="133"/>
-      <c r="F114" s="134"/>
-    </row>
-    <row r="115" spans="2:6" ht="18">
+      <c r="C114" s="134"/>
+      <c r="D114" s="134"/>
+      <c r="E114" s="134"/>
+      <c r="F114" s="135"/>
+    </row>
+    <row r="115" spans="2:6" ht="17.25">
       <c r="B115" s="32" t="s">
         <v>177</v>
       </c>
@@ -8060,33 +8114,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:F39"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B15:F15"/>
@@ -8096,6 +8123,33 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B114:F114"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8112,34 +8166,34 @@
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
     <col min="4" max="4" width="13" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="104.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="148" t="s">
+    <row r="2" spans="3:11" ht="33.75">
+      <c r="C2" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-    </row>
-    <row r="3" spans="3:11" ht="20">
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="155"/>
+    </row>
+    <row r="3" spans="3:11" ht="20.25">
       <c r="C3" s="53" t="s">
         <v>66</v>
       </c>
@@ -8169,10 +8223,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="147" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="21"/>
@@ -8190,8 +8244,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="144"/>
-      <c r="D5" s="142"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -8207,8 +8261,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="142"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -8224,8 +8278,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="144"/>
-      <c r="D7" s="142"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -8241,8 +8295,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="144"/>
-      <c r="D8" s="142"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -8258,8 +8312,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="144"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="147"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -8275,8 +8329,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="144"/>
-      <c r="D10" s="142" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="147" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="21"/>
@@ -8294,8 +8348,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="144"/>
-      <c r="D11" s="142"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -8310,9 +8364,9 @@
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="145"/>
-      <c r="D12" s="142" t="s">
+    <row r="12" spans="3:11" ht="16.7" customHeight="1">
+      <c r="C12" s="150"/>
+      <c r="D12" s="147" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="21"/>
@@ -8330,8 +8384,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="145"/>
-      <c r="D13" s="151"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -8347,8 +8401,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="145"/>
-      <c r="D14" s="142"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -8364,8 +8418,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="145"/>
-      <c r="D15" s="142" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="147" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -8383,8 +8437,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="145"/>
-      <c r="D16" s="151"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -8400,8 +8454,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="145"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -8417,8 +8471,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="145"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -8434,8 +8488,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="145"/>
-      <c r="D19" s="142"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -8451,8 +8505,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="145"/>
-      <c r="D20" s="142"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -8468,8 +8522,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="145"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -8485,8 +8539,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="145"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -8502,8 +8556,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="145"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -8519,8 +8573,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="145"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="147"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -8536,8 +8590,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="145"/>
-      <c r="D25" s="142" t="s">
+      <c r="C25" s="150"/>
+      <c r="D25" s="147" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="21"/>
@@ -8555,8 +8609,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="145"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -8572,8 +8626,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="145"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -8589,8 +8643,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="146"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -8606,8 +8660,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="146"/>
-      <c r="D29" s="142"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -8623,8 +8677,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="146"/>
-      <c r="D30" s="142"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -8640,8 +8694,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="146"/>
-      <c r="D31" s="142"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -8657,8 +8711,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="146"/>
-      <c r="D32" s="142"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -8674,8 +8728,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="146"/>
-      <c r="D33" s="142"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -8691,8 +8745,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="146"/>
-      <c r="D34" s="142"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -8708,8 +8762,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="146"/>
-      <c r="D35" s="142"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -8725,8 +8779,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="146"/>
-      <c r="D36" s="142"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -8742,8 +8796,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="146"/>
-      <c r="D37" s="142" t="s">
+      <c r="C37" s="151"/>
+      <c r="D37" s="147" t="s">
         <v>102</v>
       </c>
       <c r="E37" s="21"/>
@@ -8761,8 +8815,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="146"/>
-      <c r="D38" s="142"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -8778,8 +8832,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="146"/>
-      <c r="D39" s="142"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -8795,8 +8849,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="146"/>
-      <c r="D40" s="142"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="147"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -8812,8 +8866,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="146"/>
-      <c r="D41" s="142"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="147"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -8829,8 +8883,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="146"/>
-      <c r="D42" s="142"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -8846,8 +8900,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="146"/>
-      <c r="D43" s="142"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="147"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -8863,8 +8917,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="146"/>
-      <c r="D44" s="142"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -8880,8 +8934,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="146"/>
-      <c r="D45" s="142"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -8897,8 +8951,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="147"/>
-      <c r="D46" s="142"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="147"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -8933,81 +8987,81 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:BA130"/>
+  <dimension ref="B1:BA133"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="153" t="s">
+    <row r="1" spans="2:53" ht="39" thickBot="1">
+      <c r="B1" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="155"/>
-      <c r="N1" s="152" t="s">
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="160"/>
+      <c r="N1" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="152"/>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="152"/>
-      <c r="AM1" s="152"/>
-      <c r="AN1" s="152"/>
-      <c r="AO1" s="152"/>
-      <c r="AP1" s="152"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="152"/>
-      <c r="AT1" s="152"/>
-      <c r="AU1" s="152"/>
-      <c r="AV1" s="152"/>
-      <c r="AW1" s="152"/>
-      <c r="AX1" s="152"/>
-      <c r="AY1" s="152"/>
-      <c r="AZ1" s="152"/>
-      <c r="BA1" s="152"/>
-    </row>
-    <row r="2" spans="2:53" ht="31" thickBot="1">
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="157"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="157"/>
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="157"/>
+      <c r="BA1" s="157"/>
+    </row>
+    <row r="2" spans="2:53" ht="32.25" thickBot="1">
       <c r="B2" s="55" t="s">
         <v>217</v>
       </c>
@@ -9024,7 +9078,7 @@
       <c r="K2" s="57"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="2:53" ht="31" thickBot="1">
+    <row r="3" spans="2:53" ht="32.25" thickBot="1">
       <c r="B3" s="59" t="s">
         <v>219</v>
       </c>
@@ -9059,7 +9113,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:53" ht="23">
+    <row r="4" spans="2:53" ht="26.25">
       <c r="B4" s="62" t="s">
         <v>230</v>
       </c>
@@ -9082,7 +9136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:53" ht="23">
+    <row r="5" spans="2:53" ht="26.25">
       <c r="B5" s="65" t="s">
         <v>235</v>
       </c>
@@ -9103,7 +9157,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="2:53" ht="23">
+    <row r="6" spans="2:53" ht="26.25">
       <c r="B6" s="65" t="s">
         <v>238</v>
       </c>
@@ -9124,7 +9178,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:53" ht="23">
+    <row r="7" spans="2:53" ht="26.25">
       <c r="B7" s="65" t="s">
         <v>240</v>
       </c>
@@ -9145,7 +9199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="23">
+    <row r="8" spans="2:53" ht="26.25">
       <c r="B8" s="65" t="s">
         <v>242</v>
       </c>
@@ -9166,7 +9220,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="2:53" ht="23">
+    <row r="9" spans="2:53" ht="26.25">
       <c r="B9" s="65" t="s">
         <v>245</v>
       </c>
@@ -9187,7 +9241,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:53" ht="23">
+    <row r="10" spans="2:53" ht="26.25">
       <c r="B10" s="65" t="s">
         <v>247</v>
       </c>
@@ -9208,7 +9262,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="2:53" ht="23">
+    <row r="11" spans="2:53" ht="26.25">
       <c r="B11" s="65" t="s">
         <v>249</v>
       </c>
@@ -9229,7 +9283,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="2:53" ht="23">
+    <row r="12" spans="2:53" ht="26.25">
       <c r="B12" s="65" t="s">
         <v>252</v>
       </c>
@@ -9250,7 +9304,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="2:53" ht="24" thickBot="1">
+    <row r="13" spans="2:53" ht="27" thickBot="1">
       <c r="B13" s="68" t="s">
         <v>254</v>
       </c>
@@ -9271,7 +9325,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="2:53" ht="23">
+    <row r="14" spans="2:53" ht="26.25">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -9284,7 +9338,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="2:53" ht="23">
+    <row r="15" spans="2:53" ht="26.25">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -9297,7 +9351,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="2:53" ht="24" thickBot="1">
+    <row r="16" spans="2:53" ht="27" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -9310,7 +9364,7 @@
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="2:12" ht="31" thickBot="1">
+    <row r="17" spans="2:12" ht="32.25" thickBot="1">
       <c r="B17" s="55" t="s">
         <v>217</v>
       </c>
@@ -9327,7 +9381,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="31" thickBot="1">
+    <row r="18" spans="2:12" ht="32.25" thickBot="1">
       <c r="B18" s="59" t="s">
         <v>219</v>
       </c>
@@ -9362,7 +9416,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="23">
+    <row r="19" spans="2:12" ht="26.25">
       <c r="B19" s="62" t="s">
         <v>230</v>
       </c>
@@ -9385,7 +9439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="23">
+    <row r="20" spans="2:12" ht="26.25">
       <c r="B20" s="65" t="s">
         <v>259</v>
       </c>
@@ -9408,7 +9462,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="23">
+    <row r="21" spans="2:12" ht="26.25">
       <c r="B21" s="65" t="s">
         <v>263</v>
       </c>
@@ -9431,7 +9485,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="23">
+    <row r="22" spans="2:12" ht="26.25">
       <c r="B22" s="65" t="s">
         <v>265</v>
       </c>
@@ -9452,7 +9506,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="23">
+    <row r="23" spans="2:12" ht="26.25">
       <c r="B23" s="65" t="s">
         <v>267</v>
       </c>
@@ -9473,7 +9527,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="23">
+    <row r="24" spans="2:12" ht="26.25">
       <c r="B24" s="65" t="s">
         <v>270</v>
       </c>
@@ -9494,7 +9548,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="23">
+    <row r="25" spans="2:12" ht="26.25">
       <c r="B25" s="65" t="s">
         <v>273</v>
       </c>
@@ -9515,7 +9569,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="24" thickBot="1">
+    <row r="26" spans="2:12" ht="27" thickBot="1">
       <c r="B26" s="68" t="s">
         <v>276</v>
       </c>
@@ -9536,7 +9590,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="23">
+    <row r="27" spans="2:12" ht="26.25">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -9549,7 +9603,7 @@
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="2:12" ht="23">
+    <row r="28" spans="2:12" ht="26.25">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -9562,7 +9616,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="2:12" ht="36" thickBot="1">
+    <row r="29" spans="2:12" ht="39" thickBot="1">
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -9575,7 +9629,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
     </row>
-    <row r="30" spans="2:12" ht="31" thickBot="1">
+    <row r="30" spans="2:12" ht="32.25" thickBot="1">
       <c r="B30" s="55" t="s">
         <v>217</v>
       </c>
@@ -9592,7 +9646,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="58"/>
     </row>
-    <row r="31" spans="2:12" ht="31" thickBot="1">
+    <row r="31" spans="2:12" ht="32.25" thickBot="1">
       <c r="B31" s="59" t="s">
         <v>219</v>
       </c>
@@ -9627,7 +9681,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="23">
+    <row r="32" spans="2:12" ht="26.25">
       <c r="B32" s="74" t="s">
         <v>230</v>
       </c>
@@ -9650,7 +9704,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="23">
+    <row r="33" spans="2:12" ht="26.25">
       <c r="B33" s="77" t="s">
         <v>279</v>
       </c>
@@ -9673,7 +9727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="23">
+    <row r="34" spans="2:12" ht="26.25">
       <c r="B34" s="77" t="s">
         <v>263</v>
       </c>
@@ -9696,7 +9750,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="23">
+    <row r="35" spans="2:12" ht="26.25">
       <c r="B35" s="65" t="s">
         <v>281</v>
       </c>
@@ -9719,7 +9773,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="23">
+    <row r="36" spans="2:12" ht="26.25">
       <c r="B36" s="65" t="s">
         <v>273</v>
       </c>
@@ -9740,7 +9794,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="23">
+    <row r="37" spans="2:12" ht="26.25">
       <c r="B37" s="65" t="s">
         <v>267</v>
       </c>
@@ -9761,7 +9815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="24" thickBot="1">
+    <row r="38" spans="2:12" ht="27" thickBot="1">
       <c r="B38" s="68" t="s">
         <v>276</v>
       </c>
@@ -9782,7 +9836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="23">
+    <row r="39" spans="2:12" ht="26.25">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -9795,7 +9849,7 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
     </row>
-    <row r="40" spans="2:12" ht="35">
+    <row r="40" spans="2:12" ht="38.25">
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -9808,7 +9862,7 @@
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
     </row>
-    <row r="41" spans="2:12" ht="36" thickBot="1">
+    <row r="41" spans="2:12" ht="39" thickBot="1">
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -9821,7 +9875,7 @@
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
     </row>
-    <row r="42" spans="2:12" ht="31" thickBot="1">
+    <row r="42" spans="2:12" ht="32.25" thickBot="1">
       <c r="B42" s="55" t="s">
         <v>217</v>
       </c>
@@ -9838,7 +9892,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="58"/>
     </row>
-    <row r="43" spans="2:12" ht="31" thickBot="1">
+    <row r="43" spans="2:12" ht="32.25" thickBot="1">
       <c r="B43" s="59" t="s">
         <v>219</v>
       </c>
@@ -9873,7 +9927,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="23">
+    <row r="44" spans="2:12" ht="26.25">
       <c r="B44" s="74" t="s">
         <v>230</v>
       </c>
@@ -9896,7 +9950,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="23">
+    <row r="45" spans="2:12" ht="26.25">
       <c r="B45" s="65" t="s">
         <v>279</v>
       </c>
@@ -9919,7 +9973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="23">
+    <row r="46" spans="2:12" ht="26.25">
       <c r="B46" s="65" t="s">
         <v>238</v>
       </c>
@@ -9940,7 +9994,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="23">
+    <row r="47" spans="2:12" ht="26.25">
       <c r="B47" s="65" t="s">
         <v>285</v>
       </c>
@@ -9961,7 +10015,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="23">
+    <row r="48" spans="2:12" ht="26.25">
       <c r="B48" s="65" t="s">
         <v>287</v>
       </c>
@@ -9982,7 +10036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="23">
+    <row r="49" spans="2:12" ht="26.25">
       <c r="B49" s="65" t="s">
         <v>289</v>
       </c>
@@ -10003,7 +10057,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="24" thickBot="1">
+    <row r="50" spans="2:12" ht="27" thickBot="1">
       <c r="B50" s="68" t="s">
         <v>292</v>
       </c>
@@ -10024,7 +10078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="35">
+    <row r="51" spans="2:12" ht="38.25">
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -10037,7 +10091,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
     </row>
-    <row r="52" spans="2:12" ht="35">
+    <row r="52" spans="2:12" ht="38.25">
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -10050,7 +10104,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
     </row>
-    <row r="53" spans="2:12" ht="36" thickBot="1">
+    <row r="53" spans="2:12" ht="39" thickBot="1">
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -10063,7 +10117,7 @@
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
     </row>
-    <row r="54" spans="2:12" ht="31" thickBot="1">
+    <row r="54" spans="2:12" ht="32.25" thickBot="1">
       <c r="B54" s="55" t="s">
         <v>217</v>
       </c>
@@ -10080,7 +10134,7 @@
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
     </row>
-    <row r="55" spans="2:12" ht="31" thickBot="1">
+    <row r="55" spans="2:12" ht="32.25" thickBot="1">
       <c r="B55" s="59" t="s">
         <v>219</v>
       </c>
@@ -10115,7 +10169,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="23">
+    <row r="56" spans="2:12" ht="26.25">
       <c r="B56" s="74" t="s">
         <v>230</v>
       </c>
@@ -10138,7 +10192,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="23">
+    <row r="57" spans="2:12" ht="26.25">
       <c r="B57" s="65" t="s">
         <v>295</v>
       </c>
@@ -10161,7 +10215,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="23">
+    <row r="58" spans="2:12" ht="26.25">
       <c r="B58" s="65" t="s">
         <v>238</v>
       </c>
@@ -10182,7 +10236,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="23">
+    <row r="59" spans="2:12" ht="26.25">
       <c r="B59" s="65" t="s">
         <v>285</v>
       </c>
@@ -10203,7 +10257,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="23">
+    <row r="60" spans="2:12" ht="26.25">
       <c r="B60" s="65" t="s">
         <v>287</v>
       </c>
@@ -10224,7 +10278,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="23">
+    <row r="61" spans="2:12" ht="26.25">
       <c r="B61" s="65" t="s">
         <v>289</v>
       </c>
@@ -10245,7 +10299,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="24" thickBot="1">
+    <row r="62" spans="2:12" ht="27" thickBot="1">
       <c r="B62" s="68" t="s">
         <v>292</v>
       </c>
@@ -10266,7 +10320,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="35">
+    <row r="63" spans="2:12" ht="38.25">
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
@@ -10279,7 +10333,7 @@
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
     </row>
-    <row r="64" spans="2:12" ht="35">
+    <row r="64" spans="2:12" ht="38.25">
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
@@ -10292,7 +10346,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
     </row>
-    <row r="65" spans="2:12" ht="36" thickBot="1">
+    <row r="65" spans="2:12" ht="39" thickBot="1">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
@@ -10305,7 +10359,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
     </row>
-    <row r="66" spans="2:12" ht="31" thickBot="1">
+    <row r="66" spans="2:12" ht="32.25" thickBot="1">
       <c r="B66" s="55" t="s">
         <v>217</v>
       </c>
@@ -10322,7 +10376,7 @@
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
     </row>
-    <row r="67" spans="2:12" ht="31" thickBot="1">
+    <row r="67" spans="2:12" ht="32.25" thickBot="1">
       <c r="B67" s="59" t="s">
         <v>219</v>
       </c>
@@ -10357,7 +10411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="23">
+    <row r="68" spans="2:12" ht="26.25">
       <c r="B68" s="74" t="s">
         <v>265</v>
       </c>
@@ -10380,7 +10434,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="23">
+    <row r="69" spans="2:12" ht="26.25">
       <c r="B69" s="65" t="s">
         <v>298</v>
       </c>
@@ -10403,7 +10457,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="23">
+    <row r="70" spans="2:12" ht="26.25">
       <c r="B70" s="65" t="s">
         <v>301</v>
       </c>
@@ -10426,7 +10480,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="24" thickBot="1">
+    <row r="71" spans="2:12" ht="27" thickBot="1">
       <c r="B71" s="68" t="s">
         <v>303</v>
       </c>
@@ -10447,7 +10501,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="23">
+    <row r="72" spans="2:12" ht="26.25">
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
@@ -10460,7 +10514,7 @@
       <c r="K72" s="71"/>
       <c r="L72" s="71"/>
     </row>
-    <row r="73" spans="2:12" ht="23">
+    <row r="73" spans="2:12" ht="26.25">
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
@@ -10473,7 +10527,7 @@
       <c r="K73" s="71"/>
       <c r="L73" s="71"/>
     </row>
-    <row r="74" spans="2:12" ht="24" thickBot="1">
+    <row r="74" spans="2:12" ht="27" thickBot="1">
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
@@ -10486,7 +10540,7 @@
       <c r="K74" s="71"/>
       <c r="L74" s="71"/>
     </row>
-    <row r="75" spans="2:12" ht="31" thickBot="1">
+    <row r="75" spans="2:12" ht="32.25" thickBot="1">
       <c r="B75" s="55" t="s">
         <v>217</v>
       </c>
@@ -10503,7 +10557,7 @@
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
     </row>
-    <row r="76" spans="2:12" ht="31" thickBot="1">
+    <row r="76" spans="2:12" ht="32.25" thickBot="1">
       <c r="B76" s="59" t="s">
         <v>219</v>
       </c>
@@ -10538,7 +10592,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="23">
+    <row r="77" spans="2:12" ht="26.25">
       <c r="B77" s="74" t="s">
         <v>230</v>
       </c>
@@ -10561,7 +10615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="23">
+    <row r="78" spans="2:12" ht="26.25">
       <c r="B78" s="65" t="s">
         <v>298</v>
       </c>
@@ -10584,7 +10638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="23">
+    <row r="79" spans="2:12" ht="26.25">
       <c r="B79" s="65" t="s">
         <v>265</v>
       </c>
@@ -10605,7 +10659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="24" thickBot="1">
+    <row r="80" spans="2:12" ht="27" thickBot="1">
       <c r="B80" s="68" t="s">
         <v>267</v>
       </c>
@@ -10626,7 +10680,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="35">
+    <row r="81" spans="2:12" ht="38.25">
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -10639,7 +10693,7 @@
       <c r="K81" s="72"/>
       <c r="L81" s="72"/>
     </row>
-    <row r="82" spans="2:12" ht="35">
+    <row r="82" spans="2:12" ht="38.25">
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
@@ -10652,7 +10706,7 @@
       <c r="K82" s="72"/>
       <c r="L82" s="72"/>
     </row>
-    <row r="83" spans="2:12" ht="36" thickBot="1">
+    <row r="83" spans="2:12" ht="39" thickBot="1">
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
@@ -10665,7 +10719,7 @@
       <c r="K83" s="72"/>
       <c r="L83" s="72"/>
     </row>
-    <row r="84" spans="2:12" ht="31" thickBot="1">
+    <row r="84" spans="2:12" ht="32.25" thickBot="1">
       <c r="B84" s="55" t="s">
         <v>217</v>
       </c>
@@ -10682,7 +10736,7 @@
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
     </row>
-    <row r="85" spans="2:12" ht="31" thickBot="1">
+    <row r="85" spans="2:12" ht="32.25" thickBot="1">
       <c r="B85" s="59" t="s">
         <v>219</v>
       </c>
@@ -10717,7 +10771,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="23">
+    <row r="86" spans="2:12" ht="26.25">
       <c r="B86" s="74" t="s">
         <v>230</v>
       </c>
@@ -10740,7 +10794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="23">
+    <row r="87" spans="2:12" ht="26.25">
       <c r="B87" s="65" t="s">
         <v>263</v>
       </c>
@@ -10763,7 +10817,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="23">
+    <row r="88" spans="2:12" ht="26.25">
       <c r="B88" s="65" t="s">
         <v>307</v>
       </c>
@@ -10786,7 +10840,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="24" thickBot="1">
+    <row r="89" spans="2:12" ht="27" thickBot="1">
       <c r="B89" s="68" t="s">
         <v>309</v>
       </c>
@@ -10807,7 +10861,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="35">
+    <row r="90" spans="2:12" ht="38.25">
       <c r="B90" s="72"/>
       <c r="C90" s="72"/>
       <c r="D90" s="72"/>
@@ -10820,7 +10874,7 @@
       <c r="K90" s="72"/>
       <c r="L90" s="72"/>
     </row>
-    <row r="91" spans="2:12" ht="35">
+    <row r="91" spans="2:12" ht="38.25">
       <c r="B91" s="72"/>
       <c r="C91" s="72"/>
       <c r="D91" s="72"/>
@@ -10833,7 +10887,7 @@
       <c r="K91" s="72"/>
       <c r="L91" s="72"/>
     </row>
-    <row r="92" spans="2:12" ht="36" thickBot="1">
+    <row r="92" spans="2:12" ht="39" thickBot="1">
       <c r="B92" s="72"/>
       <c r="C92" s="72"/>
       <c r="D92" s="72"/>
@@ -10846,7 +10900,7 @@
       <c r="K92" s="72"/>
       <c r="L92" s="72"/>
     </row>
-    <row r="93" spans="2:12" ht="31" thickBot="1">
+    <row r="93" spans="2:12" ht="32.25" thickBot="1">
       <c r="B93" s="55" t="s">
         <v>217</v>
       </c>
@@ -10863,7 +10917,7 @@
       <c r="K93" s="57"/>
       <c r="L93" s="58"/>
     </row>
-    <row r="94" spans="2:12" ht="31" thickBot="1">
+    <row r="94" spans="2:12" ht="32.25" thickBot="1">
       <c r="B94" s="59" t="s">
         <v>219</v>
       </c>
@@ -10898,7 +10952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="23">
+    <row r="95" spans="2:12" ht="26.25">
       <c r="B95" s="74" t="s">
         <v>263</v>
       </c>
@@ -10921,7 +10975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="23">
+    <row r="96" spans="2:12" ht="26.25">
       <c r="B96" s="65" t="s">
         <v>279</v>
       </c>
@@ -10944,7 +10998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="24" thickBot="1">
+    <row r="97" spans="2:12" ht="27" thickBot="1">
       <c r="B97" s="68" t="s">
         <v>312</v>
       </c>
@@ -10963,7 +11017,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="23">
+    <row r="98" spans="2:12" ht="26.25">
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
@@ -10976,7 +11030,7 @@
       <c r="K98" s="71"/>
       <c r="L98" s="71"/>
     </row>
-    <row r="99" spans="2:12" ht="35">
+    <row r="99" spans="2:12" ht="38.25">
       <c r="B99" s="72"/>
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
@@ -10989,7 +11043,7 @@
       <c r="K99" s="72"/>
       <c r="L99" s="72"/>
     </row>
-    <row r="100" spans="2:12" ht="36" thickBot="1">
+    <row r="100" spans="2:12" ht="39" thickBot="1">
       <c r="B100" s="72"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -11002,7 +11056,7 @@
       <c r="K100" s="72"/>
       <c r="L100" s="72"/>
     </row>
-    <row r="101" spans="2:12" ht="31" thickBot="1">
+    <row r="101" spans="2:12" ht="32.25" thickBot="1">
       <c r="B101" s="55" t="s">
         <v>217</v>
       </c>
@@ -11019,7 +11073,7 @@
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
     </row>
-    <row r="102" spans="2:12" ht="31" thickBot="1">
+    <row r="102" spans="2:12" ht="32.25" thickBot="1">
       <c r="B102" s="59" t="s">
         <v>219</v>
       </c>
@@ -11054,7 +11108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="23">
+    <row r="103" spans="2:12" ht="26.25">
       <c r="B103" s="74" t="s">
         <v>315</v>
       </c>
@@ -11077,7 +11131,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="24" thickBot="1">
+    <row r="104" spans="2:12" ht="27" thickBot="1">
       <c r="B104" s="68" t="s">
         <v>238</v>
       </c>
@@ -11096,7 +11150,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="23">
+    <row r="105" spans="2:12" ht="26.25">
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
@@ -11109,8 +11163,8 @@
       <c r="K105" s="71"/>
       <c r="L105" s="71"/>
     </row>
-    <row r="107" spans="2:12" ht="18" thickBot="1"/>
-    <row r="108" spans="2:12" ht="31" thickBot="1">
+    <row r="107" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="108" spans="2:12" ht="32.25" thickBot="1">
       <c r="B108" s="55" t="s">
         <v>217</v>
       </c>
@@ -11127,7 +11181,7 @@
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
     </row>
-    <row r="109" spans="2:12" ht="31" thickBot="1">
+    <row r="109" spans="2:12" ht="32.25" thickBot="1">
       <c r="B109" s="59" t="s">
         <v>219</v>
       </c>
@@ -11162,7 +11216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="23">
+    <row r="110" spans="2:12" ht="26.25">
       <c r="B110" s="74" t="s">
         <v>315</v>
       </c>
@@ -11185,7 +11239,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="24" thickBot="1">
+    <row r="111" spans="2:12" ht="27" thickBot="1">
       <c r="B111" s="68" t="s">
         <v>238</v>
       </c>
@@ -11204,8 +11258,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="18" thickBot="1"/>
-    <row r="115" spans="2:12" ht="31" thickBot="1">
+    <row r="114" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:12" ht="32.25" thickBot="1">
       <c r="B115" s="55" t="s">
         <v>217</v>
       </c>
@@ -11222,7 +11276,7 @@
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
     </row>
-    <row r="116" spans="2:12" ht="31" thickBot="1">
+    <row r="116" spans="2:12" ht="32.25" thickBot="1">
       <c r="B116" s="59" t="s">
         <v>219</v>
       </c>
@@ -11257,7 +11311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="23">
+    <row r="117" spans="2:12" ht="26.25">
       <c r="B117" s="74" t="s">
         <v>263</v>
       </c>
@@ -11280,7 +11334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="24" thickBot="1">
+    <row r="118" spans="2:12" ht="27" thickBot="1">
       <c r="B118" s="68" t="s">
         <v>298</v>
       </c>
@@ -11303,8 +11357,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="18" thickBot="1"/>
-    <row r="122" spans="2:12" ht="31" thickBot="1">
+    <row r="121" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:12" ht="32.25" thickBot="1">
       <c r="B122" s="55" t="s">
         <v>217</v>
       </c>
@@ -11321,7 +11375,7 @@
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
     </row>
-    <row r="123" spans="2:12" ht="31" thickBot="1">
+    <row r="123" spans="2:12" ht="32.25" thickBot="1">
       <c r="B123" s="59" t="s">
         <v>219</v>
       </c>
@@ -11356,7 +11410,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="24" thickBot="1">
+    <row r="124" spans="2:12" ht="27" thickBot="1">
       <c r="B124" s="81" t="s">
         <v>230</v>
       </c>
@@ -11379,7 +11433,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="23">
+    <row r="125" spans="2:12" ht="26.25">
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
@@ -11392,8 +11446,8 @@
       <c r="K125" s="71"/>
       <c r="L125" s="71"/>
     </row>
-    <row r="127" spans="2:12" ht="18" thickBot="1"/>
-    <row r="128" spans="2:12" ht="31" thickBot="1">
+    <row r="127" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="128" spans="2:12" ht="32.25" thickBot="1">
       <c r="B128" s="55" t="s">
         <v>217</v>
       </c>
@@ -11410,7 +11464,7 @@
       <c r="K128" s="57"/>
       <c r="L128" s="58"/>
     </row>
-    <row r="129" spans="2:12" ht="31" thickBot="1">
+    <row r="129" spans="2:12" ht="32.25" thickBot="1">
       <c r="B129" s="59" t="s">
         <v>219</v>
       </c>
@@ -11445,28 +11499,83 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="24" thickBot="1">
-      <c r="B130" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C130" s="82" t="s">
+    <row r="130" spans="2:12" ht="26.25">
+      <c r="B130" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D130" s="83" t="s">
+      <c r="D130" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="E130" s="82" t="s">
+      <c r="E130" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="F130" s="84"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
-      <c r="L130" s="85" t="s">
+      <c r="F130" s="76"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
+      <c r="L130" s="64" t="s">
         <v>234</v>
       </c>
+    </row>
+    <row r="131" spans="2:12" ht="26.25">
+      <c r="B131" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" s="196"/>
+      <c r="E131" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="F131" s="78"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
+      <c r="J131" s="66"/>
+      <c r="K131" s="66"/>
+      <c r="L131" s="67" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="27" thickBot="1">
+      <c r="B132" s="192" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="193"/>
+      <c r="E132" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="194"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="195" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="26.25">
+      <c r="B133" s="191"/>
+      <c r="C133" s="191"/>
+      <c r="D133" s="191"/>
+      <c r="E133" s="191"/>
+      <c r="F133" s="191"/>
+      <c r="G133" s="191"/>
+      <c r="H133" s="191"/>
+      <c r="I133" s="191"/>
+      <c r="J133" s="191"/>
+      <c r="K133" s="191"/>
+      <c r="L133" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11489,31 +11598,31 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="156" t="s">
+    <row r="2" spans="2:10" ht="20.25">
+      <c r="B2" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -11600,18 +11709,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20">
-      <c r="B15" s="159" t="s">
+    <row r="15" spans="2:10" ht="20.25">
+      <c r="B15" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -11710,34 +11819,34 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="24.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="22" customWidth="1"/>
     <col min="10" max="10" width="23" style="22" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="164" t="s">
+    <row r="1" spans="2:11" ht="31.5">
+      <c r="B1" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-    </row>
-    <row r="2" spans="2:11" ht="27">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+    </row>
+    <row r="2" spans="2:11" ht="26.25">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -11749,21 +11858,21 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="173" t="s">
+    <row r="3" spans="2:11" ht="31.5">
+      <c r="B3" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="165" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -11778,14 +11887,14 @@
       <c r="G4" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-    </row>
-    <row r="5" spans="2:11" ht="23">
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.25">
       <c r="B5" s="38" t="s">
         <v>61</v>
       </c>
@@ -11793,13 +11902,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -11907,19 +12016,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="23">
+    <row r="13" spans="2:11" ht="26.25">
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="162" t="s">
+      <c r="G13" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="168"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12151,201 +12260,201 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="115.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="115.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.75" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="177"/>
-    </row>
-    <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="189"/>
+    </row>
+    <row r="3" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
-    </row>
-    <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+    </row>
+    <row r="4" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B4" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="181"/>
-    </row>
-    <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="182"/>
+    </row>
+    <row r="5" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B5" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="181"/>
-    </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="182"/>
+    </row>
+    <row r="6" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="181"/>
-    </row>
-    <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="182"/>
+    </row>
+    <row r="7" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-    </row>
-    <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="182"/>
+    </row>
+    <row r="8" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="186"/>
-    </row>
-    <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="182" t="s">
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="187"/>
+    </row>
+    <row r="11" spans="2:13" ht="26.25">
+      <c r="B11" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="183" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182" t="s">
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="182" t="s">
+      <c r="I11" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="J11" s="182" t="s">
+      <c r="J11" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="182" t="s">
+      <c r="K11" s="183" t="s">
         <v>168</v>
       </c>
-      <c r="L11" s="182" t="s">
+      <c r="L11" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="182" t="s">
+      <c r="M11" s="183" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
+    <row r="12" spans="2:13" ht="26.25">
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="8" t="s">
         <v>160</v>
       </c>
@@ -12358,12 +12467,12 @@
       <c r="G12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -12655,6 +12764,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -12667,11 +12781,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WoonHo\IdeaProjects\CloseUp\architecture\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\lwh\CloseUp\architecture\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2315E-DAE8-4375-8656-B8539493ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="416">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1009,10 +1008,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>expert_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>PK, FK</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1389,10 +1384,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>introduce</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>본인 소개</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1402,13 +1393,97 @@
   </si>
   <si>
     <t>지역</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert_user_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 아이디</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문분야명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert_user_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert_user_id</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -1802,7 +1877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2770,6 +2845,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2797,7 +2909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3128,6 +3240,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3146,57 +3318,57 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3204,39 +3376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3341,6 +3480,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3362,43 +3510,16 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색1 2" xfId="5" xr:uid="{DBBEB340-8606-4342-A14E-D7947F8B7316}"/>
-    <cellStyle name="40% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="40% - 강조색1 2" xfId="6" xr:uid="{3874B32A-2AE7-3245-85C4-13DD48C54ED8}"/>
-    <cellStyle name="강조색1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="강조색1 2" xfId="7" xr:uid="{36E8B50E-285F-0D48-A8DE-C7A432EAB4D8}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색1 2" xfId="5"/>
+    <cellStyle name="40% - 강조색1" xfId="3"/>
+    <cellStyle name="40% - 강조색1 2" xfId="6"/>
+    <cellStyle name="강조색1" xfId="1"/>
+    <cellStyle name="강조색1 2" xfId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{D894B16C-0B5F-9445-8F45-A7C9B7CC0B8F}"/>
+    <cellStyle name="표준 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3418,25 +3539,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>117825</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>663747</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>357187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C0FCF0-FB13-7E27-1F85-CFCAFF22969F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3455,8 +3570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24557182" y="1333500"/>
-          <a:ext cx="27709091" cy="11547825"/>
+          <a:off x="24503062" y="904875"/>
+          <a:ext cx="27595685" cy="14597062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3759,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12337408-0B41-B64E-BE03-9D72427C2EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CM33"/>
   <sheetViews>
     <sheetView topLeftCell="B5" workbookViewId="0">
@@ -3781,10 +3896,10 @@
       <c r="A3" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="126"/>
+      <c r="B3" s="120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="120"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -3876,10 +3991,10 @@
     </row>
     <row r="4" spans="1:91">
       <c r="A4" s="107" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
+        <v>380</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -3971,12 +4086,12 @@
     </row>
     <row r="5" spans="1:91">
       <c r="A5" s="107" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="126"/>
+      <c r="B5" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="120"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -4068,12 +4183,12 @@
     </row>
     <row r="6" spans="1:91">
       <c r="A6" s="107" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" s="126" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="126"/>
+      <c r="B6" s="120" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="120"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4165,12 +4280,12 @@
     </row>
     <row r="7" spans="1:91">
       <c r="A7" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="B7" s="125">
+        <v>375</v>
+      </c>
+      <c r="B7" s="119">
         <v>45436</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4262,10 +4377,10 @@
     </row>
     <row r="8" spans="1:91">
       <c r="A8" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+        <v>374</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4451,512 +4566,512 @@
       <c r="CM9" s="87"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="119" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="129" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="B10" s="129" t="s">
         <v>372</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="C10" s="129" t="s">
         <v>371</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="D10" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="E10" s="129" t="s">
         <v>369</v>
       </c>
+      <c r="F10" s="129" t="s">
+        <v>368</v>
+      </c>
       <c r="G10" s="106" t="s">
-        <v>368</v>
-      </c>
-      <c r="H10" s="123" t="s">
         <v>367</v>
       </c>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="123" t="s">
+      <c r="H10" s="127" t="s">
         <v>366</v>
       </c>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="124"/>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="124"/>
-      <c r="BL10" s="123" t="s">
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="127" t="s">
         <v>365</v>
       </c>
-      <c r="BM10" s="124"/>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="124"/>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="124"/>
-      <c r="BR10" s="124"/>
-      <c r="BS10" s="124"/>
-      <c r="BT10" s="124"/>
-      <c r="BU10" s="124"/>
-      <c r="BV10" s="124"/>
-      <c r="BW10" s="124"/>
-      <c r="BX10" s="124"/>
-      <c r="BY10" s="124"/>
-      <c r="BZ10" s="124"/>
-      <c r="CA10" s="124"/>
-      <c r="CB10" s="124"/>
-      <c r="CC10" s="124"/>
-      <c r="CD10" s="124"/>
-      <c r="CE10" s="124"/>
-      <c r="CF10" s="124"/>
-      <c r="CG10" s="124"/>
-      <c r="CH10" s="124"/>
-      <c r="CI10" s="124"/>
-      <c r="CJ10" s="124"/>
-      <c r="CK10" s="124"/>
-      <c r="CL10" s="124"/>
-      <c r="CM10" s="124"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="128"/>
+      <c r="AT10" s="128"/>
+      <c r="AU10" s="128"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="128"/>
+      <c r="BA10" s="128"/>
+      <c r="BB10" s="128"/>
+      <c r="BC10" s="128"/>
+      <c r="BD10" s="128"/>
+      <c r="BE10" s="128"/>
+      <c r="BF10" s="128"/>
+      <c r="BG10" s="128"/>
+      <c r="BH10" s="128"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="128"/>
+      <c r="BK10" s="128"/>
+      <c r="BL10" s="127" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM10" s="128"/>
+      <c r="BN10" s="128"/>
+      <c r="BO10" s="128"/>
+      <c r="BP10" s="128"/>
+      <c r="BQ10" s="128"/>
+      <c r="BR10" s="128"/>
+      <c r="BS10" s="128"/>
+      <c r="BT10" s="128"/>
+      <c r="BU10" s="128"/>
+      <c r="BV10" s="128"/>
+      <c r="BW10" s="128"/>
+      <c r="BX10" s="128"/>
+      <c r="BY10" s="128"/>
+      <c r="BZ10" s="128"/>
+      <c r="CA10" s="128"/>
+      <c r="CB10" s="128"/>
+      <c r="CC10" s="128"/>
+      <c r="CD10" s="128"/>
+      <c r="CE10" s="128"/>
+      <c r="CF10" s="128"/>
+      <c r="CG10" s="128"/>
+      <c r="CH10" s="128"/>
+      <c r="CI10" s="128"/>
+      <c r="CJ10" s="128"/>
+      <c r="CK10" s="128"/>
+      <c r="CL10" s="128"/>
+      <c r="CM10" s="128"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="105" t="s">
-        <v>364</v>
-      </c>
-      <c r="H11" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="116" t="s">
+      <c r="H11" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="116" t="s">
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="116" t="s">
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="116" t="s">
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="AR11" s="117"/>
-      <c r="AS11" s="117"/>
-      <c r="AT11" s="117"/>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="117"/>
-      <c r="AW11" s="118"/>
-      <c r="AX11" s="116" t="s">
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="122"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="AY11" s="117"/>
-      <c r="AZ11" s="117"/>
-      <c r="BA11" s="117"/>
-      <c r="BB11" s="117"/>
-      <c r="BC11" s="117"/>
-      <c r="BD11" s="118"/>
-      <c r="BE11" s="116" t="s">
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="122"/>
+      <c r="AU11" s="122"/>
+      <c r="AV11" s="122"/>
+      <c r="AW11" s="123"/>
+      <c r="AX11" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="BF11" s="117"/>
-      <c r="BG11" s="117"/>
-      <c r="BH11" s="117"/>
-      <c r="BI11" s="117"/>
-      <c r="BJ11" s="117"/>
-      <c r="BK11" s="118"/>
-      <c r="BL11" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="BM11" s="117"/>
-      <c r="BN11" s="117"/>
-      <c r="BO11" s="117"/>
-      <c r="BP11" s="117"/>
-      <c r="BQ11" s="117"/>
-      <c r="BR11" s="118"/>
-      <c r="BS11" s="116" t="s">
+      <c r="AY11" s="122"/>
+      <c r="AZ11" s="122"/>
+      <c r="BA11" s="122"/>
+      <c r="BB11" s="122"/>
+      <c r="BC11" s="122"/>
+      <c r="BD11" s="123"/>
+      <c r="BE11" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF11" s="122"/>
+      <c r="BG11" s="122"/>
+      <c r="BH11" s="122"/>
+      <c r="BI11" s="122"/>
+      <c r="BJ11" s="122"/>
+      <c r="BK11" s="123"/>
+      <c r="BL11" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="117"/>
-      <c r="BX11" s="117"/>
-      <c r="BY11" s="118"/>
-      <c r="BZ11" s="116" t="s">
+      <c r="BM11" s="122"/>
+      <c r="BN11" s="122"/>
+      <c r="BO11" s="122"/>
+      <c r="BP11" s="122"/>
+      <c r="BQ11" s="122"/>
+      <c r="BR11" s="123"/>
+      <c r="BS11" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="CA11" s="117"/>
-      <c r="CB11" s="117"/>
-      <c r="CC11" s="117"/>
-      <c r="CD11" s="117"/>
-      <c r="CE11" s="117"/>
-      <c r="CF11" s="118"/>
-      <c r="CG11" s="116" t="s">
+      <c r="BT11" s="122"/>
+      <c r="BU11" s="122"/>
+      <c r="BV11" s="122"/>
+      <c r="BW11" s="122"/>
+      <c r="BX11" s="122"/>
+      <c r="BY11" s="123"/>
+      <c r="BZ11" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="CH11" s="117"/>
-      <c r="CI11" s="117"/>
-      <c r="CJ11" s="117"/>
-      <c r="CK11" s="117"/>
-      <c r="CL11" s="117"/>
-      <c r="CM11" s="118"/>
+      <c r="CA11" s="122"/>
+      <c r="CB11" s="122"/>
+      <c r="CC11" s="122"/>
+      <c r="CD11" s="122"/>
+      <c r="CE11" s="122"/>
+      <c r="CF11" s="123"/>
+      <c r="CG11" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="CH11" s="122"/>
+      <c r="CI11" s="122"/>
+      <c r="CJ11" s="122"/>
+      <c r="CK11" s="122"/>
+      <c r="CL11" s="122"/>
+      <c r="CM11" s="123"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="105" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H12" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I12" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="L12" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="M12" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="N12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="O12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="P12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="Q12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="L12" s="104" t="s">
+      <c r="R12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="M12" s="104" t="s">
+      <c r="S12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="T12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="O12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="P12" s="104" t="s">
+      <c r="U12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="V12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="Q12" s="104" t="s">
+      <c r="W12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="R12" s="104" t="s">
+      <c r="X12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="S12" s="104" t="s">
+      <c r="Y12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="T12" s="104" t="s">
+      <c r="Z12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="U12" s="104" t="s">
+      <c r="AA12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="V12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="W12" s="104" t="s">
+      <c r="AB12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="X12" s="104" t="s">
+      <c r="AD12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="Y12" s="104" t="s">
+      <c r="AE12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="Z12" s="104" t="s">
+      <c r="AF12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AA12" s="104" t="s">
+      <c r="AG12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AB12" s="104" t="s">
+      <c r="AH12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AC12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD12" s="104" t="s">
+      <c r="AI12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="AE12" s="104" t="s">
+      <c r="AK12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AF12" s="104" t="s">
+      <c r="AL12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AG12" s="104" t="s">
+      <c r="AM12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AH12" s="104" t="s">
+      <c r="AN12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AI12" s="104" t="s">
+      <c r="AO12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AJ12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK12" s="104" t="s">
+      <c r="AP12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="AL12" s="104" t="s">
+      <c r="AR12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AM12" s="104" t="s">
+      <c r="AS12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AN12" s="104" t="s">
+      <c r="AT12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AO12" s="104" t="s">
+      <c r="AU12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AP12" s="104" t="s">
+      <c r="AV12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AQ12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="AR12" s="104" t="s">
+      <c r="AW12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="AS12" s="104" t="s">
+      <c r="AY12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AT12" s="104" t="s">
+      <c r="AZ12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AU12" s="104" t="s">
+      <c r="BA12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AV12" s="104" t="s">
+      <c r="BB12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AW12" s="104" t="s">
+      <c r="BC12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AX12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="AY12" s="104" t="s">
+      <c r="BD12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="AZ12" s="104" t="s">
+      <c r="BF12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BA12" s="104" t="s">
+      <c r="BG12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BB12" s="104" t="s">
+      <c r="BH12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BC12" s="104" t="s">
+      <c r="BI12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BD12" s="104" t="s">
+      <c r="BJ12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BE12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="BF12" s="104" t="s">
+      <c r="BK12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="BG12" s="104" t="s">
+      <c r="BM12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BH12" s="104" t="s">
+      <c r="BN12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BI12" s="104" t="s">
+      <c r="BO12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BJ12" s="104" t="s">
+      <c r="BP12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BK12" s="104" t="s">
+      <c r="BQ12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BL12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM12" s="104" t="s">
+      <c r="BR12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="BS12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="BN12" s="104" t="s">
+      <c r="BT12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BO12" s="104" t="s">
+      <c r="BU12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BP12" s="104" t="s">
+      <c r="BV12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BQ12" s="104" t="s">
+      <c r="BW12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BR12" s="104" t="s">
+      <c r="BX12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BS12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="BT12" s="104" t="s">
+      <c r="BY12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="BZ12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="BU12" s="104" t="s">
+      <c r="CA12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BV12" s="104" t="s">
+      <c r="CB12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BW12" s="104" t="s">
+      <c r="CC12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BX12" s="104" t="s">
+      <c r="CD12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BY12" s="104" t="s">
+      <c r="CE12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BZ12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="CA12" s="104" t="s">
+      <c r="CF12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="CG12" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="CB12" s="104" t="s">
+      <c r="CH12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="CC12" s="104" t="s">
+      <c r="CI12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="CD12" s="104" t="s">
+      <c r="CJ12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="CE12" s="104" t="s">
+      <c r="CK12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="CF12" s="104" t="s">
+      <c r="CL12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="CG12" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="CH12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="CI12" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="CJ12" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="CK12" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="CL12" s="104" t="s">
-        <v>353</v>
-      </c>
       <c r="CM12" s="104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="120" t="s">
-        <v>351</v>
+      <c r="A13" s="124" t="s">
+        <v>350</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" s="95">
         <v>45437</v>
@@ -4965,7 +5080,7 @@
         <v>45439</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="94"/>
@@ -5053,15 +5168,15 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="121"/>
-      <c r="B14" s="120" t="s">
-        <v>347</v>
+      <c r="A14" s="125"/>
+      <c r="B14" s="124" t="s">
+        <v>346</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" s="95">
         <v>45440</v>
@@ -5070,7 +5185,7 @@
         <v>45441</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -5158,13 +5273,13 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="95">
         <v>45441</v>
@@ -5173,7 +5288,7 @@
         <v>45442</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
@@ -5261,13 +5376,13 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E16" s="95">
         <v>45442</v>
@@ -5276,7 +5391,7 @@
         <v>45443</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
@@ -5364,13 +5479,13 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" s="95">
         <v>45443</v>
@@ -5379,7 +5494,7 @@
         <v>45443</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H17" s="92"/>
       <c r="I17" s="92"/>
@@ -5467,13 +5582,13 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E18" s="95">
         <v>45449</v>
@@ -5482,7 +5597,7 @@
         <v>45449</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
@@ -5570,17 +5685,17 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="110" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="113" t="s">
+      <c r="A19" s="130" t="s">
         <v>338</v>
       </c>
+      <c r="B19" s="133" t="s">
+        <v>337</v>
+      </c>
       <c r="C19" s="93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" s="95">
         <v>45450</v>
@@ -5589,7 +5704,7 @@
         <v>45453</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -5677,13 +5792,13 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="111"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="95">
         <v>45460</v>
@@ -5692,7 +5807,7 @@
         <v>45460</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
@@ -5780,13 +5895,13 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="111"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="95">
         <v>45460</v>
@@ -5795,7 +5910,7 @@
         <v>45467</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
@@ -5883,15 +5998,15 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="112"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E22" s="95">
         <v>45460</v>
@@ -5900,7 +6015,7 @@
         <v>45469</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
@@ -5991,10 +6106,10 @@
       <c r="A23" s="92"/>
       <c r="B23" s="92"/>
       <c r="C23" s="93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
@@ -6179,16 +6294,16 @@
     </row>
     <row r="25" spans="1:91">
       <c r="A25" s="92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E25" s="95">
         <v>45470</v>
@@ -6286,10 +6401,10 @@
       <c r="A26" s="92"/>
       <c r="B26" s="93"/>
       <c r="C26" s="96" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E26" s="95">
         <v>45475</v>
@@ -6385,7 +6500,7 @@
       <c r="A27" s="92"/>
       <c r="B27" s="93"/>
       <c r="C27" s="96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D27" s="93"/>
       <c r="E27" s="95"/>
@@ -6479,7 +6594,7 @@
     <row r="28" spans="1:91">
       <c r="A28" s="92"/>
       <c r="B28" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
@@ -6573,7 +6688,7 @@
     </row>
     <row r="29" spans="1:91">
       <c r="A29" s="92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
@@ -7040,12 +7155,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -7062,15 +7180,12 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7078,7 +7193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:F128"/>
   <sheetViews>
@@ -7099,61 +7214,61 @@
       <c r="A2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="136">
         <v>1</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
       <c r="B3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
     </row>
     <row r="4" spans="1:6" ht="20.25">
       <c r="B4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6" ht="20.25">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" spans="1:6" ht="17.25">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" ht="17.25">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="33" t="s">
         <v>185</v>
       </c>
@@ -7166,7 +7281,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>119</v>
@@ -7175,7 +7290,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -7190,18 +7305,18 @@
         <v>23</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20.25">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
     </row>
     <row r="11" spans="1:6" ht="17.25">
       <c r="B11" s="33" t="s">
@@ -7215,15 +7330,15 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -7231,7 +7346,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>5</v>
@@ -7248,13 +7363,13 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="26.25">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:6" ht="17.25">
       <c r="B16" s="33" t="s">
@@ -7363,61 +7478,61 @@
       <c r="F29" s="109"/>
     </row>
     <row r="35" spans="2:6" ht="20.25">
-      <c r="B35" s="136">
+      <c r="B35" s="141">
         <v>2</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
     </row>
     <row r="36" spans="2:6" ht="20.25">
       <c r="B36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="140"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
     </row>
     <row r="37" spans="2:6" ht="20.25">
       <c r="B37" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="147"/>
     </row>
     <row r="38" spans="2:6" ht="20.25">
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
     </row>
     <row r="39" spans="2:6" ht="17.25">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="128"/>
-      <c r="F39" s="129"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="152"/>
     </row>
     <row r="40" spans="2:6" ht="17.25">
-      <c r="B40" s="127"/>
-      <c r="C40" s="128"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="33" t="s">
         <v>185</v>
       </c>
@@ -7457,13 +7572,13 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="132"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="150"/>
     </row>
     <row r="46" spans="2:6" ht="17.25">
       <c r="B46" s="32" t="s">
@@ -7500,13 +7615,13 @@
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:6" ht="26.25">
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="135"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="155"/>
     </row>
     <row r="51" spans="2:6" ht="17.25">
       <c r="B51" s="32" t="s">
@@ -7613,61 +7728,61 @@
       <c r="F64" s="29"/>
     </row>
     <row r="67" spans="2:6" ht="20.25">
-      <c r="B67" s="136">
+      <c r="B67" s="141">
         <v>3</v>
       </c>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="138"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="143"/>
     </row>
     <row r="68" spans="2:6" ht="20.25">
       <c r="B68" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="139" t="s">
+      <c r="C68" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="140"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="145"/>
     </row>
     <row r="69" spans="2:6" ht="20.25">
       <c r="B69" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="141" t="s">
+      <c r="C69" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="142"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="147"/>
     </row>
     <row r="70" spans="2:6" ht="20.25">
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="132"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="150"/>
     </row>
     <row r="71" spans="2:6" ht="17.25">
-      <c r="B71" s="127" t="s">
+      <c r="B71" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="128" t="s">
+      <c r="C71" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="128" t="s">
+      <c r="D71" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="128"/>
-      <c r="F71" s="129"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="152"/>
     </row>
     <row r="72" spans="2:6" ht="17.25">
-      <c r="B72" s="127"/>
-      <c r="C72" s="128"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="140"/>
       <c r="D72" s="33" t="s">
         <v>185</v>
       </c>
@@ -7707,13 +7822,13 @@
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="2:6" ht="20.25">
-      <c r="B77" s="130" t="s">
+      <c r="B77" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="131"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="132"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="149"/>
+      <c r="F77" s="150"/>
     </row>
     <row r="78" spans="2:6" ht="17.25">
       <c r="B78" s="32" t="s">
@@ -7750,13 +7865,13 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="2:6" ht="26.25">
-      <c r="B82" s="133" t="s">
+      <c r="B82" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="134"/>
-      <c r="D82" s="134"/>
-      <c r="E82" s="134"/>
-      <c r="F82" s="135"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="155"/>
     </row>
     <row r="83" spans="2:6" ht="17.25">
       <c r="B83" s="32" t="s">
@@ -7863,61 +7978,61 @@
       <c r="F96" s="29"/>
     </row>
     <row r="99" spans="2:6" ht="20.25">
-      <c r="B99" s="136">
+      <c r="B99" s="141">
         <v>4</v>
       </c>
-      <c r="C99" s="137"/>
-      <c r="D99" s="137"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="138"/>
+      <c r="C99" s="142"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="142"/>
+      <c r="F99" s="143"/>
     </row>
     <row r="100" spans="2:6" ht="20.25">
       <c r="B100" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="139" t="s">
+      <c r="C100" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="D100" s="139"/>
-      <c r="E100" s="139"/>
-      <c r="F100" s="140"/>
+      <c r="D100" s="144"/>
+      <c r="E100" s="144"/>
+      <c r="F100" s="145"/>
     </row>
     <row r="101" spans="2:6" ht="20.25">
       <c r="B101" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C101" s="141" t="s">
+      <c r="C101" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="141"/>
-      <c r="E101" s="141"/>
-      <c r="F101" s="142"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="146"/>
+      <c r="F101" s="147"/>
     </row>
     <row r="102" spans="2:6" ht="20.25">
-      <c r="B102" s="130" t="s">
+      <c r="B102" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="131"/>
-      <c r="F102" s="132"/>
+      <c r="C102" s="149"/>
+      <c r="D102" s="149"/>
+      <c r="E102" s="149"/>
+      <c r="F102" s="150"/>
     </row>
     <row r="103" spans="2:6" ht="17.25">
-      <c r="B103" s="127" t="s">
+      <c r="B103" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="128" t="s">
+      <c r="C103" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="128" t="s">
+      <c r="D103" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="128"/>
-      <c r="F103" s="129"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="152"/>
     </row>
     <row r="104" spans="2:6" ht="17.25">
-      <c r="B104" s="127"/>
-      <c r="C104" s="128"/>
+      <c r="B104" s="151"/>
+      <c r="C104" s="140"/>
       <c r="D104" s="33" t="s">
         <v>185</v>
       </c>
@@ -7957,13 +8072,13 @@
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="2:6" ht="20.25">
-      <c r="B109" s="130" t="s">
+      <c r="B109" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="131"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="131"/>
-      <c r="F109" s="132"/>
+      <c r="C109" s="149"/>
+      <c r="D109" s="149"/>
+      <c r="E109" s="149"/>
+      <c r="F109" s="150"/>
     </row>
     <row r="110" spans="2:6" ht="17.25">
       <c r="B110" s="32" t="s">
@@ -8000,13 +8115,13 @@
       <c r="F113" s="29"/>
     </row>
     <row r="114" spans="2:6" ht="26.25">
-      <c r="B114" s="133" t="s">
+      <c r="B114" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="134"/>
-      <c r="D114" s="134"/>
-      <c r="E114" s="134"/>
-      <c r="F114" s="135"/>
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
+      <c r="E114" s="154"/>
+      <c r="F114" s="155"/>
     </row>
     <row r="115" spans="2:6" ht="17.25">
       <c r="B115" s="32" t="s">
@@ -8114,6 +8229,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B15:F15"/>
@@ -8123,33 +8265,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B114:F114"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8158,7 +8273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
@@ -8181,17 +8296,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="33.75">
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="155"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="164"/>
     </row>
     <row r="3" spans="3:11" ht="20.25">
       <c r="C3" s="53" t="s">
@@ -8223,10 +8338,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="156" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="21"/>
@@ -8244,8 +8359,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="149"/>
-      <c r="D5" s="147"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -8261,8 +8376,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="149"/>
-      <c r="D6" s="147"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -8278,8 +8393,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="149"/>
-      <c r="D7" s="147"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="156"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -8295,8 +8410,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="149"/>
-      <c r="D8" s="147"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -8312,8 +8427,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="149"/>
-      <c r="D9" s="147"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -8329,8 +8444,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="149"/>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="156" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="21"/>
@@ -8348,8 +8463,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="149"/>
-      <c r="D11" s="147"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -8365,8 +8480,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="3:11" ht="16.7" customHeight="1">
-      <c r="C12" s="150"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="156" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="21"/>
@@ -8384,8 +8499,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="150"/>
-      <c r="D13" s="156"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -8401,8 +8516,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="150"/>
-      <c r="D14" s="147"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -8418,8 +8533,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="150"/>
-      <c r="D15" s="147" t="s">
+      <c r="C15" s="159"/>
+      <c r="D15" s="156" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -8437,8 +8552,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="150"/>
-      <c r="D16" s="156"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -8454,8 +8569,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="150"/>
-      <c r="D17" s="147"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -8471,8 +8586,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="150"/>
-      <c r="D18" s="147"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -8488,8 +8603,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="150"/>
-      <c r="D19" s="147"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -8505,8 +8620,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="150"/>
-      <c r="D20" s="147"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="156"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -8522,8 +8637,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="150"/>
-      <c r="D21" s="147"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="156"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -8539,8 +8654,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="150"/>
-      <c r="D22" s="147"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="156"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -8556,8 +8671,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="150"/>
-      <c r="D23" s="147"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="156"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -8573,8 +8688,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="150"/>
-      <c r="D24" s="147"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="156"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -8590,8 +8705,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="150"/>
-      <c r="D25" s="147" t="s">
+      <c r="C25" s="159"/>
+      <c r="D25" s="156" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="21"/>
@@ -8609,8 +8724,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="150"/>
-      <c r="D26" s="147"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="156"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -8626,8 +8741,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="150"/>
-      <c r="D27" s="147"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="156"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -8643,8 +8758,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="151"/>
-      <c r="D28" s="147"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -8660,8 +8775,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="151"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="156"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -8677,8 +8792,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="151"/>
-      <c r="D30" s="147"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -8694,8 +8809,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="151"/>
-      <c r="D31" s="147"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="156"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -8711,8 +8826,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="151"/>
-      <c r="D32" s="147"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="156"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -8728,8 +8843,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="151"/>
-      <c r="D33" s="147"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="156"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -8745,8 +8860,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="151"/>
-      <c r="D34" s="147"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="156"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -8762,8 +8877,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="151"/>
-      <c r="D35" s="147"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="156"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -8779,8 +8894,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="151"/>
-      <c r="D36" s="147"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -8796,8 +8911,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="151"/>
-      <c r="D37" s="147" t="s">
+      <c r="C37" s="160"/>
+      <c r="D37" s="156" t="s">
         <v>102</v>
       </c>
       <c r="E37" s="21"/>
@@ -8815,8 +8930,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="151"/>
-      <c r="D38" s="147"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="156"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -8832,8 +8947,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="151"/>
-      <c r="D39" s="147"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="156"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -8849,8 +8964,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="151"/>
-      <c r="D40" s="147"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="156"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -8866,8 +8981,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="151"/>
-      <c r="D41" s="147"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="156"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -8883,8 +8998,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="151"/>
-      <c r="D42" s="147"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="156"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -8900,8 +9015,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="151"/>
-      <c r="D43" s="147"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="156"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -8917,8 +9032,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="151"/>
-      <c r="D44" s="147"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -8934,8 +9049,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="151"/>
-      <c r="D45" s="147"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="156"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -8951,8 +9066,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="152"/>
-      <c r="D46" s="147"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="156"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -8985,12 +9100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:BA133"/>
+  <dimension ref="B1:BA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9005,61 +9120,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="39" thickBot="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="160"/>
-      <c r="N1" s="157" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="N1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="157"/>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157"/>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="157"/>
-      <c r="AW1" s="157"/>
-      <c r="AX1" s="157"/>
-      <c r="AY1" s="157"/>
-      <c r="AZ1" s="157"/>
-      <c r="BA1" s="157"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166"/>
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166"/>
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166"/>
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166"/>
     </row>
     <row r="2" spans="2:53" ht="32.25" thickBot="1">
       <c r="B2" s="55" t="s">
@@ -10436,13 +10551,13 @@
     </row>
     <row r="69" spans="2:12" ht="26.25">
       <c r="B69" s="65" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>231</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E69" s="66" t="s">
         <v>233</v>
@@ -10454,12 +10569,12 @@
       <c r="J69" s="66"/>
       <c r="K69" s="66"/>
       <c r="L69" s="67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="26.25">
       <c r="B70" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>260</v>
@@ -10477,12 +10592,12 @@
       <c r="J70" s="66"/>
       <c r="K70" s="66"/>
       <c r="L70" s="67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="27" thickBot="1">
       <c r="B71" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C71" s="69" t="s">
         <v>271</v>
@@ -10498,7 +10613,7 @@
       <c r="J71" s="69"/>
       <c r="K71" s="69"/>
       <c r="L71" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="26.25">
@@ -10545,7 +10660,7 @@
         <v>217</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -10617,7 +10732,7 @@
     </row>
     <row r="78" spans="2:12" ht="26.25">
       <c r="B78" s="65" t="s">
-        <v>298</v>
+        <v>415</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>231</v>
@@ -10635,7 +10750,7 @@
       <c r="J78" s="66"/>
       <c r="K78" s="66"/>
       <c r="L78" s="67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="26.25">
@@ -10724,7 +10839,7 @@
         <v>217</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="57"/>
@@ -10819,7 +10934,7 @@
     </row>
     <row r="88" spans="2:12" ht="26.25">
       <c r="B88" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>257</v>
@@ -10837,12 +10952,12 @@
       <c r="J88" s="66"/>
       <c r="K88" s="66"/>
       <c r="L88" s="67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="27" thickBot="1">
       <c r="B89" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C89" s="69" t="s">
         <v>283</v>
@@ -10858,7 +10973,7 @@
       <c r="J89" s="69"/>
       <c r="K89" s="69"/>
       <c r="L89" s="70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="2:12" ht="38.25">
@@ -10905,7 +11020,7 @@
         <v>217</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
@@ -10960,7 +11075,7 @@
         <v>231</v>
       </c>
       <c r="D95" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E95" s="63" t="s">
         <v>233</v>
@@ -10983,7 +11098,7 @@
         <v>257</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" s="66" t="s">
         <v>233</v>
@@ -11000,7 +11115,7 @@
     </row>
     <row r="97" spans="2:12" ht="27" thickBot="1">
       <c r="B97" s="68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97" s="69" t="s">
         <v>250</v>
@@ -11014,7 +11129,7 @@
       <c r="J97" s="69"/>
       <c r="K97" s="69"/>
       <c r="L97" s="70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="2:12" ht="26.25">
@@ -11061,7 +11176,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
@@ -11110,7 +11225,7 @@
     </row>
     <row r="103" spans="2:12" ht="26.25">
       <c r="B103" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C103" s="75" t="s">
         <v>260</v>
@@ -11128,7 +11243,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="63"/>
       <c r="L103" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="2:12" ht="27" thickBot="1">
@@ -11139,7 +11254,9 @@
         <v>260</v>
       </c>
       <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
+      <c r="E104" s="69" t="s">
+        <v>409</v>
+      </c>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
       <c r="H104" s="69"/>
@@ -11169,7 +11286,7 @@
         <v>217</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D108" s="57"/>
       <c r="E108" s="57"/>
@@ -11218,7 +11335,7 @@
     </row>
     <row r="110" spans="2:12" ht="26.25">
       <c r="B110" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110" s="75" t="s">
         <v>260</v>
@@ -11236,7 +11353,7 @@
       <c r="J110" s="63"/>
       <c r="K110" s="63"/>
       <c r="L110" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="2:12" ht="27" thickBot="1">
@@ -11247,7 +11364,9 @@
         <v>260</v>
       </c>
       <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
+      <c r="E111" s="69" t="s">
+        <v>410</v>
+      </c>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
       <c r="H111" s="69"/>
@@ -11264,7 +11383,7 @@
         <v>217</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="57"/>
       <c r="E115" s="57"/>
@@ -11319,7 +11438,7 @@
         <v>231</v>
       </c>
       <c r="D117" s="79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E117" s="75" t="s">
         <v>233</v>
@@ -11336,13 +11455,13 @@
     </row>
     <row r="118" spans="2:12" ht="27" thickBot="1">
       <c r="B118" s="68" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="C118" s="69" t="s">
         <v>231</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E118" s="80" t="s">
         <v>233</v>
@@ -11354,7 +11473,7 @@
       <c r="J118" s="69"/>
       <c r="K118" s="69"/>
       <c r="L118" s="70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="17.25" thickBot="1"/>
@@ -11363,7 +11482,7 @@
         <v>217</v>
       </c>
       <c r="C122" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="57"/>
       <c r="E122" s="57"/>
@@ -11452,7 +11571,7 @@
         <v>217</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
@@ -11507,7 +11626,7 @@
         <v>231</v>
       </c>
       <c r="D130" s="79" t="s">
-        <v>232</v>
+        <v>395</v>
       </c>
       <c r="E130" s="63" t="s">
         <v>233</v>
@@ -11524,14 +11643,14 @@
     </row>
     <row r="131" spans="2:12" ht="26.25">
       <c r="B131" s="77" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C131" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="D131" s="196"/>
+      <c r="D131" s="115"/>
       <c r="E131" s="66" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="F131" s="78"/>
       <c r="G131" s="66"/>
@@ -11540,42 +11659,352 @@
       <c r="J131" s="66"/>
       <c r="K131" s="66"/>
       <c r="L131" s="67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="2:12" ht="27" thickBot="1">
-      <c r="B132" s="192" t="s">
-        <v>395</v>
+      <c r="B132" s="111" t="s">
+        <v>393</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="D132" s="193"/>
+      <c r="D132" s="112"/>
       <c r="E132" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" s="194"/>
+        <v>412</v>
+      </c>
+      <c r="F132" s="113"/>
       <c r="G132" s="80"/>
       <c r="H132" s="80"/>
       <c r="I132" s="80"/>
       <c r="J132" s="80"/>
       <c r="K132" s="80"/>
-      <c r="L132" s="195" t="s">
+      <c r="L132" s="114" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="26.25">
+      <c r="B133" s="110"/>
+      <c r="C133" s="110"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="110"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="110"/>
+      <c r="I133" s="110"/>
+      <c r="J133" s="110"/>
+      <c r="K133" s="110"/>
+      <c r="L133" s="110"/>
+    </row>
+    <row r="135" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="136" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B136" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" s="56" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="133" spans="2:12" ht="26.25">
-      <c r="B133" s="191"/>
-      <c r="C133" s="191"/>
-      <c r="D133" s="191"/>
-      <c r="E133" s="191"/>
-      <c r="F133" s="191"/>
-      <c r="G133" s="191"/>
-      <c r="H133" s="191"/>
-      <c r="I133" s="191"/>
-      <c r="J133" s="191"/>
-      <c r="K133" s="191"/>
-      <c r="L133" s="191"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="58"/>
+    </row>
+    <row r="137" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B137" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F137" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H137" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="I137" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J137" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K137" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="L137" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" ht="26.25">
+      <c r="B138" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C138" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E138" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F138" s="76"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="27" thickBot="1">
+      <c r="B139" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D139" s="117" t="s">
+        <v>401</v>
+      </c>
+      <c r="E139" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F139" s="118"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="69"/>
+      <c r="J139" s="69"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="26.25">
+      <c r="B140" s="110"/>
+      <c r="C140" s="110"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="110"/>
+      <c r="G140" s="110"/>
+      <c r="H140" s="110"/>
+      <c r="I140" s="110"/>
+      <c r="J140" s="110"/>
+      <c r="K140" s="110"/>
+      <c r="L140" s="110"/>
+    </row>
+    <row r="142" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="143" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B143" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="57"/>
+      <c r="L143" s="58"/>
+    </row>
+    <row r="144" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B144" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D144" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E144" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F144" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G144" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H144" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="I144" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J144" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K144" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="L144" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" ht="26.25">
+      <c r="B145" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C145" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E145" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F145" s="76"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
+      <c r="K145" s="63"/>
+      <c r="L145" s="64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="27" thickBot="1">
+      <c r="B146" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="C146" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D146" s="117" t="s">
+        <v>401</v>
+      </c>
+      <c r="E146" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F146" s="118"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="150" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B150" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D150" s="57"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
+      <c r="K150" s="57"/>
+      <c r="L150" s="58"/>
+    </row>
+    <row r="151" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B151" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C151" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D151" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F151" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G151" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H151" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="I151" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J151" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K151" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="L151" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" ht="26.25">
+      <c r="B152" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C152" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E152" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F152" s="76"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="63"/>
+      <c r="K152" s="63"/>
+      <c r="L152" s="64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="27" thickBot="1">
+      <c r="B153" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="C153" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="D153" s="117" t="s">
+        <v>401</v>
+      </c>
+      <c r="E153" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F153" s="118"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="70" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11590,7 +12019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J18"/>
   <sheetViews>
@@ -11612,17 +12041,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="172"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -11710,17 +12139,17 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25">
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -11811,7 +12240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K29"/>
   <sheetViews>
@@ -11833,18 +12262,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="31.5">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="2:11" ht="26.25">
       <c r="B2" s="23"/>
@@ -11859,20 +12288,20 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="31.5">
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="170" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -11887,12 +12316,12 @@
       <c r="G4" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="177"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="186"/>
     </row>
     <row r="5" spans="2:11" ht="26.25">
       <c r="B5" s="38" t="s">
@@ -11902,13 +12331,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -12022,13 +12451,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="177"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12252,7 +12681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
@@ -12280,181 +12709,181 @@
       <c r="B2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="191"/>
     </row>
     <row r="3" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="140"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B4" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="182"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="194"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B5" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="182"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="194"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="182"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="194"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="181" t="s">
+      <c r="C7" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="182"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="194"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="187"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
     </row>
     <row r="11" spans="2:13" ht="26.25">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="183" t="s">
+      <c r="C11" s="195" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="183" t="s">
+      <c r="E11" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183" t="s">
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="J11" s="183" t="s">
+      <c r="J11" s="195" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="183" t="s">
+      <c r="K11" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="L11" s="183" t="s">
+      <c r="L11" s="195" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="183" t="s">
+      <c r="M11" s="195" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="26.25">
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
       <c r="D12" s="8" t="s">
         <v>160</v>
       </c>
@@ -12467,12 +12896,12 @@
       <c r="G12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -12764,11 +13193,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -12781,9 +13205,14 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\lwh\CloseUp\architecture\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE179384-05F1-6342-843A-D7811FAC60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="5800" yWindow="920" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="433">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -40,9 +41,6 @@
   </si>
   <si>
     <t>결함이 보고되었지만 아직 분석되지 않음</t>
-  </si>
-  <si>
-    <t>로그인 버튼 클릭 시 로그인 로직 호출</t>
   </si>
   <si>
     <t>사용자가 회원 등록을 할 수 있는 페이지</t>
@@ -1340,10 +1338,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>전문가 매칭 웹 사이트</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>10일</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -1356,10 +1350,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>기능명세서 수정</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1380,10 +1370,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아이디 자동저장 checked시, </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>본인 소개</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1478,12 +1464,95 @@
   <si>
     <t>expert_user_id</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>이운호</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성훈</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설계서 작성</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 작성</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>길보령</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.7.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오(PPT)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정우</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 관련 전문가를 매칭시켜주는 웹사이트</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 매칭 웹 사이트 (CloseUp)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 정규식 조건 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 정규식 조건 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련메서드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 상세</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디 자동저장 checked시, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -2909,7 +2978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3240,9 +3309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3267,6 +3333,42 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3298,24 +3400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3510,16 +3594,37 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="20% - 강조색1 2" xfId="5"/>
-    <cellStyle name="40% - 강조색1" xfId="3"/>
-    <cellStyle name="40% - 강조색1 2" xfId="6"/>
-    <cellStyle name="강조색1" xfId="1"/>
-    <cellStyle name="강조색1 2" xfId="7"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="40% - 강조색1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="강조색1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="강조색1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3551,7 +3656,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3874,32 +3985,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:CM33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:CM34"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="86" customWidth="1"/>
-    <col min="2" max="3" width="30.875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="86" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="86"/>
-    <col min="7" max="7" width="5.875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="86" customWidth="1"/>
+    <col min="2" max="3" width="30.83203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="86" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="86"/>
+    <col min="7" max="7" width="5.83203125" style="86" customWidth="1"/>
     <col min="8" max="91" width="1.5" style="86" customWidth="1"/>
-    <col min="92" max="16384" width="10.875" style="86"/>
+    <col min="92" max="16384" width="10.83203125" style="86"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:91">
       <c r="A3" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="120"/>
+        <v>265</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="131"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -3991,10 +4102,12 @@
     </row>
     <row r="4" spans="1:91">
       <c r="A4" s="107" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
+        <v>379</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="131"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -4086,12 +4199,12 @@
     </row>
     <row r="5" spans="1:91">
       <c r="A5" s="107" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="120"/>
+      <c r="B5" s="130" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="131"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -4183,12 +4296,12 @@
     </row>
     <row r="6" spans="1:91">
       <c r="A6" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="120" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="120"/>
+      <c r="B6" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="131"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4280,12 +4393,12 @@
     </row>
     <row r="7" spans="1:91">
       <c r="A7" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="119">
+        <v>374</v>
+      </c>
+      <c r="B7" s="130">
         <v>45436</v>
       </c>
-      <c r="C7" s="120"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4377,10 +4490,10 @@
     </row>
     <row r="8" spans="1:91">
       <c r="A8" s="107" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+        <v>373</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4566,512 +4679,512 @@
       <c r="CM9" s="87"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="129" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="B10" s="140" t="s">
         <v>371</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="140" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="E10" s="140" t="s">
         <v>368</v>
       </c>
+      <c r="F10" s="140" t="s">
+        <v>367</v>
+      </c>
       <c r="G10" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="H10" s="127" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="127" t="s">
+      <c r="H10" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="128"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="128"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="128"/>
-      <c r="BE10" s="128"/>
-      <c r="BF10" s="128"/>
-      <c r="BG10" s="128"/>
-      <c r="BH10" s="128"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="128"/>
-      <c r="BK10" s="128"/>
-      <c r="BL10" s="127" t="s">
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="BM10" s="128"/>
-      <c r="BN10" s="128"/>
-      <c r="BO10" s="128"/>
-      <c r="BP10" s="128"/>
-      <c r="BQ10" s="128"/>
-      <c r="BR10" s="128"/>
-      <c r="BS10" s="128"/>
-      <c r="BT10" s="128"/>
-      <c r="BU10" s="128"/>
-      <c r="BV10" s="128"/>
-      <c r="BW10" s="128"/>
-      <c r="BX10" s="128"/>
-      <c r="BY10" s="128"/>
-      <c r="BZ10" s="128"/>
-      <c r="CA10" s="128"/>
-      <c r="CB10" s="128"/>
-      <c r="CC10" s="128"/>
-      <c r="CD10" s="128"/>
-      <c r="CE10" s="128"/>
-      <c r="CF10" s="128"/>
-      <c r="CG10" s="128"/>
-      <c r="CH10" s="128"/>
-      <c r="CI10" s="128"/>
-      <c r="CJ10" s="128"/>
-      <c r="CK10" s="128"/>
-      <c r="CL10" s="128"/>
-      <c r="CM10" s="128"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="139"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="139"/>
+      <c r="AQ10" s="139"/>
+      <c r="AR10" s="139"/>
+      <c r="AS10" s="139"/>
+      <c r="AT10" s="139"/>
+      <c r="AU10" s="139"/>
+      <c r="AV10" s="139"/>
+      <c r="AW10" s="139"/>
+      <c r="AX10" s="139"/>
+      <c r="AY10" s="139"/>
+      <c r="AZ10" s="139"/>
+      <c r="BA10" s="139"/>
+      <c r="BB10" s="139"/>
+      <c r="BC10" s="139"/>
+      <c r="BD10" s="139"/>
+      <c r="BE10" s="139"/>
+      <c r="BF10" s="139"/>
+      <c r="BG10" s="139"/>
+      <c r="BH10" s="139"/>
+      <c r="BI10" s="139"/>
+      <c r="BJ10" s="139"/>
+      <c r="BK10" s="139"/>
+      <c r="BL10" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="BM10" s="139"/>
+      <c r="BN10" s="139"/>
+      <c r="BO10" s="139"/>
+      <c r="BP10" s="139"/>
+      <c r="BQ10" s="139"/>
+      <c r="BR10" s="139"/>
+      <c r="BS10" s="139"/>
+      <c r="BT10" s="139"/>
+      <c r="BU10" s="139"/>
+      <c r="BV10" s="139"/>
+      <c r="BW10" s="139"/>
+      <c r="BX10" s="139"/>
+      <c r="BY10" s="139"/>
+      <c r="BZ10" s="139"/>
+      <c r="CA10" s="139"/>
+      <c r="CB10" s="139"/>
+      <c r="CC10" s="139"/>
+      <c r="CD10" s="139"/>
+      <c r="CE10" s="139"/>
+      <c r="CF10" s="139"/>
+      <c r="CG10" s="139"/>
+      <c r="CH10" s="139"/>
+      <c r="CI10" s="139"/>
+      <c r="CJ10" s="139"/>
+      <c r="CK10" s="139"/>
+      <c r="CL10" s="139"/>
+      <c r="CM10" s="139"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="105" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="121" t="s">
+      <c r="H11" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="121" t="s">
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="132" t="s">
         <v>360</v>
       </c>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="121" t="s">
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="121" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="121" t="s">
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="132" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="134"/>
+      <c r="AJ11" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="123"/>
-      <c r="AX11" s="121" t="s">
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="133"/>
+      <c r="AO11" s="133"/>
+      <c r="AP11" s="134"/>
+      <c r="AQ11" s="132" t="s">
         <v>360</v>
       </c>
-      <c r="AY11" s="122"/>
-      <c r="AZ11" s="122"/>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="121" t="s">
+      <c r="AR11" s="133"/>
+      <c r="AS11" s="133"/>
+      <c r="AT11" s="133"/>
+      <c r="AU11" s="133"/>
+      <c r="AV11" s="133"/>
+      <c r="AW11" s="134"/>
+      <c r="AX11" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="121" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="121" t="s">
+      <c r="AY11" s="133"/>
+      <c r="AZ11" s="133"/>
+      <c r="BA11" s="133"/>
+      <c r="BB11" s="133"/>
+      <c r="BC11" s="133"/>
+      <c r="BD11" s="134"/>
+      <c r="BE11" s="132" t="s">
+        <v>358</v>
+      </c>
+      <c r="BF11" s="133"/>
+      <c r="BG11" s="133"/>
+      <c r="BH11" s="133"/>
+      <c r="BI11" s="133"/>
+      <c r="BJ11" s="133"/>
+      <c r="BK11" s="134"/>
+      <c r="BL11" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="BT11" s="122"/>
-      <c r="BU11" s="122"/>
-      <c r="BV11" s="122"/>
-      <c r="BW11" s="122"/>
-      <c r="BX11" s="122"/>
-      <c r="BY11" s="123"/>
-      <c r="BZ11" s="121" t="s">
+      <c r="BM11" s="133"/>
+      <c r="BN11" s="133"/>
+      <c r="BO11" s="133"/>
+      <c r="BP11" s="133"/>
+      <c r="BQ11" s="133"/>
+      <c r="BR11" s="134"/>
+      <c r="BS11" s="132" t="s">
         <v>360</v>
       </c>
-      <c r="CA11" s="122"/>
-      <c r="CB11" s="122"/>
-      <c r="CC11" s="122"/>
-      <c r="CD11" s="122"/>
-      <c r="CE11" s="122"/>
-      <c r="CF11" s="123"/>
-      <c r="CG11" s="121" t="s">
+      <c r="BT11" s="133"/>
+      <c r="BU11" s="133"/>
+      <c r="BV11" s="133"/>
+      <c r="BW11" s="133"/>
+      <c r="BX11" s="133"/>
+      <c r="BY11" s="134"/>
+      <c r="BZ11" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="CH11" s="122"/>
-      <c r="CI11" s="122"/>
-      <c r="CJ11" s="122"/>
-      <c r="CK11" s="122"/>
-      <c r="CL11" s="122"/>
-      <c r="CM11" s="123"/>
+      <c r="CA11" s="133"/>
+      <c r="CB11" s="133"/>
+      <c r="CC11" s="133"/>
+      <c r="CD11" s="133"/>
+      <c r="CE11" s="133"/>
+      <c r="CF11" s="134"/>
+      <c r="CG11" s="132" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH11" s="133"/>
+      <c r="CI11" s="133"/>
+      <c r="CJ11" s="133"/>
+      <c r="CK11" s="133"/>
+      <c r="CL11" s="133"/>
+      <c r="CM11" s="134"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I12" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="M12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="O12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="P12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="Q12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="L12" s="104" t="s">
+      <c r="R12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="M12" s="104" t="s">
+      <c r="S12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="T12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="O12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="P12" s="104" t="s">
+      <c r="U12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="V12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="Q12" s="104" t="s">
+      <c r="W12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="R12" s="104" t="s">
+      <c r="X12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="S12" s="104" t="s">
+      <c r="Y12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="T12" s="104" t="s">
+      <c r="Z12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="U12" s="104" t="s">
+      <c r="AA12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="V12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="W12" s="104" t="s">
+      <c r="AB12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="X12" s="104" t="s">
+      <c r="AD12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="Y12" s="104" t="s">
+      <c r="AE12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="Z12" s="104" t="s">
+      <c r="AF12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AA12" s="104" t="s">
+      <c r="AG12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AB12" s="104" t="s">
+      <c r="AH12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AC12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD12" s="104" t="s">
+      <c r="AI12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AE12" s="104" t="s">
+      <c r="AK12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AF12" s="104" t="s">
+      <c r="AL12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AG12" s="104" t="s">
+      <c r="AM12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AH12" s="104" t="s">
+      <c r="AN12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AI12" s="104" t="s">
+      <c r="AO12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AJ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK12" s="104" t="s">
+      <c r="AP12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AL12" s="104" t="s">
+      <c r="AR12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AM12" s="104" t="s">
+      <c r="AS12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AN12" s="104" t="s">
+      <c r="AT12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AO12" s="104" t="s">
+      <c r="AU12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AP12" s="104" t="s">
+      <c r="AV12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AQ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AR12" s="104" t="s">
+      <c r="AW12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AX12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AS12" s="104" t="s">
+      <c r="AY12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AT12" s="104" t="s">
+      <c r="AZ12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AU12" s="104" t="s">
+      <c r="BA12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AV12" s="104" t="s">
+      <c r="BB12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AW12" s="104" t="s">
+      <c r="BC12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AX12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AY12" s="104" t="s">
+      <c r="BD12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AZ12" s="104" t="s">
+      <c r="BF12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BA12" s="104" t="s">
+      <c r="BG12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BB12" s="104" t="s">
+      <c r="BH12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BC12" s="104" t="s">
+      <c r="BI12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BD12" s="104" t="s">
+      <c r="BJ12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BE12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BF12" s="104" t="s">
+      <c r="BK12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BG12" s="104" t="s">
+      <c r="BM12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BH12" s="104" t="s">
+      <c r="BN12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BI12" s="104" t="s">
+      <c r="BO12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BJ12" s="104" t="s">
+      <c r="BP12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BK12" s="104" t="s">
+      <c r="BQ12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BL12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM12" s="104" t="s">
+      <c r="BR12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BS12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BN12" s="104" t="s">
+      <c r="BT12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BO12" s="104" t="s">
+      <c r="BU12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BP12" s="104" t="s">
+      <c r="BV12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BQ12" s="104" t="s">
+      <c r="BW12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BR12" s="104" t="s">
+      <c r="BX12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BS12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BT12" s="104" t="s">
+      <c r="BY12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BZ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BU12" s="104" t="s">
+      <c r="CA12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BV12" s="104" t="s">
+      <c r="CB12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BW12" s="104" t="s">
+      <c r="CC12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BX12" s="104" t="s">
+      <c r="CD12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BY12" s="104" t="s">
+      <c r="CE12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BZ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="CA12" s="104" t="s">
+      <c r="CF12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="CG12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="CB12" s="104" t="s">
+      <c r="CH12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="CC12" s="104" t="s">
+      <c r="CI12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="CD12" s="104" t="s">
+      <c r="CJ12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="CE12" s="104" t="s">
+      <c r="CK12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="CF12" s="104" t="s">
+      <c r="CL12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="CG12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="CH12" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="CI12" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="CJ12" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="CK12" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="CL12" s="104" t="s">
-        <v>352</v>
-      </c>
       <c r="CM12" s="104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="124" t="s">
-        <v>350</v>
+      <c r="A13" s="135" t="s">
+        <v>349</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="95">
         <v>45437</v>
@@ -5080,7 +5193,7 @@
         <v>45439</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="94"/>
@@ -5168,15 +5281,15 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="125"/>
-      <c r="B14" s="124" t="s">
-        <v>346</v>
+      <c r="A14" s="136"/>
+      <c r="B14" s="135" t="s">
+        <v>345</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="95">
         <v>45440</v>
@@ -5185,7 +5298,7 @@
         <v>45441</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -5273,13 +5386,13 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E15" s="95">
         <v>45441</v>
@@ -5288,7 +5401,7 @@
         <v>45442</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
@@ -5376,13 +5489,13 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E16" s="95">
         <v>45442</v>
@@ -5391,7 +5504,7 @@
         <v>45443</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
@@ -5479,13 +5592,13 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="95">
         <v>45443</v>
@@ -5494,7 +5607,7 @@
         <v>45443</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" s="92"/>
       <c r="I17" s="92"/>
@@ -5582,13 +5695,13 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" s="95">
         <v>45449</v>
@@ -5597,7 +5710,7 @@
         <v>45449</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
@@ -5685,17 +5798,17 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="130" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="124" t="s">
         <v>337</v>
       </c>
+      <c r="B19" s="127" t="s">
+        <v>336</v>
+      </c>
       <c r="C19" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="95">
         <v>45450</v>
@@ -5704,7 +5817,7 @@
         <v>45453</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -5792,13 +5905,13 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="131"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="95">
         <v>45460</v>
@@ -5807,7 +5920,7 @@
         <v>45460</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
@@ -5895,13 +6008,13 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="131"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E21" s="95">
         <v>45460</v>
@@ -5910,7 +6023,7 @@
         <v>45467</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
@@ -5998,15 +6111,15 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="132"/>
-      <c r="B22" s="96" t="s">
-        <v>328</v>
+      <c r="A22" s="125"/>
+      <c r="B22" s="127" t="s">
+        <v>327</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="95">
         <v>45460</v>
@@ -6015,7 +6128,7 @@
         <v>45469</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
@@ -6103,15 +6216,17 @@
       <c r="CM22" s="91"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="93" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>326</v>
-      </c>
-      <c r="E23" s="92"/>
+        <v>413</v>
+      </c>
+      <c r="E23" s="95">
+        <v>45483</v>
+      </c>
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
@@ -6161,7 +6276,7 @@
       <c r="AZ23" s="91"/>
       <c r="BA23" s="91"/>
       <c r="BB23" s="91"/>
-      <c r="BC23" s="91"/>
+      <c r="BC23" s="97"/>
       <c r="BD23" s="91"/>
       <c r="BE23" s="91"/>
       <c r="BF23" s="91"/>
@@ -6200,11 +6315,17 @@
       <c r="CM23" s="91"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="120" t="s">
+        <v>417</v>
+      </c>
       <c r="F24" s="92"/>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
@@ -6254,7 +6375,7 @@
       <c r="AZ24" s="91"/>
       <c r="BA24" s="91"/>
       <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
+      <c r="BC24" s="97"/>
       <c r="BD24" s="91"/>
       <c r="BE24" s="91"/>
       <c r="BF24" s="91"/>
@@ -6293,24 +6414,16 @@
       <c r="CM24" s="91"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="92" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>323</v>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="93" t="s">
+        <v>418</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="95">
-        <v>45470</v>
-      </c>
-      <c r="F25" s="95">
-        <v>45476</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
       <c r="I25" s="92"/>
@@ -6346,20 +6459,20 @@
       <c r="AM25" s="92"/>
       <c r="AN25" s="92"/>
       <c r="AO25" s="92"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="94"/>
-      <c r="AV25" s="94"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="92"/>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="92"/>
       <c r="AW25" s="92"/>
       <c r="AX25" s="92"/>
       <c r="AY25" s="91"/>
       <c r="AZ25" s="91"/>
       <c r="BA25" s="91"/>
       <c r="BB25" s="91"/>
-      <c r="BC25" s="91"/>
+      <c r="BC25" s="97"/>
       <c r="BD25" s="91"/>
       <c r="BE25" s="91"/>
       <c r="BF25" s="91"/>
@@ -6398,18 +6511,24 @@
       <c r="CM25" s="91"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>323</v>
+      </c>
       <c r="C26" s="96" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="95">
-        <v>45475</v>
-      </c>
-      <c r="F26" s="92"/>
+        <v>45470</v>
+      </c>
+      <c r="F26" s="95">
+        <v>45476</v>
+      </c>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
@@ -6445,11 +6564,11 @@
       <c r="AM26" s="92"/>
       <c r="AN26" s="92"/>
       <c r="AO26" s="92"/>
-      <c r="AP26" s="92"/>
-      <c r="AQ26" s="92"/>
-      <c r="AR26" s="92"/>
-      <c r="AS26" s="92"/>
-      <c r="AT26" s="92"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="94"/>
       <c r="AV26" s="94"/>
       <c r="AW26" s="92"/>
@@ -6498,12 +6617,16 @@
     </row>
     <row r="27" spans="1:91">
       <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="96" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="95"/>
+        <v>381</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="95">
+        <v>45475</v>
+      </c>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -6545,15 +6668,15 @@
       <c r="AR27" s="92"/>
       <c r="AS27" s="92"/>
       <c r="AT27" s="92"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="92"/>
-      <c r="AW27" s="92"/>
-      <c r="AX27" s="92"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="97"/>
+      <c r="AZ27" s="97"/>
+      <c r="BA27" s="97"/>
+      <c r="BB27" s="97"/>
+      <c r="BC27" s="97"/>
       <c r="BD27" s="91"/>
       <c r="BE27" s="91"/>
       <c r="BF27" s="91"/>
@@ -6593,12 +6716,16 @@
     </row>
     <row r="28" spans="1:91">
       <c r="A28" s="92"/>
-      <c r="B28" s="93" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="95">
+        <v>45478</v>
+      </c>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
@@ -6687,12 +6814,14 @@
       <c r="CM28" s="91"/>
     </row>
     <row r="29" spans="1:91">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="93" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="92"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="D29" s="93" t="s">
+        <v>413</v>
+      </c>
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
@@ -6782,7 +6911,9 @@
       <c r="CM29" s="91"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="92"/>
+      <c r="A30" s="92" t="s">
+        <v>319</v>
+      </c>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -6875,97 +7006,97 @@
       <c r="CM30" s="91"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="88"/>
-      <c r="AQ31" s="88"/>
-      <c r="AR31" s="88"/>
-      <c r="AS31" s="88"/>
-      <c r="AT31" s="88"/>
-      <c r="AU31" s="88"/>
-      <c r="AV31" s="88"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="88"/>
-      <c r="AY31" s="88"/>
-      <c r="AZ31" s="88"/>
-      <c r="BA31" s="88"/>
-      <c r="BB31" s="88"/>
-      <c r="BC31" s="88"/>
-      <c r="BD31" s="88"/>
-      <c r="BE31" s="88"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="88"/>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="88"/>
-      <c r="BJ31" s="88"/>
-      <c r="BK31" s="88"/>
-      <c r="BL31" s="88"/>
-      <c r="BM31" s="88"/>
-      <c r="BN31" s="88"/>
-      <c r="BO31" s="88"/>
-      <c r="BP31" s="87"/>
-      <c r="BQ31" s="87"/>
-      <c r="BR31" s="87"/>
-      <c r="BS31" s="87"/>
-      <c r="BT31" s="87"/>
-      <c r="BU31" s="87"/>
-      <c r="BV31" s="87"/>
-      <c r="BW31" s="87"/>
-      <c r="BX31" s="87"/>
-      <c r="BY31" s="87"/>
-      <c r="BZ31" s="87"/>
-      <c r="CA31" s="87"/>
-      <c r="CB31" s="87"/>
-      <c r="CC31" s="87"/>
-      <c r="CD31" s="87"/>
-      <c r="CE31" s="87"/>
-      <c r="CF31" s="87"/>
-      <c r="CG31" s="87"/>
-      <c r="CH31" s="87"/>
-      <c r="CI31" s="87"/>
-      <c r="CJ31" s="87"/>
-      <c r="CK31" s="87"/>
-      <c r="CL31" s="87"/>
-      <c r="CM31" s="87"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="92"/>
+      <c r="AN31" s="92"/>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="91"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="91"/>
+      <c r="BG31" s="91"/>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="92"/>
+      <c r="BM31" s="92"/>
+      <c r="BN31" s="92"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BR31" s="92"/>
+      <c r="BS31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="92"/>
+      <c r="BV31" s="92"/>
+      <c r="BW31" s="92"/>
+      <c r="BX31" s="92"/>
+      <c r="BY31" s="92"/>
+      <c r="BZ31" s="92"/>
+      <c r="CA31" s="91"/>
+      <c r="CB31" s="91"/>
+      <c r="CC31" s="91"/>
+      <c r="CD31" s="91"/>
+      <c r="CE31" s="91"/>
+      <c r="CF31" s="91"/>
+      <c r="CG31" s="91"/>
+      <c r="CH31" s="91"/>
+      <c r="CI31" s="91"/>
+      <c r="CJ31" s="91"/>
+      <c r="CK31" s="91"/>
+      <c r="CL31" s="91"/>
+      <c r="CM31" s="91"/>
     </row>
     <row r="32" spans="1:91">
       <c r="A32" s="90"/>
@@ -7153,10 +7284,101 @@
       <c r="CL33" s="87"/>
       <c r="CM33" s="87"/>
     </row>
+    <row r="34" spans="1:91">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="88"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="88"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="88"/>
+      <c r="AP34" s="88"/>
+      <c r="AQ34" s="88"/>
+      <c r="AR34" s="88"/>
+      <c r="AS34" s="88"/>
+      <c r="AT34" s="88"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="88"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="88"/>
+      <c r="AY34" s="88"/>
+      <c r="AZ34" s="88"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="88"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="88"/>
+      <c r="BE34" s="88"/>
+      <c r="BF34" s="88"/>
+      <c r="BG34" s="88"/>
+      <c r="BH34" s="88"/>
+      <c r="BI34" s="88"/>
+      <c r="BJ34" s="88"/>
+      <c r="BK34" s="88"/>
+      <c r="BL34" s="88"/>
+      <c r="BM34" s="88"/>
+      <c r="BN34" s="88"/>
+      <c r="BO34" s="88"/>
+      <c r="BP34" s="87"/>
+      <c r="BQ34" s="87"/>
+      <c r="BR34" s="87"/>
+      <c r="BS34" s="87"/>
+      <c r="BT34" s="87"/>
+      <c r="BU34" s="87"/>
+      <c r="BV34" s="87"/>
+      <c r="BW34" s="87"/>
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87"/>
+      <c r="BZ34" s="87"/>
+      <c r="CA34" s="87"/>
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="87"/>
+      <c r="CD34" s="87"/>
+      <c r="CE34" s="87"/>
+      <c r="CF34" s="87"/>
+      <c r="CG34" s="87"/>
+      <c r="CH34" s="87"/>
+      <c r="CI34" s="87"/>
+      <c r="CJ34" s="87"/>
+      <c r="CK34" s="87"/>
+      <c r="CL34" s="87"/>
+      <c r="CM34" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
+  <mergeCells count="33">
     <mergeCell ref="BE11:BK11"/>
     <mergeCell ref="BL11:BR11"/>
     <mergeCell ref="BS11:BY11"/>
@@ -7180,12 +7402,16 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7193,446 +7419,463 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:F128"/>
+  <dimension ref="A2:F119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
+    <row r="2" spans="1:6" ht="20">
       <c r="A2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="136">
+        <v>64</v>
+      </c>
+      <c r="B2" s="141">
         <v>1</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+    </row>
+    <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25">
+        <v>29</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25">
-      <c r="B5" s="137" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25">
-      <c r="B6" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25">
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+    </row>
+    <row r="5" spans="1:6" ht="20">
+      <c r="B5" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="B6" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="54" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25">
-      <c r="B10" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="20">
+      <c r="B10" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>164</v>
+        <v>429</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>431</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>430</v>
+      </c>
       <c r="F11" s="54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="54" t="s">
-        <v>389</v>
+      <c r="B12" s="209" t="s">
+        <v>384</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+        <v>427</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="208" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="26.25">
-      <c r="B15" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25">
-      <c r="B16" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="211"/>
+      <c r="C14" s="208" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="109"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+    <row r="17" spans="2:6" ht="23">
+      <c r="B17" s="143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+    </row>
+    <row r="18" spans="2:6" ht="18">
+      <c r="B18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="207" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="206"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-    </row>
-    <row r="35" spans="2:6" ht="20.25">
-      <c r="B35" s="141">
+      <c r="B20" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" thickBot="1"/>
+    <row r="26" spans="2:6" ht="21" thickBot="1">
+      <c r="B26" s="146">
         <v>2</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-    </row>
-    <row r="36" spans="2:6" ht="20.25">
-      <c r="B36" s="31" t="s">
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+    </row>
+    <row r="27" spans="2:6" ht="20">
+      <c r="B27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="150"/>
+    </row>
+    <row r="28" spans="2:6" ht="21" thickBot="1">
+      <c r="B28" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+    </row>
+    <row r="29" spans="2:6" ht="20">
+      <c r="B29" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="155"/>
+    </row>
+    <row r="30" spans="2:6" ht="18">
+      <c r="B30" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="145"/>
+      <c r="F30" s="157"/>
+    </row>
+    <row r="31" spans="2:6" ht="18">
+      <c r="B31" s="156"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="25"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="2:6" ht="18" thickBot="1">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="2:6" ht="20">
+      <c r="B36" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="155"/>
+    </row>
+    <row r="37" spans="2:6" ht="18">
+      <c r="B37" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="45"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="45"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="2:6" ht="18" thickBot="1">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="2:6" ht="23">
+      <c r="B41" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="160"/>
+    </row>
+    <row r="42" spans="2:6" ht="18">
+      <c r="B42" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-    </row>
-    <row r="37" spans="2:6" ht="20.25">
-      <c r="B37" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="147"/>
-    </row>
-    <row r="38" spans="2:6" ht="20.25">
-      <c r="B38" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.25">
-      <c r="B39" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="152"/>
-    </row>
-    <row r="40" spans="2:6" ht="17.25">
-      <c r="B40" s="151"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="25"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="150"/>
-    </row>
-    <row r="46" spans="2:6" ht="17.25">
-      <c r="B46" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="25"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="25"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="45"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="45"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="2:6" ht="26.25">
-      <c r="B50" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="155"/>
-    </row>
-    <row r="51" spans="2:6" ht="17.25">
-      <c r="B51" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="25"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="25"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="26"/>
     </row>
@@ -7657,232 +7900,233 @@
       <c r="E54" s="21"/>
       <c r="F54" s="26"/>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="25"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="25"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="25"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="25"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="25"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="25"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="25"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="25"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="25"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="26"/>
+    <row r="55" spans="2:6" ht="18" thickBot="1">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="57" spans="2:6" ht="18" thickBot="1"/>
+    <row r="58" spans="2:6" ht="21" thickBot="1">
+      <c r="B58" s="146">
+        <v>3</v>
+      </c>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="2:6" ht="20">
+      <c r="B59" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="150"/>
+    </row>
+    <row r="60" spans="2:6" ht="21" thickBot="1">
+      <c r="B60" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="152"/>
+    </row>
+    <row r="61" spans="2:6" ht="20">
+      <c r="B61" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="155"/>
+    </row>
+    <row r="62" spans="2:6" ht="18">
+      <c r="B62" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="145"/>
+      <c r="F62" s="157"/>
+    </row>
+    <row r="63" spans="2:6" ht="18">
+      <c r="B63" s="156"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="67" spans="2:6" ht="20.25">
-      <c r="B67" s="141">
-        <v>3</v>
-      </c>
-      <c r="C67" s="142"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="143"/>
-    </row>
-    <row r="68" spans="2:6" ht="20.25">
-      <c r="B68" s="31" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="2:6" ht="18" thickBot="1">
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="2:6" ht="20">
+      <c r="B68" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+    </row>
+    <row r="69" spans="2:6" ht="18">
+      <c r="B69" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="45"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="45"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="2:6" ht="18" thickBot="1">
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="2:6" ht="23">
+      <c r="B73" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="160"/>
+    </row>
+    <row r="74" spans="2:6" ht="18">
+      <c r="B74" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="145"/>
-    </row>
-    <row r="69" spans="2:6" ht="20.25">
-      <c r="B69" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="147"/>
-    </row>
-    <row r="70" spans="2:6" ht="20.25">
-      <c r="B70" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="150"/>
-    </row>
-    <row r="71" spans="2:6" ht="17.25">
-      <c r="B71" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="140"/>
-      <c r="F71" s="152"/>
-    </row>
-    <row r="72" spans="2:6" ht="17.25">
-      <c r="B72" s="151"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="25"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="42"/>
-      <c r="C75" s="43"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="21"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="2:6" ht="20.25">
-      <c r="B77" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="149"/>
-      <c r="F77" s="150"/>
-    </row>
-    <row r="78" spans="2:6" ht="17.25">
-      <c r="B78" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="25"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="25"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="45"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="45"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="2:6" ht="26.25">
-      <c r="B82" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C82" s="154"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="155"/>
-    </row>
-    <row r="83" spans="2:6" ht="17.25">
-      <c r="B83" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="25"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="25"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="26"/>
     </row>
@@ -7907,232 +8151,233 @@
       <c r="E86" s="21"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="25"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="26"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="25"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="25"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="25"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="26"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="25"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="26"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="25"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="26"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="25"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="26"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="25"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="26"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="25"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="26"/>
+    <row r="87" spans="2:6" ht="18" thickBot="1">
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="89" spans="2:6" ht="18" thickBot="1"/>
+    <row r="90" spans="2:6" ht="21" thickBot="1">
+      <c r="B90" s="146">
+        <v>4</v>
+      </c>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="148"/>
+    </row>
+    <row r="91" spans="2:6" ht="20">
+      <c r="B91" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="149"/>
+      <c r="E91" s="149"/>
+      <c r="F91" s="150"/>
+    </row>
+    <row r="92" spans="2:6" ht="21" thickBot="1">
+      <c r="B92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="151"/>
+      <c r="E92" s="151"/>
+      <c r="F92" s="152"/>
+    </row>
+    <row r="93" spans="2:6" ht="20">
+      <c r="B93" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="154"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="154"/>
+      <c r="F93" s="155"/>
+    </row>
+    <row r="94" spans="2:6" ht="18">
+      <c r="B94" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="145"/>
+      <c r="F94" s="157"/>
+    </row>
+    <row r="95" spans="2:6" ht="18">
+      <c r="B95" s="156"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="29"/>
-    </row>
-    <row r="99" spans="2:6" ht="20.25">
-      <c r="B99" s="141">
-        <v>4</v>
-      </c>
-      <c r="C99" s="142"/>
-      <c r="D99" s="142"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="143"/>
-    </row>
-    <row r="100" spans="2:6" ht="20.25">
-      <c r="B100" s="31" t="s">
+      <c r="B96" s="25"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="26"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="42"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="44"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="42"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="44"/>
+    </row>
+    <row r="99" spans="2:6" ht="18" thickBot="1">
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="29"/>
+    </row>
+    <row r="100" spans="2:6" ht="20">
+      <c r="B100" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
+      <c r="E100" s="154"/>
+      <c r="F100" s="155"/>
+    </row>
+    <row r="101" spans="2:6" ht="18">
+      <c r="B101" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" s="21"/>
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="45"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="26"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="45"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="26"/>
+    </row>
+    <row r="104" spans="2:6" ht="18" thickBot="1">
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
+    </row>
+    <row r="105" spans="2:6" ht="23">
+      <c r="B105" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="159"/>
+      <c r="D105" s="159"/>
+      <c r="E105" s="159"/>
+      <c r="F105" s="160"/>
+    </row>
+    <row r="106" spans="2:6" ht="18">
+      <c r="B106" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="144" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="144"/>
-      <c r="E100" s="144"/>
-      <c r="F100" s="145"/>
-    </row>
-    <row r="101" spans="2:6" ht="20.25">
-      <c r="B101" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="146"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="147"/>
-    </row>
-    <row r="102" spans="2:6" ht="20.25">
-      <c r="B102" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="149"/>
-      <c r="D102" s="149"/>
-      <c r="E102" s="149"/>
-      <c r="F102" s="150"/>
-    </row>
-    <row r="103" spans="2:6" ht="17.25">
-      <c r="B103" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="140"/>
-      <c r="F103" s="152"/>
-    </row>
-    <row r="104" spans="2:6" ht="17.25">
-      <c r="B104" s="151"/>
-      <c r="C104" s="140"/>
-      <c r="D104" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="25"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="26"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="44"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="26"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="42"/>
-      <c r="C107" s="43"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="44"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="27"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="29"/>
-    </row>
-    <row r="109" spans="2:6" ht="20.25">
-      <c r="B109" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="149"/>
-      <c r="D109" s="149"/>
-      <c r="E109" s="149"/>
-      <c r="F109" s="150"/>
-    </row>
-    <row r="110" spans="2:6" ht="17.25">
-      <c r="B110" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="25"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="26"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="25"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="21"/>
       <c r="F110" s="26"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="45"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="45"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
       <c r="F112" s="26"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="2:6" ht="26.25">
-      <c r="B114" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" s="154"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="154"/>
-      <c r="F114" s="155"/>
-    </row>
-    <row r="115" spans="2:6" ht="17.25">
-      <c r="B115" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="26"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="26"/>
     </row>
@@ -8157,108 +8402,49 @@
       <c r="E118" s="21"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="25"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="26"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="25"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="26"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="25"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="26"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="25"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="26"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="25"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="26"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="25"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="26"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="25"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="26"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="25"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="26"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="25"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="26"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="27"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
+    <row r="119" spans="2:6" ht="18" thickBot="1">
+      <c r="B119" s="27"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:F39"/>
+  <mergeCells count="40">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="D6:F6"/>
@@ -8273,7 +8459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
@@ -8281,90 +8467,90 @@
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="13" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="104.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="33.75">
-      <c r="C2" s="162" t="s">
+    <row r="2" spans="3:11" ht="32">
+      <c r="C2" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="169"/>
+    </row>
+    <row r="3" spans="3:11" ht="20">
+      <c r="C3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
-    </row>
-    <row r="3" spans="3:11" ht="20.25">
-      <c r="C3" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="156" t="s">
-        <v>44</v>
+      <c r="C4" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="161" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="158"/>
-      <c r="D5" s="156"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>0</v>
@@ -8376,85 +8562,85 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="158"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="158"/>
-      <c r="D7" s="156"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="158"/>
-      <c r="D8" s="156"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="158"/>
-      <c r="D9" s="156"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="158"/>
-      <c r="D10" s="156" t="s">
-        <v>94</v>
+      <c r="C10" s="163"/>
+      <c r="D10" s="161" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
@@ -8463,622 +8649,622 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="158"/>
-      <c r="D11" s="156"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="3:11" ht="16.7" customHeight="1">
-      <c r="C12" s="159"/>
-      <c r="D12" s="156" t="s">
-        <v>150</v>
+    <row r="12" spans="3:11" ht="16.75" customHeight="1">
+      <c r="C12" s="164"/>
+      <c r="D12" s="161" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="159"/>
-      <c r="D13" s="165"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="159"/>
-      <c r="D14" s="156"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="159"/>
-      <c r="D15" s="156" t="s">
-        <v>42</v>
+      <c r="C15" s="164"/>
+      <c r="D15" s="161" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="159"/>
-      <c r="D16" s="165"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="159"/>
-      <c r="D17" s="156"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="159"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="159"/>
-      <c r="D19" s="156"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="159"/>
-      <c r="D20" s="156"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="159"/>
-      <c r="D21" s="156"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="159"/>
-      <c r="D22" s="156"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="159"/>
-      <c r="D23" s="156"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="159"/>
-      <c r="D24" s="156"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="159"/>
-      <c r="D25" s="156" t="s">
-        <v>98</v>
+      <c r="C25" s="164"/>
+      <c r="D25" s="161" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="159"/>
-      <c r="D26" s="156"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="159"/>
-      <c r="D27" s="156"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>209</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="160"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="160"/>
-      <c r="D29" s="156"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="161"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="160"/>
-      <c r="D30" s="156"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="161"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="160"/>
-      <c r="D31" s="156"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="161"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="160"/>
-      <c r="D32" s="156"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="161"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="160"/>
-      <c r="D33" s="156"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="161"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="160"/>
-      <c r="D34" s="156"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="161"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="160"/>
-      <c r="D35" s="156"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="160"/>
-      <c r="D36" s="156"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="160"/>
-      <c r="D37" s="156" t="s">
-        <v>102</v>
+      <c r="C37" s="165"/>
+      <c r="D37" s="161" t="s">
+        <v>101</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="160"/>
-      <c r="D38" s="156"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="160"/>
-      <c r="D39" s="156"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="161"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="160"/>
-      <c r="D40" s="156"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="161"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="160"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="160"/>
-      <c r="D42" s="156"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="161"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="160"/>
-      <c r="D43" s="156"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="161"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="160"/>
-      <c r="D44" s="156"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="161"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="160"/>
-      <c r="D45" s="156"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="161"/>
-      <c r="D46" s="156"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="21"/>
     </row>
@@ -9100,88 +9286,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:BA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="39" thickBot="1">
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="2:53" ht="36" thickBot="1">
+      <c r="B1" s="172" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="174"/>
+      <c r="N1" s="171" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+    </row>
+    <row r="2" spans="2:53" ht="31" thickBot="1">
+      <c r="B2" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="N1" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-    </row>
-    <row r="2" spans="2:53" ht="32.25" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>217</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>218</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
@@ -9193,53 +9379,53 @@
       <c r="K2" s="57"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="2:53" ht="32.25" thickBot="1">
+    <row r="3" spans="2:53" ht="31" thickBot="1">
       <c r="B3" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="H3" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="I3" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="J3" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="K3" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="61" t="s">
+    </row>
+    <row r="4" spans="2:53" ht="23">
+      <c r="B4" s="62" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="2:53" ht="26.25">
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="D4" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="E4" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
@@ -9248,19 +9434,19 @@
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53" ht="23">
+      <c r="B5" s="65" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="2:53" ht="26.25">
-      <c r="B5" s="65" t="s">
-        <v>235</v>
-      </c>
       <c r="C5" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -9269,19 +9455,19 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" ht="23">
+      <c r="B6" s="65" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="2:53" ht="26.25">
-      <c r="B6" s="65" t="s">
-        <v>238</v>
-      </c>
       <c r="C6" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
@@ -9290,19 +9476,19 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="2:53" ht="23">
+      <c r="B7" s="65" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="7" spans="2:53" ht="26.25">
-      <c r="B7" s="65" t="s">
-        <v>240</v>
-      </c>
       <c r="C7" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
@@ -9311,19 +9497,19 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:53" ht="23">
+      <c r="B8" s="65" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="2:53" ht="26.25">
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>243</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -9332,19 +9518,19 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" ht="23">
+      <c r="B9" s="65" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="2:53" ht="26.25">
-      <c r="B9" s="65" t="s">
-        <v>245</v>
-      </c>
       <c r="C9" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -9353,19 +9539,19 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" ht="23">
+      <c r="B10" s="65" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="2:53" ht="26.25">
-      <c r="B10" s="65" t="s">
-        <v>247</v>
-      </c>
       <c r="C10" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -9374,19 +9560,19 @@
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" ht="23">
+      <c r="B11" s="65" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="2:53" ht="26.25">
-      <c r="B11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>249</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>250</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="66"/>
       <c r="G11" s="66"/>
@@ -9395,19 +9581,19 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" ht="23">
+      <c r="B12" s="65" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="2:53" ht="26.25">
-      <c r="B12" s="65" t="s">
-        <v>252</v>
-      </c>
       <c r="C12" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -9416,19 +9602,19 @@
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" ht="24" thickBot="1">
+      <c r="B13" s="68" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="2:53" ht="27" thickBot="1">
-      <c r="B13" s="68" t="s">
-        <v>254</v>
-      </c>
       <c r="C13" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
@@ -9437,10 +9623,10 @@
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
       <c r="L13" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="2:53" ht="26.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" ht="23">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -9453,7 +9639,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="2:53" ht="26.25">
+    <row r="15" spans="2:53" ht="23">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -9466,7 +9652,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="2:53" ht="27" thickBot="1">
+    <row r="16" spans="2:53" ht="24" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -9479,12 +9665,12 @@
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="2:12" ht="32.25" thickBot="1">
+    <row r="17" spans="2:12" ht="31" thickBot="1">
       <c r="B17" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -9496,53 +9682,53 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="32.25" thickBot="1">
+    <row r="18" spans="2:12" ht="31" thickBot="1">
       <c r="B18" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="D18" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="E18" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="F18" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="G18" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="H18" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="I18" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="J18" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="K18" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="L18" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L18" s="61" t="s">
+    </row>
+    <row r="19" spans="2:12" ht="23">
+      <c r="B19" s="62" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="26.25">
-      <c r="B19" s="62" t="s">
-        <v>230</v>
-      </c>
       <c r="C19" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
@@ -9551,21 +9737,21 @@
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="23">
+      <c r="B20" s="65" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="26.25">
-      <c r="B20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="D20" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>261</v>
-      </c>
       <c r="E20" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -9574,21 +9760,21 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="23">
+      <c r="B21" s="65" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="26.25">
-      <c r="B21" s="65" t="s">
-        <v>263</v>
-      </c>
       <c r="C21" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -9597,19 +9783,19 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="23">
+      <c r="B22" s="65" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="26.25">
-      <c r="B22" s="65" t="s">
-        <v>265</v>
-      </c>
       <c r="C22" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
@@ -9618,19 +9804,19 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="23">
+      <c r="B23" s="65" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" ht="26.25">
-      <c r="B23" s="65" t="s">
+      <c r="C23" s="66" t="s">
         <v>267</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -9639,19 +9825,19 @@
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="23">
+      <c r="B24" s="65" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="26.25">
-      <c r="B24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>270</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>271</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
@@ -9660,19 +9846,19 @@
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="23">
+      <c r="B25" s="65" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="26.25">
-      <c r="B25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>273</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>274</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
@@ -9681,19 +9867,19 @@
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="24" thickBot="1">
+      <c r="B26" s="68" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="27" thickBot="1">
-      <c r="B26" s="68" t="s">
-        <v>276</v>
-      </c>
       <c r="C26" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
@@ -9702,10 +9888,10 @@
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="23">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -9718,7 +9904,7 @@
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="2:12" ht="26.25">
+    <row r="28" spans="2:12" ht="23">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -9731,7 +9917,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="2:12" ht="39" thickBot="1">
+    <row r="29" spans="2:12" ht="36" thickBot="1">
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -9744,12 +9930,12 @@
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
     </row>
-    <row r="30" spans="2:12" ht="32.25" thickBot="1">
+    <row r="30" spans="2:12" ht="31" thickBot="1">
       <c r="B30" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -9761,53 +9947,53 @@
       <c r="K30" s="57"/>
       <c r="L30" s="58"/>
     </row>
-    <row r="31" spans="2:12" ht="32.25" thickBot="1">
+    <row r="31" spans="2:12" ht="31" thickBot="1">
       <c r="B31" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="D31" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="E31" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="F31" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="G31" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="H31" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="I31" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="J31" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="K31" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="L31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L31" s="61" t="s">
+    </row>
+    <row r="32" spans="2:12" ht="23">
+      <c r="B32" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="26.25">
-      <c r="B32" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C32" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
@@ -9816,21 +10002,21 @@
       <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="L32" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="23">
       <c r="B33" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
@@ -9839,21 +10025,21 @@
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="26.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="23">
       <c r="B34" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="66"/>
@@ -9862,21 +10048,21 @@
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="23">
       <c r="B35" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E35" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -9885,19 +10071,19 @@
       <c r="J35" s="66"/>
       <c r="K35" s="66"/>
       <c r="L35" s="67" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="26.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="23">
       <c r="B36" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="66" t="s">
         <v>273</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>274</v>
       </c>
       <c r="D36" s="66"/>
       <c r="E36" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -9906,19 +10092,19 @@
       <c r="J36" s="66"/>
       <c r="K36" s="66"/>
       <c r="L36" s="67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="26.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="23">
       <c r="B37" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -9927,19 +10113,19 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="67" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="27" thickBot="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="24" thickBot="1">
       <c r="B38" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
@@ -9948,10 +10134,10 @@
       <c r="J38" s="69"/>
       <c r="K38" s="69"/>
       <c r="L38" s="70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="23">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -9964,7 +10150,7 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
     </row>
-    <row r="40" spans="2:12" ht="38.25">
+    <row r="40" spans="2:12" ht="35">
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -9977,7 +10163,7 @@
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
     </row>
-    <row r="41" spans="2:12" ht="39" thickBot="1">
+    <row r="41" spans="2:12" ht="36" thickBot="1">
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -9990,12 +10176,12 @@
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
     </row>
-    <row r="42" spans="2:12" ht="32.25" thickBot="1">
+    <row r="42" spans="2:12" ht="31" thickBot="1">
       <c r="B42" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
@@ -10007,53 +10193,53 @@
       <c r="K42" s="57"/>
       <c r="L42" s="58"/>
     </row>
-    <row r="43" spans="2:12" ht="32.25" thickBot="1">
+    <row r="43" spans="2:12" ht="31" thickBot="1">
       <c r="B43" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="D43" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="E43" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="F43" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="G43" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="H43" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="I43" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I43" s="60" t="s">
+      <c r="J43" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J43" s="60" t="s">
+      <c r="K43" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="L43" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L43" s="61" t="s">
+    </row>
+    <row r="44" spans="2:12" ht="23">
+      <c r="B44" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" ht="26.25">
-      <c r="B44" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C44" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F44" s="63"/>
       <c r="G44" s="63"/>
@@ -10062,21 +10248,21 @@
       <c r="J44" s="63"/>
       <c r="K44" s="63"/>
       <c r="L44" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="23">
       <c r="B45" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
@@ -10085,19 +10271,19 @@
       <c r="J45" s="66"/>
       <c r="K45" s="66"/>
       <c r="L45" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="26.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="23">
       <c r="B46" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="66"/>
       <c r="E46" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="66"/>
       <c r="G46" s="66"/>
@@ -10106,19 +10292,19 @@
       <c r="J46" s="66"/>
       <c r="K46" s="66"/>
       <c r="L46" s="67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="23">
       <c r="B47" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="75" t="s">
         <v>285</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>286</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -10127,19 +10313,19 @@
       <c r="J47" s="66"/>
       <c r="K47" s="66"/>
       <c r="L47" s="67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="26.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="23">
       <c r="B48" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48" s="66"/>
       <c r="E48" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -10148,19 +10334,19 @@
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
       <c r="L48" s="67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="23">
+      <c r="B49" s="65" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" ht="26.25">
-      <c r="B49" s="65" t="s">
+      <c r="C49" s="66" t="s">
         <v>289</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>290</v>
       </c>
       <c r="D49" s="66"/>
       <c r="E49" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -10169,19 +10355,19 @@
       <c r="J49" s="66"/>
       <c r="K49" s="66"/>
       <c r="L49" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="24" thickBot="1">
+      <c r="B50" s="68" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" ht="27" thickBot="1">
-      <c r="B50" s="68" t="s">
-        <v>292</v>
-      </c>
       <c r="C50" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="69"/>
       <c r="E50" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
@@ -10190,10 +10376,10 @@
       <c r="J50" s="69"/>
       <c r="K50" s="69"/>
       <c r="L50" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="38.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="35">
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -10206,7 +10392,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
     </row>
-    <row r="52" spans="2:12" ht="38.25">
+    <row r="52" spans="2:12" ht="35">
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -10219,7 +10405,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
     </row>
-    <row r="53" spans="2:12" ht="39" thickBot="1">
+    <row r="53" spans="2:12" ht="36" thickBot="1">
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -10232,12 +10418,12 @@
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
     </row>
-    <row r="54" spans="2:12" ht="32.25" thickBot="1">
+    <row r="54" spans="2:12" ht="31" thickBot="1">
       <c r="B54" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
@@ -10249,53 +10435,53 @@
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
     </row>
-    <row r="55" spans="2:12" ht="32.25" thickBot="1">
+    <row r="55" spans="2:12" ht="31" thickBot="1">
       <c r="B55" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="D55" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="E55" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="F55" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="G55" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="H55" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="I55" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="J55" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="60" t="s">
+      <c r="K55" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="60" t="s">
+      <c r="L55" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L55" s="61" t="s">
+    </row>
+    <row r="56" spans="2:12" ht="23">
+      <c r="B56" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" ht="26.25">
-      <c r="B56" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C56" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F56" s="63"/>
       <c r="G56" s="63"/>
@@ -10304,21 +10490,21 @@
       <c r="J56" s="63"/>
       <c r="K56" s="63"/>
       <c r="L56" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="23">
       <c r="B57" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -10327,19 +10513,19 @@
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
       <c r="L57" s="67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="26.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="23">
       <c r="B58" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="66"/>
       <c r="E58" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -10348,19 +10534,19 @@
       <c r="J58" s="66"/>
       <c r="K58" s="66"/>
       <c r="L58" s="67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="23">
       <c r="B59" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="75" t="s">
         <v>285</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>286</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -10369,19 +10555,19 @@
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="26.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="23">
       <c r="B60" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D60" s="66"/>
       <c r="E60" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -10390,19 +10576,19 @@
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="23">
+      <c r="B61" s="65" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" ht="26.25">
-      <c r="B61" s="65" t="s">
+      <c r="C61" s="66" t="s">
         <v>289</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>290</v>
       </c>
       <c r="D61" s="66"/>
       <c r="E61" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -10411,19 +10597,19 @@
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
       <c r="L61" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="24" thickBot="1">
+      <c r="B62" s="68" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" ht="27" thickBot="1">
-      <c r="B62" s="68" t="s">
-        <v>292</v>
-      </c>
       <c r="C62" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="69"/>
       <c r="E62" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
@@ -10432,10 +10618,10 @@
       <c r="J62" s="69"/>
       <c r="K62" s="69"/>
       <c r="L62" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="38.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="35">
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
@@ -10448,7 +10634,7 @@
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
     </row>
-    <row r="64" spans="2:12" ht="38.25">
+    <row r="64" spans="2:12" ht="35">
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
@@ -10461,7 +10647,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
     </row>
-    <row r="65" spans="2:12" ht="39" thickBot="1">
+    <row r="65" spans="2:12" ht="36" thickBot="1">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
@@ -10474,12 +10660,12 @@
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
     </row>
-    <row r="66" spans="2:12" ht="32.25" thickBot="1">
+    <row r="66" spans="2:12" ht="31" thickBot="1">
       <c r="B66" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
@@ -10491,53 +10677,53 @@
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
     </row>
-    <row r="67" spans="2:12" ht="32.25" thickBot="1">
+    <row r="67" spans="2:12" ht="31" thickBot="1">
       <c r="B67" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="D67" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="60" t="s">
+      <c r="E67" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="F67" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="G67" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="H67" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="I67" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I67" s="60" t="s">
+      <c r="J67" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="K67" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K67" s="60" t="s">
+      <c r="L67" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L67" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="26.25">
+    </row>
+    <row r="68" spans="2:12" ht="23">
       <c r="B68" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="E68" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E68" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="63"/>
@@ -10546,21 +10732,21 @@
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
       <c r="L68" s="64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="26.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="23">
       <c r="B69" s="65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -10569,21 +10755,21 @@
       <c r="J69" s="66"/>
       <c r="K69" s="66"/>
       <c r="L69" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="23">
+      <c r="B70" s="65" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" ht="26.25">
-      <c r="B70" s="65" t="s">
-        <v>300</v>
-      </c>
       <c r="C70" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="66" t="s">
-        <v>261</v>
-      </c>
       <c r="E70" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -10592,19 +10778,19 @@
       <c r="J70" s="66"/>
       <c r="K70" s="66"/>
       <c r="L70" s="67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="24" thickBot="1">
+      <c r="B71" s="68" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" ht="27" thickBot="1">
-      <c r="B71" s="68" t="s">
-        <v>302</v>
-      </c>
       <c r="C71" s="69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D71" s="69"/>
       <c r="E71" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
@@ -10613,10 +10799,10 @@
       <c r="J71" s="69"/>
       <c r="K71" s="69"/>
       <c r="L71" s="70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="26.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="23">
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
@@ -10629,7 +10815,7 @@
       <c r="K72" s="71"/>
       <c r="L72" s="71"/>
     </row>
-    <row r="73" spans="2:12" ht="26.25">
+    <row r="73" spans="2:12" ht="23">
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
@@ -10642,7 +10828,7 @@
       <c r="K73" s="71"/>
       <c r="L73" s="71"/>
     </row>
-    <row r="74" spans="2:12" ht="27" thickBot="1">
+    <row r="74" spans="2:12" ht="24" thickBot="1">
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
@@ -10655,12 +10841,12 @@
       <c r="K74" s="71"/>
       <c r="L74" s="71"/>
     </row>
-    <row r="75" spans="2:12" ht="32.25" thickBot="1">
+    <row r="75" spans="2:12" ht="31" thickBot="1">
       <c r="B75" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -10672,53 +10858,53 @@
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
     </row>
-    <row r="76" spans="2:12" ht="32.25" thickBot="1">
+    <row r="76" spans="2:12" ht="31" thickBot="1">
       <c r="B76" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="D76" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="60" t="s">
+      <c r="E76" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="F76" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F76" s="60" t="s">
+      <c r="G76" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G76" s="60" t="s">
+      <c r="H76" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H76" s="60" t="s">
+      <c r="I76" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="J76" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J76" s="60" t="s">
+      <c r="K76" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K76" s="60" t="s">
+      <c r="L76" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L76" s="61" t="s">
+    </row>
+    <row r="77" spans="2:12" ht="23">
+      <c r="B77" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" ht="26.25">
-      <c r="B77" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C77" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F77" s="63"/>
       <c r="G77" s="63"/>
@@ -10727,21 +10913,21 @@
       <c r="J77" s="63"/>
       <c r="K77" s="63"/>
       <c r="L77" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="23">
       <c r="B78" s="65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78" s="66"/>
       <c r="G78" s="66"/>
@@ -10750,19 +10936,19 @@
       <c r="J78" s="66"/>
       <c r="K78" s="66"/>
       <c r="L78" s="67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="26.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="23">
       <c r="B79" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -10771,19 +10957,19 @@
       <c r="J79" s="66"/>
       <c r="K79" s="66"/>
       <c r="L79" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="24" thickBot="1">
+      <c r="B80" s="68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" ht="27" thickBot="1">
-      <c r="B80" s="68" t="s">
+      <c r="C80" s="69" t="s">
         <v>267</v>
-      </c>
-      <c r="C80" s="69" t="s">
-        <v>268</v>
       </c>
       <c r="D80" s="69"/>
       <c r="E80" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
@@ -10792,10 +10978,10 @@
       <c r="J80" s="69"/>
       <c r="K80" s="69"/>
       <c r="L80" s="70" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" ht="38.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="35">
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -10808,7 +10994,7 @@
       <c r="K81" s="72"/>
       <c r="L81" s="72"/>
     </row>
-    <row r="82" spans="2:12" ht="38.25">
+    <row r="82" spans="2:12" ht="35">
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
@@ -10821,7 +11007,7 @@
       <c r="K82" s="72"/>
       <c r="L82" s="72"/>
     </row>
-    <row r="83" spans="2:12" ht="39" thickBot="1">
+    <row r="83" spans="2:12" ht="36" thickBot="1">
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
@@ -10834,12 +11020,12 @@
       <c r="K83" s="72"/>
       <c r="L83" s="72"/>
     </row>
-    <row r="84" spans="2:12" ht="32.25" thickBot="1">
+    <row r="84" spans="2:12" ht="31" thickBot="1">
       <c r="B84" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="57"/>
@@ -10851,53 +11037,53 @@
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
     </row>
-    <row r="85" spans="2:12" ht="32.25" thickBot="1">
+    <row r="85" spans="2:12" ht="31" thickBot="1">
       <c r="B85" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="D85" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="E85" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="F85" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="G85" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="60" t="s">
+      <c r="H85" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="I85" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="J85" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="K85" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="L85" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L85" s="61" t="s">
+    </row>
+    <row r="86" spans="2:12" ht="23">
+      <c r="B86" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" ht="26.25">
-      <c r="B86" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C86" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F86" s="63"/>
       <c r="G86" s="63"/>
@@ -10906,21 +11092,21 @@
       <c r="J86" s="63"/>
       <c r="K86" s="63"/>
       <c r="L86" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="23">
       <c r="B87" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -10929,21 +11115,21 @@
       <c r="J87" s="66"/>
       <c r="K87" s="66"/>
       <c r="L87" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="23">
       <c r="B88" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C88" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F88" s="66"/>
       <c r="G88" s="66"/>
@@ -10952,19 +11138,19 @@
       <c r="J88" s="66"/>
       <c r="K88" s="66"/>
       <c r="L88" s="67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="24" thickBot="1">
+      <c r="B89" s="68" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" ht="27" thickBot="1">
-      <c r="B89" s="68" t="s">
-        <v>308</v>
-      </c>
       <c r="C89" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="69"/>
       <c r="E89" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F89" s="69"/>
       <c r="G89" s="69"/>
@@ -10973,10 +11159,10 @@
       <c r="J89" s="69"/>
       <c r="K89" s="69"/>
       <c r="L89" s="70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="38.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="35">
       <c r="B90" s="72"/>
       <c r="C90" s="72"/>
       <c r="D90" s="72"/>
@@ -10989,7 +11175,7 @@
       <c r="K90" s="72"/>
       <c r="L90" s="72"/>
     </row>
-    <row r="91" spans="2:12" ht="38.25">
+    <row r="91" spans="2:12" ht="35">
       <c r="B91" s="72"/>
       <c r="C91" s="72"/>
       <c r="D91" s="72"/>
@@ -11002,7 +11188,7 @@
       <c r="K91" s="72"/>
       <c r="L91" s="72"/>
     </row>
-    <row r="92" spans="2:12" ht="39" thickBot="1">
+    <row r="92" spans="2:12" ht="36" thickBot="1">
       <c r="B92" s="72"/>
       <c r="C92" s="72"/>
       <c r="D92" s="72"/>
@@ -11015,12 +11201,12 @@
       <c r="K92" s="72"/>
       <c r="L92" s="72"/>
     </row>
-    <row r="93" spans="2:12" ht="32.25" thickBot="1">
+    <row r="93" spans="2:12" ht="31" thickBot="1">
       <c r="B93" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
@@ -11032,53 +11218,53 @@
       <c r="K93" s="57"/>
       <c r="L93" s="58"/>
     </row>
-    <row r="94" spans="2:12" ht="32.25" thickBot="1">
+    <row r="94" spans="2:12" ht="31" thickBot="1">
       <c r="B94" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="73" t="s">
+      <c r="D94" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D94" s="60" t="s">
+      <c r="E94" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E94" s="60" t="s">
+      <c r="F94" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F94" s="60" t="s">
+      <c r="G94" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G94" s="60" t="s">
+      <c r="H94" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="I94" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="60" t="s">
+      <c r="J94" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="60" t="s">
+      <c r="K94" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K94" s="60" t="s">
+      <c r="L94" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L94" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" ht="26.25">
+    </row>
+    <row r="95" spans="2:12" ht="23">
       <c r="B95" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D95" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F95" s="63"/>
       <c r="G95" s="63"/>
@@ -11087,21 +11273,21 @@
       <c r="J95" s="63"/>
       <c r="K95" s="63"/>
       <c r="L95" s="64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="23">
       <c r="B96" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E96" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="66"/>
@@ -11110,15 +11296,15 @@
       <c r="J96" s="66"/>
       <c r="K96" s="66"/>
       <c r="L96" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="27" thickBot="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="24" thickBot="1">
       <c r="B97" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D97" s="69"/>
       <c r="E97" s="69"/>
@@ -11129,10 +11315,10 @@
       <c r="J97" s="69"/>
       <c r="K97" s="69"/>
       <c r="L97" s="70" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" ht="26.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="23">
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
@@ -11145,7 +11331,7 @@
       <c r="K98" s="71"/>
       <c r="L98" s="71"/>
     </row>
-    <row r="99" spans="2:12" ht="38.25">
+    <row r="99" spans="2:12" ht="35">
       <c r="B99" s="72"/>
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
@@ -11158,7 +11344,7 @@
       <c r="K99" s="72"/>
       <c r="L99" s="72"/>
     </row>
-    <row r="100" spans="2:12" ht="39" thickBot="1">
+    <row r="100" spans="2:12" ht="36" thickBot="1">
       <c r="B100" s="72"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -11171,12 +11357,12 @@
       <c r="K100" s="72"/>
       <c r="L100" s="72"/>
     </row>
-    <row r="101" spans="2:12" ht="32.25" thickBot="1">
+    <row r="101" spans="2:12" ht="31" thickBot="1">
       <c r="B101" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
@@ -11188,53 +11374,53 @@
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
     </row>
-    <row r="102" spans="2:12" ht="32.25" thickBot="1">
+    <row r="102" spans="2:12" ht="31" thickBot="1">
       <c r="B102" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="73" t="s">
+      <c r="D102" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="E102" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="60" t="s">
+      <c r="F102" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="60" t="s">
+      <c r="G102" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G102" s="60" t="s">
+      <c r="H102" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H102" s="60" t="s">
+      <c r="I102" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I102" s="60" t="s">
+      <c r="J102" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J102" s="60" t="s">
+      <c r="K102" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K102" s="60" t="s">
+      <c r="L102" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L102" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" ht="26.25">
+    </row>
+    <row r="103" spans="2:12" ht="23">
       <c r="B103" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D103" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E103" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F103" s="63"/>
       <c r="G103" s="63"/>
@@ -11243,19 +11429,19 @@
       <c r="J103" s="63"/>
       <c r="K103" s="63"/>
       <c r="L103" s="64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" ht="27" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" ht="24" thickBot="1">
       <c r="B104" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D104" s="69"/>
       <c r="E104" s="69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
@@ -11264,10 +11450,10 @@
       <c r="J104" s="69"/>
       <c r="K104" s="69"/>
       <c r="L104" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="23">
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
@@ -11280,13 +11466,13 @@
       <c r="K105" s="71"/>
       <c r="L105" s="71"/>
     </row>
-    <row r="107" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="108" spans="2:12" ht="32.25" thickBot="1">
+    <row r="107" spans="2:12" ht="18" thickBot="1"/>
+    <row r="108" spans="2:12" ht="31" thickBot="1">
       <c r="B108" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D108" s="57"/>
       <c r="E108" s="57"/>
@@ -11298,53 +11484,53 @@
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
     </row>
-    <row r="109" spans="2:12" ht="32.25" thickBot="1">
+    <row r="109" spans="2:12" ht="31" thickBot="1">
       <c r="B109" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="73" t="s">
+      <c r="D109" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="E109" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E109" s="60" t="s">
+      <c r="F109" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F109" s="60" t="s">
+      <c r="G109" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G109" s="60" t="s">
+      <c r="H109" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="I109" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I109" s="60" t="s">
+      <c r="J109" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J109" s="60" t="s">
+      <c r="K109" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K109" s="60" t="s">
+      <c r="L109" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L109" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" ht="26.25">
+    </row>
+    <row r="110" spans="2:12" ht="23">
       <c r="B110" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E110" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F110" s="63"/>
       <c r="G110" s="63"/>
@@ -11353,19 +11539,19 @@
       <c r="J110" s="63"/>
       <c r="K110" s="63"/>
       <c r="L110" s="64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" ht="27" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="24" thickBot="1">
       <c r="B111" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="69"/>
       <c r="E111" s="69" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
@@ -11374,16 +11560,16 @@
       <c r="J111" s="69"/>
       <c r="K111" s="69"/>
       <c r="L111" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:12" ht="32.25" thickBot="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="18" thickBot="1"/>
+    <row r="115" spans="2:12" ht="31" thickBot="1">
       <c r="B115" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="57"/>
       <c r="E115" s="57"/>
@@ -11395,53 +11581,53 @@
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
     </row>
-    <row r="116" spans="2:12" ht="32.25" thickBot="1">
+    <row r="116" spans="2:12" ht="31" thickBot="1">
       <c r="B116" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="D116" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D116" s="60" t="s">
+      <c r="E116" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="73" t="s">
+      <c r="F116" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F116" s="60" t="s">
+      <c r="G116" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G116" s="60" t="s">
+      <c r="H116" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="60" t="s">
+      <c r="I116" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I116" s="60" t="s">
+      <c r="J116" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J116" s="60" t="s">
+      <c r="K116" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K116" s="60" t="s">
+      <c r="L116" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L116" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="26.25">
+    </row>
+    <row r="117" spans="2:12" ht="23">
       <c r="B117" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D117" s="79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E117" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F117" s="76"/>
       <c r="G117" s="63"/>
@@ -11450,21 +11636,21 @@
       <c r="J117" s="63"/>
       <c r="K117" s="63"/>
       <c r="L117" s="64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" ht="27" thickBot="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" ht="24" thickBot="1">
       <c r="B118" s="68" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C118" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E118" s="80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F118" s="69"/>
       <c r="G118" s="69"/>
@@ -11473,16 +11659,16 @@
       <c r="J118" s="69"/>
       <c r="K118" s="69"/>
       <c r="L118" s="70" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="122" spans="2:12" ht="32.25" thickBot="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="18" thickBot="1"/>
+    <row r="122" spans="2:12" ht="31" thickBot="1">
       <c r="B122" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D122" s="57"/>
       <c r="E122" s="57"/>
@@ -11494,53 +11680,53 @@
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
     </row>
-    <row r="123" spans="2:12" ht="32.25" thickBot="1">
+    <row r="123" spans="2:12" ht="31" thickBot="1">
       <c r="B123" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C123" s="73" t="s">
+      <c r="D123" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D123" s="60" t="s">
+      <c r="E123" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E123" s="73" t="s">
+      <c r="F123" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="G123" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G123" s="60" t="s">
+      <c r="H123" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H123" s="60" t="s">
+      <c r="I123" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I123" s="60" t="s">
+      <c r="J123" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J123" s="60" t="s">
+      <c r="K123" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K123" s="60" t="s">
+      <c r="L123" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L123" s="61" t="s">
+    </row>
+    <row r="124" spans="2:12" ht="24" thickBot="1">
+      <c r="B124" s="81" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="124" spans="2:12" ht="27" thickBot="1">
-      <c r="B124" s="81" t="s">
-        <v>230</v>
-      </c>
       <c r="C124" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" s="82" t="s">
         <v>232</v>
-      </c>
-      <c r="E124" s="82" t="s">
-        <v>233</v>
       </c>
       <c r="F124" s="84"/>
       <c r="G124" s="82"/>
@@ -11549,10 +11735,10 @@
       <c r="J124" s="82"/>
       <c r="K124" s="82"/>
       <c r="L124" s="85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="23">
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
@@ -11565,13 +11751,13 @@
       <c r="K125" s="71"/>
       <c r="L125" s="71"/>
     </row>
-    <row r="127" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="128" spans="2:12" ht="32.25" thickBot="1">
+    <row r="127" spans="2:12" ht="18" thickBot="1"/>
+    <row r="128" spans="2:12" ht="31" thickBot="1">
       <c r="B128" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
@@ -11583,53 +11769,53 @@
       <c r="K128" s="57"/>
       <c r="L128" s="58"/>
     </row>
-    <row r="129" spans="2:12" ht="32.25" thickBot="1">
+    <row r="129" spans="2:12" ht="31" thickBot="1">
       <c r="B129" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C129" s="73" t="s">
+      <c r="D129" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="E129" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E129" s="73" t="s">
+      <c r="F129" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F129" s="60" t="s">
+      <c r="G129" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G129" s="60" t="s">
+      <c r="H129" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H129" s="60" t="s">
+      <c r="I129" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I129" s="60" t="s">
+      <c r="J129" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J129" s="60" t="s">
+      <c r="K129" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K129" s="60" t="s">
+      <c r="L129" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L129" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" ht="26.25">
+    </row>
+    <row r="130" spans="2:12" ht="23">
       <c r="B130" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D130" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E130" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F130" s="76"/>
       <c r="G130" s="63"/>
@@ -11638,19 +11824,19 @@
       <c r="J130" s="63"/>
       <c r="K130" s="63"/>
       <c r="L130" s="64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" ht="26.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="23">
       <c r="B131" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="114"/>
+      <c r="E131" s="66" t="s">
         <v>407</v>
-      </c>
-      <c r="C131" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="D131" s="115"/>
-      <c r="E131" s="66" t="s">
-        <v>411</v>
       </c>
       <c r="F131" s="78"/>
       <c r="G131" s="66"/>
@@ -11659,50 +11845,50 @@
       <c r="J131" s="66"/>
       <c r="K131" s="66"/>
       <c r="L131" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" ht="27" thickBot="1">
-      <c r="B132" s="111" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="24" thickBot="1">
+      <c r="B132" s="110" t="s">
+        <v>389</v>
       </c>
       <c r="C132" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="D132" s="112"/>
+        <v>259</v>
+      </c>
+      <c r="D132" s="111"/>
       <c r="E132" s="80" t="s">
-        <v>412</v>
-      </c>
-      <c r="F132" s="113"/>
+        <v>408</v>
+      </c>
+      <c r="F132" s="112"/>
       <c r="G132" s="80"/>
       <c r="H132" s="80"/>
       <c r="I132" s="80"/>
       <c r="J132" s="80"/>
       <c r="K132" s="80"/>
-      <c r="L132" s="114" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" ht="26.25">
-      <c r="B133" s="110"/>
-      <c r="C133" s="110"/>
-      <c r="D133" s="110"/>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
-      <c r="G133" s="110"/>
-      <c r="H133" s="110"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="110"/>
-      <c r="K133" s="110"/>
-      <c r="L133" s="110"/>
-    </row>
-    <row r="135" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="136" spans="2:12" ht="32.25" thickBot="1">
+      <c r="L132" s="113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="23">
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="71"/>
+    </row>
+    <row r="135" spans="2:12" ht="18" thickBot="1"/>
+    <row r="136" spans="2:12" ht="31" thickBot="1">
       <c r="B136" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D136" s="57"/>
       <c r="E136" s="57"/>
@@ -11714,53 +11900,53 @@
       <c r="K136" s="57"/>
       <c r="L136" s="58"/>
     </row>
-    <row r="137" spans="2:12" ht="32.25" thickBot="1">
+    <row r="137" spans="2:12" ht="31" thickBot="1">
       <c r="B137" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C137" s="73" t="s">
+      <c r="D137" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D137" s="60" t="s">
+      <c r="E137" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E137" s="73" t="s">
+      <c r="F137" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F137" s="60" t="s">
+      <c r="G137" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G137" s="60" t="s">
+      <c r="H137" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H137" s="60" t="s">
+      <c r="I137" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I137" s="60" t="s">
+      <c r="J137" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J137" s="60" t="s">
+      <c r="K137" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K137" s="60" t="s">
+      <c r="L137" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L137" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" ht="26.25">
+    </row>
+    <row r="138" spans="2:12" ht="23">
       <c r="B138" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C138" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D138" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E138" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F138" s="76"/>
       <c r="G138" s="63"/>
@@ -11769,52 +11955,52 @@
       <c r="J138" s="63"/>
       <c r="K138" s="63"/>
       <c r="L138" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" ht="27" thickBot="1">
-      <c r="B139" s="116" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="24" thickBot="1">
+      <c r="B139" s="115" t="s">
+        <v>395</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="D139" s="117" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="D139" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E139" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F139" s="117"/>
       <c r="G139" s="69"/>
       <c r="H139" s="69"/>
       <c r="I139" s="69"/>
       <c r="J139" s="69"/>
       <c r="K139" s="69"/>
       <c r="L139" s="70" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" ht="26.25">
-      <c r="B140" s="110"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="110"/>
-      <c r="E140" s="110"/>
-      <c r="F140" s="110"/>
-      <c r="G140" s="110"/>
-      <c r="H140" s="110"/>
-      <c r="I140" s="110"/>
-      <c r="J140" s="110"/>
-      <c r="K140" s="110"/>
-      <c r="L140" s="110"/>
-    </row>
-    <row r="142" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="143" spans="2:12" ht="32.25" thickBot="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="23">
+      <c r="B140" s="71"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+    </row>
+    <row r="142" spans="2:12" ht="18" thickBot="1"/>
+    <row r="143" spans="2:12" ht="31" thickBot="1">
       <c r="B143" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143" s="56" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D143" s="57"/>
       <c r="E143" s="57"/>
@@ -11826,53 +12012,53 @@
       <c r="K143" s="57"/>
       <c r="L143" s="58"/>
     </row>
-    <row r="144" spans="2:12" ht="32.25" thickBot="1">
+    <row r="144" spans="2:12" ht="31" thickBot="1">
       <c r="B144" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C144" s="73" t="s">
+      <c r="D144" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D144" s="60" t="s">
+      <c r="E144" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E144" s="73" t="s">
+      <c r="F144" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F144" s="60" t="s">
+      <c r="G144" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G144" s="60" t="s">
+      <c r="H144" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H144" s="60" t="s">
+      <c r="I144" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I144" s="60" t="s">
+      <c r="J144" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J144" s="60" t="s">
+      <c r="K144" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K144" s="60" t="s">
+      <c r="L144" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L144" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" ht="26.25">
+    </row>
+    <row r="145" spans="2:12" ht="23">
       <c r="B145" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E145" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F145" s="76"/>
       <c r="G145" s="63"/>
@@ -11881,39 +12067,39 @@
       <c r="J145" s="63"/>
       <c r="K145" s="63"/>
       <c r="L145" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" ht="27" thickBot="1">
-      <c r="B146" s="116" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="24" thickBot="1">
+      <c r="B146" s="115" t="s">
+        <v>395</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="D146" s="117" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="D146" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E146" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F146" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F146" s="117"/>
       <c r="G146" s="69"/>
       <c r="H146" s="69"/>
       <c r="I146" s="69"/>
       <c r="J146" s="69"/>
       <c r="K146" s="69"/>
       <c r="L146" s="70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="150" spans="2:12" ht="32.25" thickBot="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" ht="18" thickBot="1"/>
+    <row r="150" spans="2:12" ht="31" thickBot="1">
       <c r="B150" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150" s="56" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D150" s="57"/>
       <c r="E150" s="57"/>
@@ -11925,53 +12111,53 @@
       <c r="K150" s="57"/>
       <c r="L150" s="58"/>
     </row>
-    <row r="151" spans="2:12" ht="32.25" thickBot="1">
+    <row r="151" spans="2:12" ht="31" thickBot="1">
       <c r="B151" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C151" s="73" t="s">
+      <c r="D151" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D151" s="60" t="s">
+      <c r="E151" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E151" s="73" t="s">
+      <c r="F151" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F151" s="60" t="s">
+      <c r="G151" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G151" s="60" t="s">
+      <c r="H151" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H151" s="60" t="s">
+      <c r="I151" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I151" s="60" t="s">
+      <c r="J151" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J151" s="60" t="s">
+      <c r="K151" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K151" s="60" t="s">
+      <c r="L151" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L151" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" ht="26.25">
+    </row>
+    <row r="152" spans="2:12" ht="23">
       <c r="B152" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C152" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D152" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E152" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F152" s="76"/>
       <c r="G152" s="63"/>
@@ -11980,30 +12166,30 @@
       <c r="J152" s="63"/>
       <c r="K152" s="63"/>
       <c r="L152" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" ht="27" thickBot="1">
-      <c r="B153" s="116" t="s">
-        <v>413</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="24" thickBot="1">
+      <c r="B153" s="115" t="s">
+        <v>409</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="D153" s="117" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="D153" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E153" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F153" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F153" s="117"/>
       <c r="G153" s="69"/>
       <c r="H153" s="69"/>
       <c r="I153" s="69"/>
       <c r="J153" s="69"/>
       <c r="K153" s="69"/>
       <c r="L153" s="70" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -12019,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J18"/>
   <sheetViews>
@@ -12027,205 +12213,205 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+    <row r="2" spans="2:10" ht="20">
+      <c r="B2" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="20.25">
-      <c r="B15" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20">
+      <c r="B15" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -12240,7 +12426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K29"/>
   <sheetViews>
@@ -12248,34 +12434,34 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="21.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="24.625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="22" customWidth="1"/>
     <col min="10" max="10" width="23" style="22" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
-      <c r="B1" s="178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-    </row>
-    <row r="2" spans="2:11" ht="26.25">
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+    </row>
+    <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -12287,57 +12473,57 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="2:11" ht="31.5">
-      <c r="B3" s="187" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+    <row r="3" spans="2:11" ht="30">
+      <c r="B3" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="184" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="51"/>
       <c r="G4" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="186"/>
-    </row>
-    <row r="5" spans="2:11" ht="26.25">
+        <v>145</v>
+      </c>
+      <c r="H4" s="190" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="191"/>
+    </row>
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="182" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="G5" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="189"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -12346,19 +12532,19 @@
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -12368,15 +12554,15 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -12386,15 +12572,15 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -12445,19 +12631,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="26.25">
+    <row r="13" spans="2:11" ht="23">
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="176" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
+      <c r="G13" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="182"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12466,19 +12652,19 @@
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12488,10 +12674,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -12681,7 +12867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
@@ -12689,253 +12875,253 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="115.875" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="115.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.75" customHeight="1">
       <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="195" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+    </row>
+    <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="150"/>
+    </row>
+    <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="199"/>
+    </row>
+    <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="190" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-    </row>
-    <row r="3" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B3" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="192" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
-    </row>
-    <row r="4" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B4" s="16" t="s">
+      <c r="C5" s="198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="199"/>
+    </row>
+    <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="199"/>
+    </row>
+    <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="199"/>
+    </row>
+    <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C8" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="194"/>
-    </row>
-    <row r="5" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B5" s="16" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="152"/>
+    </row>
+    <row r="10" spans="2:13" ht="33" customHeight="1">
+      <c r="B10" s="202" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="204"/>
+    </row>
+    <row r="11" spans="2:13" ht="24">
+      <c r="B11" s="200" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="200" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="194"/>
-    </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B6" s="16" t="s">
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="200" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="193" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="194"/>
-    </row>
-    <row r="7" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="193" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="194"/>
-    </row>
-    <row r="8" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
-    </row>
-    <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="197" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="199"/>
-    </row>
-    <row r="11" spans="2:13" ht="26.25">
-      <c r="B11" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="195" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="195" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="195" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="26.25">
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
+      <c r="K11" s="200" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="200" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="200" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="6"/>
     </row>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\lwh\CloseUp\architecture\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17DB7-4DBB-3B4C-A00E-2C1E2D003E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="9020" yWindow="2440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="439">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -40,9 +41,6 @@
   </si>
   <si>
     <t>결함이 보고되었지만 아직 분석되지 않음</t>
-  </si>
-  <si>
-    <t>로그인 버튼 클릭 시 로그인 로직 호출</t>
   </si>
   <si>
     <t>사용자가 회원 등록을 할 수 있는 페이지</t>
@@ -1340,10 +1338,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>전문가 매칭 웹 사이트</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>10일</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -1356,10 +1350,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>기능명세서 수정</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1380,10 +1370,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아이디 자동저장 checked시, </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>본인 소개</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1478,12 +1464,119 @@
   <si>
     <t>expert_user_id</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>이운호</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성훈</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설계서 작성</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 작성</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>길보령</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.7.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오(PPT)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정우</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 관련 전문가를 매칭시켜주는 웹사이트</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 매칭 웹 사이트 (CloseUp)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 정규식 조건 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 정규식 조건 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련메서드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 상세</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디 자동저장 checked시, </t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_ck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 user의 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 user의 비밀번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 user의 비밀번호 일치 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -2909,7 +3002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3240,9 +3333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3267,55 +3357,142 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="67" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3328,54 +3505,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3480,15 +3609,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,16 +3630,37 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="20% - 강조색1 2" xfId="5"/>
-    <cellStyle name="40% - 강조색1" xfId="3"/>
-    <cellStyle name="40% - 강조색1 2" xfId="6"/>
-    <cellStyle name="강조색1" xfId="1"/>
-    <cellStyle name="강조색1 2" xfId="7"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="40% - 강조색1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="강조색1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="강조색1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3551,7 +3692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3874,32 +4021,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:CM33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:CM34"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="86" customWidth="1"/>
-    <col min="2" max="3" width="30.875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="86" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="86"/>
-    <col min="7" max="7" width="5.875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="86" customWidth="1"/>
+    <col min="2" max="3" width="30.83203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="86" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="86"/>
+    <col min="7" max="7" width="5.83203125" style="86" customWidth="1"/>
     <col min="8" max="91" width="1.5" style="86" customWidth="1"/>
-    <col min="92" max="16384" width="10.875" style="86"/>
+    <col min="92" max="16384" width="10.83203125" style="86"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:91">
       <c r="A3" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="120"/>
+        <v>265</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="141"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -3991,10 +4138,12 @@
     </row>
     <row r="4" spans="1:91">
       <c r="A4" s="107" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
+        <v>379</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="141"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -4086,12 +4235,12 @@
     </row>
     <row r="5" spans="1:91">
       <c r="A5" s="107" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="120"/>
+      <c r="B5" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="141"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -4183,12 +4332,12 @@
     </row>
     <row r="6" spans="1:91">
       <c r="A6" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="120" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="120"/>
+      <c r="B6" s="141" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="141"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4280,12 +4429,12 @@
     </row>
     <row r="7" spans="1:91">
       <c r="A7" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="119">
+        <v>374</v>
+      </c>
+      <c r="B7" s="140">
         <v>45436</v>
       </c>
-      <c r="C7" s="120"/>
+      <c r="C7" s="141"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4377,10 +4526,10 @@
     </row>
     <row r="8" spans="1:91">
       <c r="A8" s="107" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+        <v>373</v>
+      </c>
+      <c r="B8" s="140"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4566,512 +4715,512 @@
       <c r="CM9" s="87"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="129" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="B10" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="E10" s="125" t="s">
         <v>368</v>
       </c>
+      <c r="F10" s="125" t="s">
+        <v>367</v>
+      </c>
       <c r="G10" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="H10" s="127" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="127" t="s">
+      <c r="H10" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="128"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="128"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="128"/>
-      <c r="BE10" s="128"/>
-      <c r="BF10" s="128"/>
-      <c r="BG10" s="128"/>
-      <c r="BH10" s="128"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="128"/>
-      <c r="BK10" s="128"/>
-      <c r="BL10" s="127" t="s">
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="BM10" s="128"/>
-      <c r="BN10" s="128"/>
-      <c r="BO10" s="128"/>
-      <c r="BP10" s="128"/>
-      <c r="BQ10" s="128"/>
-      <c r="BR10" s="128"/>
-      <c r="BS10" s="128"/>
-      <c r="BT10" s="128"/>
-      <c r="BU10" s="128"/>
-      <c r="BV10" s="128"/>
-      <c r="BW10" s="128"/>
-      <c r="BX10" s="128"/>
-      <c r="BY10" s="128"/>
-      <c r="BZ10" s="128"/>
-      <c r="CA10" s="128"/>
-      <c r="CB10" s="128"/>
-      <c r="CC10" s="128"/>
-      <c r="CD10" s="128"/>
-      <c r="CE10" s="128"/>
-      <c r="CF10" s="128"/>
-      <c r="CG10" s="128"/>
-      <c r="CH10" s="128"/>
-      <c r="CI10" s="128"/>
-      <c r="CJ10" s="128"/>
-      <c r="CK10" s="128"/>
-      <c r="CL10" s="128"/>
-      <c r="CM10" s="128"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="130"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="130"/>
+      <c r="AW10" s="130"/>
+      <c r="AX10" s="130"/>
+      <c r="AY10" s="130"/>
+      <c r="AZ10" s="130"/>
+      <c r="BA10" s="130"/>
+      <c r="BB10" s="130"/>
+      <c r="BC10" s="130"/>
+      <c r="BD10" s="130"/>
+      <c r="BE10" s="130"/>
+      <c r="BF10" s="130"/>
+      <c r="BG10" s="130"/>
+      <c r="BH10" s="130"/>
+      <c r="BI10" s="130"/>
+      <c r="BJ10" s="130"/>
+      <c r="BK10" s="130"/>
+      <c r="BL10" s="129" t="s">
+        <v>363</v>
+      </c>
+      <c r="BM10" s="130"/>
+      <c r="BN10" s="130"/>
+      <c r="BO10" s="130"/>
+      <c r="BP10" s="130"/>
+      <c r="BQ10" s="130"/>
+      <c r="BR10" s="130"/>
+      <c r="BS10" s="130"/>
+      <c r="BT10" s="130"/>
+      <c r="BU10" s="130"/>
+      <c r="BV10" s="130"/>
+      <c r="BW10" s="130"/>
+      <c r="BX10" s="130"/>
+      <c r="BY10" s="130"/>
+      <c r="BZ10" s="130"/>
+      <c r="CA10" s="130"/>
+      <c r="CB10" s="130"/>
+      <c r="CC10" s="130"/>
+      <c r="CD10" s="130"/>
+      <c r="CE10" s="130"/>
+      <c r="CF10" s="130"/>
+      <c r="CG10" s="130"/>
+      <c r="CH10" s="130"/>
+      <c r="CI10" s="130"/>
+      <c r="CJ10" s="130"/>
+      <c r="CK10" s="130"/>
+      <c r="CL10" s="130"/>
+      <c r="CM10" s="130"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="105" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="121" t="s">
+      <c r="H11" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="121" t="s">
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="121" t="s">
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="121" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="121" t="s">
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="123"/>
-      <c r="AX11" s="121" t="s">
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="AY11" s="122"/>
-      <c r="AZ11" s="122"/>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="121" t="s">
+      <c r="AR11" s="123"/>
+      <c r="AS11" s="123"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="123"/>
+      <c r="AV11" s="123"/>
+      <c r="AW11" s="124"/>
+      <c r="AX11" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="121" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="121" t="s">
+      <c r="AY11" s="123"/>
+      <c r="AZ11" s="123"/>
+      <c r="BA11" s="123"/>
+      <c r="BB11" s="123"/>
+      <c r="BC11" s="123"/>
+      <c r="BD11" s="124"/>
+      <c r="BE11" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="BF11" s="123"/>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="123"/>
+      <c r="BJ11" s="123"/>
+      <c r="BK11" s="124"/>
+      <c r="BL11" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="BT11" s="122"/>
-      <c r="BU11" s="122"/>
-      <c r="BV11" s="122"/>
-      <c r="BW11" s="122"/>
-      <c r="BX11" s="122"/>
-      <c r="BY11" s="123"/>
-      <c r="BZ11" s="121" t="s">
+      <c r="BM11" s="123"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="123"/>
+      <c r="BQ11" s="123"/>
+      <c r="BR11" s="124"/>
+      <c r="BS11" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="CA11" s="122"/>
-      <c r="CB11" s="122"/>
-      <c r="CC11" s="122"/>
-      <c r="CD11" s="122"/>
-      <c r="CE11" s="122"/>
-      <c r="CF11" s="123"/>
-      <c r="CG11" s="121" t="s">
+      <c r="BT11" s="123"/>
+      <c r="BU11" s="123"/>
+      <c r="BV11" s="123"/>
+      <c r="BW11" s="123"/>
+      <c r="BX11" s="123"/>
+      <c r="BY11" s="124"/>
+      <c r="BZ11" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="CH11" s="122"/>
-      <c r="CI11" s="122"/>
-      <c r="CJ11" s="122"/>
-      <c r="CK11" s="122"/>
-      <c r="CL11" s="122"/>
-      <c r="CM11" s="123"/>
+      <c r="CA11" s="123"/>
+      <c r="CB11" s="123"/>
+      <c r="CC11" s="123"/>
+      <c r="CD11" s="123"/>
+      <c r="CE11" s="123"/>
+      <c r="CF11" s="124"/>
+      <c r="CG11" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH11" s="123"/>
+      <c r="CI11" s="123"/>
+      <c r="CJ11" s="123"/>
+      <c r="CK11" s="123"/>
+      <c r="CL11" s="123"/>
+      <c r="CM11" s="124"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
       <c r="G12" s="105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I12" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="M12" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="O12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="P12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="Q12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="L12" s="104" t="s">
+      <c r="R12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="M12" s="104" t="s">
+      <c r="S12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="T12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="O12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="P12" s="104" t="s">
+      <c r="U12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="V12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="Q12" s="104" t="s">
+      <c r="W12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="R12" s="104" t="s">
+      <c r="X12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="S12" s="104" t="s">
+      <c r="Y12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="T12" s="104" t="s">
+      <c r="Z12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="U12" s="104" t="s">
+      <c r="AA12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="V12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="W12" s="104" t="s">
+      <c r="AB12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="X12" s="104" t="s">
+      <c r="AD12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="Y12" s="104" t="s">
+      <c r="AE12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="Z12" s="104" t="s">
+      <c r="AF12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AA12" s="104" t="s">
+      <c r="AG12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AB12" s="104" t="s">
+      <c r="AH12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AC12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD12" s="104" t="s">
+      <c r="AI12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AE12" s="104" t="s">
+      <c r="AK12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AF12" s="104" t="s">
+      <c r="AL12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AG12" s="104" t="s">
+      <c r="AM12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AH12" s="104" t="s">
+      <c r="AN12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AI12" s="104" t="s">
+      <c r="AO12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AJ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK12" s="104" t="s">
+      <c r="AP12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AL12" s="104" t="s">
+      <c r="AR12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AM12" s="104" t="s">
+      <c r="AS12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AN12" s="104" t="s">
+      <c r="AT12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AO12" s="104" t="s">
+      <c r="AU12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AP12" s="104" t="s">
+      <c r="AV12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AQ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AR12" s="104" t="s">
+      <c r="AW12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="AX12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AS12" s="104" t="s">
+      <c r="AY12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="AT12" s="104" t="s">
+      <c r="AZ12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="AU12" s="104" t="s">
+      <c r="BA12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="AV12" s="104" t="s">
+      <c r="BB12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="AW12" s="104" t="s">
+      <c r="BC12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="AX12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="AY12" s="104" t="s">
+      <c r="BD12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="AZ12" s="104" t="s">
+      <c r="BF12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BA12" s="104" t="s">
+      <c r="BG12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BB12" s="104" t="s">
+      <c r="BH12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BC12" s="104" t="s">
+      <c r="BI12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BD12" s="104" t="s">
+      <c r="BJ12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BE12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BF12" s="104" t="s">
+      <c r="BK12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BG12" s="104" t="s">
+      <c r="BM12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BH12" s="104" t="s">
+      <c r="BN12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BI12" s="104" t="s">
+      <c r="BO12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BJ12" s="104" t="s">
+      <c r="BP12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BK12" s="104" t="s">
+      <c r="BQ12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BL12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM12" s="104" t="s">
+      <c r="BR12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BS12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BN12" s="104" t="s">
+      <c r="BT12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BO12" s="104" t="s">
+      <c r="BU12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BP12" s="104" t="s">
+      <c r="BV12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BQ12" s="104" t="s">
+      <c r="BW12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BR12" s="104" t="s">
+      <c r="BX12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BS12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="BT12" s="104" t="s">
+      <c r="BY12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="BZ12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="BU12" s="104" t="s">
+      <c r="CA12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="BV12" s="104" t="s">
+      <c r="CB12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="BW12" s="104" t="s">
+      <c r="CC12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="BX12" s="104" t="s">
+      <c r="CD12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="BY12" s="104" t="s">
+      <c r="CE12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="BZ12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="CA12" s="104" t="s">
+      <c r="CF12" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="CG12" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="CB12" s="104" t="s">
+      <c r="CH12" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="CC12" s="104" t="s">
+      <c r="CI12" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="CD12" s="104" t="s">
+      <c r="CJ12" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="CE12" s="104" t="s">
+      <c r="CK12" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="CF12" s="104" t="s">
+      <c r="CL12" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="CG12" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="CH12" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="CI12" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="CJ12" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="CK12" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="CL12" s="104" t="s">
-        <v>352</v>
-      </c>
       <c r="CM12" s="104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="124" t="s">
-        <v>350</v>
+      <c r="A13" s="126" t="s">
+        <v>349</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="95">
         <v>45437</v>
@@ -5080,7 +5229,7 @@
         <v>45439</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="94"/>
@@ -5168,15 +5317,15 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="125"/>
-      <c r="B14" s="124" t="s">
-        <v>346</v>
+      <c r="A14" s="127"/>
+      <c r="B14" s="126" t="s">
+        <v>345</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="95">
         <v>45440</v>
@@ -5185,7 +5334,7 @@
         <v>45441</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -5273,13 +5422,13 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E15" s="95">
         <v>45441</v>
@@ -5288,7 +5437,7 @@
         <v>45442</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
@@ -5376,13 +5525,13 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E16" s="95">
         <v>45442</v>
@@ -5391,7 +5540,7 @@
         <v>45443</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
@@ -5479,13 +5628,13 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="95">
         <v>45443</v>
@@ -5494,7 +5643,7 @@
         <v>45443</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" s="92"/>
       <c r="I17" s="92"/>
@@ -5582,13 +5731,13 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" s="95">
         <v>45449</v>
@@ -5597,7 +5746,7 @@
         <v>45449</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
@@ -5685,17 +5834,17 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="130" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="134" t="s">
         <v>337</v>
       </c>
+      <c r="B19" s="137" t="s">
+        <v>336</v>
+      </c>
       <c r="C19" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="95">
         <v>45450</v>
@@ -5704,7 +5853,7 @@
         <v>45453</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -5792,13 +5941,13 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="131"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="95">
         <v>45460</v>
@@ -5807,7 +5956,7 @@
         <v>45460</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
@@ -5895,13 +6044,13 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="131"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E21" s="95">
         <v>45460</v>
@@ -5910,7 +6059,7 @@
         <v>45467</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
@@ -5998,15 +6147,15 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="132"/>
-      <c r="B22" s="96" t="s">
-        <v>328</v>
+      <c r="A22" s="135"/>
+      <c r="B22" s="137" t="s">
+        <v>327</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="95">
         <v>45460</v>
@@ -6015,7 +6164,7 @@
         <v>45469</v>
       </c>
       <c r="G22" s="96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
@@ -6103,15 +6252,17 @@
       <c r="CM22" s="91"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="93" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>326</v>
-      </c>
-      <c r="E23" s="92"/>
+        <v>413</v>
+      </c>
+      <c r="E23" s="95">
+        <v>45483</v>
+      </c>
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
@@ -6161,7 +6312,7 @@
       <c r="AZ23" s="91"/>
       <c r="BA23" s="91"/>
       <c r="BB23" s="91"/>
-      <c r="BC23" s="91"/>
+      <c r="BC23" s="97"/>
       <c r="BD23" s="91"/>
       <c r="BE23" s="91"/>
       <c r="BF23" s="91"/>
@@ -6200,11 +6351,17 @@
       <c r="CM23" s="91"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="120" t="s">
+        <v>417</v>
+      </c>
       <c r="F24" s="92"/>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
@@ -6254,7 +6411,7 @@
       <c r="AZ24" s="91"/>
       <c r="BA24" s="91"/>
       <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
+      <c r="BC24" s="97"/>
       <c r="BD24" s="91"/>
       <c r="BE24" s="91"/>
       <c r="BF24" s="91"/>
@@ -6293,24 +6450,16 @@
       <c r="CM24" s="91"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="92" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>323</v>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="93" t="s">
+        <v>418</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="95">
-        <v>45470</v>
-      </c>
-      <c r="F25" s="95">
-        <v>45476</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
       <c r="I25" s="92"/>
@@ -6346,20 +6495,20 @@
       <c r="AM25" s="92"/>
       <c r="AN25" s="92"/>
       <c r="AO25" s="92"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="94"/>
-      <c r="AV25" s="94"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="92"/>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="92"/>
       <c r="AW25" s="92"/>
       <c r="AX25" s="92"/>
       <c r="AY25" s="91"/>
       <c r="AZ25" s="91"/>
       <c r="BA25" s="91"/>
       <c r="BB25" s="91"/>
-      <c r="BC25" s="91"/>
+      <c r="BC25" s="97"/>
       <c r="BD25" s="91"/>
       <c r="BE25" s="91"/>
       <c r="BF25" s="91"/>
@@ -6398,18 +6547,24 @@
       <c r="CM25" s="91"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>323</v>
+      </c>
       <c r="C26" s="96" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="95">
-        <v>45475</v>
-      </c>
-      <c r="F26" s="92"/>
+        <v>45470</v>
+      </c>
+      <c r="F26" s="95">
+        <v>45476</v>
+      </c>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
@@ -6445,11 +6600,11 @@
       <c r="AM26" s="92"/>
       <c r="AN26" s="92"/>
       <c r="AO26" s="92"/>
-      <c r="AP26" s="92"/>
-      <c r="AQ26" s="92"/>
-      <c r="AR26" s="92"/>
-      <c r="AS26" s="92"/>
-      <c r="AT26" s="92"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="94"/>
       <c r="AV26" s="94"/>
       <c r="AW26" s="92"/>
@@ -6498,12 +6653,16 @@
     </row>
     <row r="27" spans="1:91">
       <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="96" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="95"/>
+        <v>381</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="95">
+        <v>45475</v>
+      </c>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -6545,15 +6704,15 @@
       <c r="AR27" s="92"/>
       <c r="AS27" s="92"/>
       <c r="AT27" s="92"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="92"/>
-      <c r="AW27" s="92"/>
-      <c r="AX27" s="92"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="97"/>
+      <c r="AZ27" s="97"/>
+      <c r="BA27" s="97"/>
+      <c r="BB27" s="97"/>
+      <c r="BC27" s="97"/>
       <c r="BD27" s="91"/>
       <c r="BE27" s="91"/>
       <c r="BF27" s="91"/>
@@ -6593,12 +6752,16 @@
     </row>
     <row r="28" spans="1:91">
       <c r="A28" s="92"/>
-      <c r="B28" s="93" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="95">
+        <v>45478</v>
+      </c>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
@@ -6687,12 +6850,14 @@
       <c r="CM28" s="91"/>
     </row>
     <row r="29" spans="1:91">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="93" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="92"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="D29" s="93" t="s">
+        <v>413</v>
+      </c>
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
@@ -6782,7 +6947,9 @@
       <c r="CM29" s="91"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="92"/>
+      <c r="A30" s="92" t="s">
+        <v>319</v>
+      </c>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -6875,97 +7042,97 @@
       <c r="CM30" s="91"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="88"/>
-      <c r="AQ31" s="88"/>
-      <c r="AR31" s="88"/>
-      <c r="AS31" s="88"/>
-      <c r="AT31" s="88"/>
-      <c r="AU31" s="88"/>
-      <c r="AV31" s="88"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="88"/>
-      <c r="AY31" s="88"/>
-      <c r="AZ31" s="88"/>
-      <c r="BA31" s="88"/>
-      <c r="BB31" s="88"/>
-      <c r="BC31" s="88"/>
-      <c r="BD31" s="88"/>
-      <c r="BE31" s="88"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="88"/>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="88"/>
-      <c r="BJ31" s="88"/>
-      <c r="BK31" s="88"/>
-      <c r="BL31" s="88"/>
-      <c r="BM31" s="88"/>
-      <c r="BN31" s="88"/>
-      <c r="BO31" s="88"/>
-      <c r="BP31" s="87"/>
-      <c r="BQ31" s="87"/>
-      <c r="BR31" s="87"/>
-      <c r="BS31" s="87"/>
-      <c r="BT31" s="87"/>
-      <c r="BU31" s="87"/>
-      <c r="BV31" s="87"/>
-      <c r="BW31" s="87"/>
-      <c r="BX31" s="87"/>
-      <c r="BY31" s="87"/>
-      <c r="BZ31" s="87"/>
-      <c r="CA31" s="87"/>
-      <c r="CB31" s="87"/>
-      <c r="CC31" s="87"/>
-      <c r="CD31" s="87"/>
-      <c r="CE31" s="87"/>
-      <c r="CF31" s="87"/>
-      <c r="CG31" s="87"/>
-      <c r="CH31" s="87"/>
-      <c r="CI31" s="87"/>
-      <c r="CJ31" s="87"/>
-      <c r="CK31" s="87"/>
-      <c r="CL31" s="87"/>
-      <c r="CM31" s="87"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="92"/>
+      <c r="AN31" s="92"/>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="91"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="91"/>
+      <c r="BG31" s="91"/>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="92"/>
+      <c r="BM31" s="92"/>
+      <c r="BN31" s="92"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BR31" s="92"/>
+      <c r="BS31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="92"/>
+      <c r="BV31" s="92"/>
+      <c r="BW31" s="92"/>
+      <c r="BX31" s="92"/>
+      <c r="BY31" s="92"/>
+      <c r="BZ31" s="92"/>
+      <c r="CA31" s="91"/>
+      <c r="CB31" s="91"/>
+      <c r="CC31" s="91"/>
+      <c r="CD31" s="91"/>
+      <c r="CE31" s="91"/>
+      <c r="CF31" s="91"/>
+      <c r="CG31" s="91"/>
+      <c r="CH31" s="91"/>
+      <c r="CI31" s="91"/>
+      <c r="CJ31" s="91"/>
+      <c r="CK31" s="91"/>
+      <c r="CL31" s="91"/>
+      <c r="CM31" s="91"/>
     </row>
     <row r="32" spans="1:91">
       <c r="A32" s="90"/>
@@ -7153,17 +7320,111 @@
       <c r="CL33" s="87"/>
       <c r="CM33" s="87"/>
     </row>
+    <row r="34" spans="1:91">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="88"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="88"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="88"/>
+      <c r="AP34" s="88"/>
+      <c r="AQ34" s="88"/>
+      <c r="AR34" s="88"/>
+      <c r="AS34" s="88"/>
+      <c r="AT34" s="88"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="88"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="88"/>
+      <c r="AY34" s="88"/>
+      <c r="AZ34" s="88"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="88"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="88"/>
+      <c r="BE34" s="88"/>
+      <c r="BF34" s="88"/>
+      <c r="BG34" s="88"/>
+      <c r="BH34" s="88"/>
+      <c r="BI34" s="88"/>
+      <c r="BJ34" s="88"/>
+      <c r="BK34" s="88"/>
+      <c r="BL34" s="88"/>
+      <c r="BM34" s="88"/>
+      <c r="BN34" s="88"/>
+      <c r="BO34" s="88"/>
+      <c r="BP34" s="87"/>
+      <c r="BQ34" s="87"/>
+      <c r="BR34" s="87"/>
+      <c r="BS34" s="87"/>
+      <c r="BT34" s="87"/>
+      <c r="BU34" s="87"/>
+      <c r="BV34" s="87"/>
+      <c r="BW34" s="87"/>
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87"/>
+      <c r="BZ34" s="87"/>
+      <c r="CA34" s="87"/>
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="87"/>
+      <c r="CD34" s="87"/>
+      <c r="CE34" s="87"/>
+      <c r="CF34" s="87"/>
+      <c r="CG34" s="87"/>
+      <c r="CH34" s="87"/>
+      <c r="CI34" s="87"/>
+      <c r="CJ34" s="87"/>
+      <c r="CK34" s="87"/>
+      <c r="CL34" s="87"/>
+      <c r="CM34" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A19:A22"/>
+  <mergeCells count="33">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -7180,12 +7441,13 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7193,446 +7455,487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:F128"/>
+  <dimension ref="A2:F120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
+    <row r="2" spans="1:6" ht="20">
       <c r="A2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="136">
+        <v>64</v>
+      </c>
+      <c r="B2" s="164">
         <v>1</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+    </row>
+    <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25">
+        <v>29</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+    </row>
+    <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25">
-      <c r="B5" s="137" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25">
-      <c r="B6" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25">
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="167" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+    </row>
+    <row r="5" spans="1:6" ht="20">
+      <c r="B5" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="B6" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="54" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25">
-      <c r="B10" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="20">
+      <c r="B10" s="165" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>164</v>
+        <v>429</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>431</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>430</v>
+      </c>
       <c r="F11" s="54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="54" t="s">
-        <v>389</v>
+      <c r="B12" s="145" t="s">
+        <v>384</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+        <v>427</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="121" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="26.25">
-      <c r="B15" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25">
-      <c r="B16" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="147"/>
+      <c r="C14" s="121" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="109"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+    <row r="17" spans="2:6" ht="23">
+      <c r="B17" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+    </row>
+    <row r="18" spans="2:6" ht="18">
+      <c r="B18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="143"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="144"/>
+      <c r="F19" s="143"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-    </row>
-    <row r="35" spans="2:6" ht="20.25">
-      <c r="B35" s="141">
+      <c r="B20" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="144"/>
+      <c r="F20" s="143"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" thickBot="1"/>
+    <row r="26" spans="2:6" ht="21" thickBot="1">
+      <c r="B26" s="157">
         <v>2</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-    </row>
-    <row r="36" spans="2:6" ht="20.25">
-      <c r="B36" s="31" t="s">
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+    </row>
+    <row r="27" spans="2:6" ht="20">
+      <c r="B27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+    </row>
+    <row r="28" spans="2:6" ht="21" thickBot="1">
+      <c r="B28" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+    </row>
+    <row r="29" spans="2:6" ht="20">
+      <c r="B29" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+    </row>
+    <row r="30" spans="2:6" ht="18">
+      <c r="B30" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="149"/>
+      <c r="F30" s="150"/>
+    </row>
+    <row r="31" spans="2:6" ht="18">
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="212" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="213" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33" s="214" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="215" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="215" t="s">
+        <v>437</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E34" s="214" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="213"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="2:6" ht="18" thickBot="1">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="2:6" ht="20">
+      <c r="B37" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+    </row>
+    <row r="38" spans="2:6" ht="18">
+      <c r="B38" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="45"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="45"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="2:6" ht="18" thickBot="1">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="2:6" ht="23">
+      <c r="B42" s="154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="156"/>
+    </row>
+    <row r="43" spans="2:6" ht="18">
+      <c r="B43" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-    </row>
-    <row r="37" spans="2:6" ht="20.25">
-      <c r="B37" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="147"/>
-    </row>
-    <row r="38" spans="2:6" ht="20.25">
-      <c r="B38" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.25">
-      <c r="B39" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="152"/>
-    </row>
-    <row r="40" spans="2:6" ht="17.25">
-      <c r="B40" s="151"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="25"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="150"/>
-    </row>
-    <row r="46" spans="2:6" ht="17.25">
-      <c r="B46" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="25"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="25"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="45"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="45"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="2:6" ht="26.25">
-      <c r="B50" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="155"/>
-    </row>
-    <row r="51" spans="2:6" ht="17.25">
-      <c r="B51" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="25"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="25"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="26"/>
     </row>
@@ -7664,225 +7967,226 @@
       <c r="E55" s="21"/>
       <c r="F55" s="26"/>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="25"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="25"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="25"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="25"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="25"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="25"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="25"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="25"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="67" spans="2:6" ht="20.25">
-      <c r="B67" s="141">
+    <row r="56" spans="2:6" ht="18" thickBot="1">
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="58" spans="2:6" ht="18" thickBot="1"/>
+    <row r="59" spans="2:6" ht="21" thickBot="1">
+      <c r="B59" s="157">
         <v>3</v>
       </c>
-      <c r="C67" s="142"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="143"/>
-    </row>
-    <row r="68" spans="2:6" ht="20.25">
-      <c r="B68" s="31" t="s">
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="159"/>
+    </row>
+    <row r="60" spans="2:6" ht="20">
+      <c r="B60" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="161"/>
+    </row>
+    <row r="61" spans="2:6" ht="21" thickBot="1">
+      <c r="B61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="162" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="163"/>
+    </row>
+    <row r="62" spans="2:6" ht="20">
+      <c r="B62" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153"/>
+    </row>
+    <row r="63" spans="2:6" ht="18">
+      <c r="B63" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="149"/>
+      <c r="F63" s="150"/>
+    </row>
+    <row r="64" spans="2:6" ht="18">
+      <c r="B64" s="148"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="25"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
+    </row>
+    <row r="68" spans="2:6" ht="18" thickBot="1">
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="2:6" ht="20">
+      <c r="B69" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="153"/>
+    </row>
+    <row r="70" spans="2:6" ht="18">
+      <c r="B70" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="45"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="45"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="2:6" ht="18" thickBot="1">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="2:6" ht="23">
+      <c r="B74" s="154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="155"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="156"/>
+    </row>
+    <row r="75" spans="2:6" ht="18">
+      <c r="B75" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="145"/>
-    </row>
-    <row r="69" spans="2:6" ht="20.25">
-      <c r="B69" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="147"/>
-    </row>
-    <row r="70" spans="2:6" ht="20.25">
-      <c r="B70" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="150"/>
-    </row>
-    <row r="71" spans="2:6" ht="17.25">
-      <c r="B71" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="140"/>
-      <c r="F71" s="152"/>
-    </row>
-    <row r="72" spans="2:6" ht="17.25">
-      <c r="B72" s="151"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="25"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="42"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="2:6" ht="20.25">
-      <c r="B77" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="149"/>
-      <c r="F77" s="150"/>
-    </row>
-    <row r="78" spans="2:6" ht="17.25">
-      <c r="B78" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="25"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="25"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="45"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="45"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="2:6" ht="26.25">
-      <c r="B82" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C82" s="154"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="155"/>
-    </row>
-    <row r="83" spans="2:6" ht="17.25">
-      <c r="B83" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="25"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="25"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="26"/>
     </row>
@@ -7914,225 +8218,226 @@
       <c r="E87" s="21"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="25"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="25"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="25"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="26"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="25"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="26"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="25"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="26"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="25"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="26"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="25"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="26"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="25"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="26"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="29"/>
-    </row>
-    <row r="99" spans="2:6" ht="20.25">
-      <c r="B99" s="141">
+    <row r="88" spans="2:6" ht="18" thickBot="1">
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="90" spans="2:6" ht="18" thickBot="1"/>
+    <row r="91" spans="2:6" ht="21" thickBot="1">
+      <c r="B91" s="157">
         <v>4</v>
       </c>
-      <c r="C99" s="142"/>
-      <c r="D99" s="142"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="143"/>
-    </row>
-    <row r="100" spans="2:6" ht="20.25">
-      <c r="B100" s="31" t="s">
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="159"/>
+    </row>
+    <row r="92" spans="2:6" ht="20">
+      <c r="B92" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="160" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="160"/>
+      <c r="E92" s="160"/>
+      <c r="F92" s="161"/>
+    </row>
+    <row r="93" spans="2:6" ht="21" thickBot="1">
+      <c r="B93" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="162"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="163"/>
+    </row>
+    <row r="94" spans="2:6" ht="20">
+      <c r="B94" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="152"/>
+      <c r="D94" s="152"/>
+      <c r="E94" s="152"/>
+      <c r="F94" s="153"/>
+    </row>
+    <row r="95" spans="2:6" ht="18">
+      <c r="B95" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="149"/>
+      <c r="F95" s="150"/>
+    </row>
+    <row r="96" spans="2:6" ht="18">
+      <c r="B96" s="148"/>
+      <c r="C96" s="149"/>
+      <c r="D96" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="25"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="26"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="42"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="44"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="42"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="44"/>
+    </row>
+    <row r="100" spans="2:6" ht="18" thickBot="1">
+      <c r="B100" s="27"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="29"/>
+    </row>
+    <row r="101" spans="2:6" ht="20">
+      <c r="B101" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="152"/>
+      <c r="D101" s="152"/>
+      <c r="E101" s="152"/>
+      <c r="F101" s="153"/>
+    </row>
+    <row r="102" spans="2:6" ht="18">
+      <c r="B102" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="26"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="45"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="26"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="45"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="2:6" ht="18" thickBot="1">
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="29"/>
+    </row>
+    <row r="106" spans="2:6" ht="23">
+      <c r="B106" s="154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="155"/>
+      <c r="D106" s="155"/>
+      <c r="E106" s="155"/>
+      <c r="F106" s="156"/>
+    </row>
+    <row r="107" spans="2:6" ht="18">
+      <c r="B107" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="144" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="144"/>
-      <c r="E100" s="144"/>
-      <c r="F100" s="145"/>
-    </row>
-    <row r="101" spans="2:6" ht="20.25">
-      <c r="B101" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="146"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="147"/>
-    </row>
-    <row r="102" spans="2:6" ht="20.25">
-      <c r="B102" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="149"/>
-      <c r="D102" s="149"/>
-      <c r="E102" s="149"/>
-      <c r="F102" s="150"/>
-    </row>
-    <row r="103" spans="2:6" ht="17.25">
-      <c r="B103" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="140"/>
-      <c r="F103" s="152"/>
-    </row>
-    <row r="104" spans="2:6" ht="17.25">
-      <c r="B104" s="151"/>
-      <c r="C104" s="140"/>
-      <c r="D104" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="25"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="26"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="44"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="42"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="44"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="27"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="29"/>
-    </row>
-    <row r="109" spans="2:6" ht="20.25">
-      <c r="B109" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="149"/>
-      <c r="D109" s="149"/>
-      <c r="E109" s="149"/>
-      <c r="F109" s="150"/>
-    </row>
-    <row r="110" spans="2:6" ht="17.25">
-      <c r="B110" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>184</v>
-      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="25"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="26"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="25"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="21"/>
       <c r="F110" s="26"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="45"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="45"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
       <c r="F112" s="26"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="2:6" ht="26.25">
-      <c r="B114" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" s="154"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="154"/>
-      <c r="F114" s="155"/>
-    </row>
-    <row r="115" spans="2:6" ht="17.25">
-      <c r="B115" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="26"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="26"/>
     </row>
@@ -8164,107 +8469,55 @@
       <c r="E119" s="21"/>
       <c r="F119" s="26"/>
     </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="25"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="26"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="25"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="26"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="25"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="26"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="25"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="26"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="25"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="26"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="25"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="26"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="25"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="26"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="25"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="26"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="27"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
+    <row r="120" spans="2:6" ht="18" thickBot="1">
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:F39"/>
+  <mergeCells count="40">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="C60:F60"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8273,7 +8526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
@@ -8281,90 +8534,90 @@
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="13" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="104.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="33.75">
-      <c r="C2" s="162" t="s">
+    <row r="2" spans="3:11" ht="32">
+      <c r="C2" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="176"/>
+    </row>
+    <row r="3" spans="3:11" ht="20">
+      <c r="C3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
-    </row>
-    <row r="3" spans="3:11" ht="20.25">
-      <c r="C3" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="156" t="s">
-        <v>44</v>
+      <c r="C4" s="169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="168" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="158"/>
-      <c r="D5" s="156"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>0</v>
@@ -8376,85 +8629,85 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="158"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="168"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="158"/>
-      <c r="D7" s="156"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="158"/>
-      <c r="D8" s="156"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="158"/>
-      <c r="D9" s="156"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="158"/>
-      <c r="D10" s="156" t="s">
-        <v>94</v>
+      <c r="C10" s="170"/>
+      <c r="D10" s="168" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
@@ -8463,622 +8716,622 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="158"/>
-      <c r="D11" s="156"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="3:11" ht="16.7" customHeight="1">
-      <c r="C12" s="159"/>
-      <c r="D12" s="156" t="s">
-        <v>150</v>
+    <row r="12" spans="3:11" ht="16.75" customHeight="1">
+      <c r="C12" s="171"/>
+      <c r="D12" s="168" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="159"/>
-      <c r="D13" s="165"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="159"/>
-      <c r="D14" s="156"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="159"/>
-      <c r="D15" s="156" t="s">
-        <v>42</v>
+      <c r="C15" s="171"/>
+      <c r="D15" s="168" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="159"/>
-      <c r="D16" s="165"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="159"/>
-      <c r="D17" s="156"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="168"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="159"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="159"/>
-      <c r="D19" s="156"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="168"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="159"/>
-      <c r="D20" s="156"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="159"/>
-      <c r="D21" s="156"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="159"/>
-      <c r="D22" s="156"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="168"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="159"/>
-      <c r="D23" s="156"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="159"/>
-      <c r="D24" s="156"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="168"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="159"/>
-      <c r="D25" s="156" t="s">
-        <v>98</v>
+      <c r="C25" s="171"/>
+      <c r="D25" s="168" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="159"/>
-      <c r="D26" s="156"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="168"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="159"/>
-      <c r="D27" s="156"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>209</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="160"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="160"/>
-      <c r="D29" s="156"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="168"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="160"/>
-      <c r="D30" s="156"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="160"/>
-      <c r="D31" s="156"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="168"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="160"/>
-      <c r="D32" s="156"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="160"/>
-      <c r="D33" s="156"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="160"/>
-      <c r="D34" s="156"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="160"/>
-      <c r="D35" s="156"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="160"/>
-      <c r="D36" s="156"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="160"/>
-      <c r="D37" s="156" t="s">
-        <v>102</v>
+      <c r="C37" s="172"/>
+      <c r="D37" s="168" t="s">
+        <v>101</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="160"/>
-      <c r="D38" s="156"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="160"/>
-      <c r="D39" s="156"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="160"/>
-      <c r="D40" s="156"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="160"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="160"/>
-      <c r="D42" s="156"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="160"/>
-      <c r="D43" s="156"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="160"/>
-      <c r="D44" s="156"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="160"/>
-      <c r="D45" s="156"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="161"/>
-      <c r="D46" s="156"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="21"/>
     </row>
@@ -9100,88 +9353,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:BA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="39" thickBot="1">
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="2:53" ht="36" thickBot="1">
+      <c r="B1" s="179" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="181"/>
+      <c r="N1" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+    </row>
+    <row r="2" spans="2:53" ht="31" thickBot="1">
+      <c r="B2" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="N1" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-    </row>
-    <row r="2" spans="2:53" ht="32.25" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>217</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>218</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
@@ -9193,53 +9446,53 @@
       <c r="K2" s="57"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="2:53" ht="32.25" thickBot="1">
+    <row r="3" spans="2:53" ht="31" thickBot="1">
       <c r="B3" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="H3" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="I3" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="J3" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="K3" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="61" t="s">
+    </row>
+    <row r="4" spans="2:53" ht="23">
+      <c r="B4" s="62" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="2:53" ht="26.25">
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="D4" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="E4" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
@@ -9248,19 +9501,19 @@
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53" ht="23">
+      <c r="B5" s="65" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="2:53" ht="26.25">
-      <c r="B5" s="65" t="s">
-        <v>235</v>
-      </c>
       <c r="C5" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -9269,19 +9522,19 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" ht="23">
+      <c r="B6" s="65" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="2:53" ht="26.25">
-      <c r="B6" s="65" t="s">
-        <v>238</v>
-      </c>
       <c r="C6" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
@@ -9290,19 +9543,19 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="2:53" ht="23">
+      <c r="B7" s="65" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="7" spans="2:53" ht="26.25">
-      <c r="B7" s="65" t="s">
-        <v>240</v>
-      </c>
       <c r="C7" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
@@ -9311,19 +9564,19 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:53" ht="23">
+      <c r="B8" s="65" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="2:53" ht="26.25">
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>243</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -9332,19 +9585,19 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" ht="23">
+      <c r="B9" s="65" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="2:53" ht="26.25">
-      <c r="B9" s="65" t="s">
-        <v>245</v>
-      </c>
       <c r="C9" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -9353,19 +9606,19 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" ht="23">
+      <c r="B10" s="65" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="2:53" ht="26.25">
-      <c r="B10" s="65" t="s">
-        <v>247</v>
-      </c>
       <c r="C10" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -9374,19 +9627,19 @@
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" ht="23">
+      <c r="B11" s="65" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="2:53" ht="26.25">
-      <c r="B11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>249</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>250</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="66"/>
       <c r="G11" s="66"/>
@@ -9395,19 +9648,19 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" ht="23">
+      <c r="B12" s="65" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="2:53" ht="26.25">
-      <c r="B12" s="65" t="s">
-        <v>252</v>
-      </c>
       <c r="C12" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -9416,19 +9669,19 @@
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" ht="24" thickBot="1">
+      <c r="B13" s="68" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="2:53" ht="27" thickBot="1">
-      <c r="B13" s="68" t="s">
-        <v>254</v>
-      </c>
       <c r="C13" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
@@ -9437,10 +9690,10 @@
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
       <c r="L13" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="2:53" ht="26.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" ht="23">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -9453,7 +9706,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="2:53" ht="26.25">
+    <row r="15" spans="2:53" ht="23">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -9466,7 +9719,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="2:53" ht="27" thickBot="1">
+    <row r="16" spans="2:53" ht="24" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -9479,12 +9732,12 @@
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="2:12" ht="32.25" thickBot="1">
+    <row r="17" spans="2:12" ht="31" thickBot="1">
       <c r="B17" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -9496,53 +9749,53 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="32.25" thickBot="1">
+    <row r="18" spans="2:12" ht="31" thickBot="1">
       <c r="B18" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="D18" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="E18" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="F18" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="G18" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="H18" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="I18" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="J18" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="K18" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="L18" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L18" s="61" t="s">
+    </row>
+    <row r="19" spans="2:12" ht="23">
+      <c r="B19" s="62" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="26.25">
-      <c r="B19" s="62" t="s">
-        <v>230</v>
-      </c>
       <c r="C19" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
@@ -9551,21 +9804,21 @@
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="23">
+      <c r="B20" s="65" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="26.25">
-      <c r="B20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="D20" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>261</v>
-      </c>
       <c r="E20" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -9574,21 +9827,21 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="23">
+      <c r="B21" s="65" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="26.25">
-      <c r="B21" s="65" t="s">
-        <v>263</v>
-      </c>
       <c r="C21" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -9597,19 +9850,19 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="23">
+      <c r="B22" s="65" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="26.25">
-      <c r="B22" s="65" t="s">
-        <v>265</v>
-      </c>
       <c r="C22" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
@@ -9618,19 +9871,19 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="23">
+      <c r="B23" s="65" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" ht="26.25">
-      <c r="B23" s="65" t="s">
+      <c r="C23" s="66" t="s">
         <v>267</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -9639,19 +9892,19 @@
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="23">
+      <c r="B24" s="65" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="26.25">
-      <c r="B24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>270</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>271</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
@@ -9660,19 +9913,19 @@
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="23">
+      <c r="B25" s="65" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="26.25">
-      <c r="B25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>273</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>274</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
@@ -9681,19 +9934,19 @@
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="24" thickBot="1">
+      <c r="B26" s="68" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="27" thickBot="1">
-      <c r="B26" s="68" t="s">
-        <v>276</v>
-      </c>
       <c r="C26" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
@@ -9702,10 +9955,10 @@
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="23">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -9718,7 +9971,7 @@
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="2:12" ht="26.25">
+    <row r="28" spans="2:12" ht="23">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -9731,7 +9984,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="2:12" ht="39" thickBot="1">
+    <row r="29" spans="2:12" ht="36" thickBot="1">
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -9744,12 +9997,12 @@
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
     </row>
-    <row r="30" spans="2:12" ht="32.25" thickBot="1">
+    <row r="30" spans="2:12" ht="31" thickBot="1">
       <c r="B30" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -9761,53 +10014,53 @@
       <c r="K30" s="57"/>
       <c r="L30" s="58"/>
     </row>
-    <row r="31" spans="2:12" ht="32.25" thickBot="1">
+    <row r="31" spans="2:12" ht="31" thickBot="1">
       <c r="B31" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="D31" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="E31" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="F31" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="G31" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="H31" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="I31" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="J31" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="K31" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="L31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L31" s="61" t="s">
+    </row>
+    <row r="32" spans="2:12" ht="23">
+      <c r="B32" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="26.25">
-      <c r="B32" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C32" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
@@ -9816,21 +10069,21 @@
       <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="L32" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="23">
       <c r="B33" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
@@ -9839,21 +10092,21 @@
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="26.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="23">
       <c r="B34" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="66"/>
@@ -9862,21 +10115,21 @@
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="23">
       <c r="B35" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E35" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -9885,19 +10138,19 @@
       <c r="J35" s="66"/>
       <c r="K35" s="66"/>
       <c r="L35" s="67" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="26.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="23">
       <c r="B36" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="66" t="s">
         <v>273</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>274</v>
       </c>
       <c r="D36" s="66"/>
       <c r="E36" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -9906,19 +10159,19 @@
       <c r="J36" s="66"/>
       <c r="K36" s="66"/>
       <c r="L36" s="67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="26.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="23">
       <c r="B37" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -9927,19 +10180,19 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="67" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="27" thickBot="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="24" thickBot="1">
       <c r="B38" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
@@ -9948,10 +10201,10 @@
       <c r="J38" s="69"/>
       <c r="K38" s="69"/>
       <c r="L38" s="70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="23">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -9964,7 +10217,7 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
     </row>
-    <row r="40" spans="2:12" ht="38.25">
+    <row r="40" spans="2:12" ht="35">
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -9977,7 +10230,7 @@
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
     </row>
-    <row r="41" spans="2:12" ht="39" thickBot="1">
+    <row r="41" spans="2:12" ht="36" thickBot="1">
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -9990,12 +10243,12 @@
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
     </row>
-    <row r="42" spans="2:12" ht="32.25" thickBot="1">
+    <row r="42" spans="2:12" ht="31" thickBot="1">
       <c r="B42" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
@@ -10007,53 +10260,53 @@
       <c r="K42" s="57"/>
       <c r="L42" s="58"/>
     </row>
-    <row r="43" spans="2:12" ht="32.25" thickBot="1">
+    <row r="43" spans="2:12" ht="31" thickBot="1">
       <c r="B43" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="D43" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="E43" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="F43" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="G43" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="H43" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="I43" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I43" s="60" t="s">
+      <c r="J43" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J43" s="60" t="s">
+      <c r="K43" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="L43" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L43" s="61" t="s">
+    </row>
+    <row r="44" spans="2:12" ht="23">
+      <c r="B44" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" ht="26.25">
-      <c r="B44" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C44" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F44" s="63"/>
       <c r="G44" s="63"/>
@@ -10062,21 +10315,21 @@
       <c r="J44" s="63"/>
       <c r="K44" s="63"/>
       <c r="L44" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="23">
       <c r="B45" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
@@ -10085,19 +10338,19 @@
       <c r="J45" s="66"/>
       <c r="K45" s="66"/>
       <c r="L45" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="26.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="23">
       <c r="B46" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="66"/>
       <c r="E46" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="66"/>
       <c r="G46" s="66"/>
@@ -10106,19 +10359,19 @@
       <c r="J46" s="66"/>
       <c r="K46" s="66"/>
       <c r="L46" s="67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="23">
       <c r="B47" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="75" t="s">
         <v>285</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>286</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -10127,19 +10380,19 @@
       <c r="J47" s="66"/>
       <c r="K47" s="66"/>
       <c r="L47" s="67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="26.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="23">
       <c r="B48" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48" s="66"/>
       <c r="E48" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -10148,19 +10401,19 @@
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
       <c r="L48" s="67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="23">
+      <c r="B49" s="65" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" ht="26.25">
-      <c r="B49" s="65" t="s">
+      <c r="C49" s="66" t="s">
         <v>289</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>290</v>
       </c>
       <c r="D49" s="66"/>
       <c r="E49" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -10169,19 +10422,19 @@
       <c r="J49" s="66"/>
       <c r="K49" s="66"/>
       <c r="L49" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="24" thickBot="1">
+      <c r="B50" s="68" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" ht="27" thickBot="1">
-      <c r="B50" s="68" t="s">
-        <v>292</v>
-      </c>
       <c r="C50" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="69"/>
       <c r="E50" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
@@ -10190,10 +10443,10 @@
       <c r="J50" s="69"/>
       <c r="K50" s="69"/>
       <c r="L50" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="38.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="35">
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -10206,7 +10459,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
     </row>
-    <row r="52" spans="2:12" ht="38.25">
+    <row r="52" spans="2:12" ht="35">
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -10219,7 +10472,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
     </row>
-    <row r="53" spans="2:12" ht="39" thickBot="1">
+    <row r="53" spans="2:12" ht="36" thickBot="1">
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -10232,12 +10485,12 @@
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
     </row>
-    <row r="54" spans="2:12" ht="32.25" thickBot="1">
+    <row r="54" spans="2:12" ht="31" thickBot="1">
       <c r="B54" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
@@ -10249,53 +10502,53 @@
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
     </row>
-    <row r="55" spans="2:12" ht="32.25" thickBot="1">
+    <row r="55" spans="2:12" ht="31" thickBot="1">
       <c r="B55" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="D55" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="E55" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="F55" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="G55" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="H55" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="I55" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="J55" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="60" t="s">
+      <c r="K55" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="60" t="s">
+      <c r="L55" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L55" s="61" t="s">
+    </row>
+    <row r="56" spans="2:12" ht="23">
+      <c r="B56" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" ht="26.25">
-      <c r="B56" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C56" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F56" s="63"/>
       <c r="G56" s="63"/>
@@ -10304,21 +10557,21 @@
       <c r="J56" s="63"/>
       <c r="K56" s="63"/>
       <c r="L56" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="23">
       <c r="B57" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -10327,19 +10580,19 @@
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
       <c r="L57" s="67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="26.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="23">
       <c r="B58" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="66"/>
       <c r="E58" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -10348,19 +10601,19 @@
       <c r="J58" s="66"/>
       <c r="K58" s="66"/>
       <c r="L58" s="67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="23">
       <c r="B59" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="75" t="s">
         <v>285</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>286</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -10369,19 +10622,19 @@
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="26.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="23">
       <c r="B60" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D60" s="66"/>
       <c r="E60" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -10390,19 +10643,19 @@
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="23">
+      <c r="B61" s="65" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" ht="26.25">
-      <c r="B61" s="65" t="s">
+      <c r="C61" s="66" t="s">
         <v>289</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>290</v>
       </c>
       <c r="D61" s="66"/>
       <c r="E61" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -10411,19 +10664,19 @@
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
       <c r="L61" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="24" thickBot="1">
+      <c r="B62" s="68" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" ht="27" thickBot="1">
-      <c r="B62" s="68" t="s">
-        <v>292</v>
-      </c>
       <c r="C62" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="69"/>
       <c r="E62" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
@@ -10432,10 +10685,10 @@
       <c r="J62" s="69"/>
       <c r="K62" s="69"/>
       <c r="L62" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="38.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="35">
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
@@ -10448,7 +10701,7 @@
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
     </row>
-    <row r="64" spans="2:12" ht="38.25">
+    <row r="64" spans="2:12" ht="35">
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
@@ -10461,7 +10714,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
     </row>
-    <row r="65" spans="2:12" ht="39" thickBot="1">
+    <row r="65" spans="2:12" ht="36" thickBot="1">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
@@ -10474,12 +10727,12 @@
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
     </row>
-    <row r="66" spans="2:12" ht="32.25" thickBot="1">
+    <row r="66" spans="2:12" ht="31" thickBot="1">
       <c r="B66" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
@@ -10491,53 +10744,53 @@
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
     </row>
-    <row r="67" spans="2:12" ht="32.25" thickBot="1">
+    <row r="67" spans="2:12" ht="31" thickBot="1">
       <c r="B67" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="D67" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="60" t="s">
+      <c r="E67" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="F67" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="G67" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="H67" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="I67" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I67" s="60" t="s">
+      <c r="J67" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="K67" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K67" s="60" t="s">
+      <c r="L67" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L67" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="26.25">
+    </row>
+    <row r="68" spans="2:12" ht="23">
       <c r="B68" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="E68" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E68" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="63"/>
@@ -10546,21 +10799,21 @@
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
       <c r="L68" s="64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="26.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="23">
       <c r="B69" s="65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -10569,21 +10822,21 @@
       <c r="J69" s="66"/>
       <c r="K69" s="66"/>
       <c r="L69" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="23">
+      <c r="B70" s="65" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" ht="26.25">
-      <c r="B70" s="65" t="s">
-        <v>300</v>
-      </c>
       <c r="C70" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="66" t="s">
-        <v>261</v>
-      </c>
       <c r="E70" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -10592,19 +10845,19 @@
       <c r="J70" s="66"/>
       <c r="K70" s="66"/>
       <c r="L70" s="67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="24" thickBot="1">
+      <c r="B71" s="68" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" ht="27" thickBot="1">
-      <c r="B71" s="68" t="s">
-        <v>302</v>
-      </c>
       <c r="C71" s="69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D71" s="69"/>
       <c r="E71" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
@@ -10613,10 +10866,10 @@
       <c r="J71" s="69"/>
       <c r="K71" s="69"/>
       <c r="L71" s="70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="26.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="23">
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
@@ -10629,7 +10882,7 @@
       <c r="K72" s="71"/>
       <c r="L72" s="71"/>
     </row>
-    <row r="73" spans="2:12" ht="26.25">
+    <row r="73" spans="2:12" ht="23">
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
@@ -10642,7 +10895,7 @@
       <c r="K73" s="71"/>
       <c r="L73" s="71"/>
     </row>
-    <row r="74" spans="2:12" ht="27" thickBot="1">
+    <row r="74" spans="2:12" ht="24" thickBot="1">
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
@@ -10655,12 +10908,12 @@
       <c r="K74" s="71"/>
       <c r="L74" s="71"/>
     </row>
-    <row r="75" spans="2:12" ht="32.25" thickBot="1">
+    <row r="75" spans="2:12" ht="31" thickBot="1">
       <c r="B75" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -10672,53 +10925,53 @@
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
     </row>
-    <row r="76" spans="2:12" ht="32.25" thickBot="1">
+    <row r="76" spans="2:12" ht="31" thickBot="1">
       <c r="B76" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="D76" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="60" t="s">
+      <c r="E76" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="F76" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F76" s="60" t="s">
+      <c r="G76" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G76" s="60" t="s">
+      <c r="H76" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H76" s="60" t="s">
+      <c r="I76" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="J76" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J76" s="60" t="s">
+      <c r="K76" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K76" s="60" t="s">
+      <c r="L76" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L76" s="61" t="s">
+    </row>
+    <row r="77" spans="2:12" ht="23">
+      <c r="B77" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" ht="26.25">
-      <c r="B77" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C77" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F77" s="63"/>
       <c r="G77" s="63"/>
@@ -10727,21 +10980,21 @@
       <c r="J77" s="63"/>
       <c r="K77" s="63"/>
       <c r="L77" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="23">
       <c r="B78" s="65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78" s="66"/>
       <c r="G78" s="66"/>
@@ -10750,19 +11003,19 @@
       <c r="J78" s="66"/>
       <c r="K78" s="66"/>
       <c r="L78" s="67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="26.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="23">
       <c r="B79" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -10771,19 +11024,19 @@
       <c r="J79" s="66"/>
       <c r="K79" s="66"/>
       <c r="L79" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="24" thickBot="1">
+      <c r="B80" s="68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" ht="27" thickBot="1">
-      <c r="B80" s="68" t="s">
+      <c r="C80" s="69" t="s">
         <v>267</v>
-      </c>
-      <c r="C80" s="69" t="s">
-        <v>268</v>
       </c>
       <c r="D80" s="69"/>
       <c r="E80" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
@@ -10792,10 +11045,10 @@
       <c r="J80" s="69"/>
       <c r="K80" s="69"/>
       <c r="L80" s="70" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" ht="38.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="35">
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -10808,7 +11061,7 @@
       <c r="K81" s="72"/>
       <c r="L81" s="72"/>
     </row>
-    <row r="82" spans="2:12" ht="38.25">
+    <row r="82" spans="2:12" ht="35">
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
@@ -10821,7 +11074,7 @@
       <c r="K82" s="72"/>
       <c r="L82" s="72"/>
     </row>
-    <row r="83" spans="2:12" ht="39" thickBot="1">
+    <row r="83" spans="2:12" ht="36" thickBot="1">
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
@@ -10834,12 +11087,12 @@
       <c r="K83" s="72"/>
       <c r="L83" s="72"/>
     </row>
-    <row r="84" spans="2:12" ht="32.25" thickBot="1">
+    <row r="84" spans="2:12" ht="31" thickBot="1">
       <c r="B84" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="57"/>
@@ -10851,53 +11104,53 @@
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
     </row>
-    <row r="85" spans="2:12" ht="32.25" thickBot="1">
+    <row r="85" spans="2:12" ht="31" thickBot="1">
       <c r="B85" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="D85" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="E85" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="F85" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="G85" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="60" t="s">
+      <c r="H85" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="I85" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="J85" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="K85" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="L85" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L85" s="61" t="s">
+    </row>
+    <row r="86" spans="2:12" ht="23">
+      <c r="B86" s="74" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" ht="26.25">
-      <c r="B86" s="74" t="s">
-        <v>230</v>
-      </c>
       <c r="C86" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F86" s="63"/>
       <c r="G86" s="63"/>
@@ -10906,21 +11159,21 @@
       <c r="J86" s="63"/>
       <c r="K86" s="63"/>
       <c r="L86" s="64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="23">
       <c r="B87" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -10929,21 +11182,21 @@
       <c r="J87" s="66"/>
       <c r="K87" s="66"/>
       <c r="L87" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="23">
       <c r="B88" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C88" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F88" s="66"/>
       <c r="G88" s="66"/>
@@ -10952,19 +11205,19 @@
       <c r="J88" s="66"/>
       <c r="K88" s="66"/>
       <c r="L88" s="67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="24" thickBot="1">
+      <c r="B89" s="68" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" ht="27" thickBot="1">
-      <c r="B89" s="68" t="s">
-        <v>308</v>
-      </c>
       <c r="C89" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="69"/>
       <c r="E89" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F89" s="69"/>
       <c r="G89" s="69"/>
@@ -10973,10 +11226,10 @@
       <c r="J89" s="69"/>
       <c r="K89" s="69"/>
       <c r="L89" s="70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="38.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="35">
       <c r="B90" s="72"/>
       <c r="C90" s="72"/>
       <c r="D90" s="72"/>
@@ -10989,7 +11242,7 @@
       <c r="K90" s="72"/>
       <c r="L90" s="72"/>
     </row>
-    <row r="91" spans="2:12" ht="38.25">
+    <row r="91" spans="2:12" ht="35">
       <c r="B91" s="72"/>
       <c r="C91" s="72"/>
       <c r="D91" s="72"/>
@@ -11002,7 +11255,7 @@
       <c r="K91" s="72"/>
       <c r="L91" s="72"/>
     </row>
-    <row r="92" spans="2:12" ht="39" thickBot="1">
+    <row r="92" spans="2:12" ht="36" thickBot="1">
       <c r="B92" s="72"/>
       <c r="C92" s="72"/>
       <c r="D92" s="72"/>
@@ -11015,12 +11268,12 @@
       <c r="K92" s="72"/>
       <c r="L92" s="72"/>
     </row>
-    <row r="93" spans="2:12" ht="32.25" thickBot="1">
+    <row r="93" spans="2:12" ht="31" thickBot="1">
       <c r="B93" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
@@ -11032,53 +11285,53 @@
       <c r="K93" s="57"/>
       <c r="L93" s="58"/>
     </row>
-    <row r="94" spans="2:12" ht="32.25" thickBot="1">
+    <row r="94" spans="2:12" ht="31" thickBot="1">
       <c r="B94" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="73" t="s">
+      <c r="D94" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D94" s="60" t="s">
+      <c r="E94" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E94" s="60" t="s">
+      <c r="F94" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F94" s="60" t="s">
+      <c r="G94" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G94" s="60" t="s">
+      <c r="H94" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="I94" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="60" t="s">
+      <c r="J94" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="60" t="s">
+      <c r="K94" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K94" s="60" t="s">
+      <c r="L94" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L94" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" ht="26.25">
+    </row>
+    <row r="95" spans="2:12" ht="23">
       <c r="B95" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D95" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F95" s="63"/>
       <c r="G95" s="63"/>
@@ -11087,21 +11340,21 @@
       <c r="J95" s="63"/>
       <c r="K95" s="63"/>
       <c r="L95" s="64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" ht="26.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="23">
       <c r="B96" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E96" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="66"/>
@@ -11110,15 +11363,15 @@
       <c r="J96" s="66"/>
       <c r="K96" s="66"/>
       <c r="L96" s="67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="27" thickBot="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="24" thickBot="1">
       <c r="B97" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D97" s="69"/>
       <c r="E97" s="69"/>
@@ -11129,10 +11382,10 @@
       <c r="J97" s="69"/>
       <c r="K97" s="69"/>
       <c r="L97" s="70" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" ht="26.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="23">
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
@@ -11145,7 +11398,7 @@
       <c r="K98" s="71"/>
       <c r="L98" s="71"/>
     </row>
-    <row r="99" spans="2:12" ht="38.25">
+    <row r="99" spans="2:12" ht="35">
       <c r="B99" s="72"/>
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
@@ -11158,7 +11411,7 @@
       <c r="K99" s="72"/>
       <c r="L99" s="72"/>
     </row>
-    <row r="100" spans="2:12" ht="39" thickBot="1">
+    <row r="100" spans="2:12" ht="36" thickBot="1">
       <c r="B100" s="72"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -11171,12 +11424,12 @@
       <c r="K100" s="72"/>
       <c r="L100" s="72"/>
     </row>
-    <row r="101" spans="2:12" ht="32.25" thickBot="1">
+    <row r="101" spans="2:12" ht="31" thickBot="1">
       <c r="B101" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
@@ -11188,53 +11441,53 @@
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
     </row>
-    <row r="102" spans="2:12" ht="32.25" thickBot="1">
+    <row r="102" spans="2:12" ht="31" thickBot="1">
       <c r="B102" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="73" t="s">
+      <c r="D102" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="E102" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="60" t="s">
+      <c r="F102" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="60" t="s">
+      <c r="G102" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G102" s="60" t="s">
+      <c r="H102" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H102" s="60" t="s">
+      <c r="I102" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I102" s="60" t="s">
+      <c r="J102" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J102" s="60" t="s">
+      <c r="K102" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K102" s="60" t="s">
+      <c r="L102" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L102" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" ht="26.25">
+    </row>
+    <row r="103" spans="2:12" ht="23">
       <c r="B103" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D103" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E103" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F103" s="63"/>
       <c r="G103" s="63"/>
@@ -11243,19 +11496,19 @@
       <c r="J103" s="63"/>
       <c r="K103" s="63"/>
       <c r="L103" s="64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" ht="27" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" ht="24" thickBot="1">
       <c r="B104" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D104" s="69"/>
       <c r="E104" s="69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
@@ -11264,10 +11517,10 @@
       <c r="J104" s="69"/>
       <c r="K104" s="69"/>
       <c r="L104" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" ht="26.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="23">
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
@@ -11280,13 +11533,13 @@
       <c r="K105" s="71"/>
       <c r="L105" s="71"/>
     </row>
-    <row r="107" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="108" spans="2:12" ht="32.25" thickBot="1">
+    <row r="107" spans="2:12" ht="18" thickBot="1"/>
+    <row r="108" spans="2:12" ht="31" thickBot="1">
       <c r="B108" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D108" s="57"/>
       <c r="E108" s="57"/>
@@ -11298,53 +11551,53 @@
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
     </row>
-    <row r="109" spans="2:12" ht="32.25" thickBot="1">
+    <row r="109" spans="2:12" ht="31" thickBot="1">
       <c r="B109" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="73" t="s">
+      <c r="D109" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="E109" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="E109" s="60" t="s">
+      <c r="F109" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F109" s="60" t="s">
+      <c r="G109" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G109" s="60" t="s">
+      <c r="H109" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="I109" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I109" s="60" t="s">
+      <c r="J109" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J109" s="60" t="s">
+      <c r="K109" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K109" s="60" t="s">
+      <c r="L109" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L109" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" ht="26.25">
+    </row>
+    <row r="110" spans="2:12" ht="23">
       <c r="B110" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="E110" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="F110" s="63"/>
       <c r="G110" s="63"/>
@@ -11353,19 +11606,19 @@
       <c r="J110" s="63"/>
       <c r="K110" s="63"/>
       <c r="L110" s="64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" ht="27" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="24" thickBot="1">
       <c r="B111" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="69"/>
       <c r="E111" s="69" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
@@ -11374,16 +11627,16 @@
       <c r="J111" s="69"/>
       <c r="K111" s="69"/>
       <c r="L111" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:12" ht="32.25" thickBot="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="18" thickBot="1"/>
+    <row r="115" spans="2:12" ht="31" thickBot="1">
       <c r="B115" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="57"/>
       <c r="E115" s="57"/>
@@ -11395,53 +11648,53 @@
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
     </row>
-    <row r="116" spans="2:12" ht="32.25" thickBot="1">
+    <row r="116" spans="2:12" ht="31" thickBot="1">
       <c r="B116" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="D116" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D116" s="60" t="s">
+      <c r="E116" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="73" t="s">
+      <c r="F116" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F116" s="60" t="s">
+      <c r="G116" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G116" s="60" t="s">
+      <c r="H116" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="60" t="s">
+      <c r="I116" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I116" s="60" t="s">
+      <c r="J116" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J116" s="60" t="s">
+      <c r="K116" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K116" s="60" t="s">
+      <c r="L116" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L116" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="26.25">
+    </row>
+    <row r="117" spans="2:12" ht="23">
       <c r="B117" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D117" s="79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E117" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F117" s="76"/>
       <c r="G117" s="63"/>
@@ -11450,21 +11703,21 @@
       <c r="J117" s="63"/>
       <c r="K117" s="63"/>
       <c r="L117" s="64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" ht="27" thickBot="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" ht="24" thickBot="1">
       <c r="B118" s="68" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C118" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E118" s="80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F118" s="69"/>
       <c r="G118" s="69"/>
@@ -11473,16 +11726,16 @@
       <c r="J118" s="69"/>
       <c r="K118" s="69"/>
       <c r="L118" s="70" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="122" spans="2:12" ht="32.25" thickBot="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="18" thickBot="1"/>
+    <row r="122" spans="2:12" ht="31" thickBot="1">
       <c r="B122" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D122" s="57"/>
       <c r="E122" s="57"/>
@@ -11494,53 +11747,53 @@
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
     </row>
-    <row r="123" spans="2:12" ht="32.25" thickBot="1">
+    <row r="123" spans="2:12" ht="31" thickBot="1">
       <c r="B123" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C123" s="73" t="s">
+      <c r="D123" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D123" s="60" t="s">
+      <c r="E123" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E123" s="73" t="s">
+      <c r="F123" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="G123" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G123" s="60" t="s">
+      <c r="H123" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H123" s="60" t="s">
+      <c r="I123" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I123" s="60" t="s">
+      <c r="J123" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J123" s="60" t="s">
+      <c r="K123" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K123" s="60" t="s">
+      <c r="L123" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L123" s="61" t="s">
+    </row>
+    <row r="124" spans="2:12" ht="24" thickBot="1">
+      <c r="B124" s="81" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="124" spans="2:12" ht="27" thickBot="1">
-      <c r="B124" s="81" t="s">
-        <v>230</v>
-      </c>
       <c r="C124" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" s="82" t="s">
         <v>232</v>
-      </c>
-      <c r="E124" s="82" t="s">
-        <v>233</v>
       </c>
       <c r="F124" s="84"/>
       <c r="G124" s="82"/>
@@ -11549,10 +11802,10 @@
       <c r="J124" s="82"/>
       <c r="K124" s="82"/>
       <c r="L124" s="85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" ht="26.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="23">
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
@@ -11565,13 +11818,13 @@
       <c r="K125" s="71"/>
       <c r="L125" s="71"/>
     </row>
-    <row r="127" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="128" spans="2:12" ht="32.25" thickBot="1">
+    <row r="127" spans="2:12" ht="18" thickBot="1"/>
+    <row r="128" spans="2:12" ht="31" thickBot="1">
       <c r="B128" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
@@ -11583,53 +11836,53 @@
       <c r="K128" s="57"/>
       <c r="L128" s="58"/>
     </row>
-    <row r="129" spans="2:12" ht="32.25" thickBot="1">
+    <row r="129" spans="2:12" ht="31" thickBot="1">
       <c r="B129" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C129" s="73" t="s">
+      <c r="D129" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="E129" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E129" s="73" t="s">
+      <c r="F129" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F129" s="60" t="s">
+      <c r="G129" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G129" s="60" t="s">
+      <c r="H129" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H129" s="60" t="s">
+      <c r="I129" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I129" s="60" t="s">
+      <c r="J129" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J129" s="60" t="s">
+      <c r="K129" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K129" s="60" t="s">
+      <c r="L129" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L129" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" ht="26.25">
+    </row>
+    <row r="130" spans="2:12" ht="23">
       <c r="B130" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D130" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E130" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F130" s="76"/>
       <c r="G130" s="63"/>
@@ -11638,19 +11891,19 @@
       <c r="J130" s="63"/>
       <c r="K130" s="63"/>
       <c r="L130" s="64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" ht="26.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="23">
       <c r="B131" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="114"/>
+      <c r="E131" s="66" t="s">
         <v>407</v>
-      </c>
-      <c r="C131" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="D131" s="115"/>
-      <c r="E131" s="66" t="s">
-        <v>411</v>
       </c>
       <c r="F131" s="78"/>
       <c r="G131" s="66"/>
@@ -11659,50 +11912,50 @@
       <c r="J131" s="66"/>
       <c r="K131" s="66"/>
       <c r="L131" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" ht="27" thickBot="1">
-      <c r="B132" s="111" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="24" thickBot="1">
+      <c r="B132" s="110" t="s">
+        <v>389</v>
       </c>
       <c r="C132" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="D132" s="112"/>
+        <v>259</v>
+      </c>
+      <c r="D132" s="111"/>
       <c r="E132" s="80" t="s">
-        <v>412</v>
-      </c>
-      <c r="F132" s="113"/>
+        <v>408</v>
+      </c>
+      <c r="F132" s="112"/>
       <c r="G132" s="80"/>
       <c r="H132" s="80"/>
       <c r="I132" s="80"/>
       <c r="J132" s="80"/>
       <c r="K132" s="80"/>
-      <c r="L132" s="114" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" ht="26.25">
-      <c r="B133" s="110"/>
-      <c r="C133" s="110"/>
-      <c r="D133" s="110"/>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
-      <c r="G133" s="110"/>
-      <c r="H133" s="110"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="110"/>
-      <c r="K133" s="110"/>
-      <c r="L133" s="110"/>
-    </row>
-    <row r="135" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="136" spans="2:12" ht="32.25" thickBot="1">
+      <c r="L132" s="113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="23">
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="71"/>
+    </row>
+    <row r="135" spans="2:12" ht="18" thickBot="1"/>
+    <row r="136" spans="2:12" ht="31" thickBot="1">
       <c r="B136" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D136" s="57"/>
       <c r="E136" s="57"/>
@@ -11714,53 +11967,53 @@
       <c r="K136" s="57"/>
       <c r="L136" s="58"/>
     </row>
-    <row r="137" spans="2:12" ht="32.25" thickBot="1">
+    <row r="137" spans="2:12" ht="31" thickBot="1">
       <c r="B137" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C137" s="73" t="s">
+      <c r="D137" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D137" s="60" t="s">
+      <c r="E137" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E137" s="73" t="s">
+      <c r="F137" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F137" s="60" t="s">
+      <c r="G137" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G137" s="60" t="s">
+      <c r="H137" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H137" s="60" t="s">
+      <c r="I137" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I137" s="60" t="s">
+      <c r="J137" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J137" s="60" t="s">
+      <c r="K137" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K137" s="60" t="s">
+      <c r="L137" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L137" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" ht="26.25">
+    </row>
+    <row r="138" spans="2:12" ht="23">
       <c r="B138" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C138" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D138" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E138" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F138" s="76"/>
       <c r="G138" s="63"/>
@@ -11769,52 +12022,52 @@
       <c r="J138" s="63"/>
       <c r="K138" s="63"/>
       <c r="L138" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" ht="27" thickBot="1">
-      <c r="B139" s="116" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="24" thickBot="1">
+      <c r="B139" s="115" t="s">
+        <v>395</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="D139" s="117" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="D139" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E139" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F139" s="117"/>
       <c r="G139" s="69"/>
       <c r="H139" s="69"/>
       <c r="I139" s="69"/>
       <c r="J139" s="69"/>
       <c r="K139" s="69"/>
       <c r="L139" s="70" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" ht="26.25">
-      <c r="B140" s="110"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="110"/>
-      <c r="E140" s="110"/>
-      <c r="F140" s="110"/>
-      <c r="G140" s="110"/>
-      <c r="H140" s="110"/>
-      <c r="I140" s="110"/>
-      <c r="J140" s="110"/>
-      <c r="K140" s="110"/>
-      <c r="L140" s="110"/>
-    </row>
-    <row r="142" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="143" spans="2:12" ht="32.25" thickBot="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="23">
+      <c r="B140" s="71"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+    </row>
+    <row r="142" spans="2:12" ht="18" thickBot="1"/>
+    <row r="143" spans="2:12" ht="31" thickBot="1">
       <c r="B143" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143" s="56" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D143" s="57"/>
       <c r="E143" s="57"/>
@@ -11826,53 +12079,53 @@
       <c r="K143" s="57"/>
       <c r="L143" s="58"/>
     </row>
-    <row r="144" spans="2:12" ht="32.25" thickBot="1">
+    <row r="144" spans="2:12" ht="31" thickBot="1">
       <c r="B144" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C144" s="73" t="s">
+      <c r="D144" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D144" s="60" t="s">
+      <c r="E144" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E144" s="73" t="s">
+      <c r="F144" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F144" s="60" t="s">
+      <c r="G144" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G144" s="60" t="s">
+      <c r="H144" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H144" s="60" t="s">
+      <c r="I144" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I144" s="60" t="s">
+      <c r="J144" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J144" s="60" t="s">
+      <c r="K144" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K144" s="60" t="s">
+      <c r="L144" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L144" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" ht="26.25">
+    </row>
+    <row r="145" spans="2:12" ht="23">
       <c r="B145" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E145" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F145" s="76"/>
       <c r="G145" s="63"/>
@@ -11881,39 +12134,39 @@
       <c r="J145" s="63"/>
       <c r="K145" s="63"/>
       <c r="L145" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" ht="27" thickBot="1">
-      <c r="B146" s="116" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="24" thickBot="1">
+      <c r="B146" s="115" t="s">
+        <v>395</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="D146" s="117" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="D146" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E146" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F146" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F146" s="117"/>
       <c r="G146" s="69"/>
       <c r="H146" s="69"/>
       <c r="I146" s="69"/>
       <c r="J146" s="69"/>
       <c r="K146" s="69"/>
       <c r="L146" s="70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="150" spans="2:12" ht="32.25" thickBot="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" ht="18" thickBot="1"/>
+    <row r="150" spans="2:12" ht="31" thickBot="1">
       <c r="B150" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150" s="56" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D150" s="57"/>
       <c r="E150" s="57"/>
@@ -11925,53 +12178,53 @@
       <c r="K150" s="57"/>
       <c r="L150" s="58"/>
     </row>
-    <row r="151" spans="2:12" ht="32.25" thickBot="1">
+    <row r="151" spans="2:12" ht="31" thickBot="1">
       <c r="B151" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C151" s="73" t="s">
+      <c r="D151" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D151" s="60" t="s">
+      <c r="E151" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E151" s="73" t="s">
+      <c r="F151" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="F151" s="60" t="s">
+      <c r="G151" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G151" s="60" t="s">
+      <c r="H151" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H151" s="60" t="s">
+      <c r="I151" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I151" s="60" t="s">
+      <c r="J151" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J151" s="60" t="s">
+      <c r="K151" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="K151" s="60" t="s">
+      <c r="L151" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L151" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" ht="26.25">
+    </row>
+    <row r="152" spans="2:12" ht="23">
       <c r="B152" s="74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C152" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D152" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E152" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F152" s="76"/>
       <c r="G152" s="63"/>
@@ -11980,30 +12233,30 @@
       <c r="J152" s="63"/>
       <c r="K152" s="63"/>
       <c r="L152" s="64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" ht="27" thickBot="1">
-      <c r="B153" s="116" t="s">
-        <v>413</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="24" thickBot="1">
+      <c r="B153" s="115" t="s">
+        <v>409</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="D153" s="117" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="D153" s="116" t="s">
+        <v>397</v>
       </c>
       <c r="E153" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F153" s="118"/>
+        <v>232</v>
+      </c>
+      <c r="F153" s="117"/>
       <c r="G153" s="69"/>
       <c r="H153" s="69"/>
       <c r="I153" s="69"/>
       <c r="J153" s="69"/>
       <c r="K153" s="69"/>
       <c r="L153" s="70" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -12019,7 +12272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J18"/>
   <sheetViews>
@@ -12027,205 +12280,205 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+    <row r="2" spans="2:10" ht="20">
+      <c r="B2" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="20.25">
-      <c r="B15" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20">
+      <c r="B15" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -12240,7 +12493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K29"/>
   <sheetViews>
@@ -12248,34 +12501,34 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="21.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="24.625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="22" customWidth="1"/>
     <col min="10" max="10" width="23" style="22" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
-      <c r="B1" s="178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-    </row>
-    <row r="2" spans="2:11" ht="26.25">
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+    </row>
+    <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -12287,57 +12540,57 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="2:11" ht="31.5">
-      <c r="B3" s="187" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+    <row r="3" spans="2:11" ht="30">
+      <c r="B3" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="193"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="51"/>
       <c r="G4" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="186"/>
-    </row>
-    <row r="5" spans="2:11" ht="26.25">
+        <v>145</v>
+      </c>
+      <c r="H4" s="197" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
+    </row>
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="182" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="G5" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="196"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -12346,19 +12599,19 @@
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -12368,15 +12621,15 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -12386,15 +12639,15 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -12445,19 +12698,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="26.25">
+    <row r="13" spans="2:11" ht="23">
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="176" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
+      <c r="G13" s="188" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="189"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12466,19 +12719,19 @@
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12488,10 +12741,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -12681,7 +12934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
@@ -12689,253 +12942,253 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="115.875" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="115.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.75" customHeight="1">
       <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="210"/>
+    </row>
+    <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
+    </row>
+    <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="203"/>
+    </row>
+    <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="190" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-    </row>
-    <row r="3" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B3" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="192" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
-    </row>
-    <row r="4" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B4" s="16" t="s">
+      <c r="C5" s="202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="203"/>
+    </row>
+    <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="203"/>
+    </row>
+    <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="202" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="203"/>
+    </row>
+    <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="B8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C8" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="194"/>
-    </row>
-    <row r="5" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B5" s="16" t="s">
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="163"/>
+    </row>
+    <row r="10" spans="2:13" ht="33" customHeight="1">
+      <c r="B10" s="206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="208"/>
+    </row>
+    <row r="11" spans="2:13" ht="24">
+      <c r="B11" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="204" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="194"/>
-    </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B6" s="16" t="s">
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="204" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="204" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="193" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="194"/>
-    </row>
-    <row r="7" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="193" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="194"/>
-    </row>
-    <row r="8" spans="2:13" s="4" customFormat="1" ht="20.25">
-      <c r="B8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
-    </row>
-    <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="197" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="199"/>
-    </row>
-    <row r="11" spans="2:13" ht="26.25">
-      <c r="B11" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="195" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="195" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="195" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="26.25">
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
+      <c r="K11" s="204" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="204" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="204" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
       <c r="D12" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -13193,6 +13446,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -13205,11 +13463,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -3807,19 +3807,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>663747</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>357187</xdr:rowOff>
+      <xdr:colOff>477091</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3839,7 +3833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="24503062" y="904875"/>
-          <a:ext cx="27595685" cy="14597062"/>
+          <a:ext cx="27409029" cy="15144750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9478,8 +9472,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:BA168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17DB7-4DBB-3B4C-A00E-2C1E2D003E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED6050F-4EF7-7545-BCDF-8465565F5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="2440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="2440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="441">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1474,10 +1474,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>API 설계서 작성</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 설계서 작성</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -1571,6 +1567,18 @@
   <si>
     <t>O</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 명세서 작성</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 설계서</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플리케이션 테스트</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3002,7 +3010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3357,16 +3365,55 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3378,55 +3425,82 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3445,66 +3519,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3609,6 +3623,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3629,27 +3652,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4022,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:CM34"/>
+  <dimension ref="A3:CM36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -4043,10 +4045,10 @@
       <c r="A3" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="141" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="141"/>
+      <c r="B3" s="134" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="134"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -4140,10 +4142,10 @@
       <c r="A4" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="141"/>
+      <c r="B4" s="133" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="134"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -4237,10 +4239,10 @@
       <c r="A5" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="133" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="141"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -4334,10 +4336,10 @@
       <c r="A6" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="134" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="141"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4431,10 +4433,10 @@
       <c r="A7" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="133">
         <v>45436</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4528,8 +4530,8 @@
       <c r="A8" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4715,244 +4717,244 @@
       <c r="CM9" s="87"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="143" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="143" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="143" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="143" t="s">
         <v>368</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="143" t="s">
         <v>367</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="129" t="s">
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="142"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="142"/>
+      <c r="AH10" s="142"/>
+      <c r="AI10" s="142"/>
+      <c r="AJ10" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="130"/>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="130"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="130"/>
-      <c r="AX10" s="130"/>
-      <c r="AY10" s="130"/>
-      <c r="AZ10" s="130"/>
-      <c r="BA10" s="130"/>
-      <c r="BB10" s="130"/>
-      <c r="BC10" s="130"/>
-      <c r="BD10" s="130"/>
-      <c r="BE10" s="130"/>
-      <c r="BF10" s="130"/>
-      <c r="BG10" s="130"/>
-      <c r="BH10" s="130"/>
-      <c r="BI10" s="130"/>
-      <c r="BJ10" s="130"/>
-      <c r="BK10" s="130"/>
-      <c r="BL10" s="129" t="s">
+      <c r="AK10" s="142"/>
+      <c r="AL10" s="142"/>
+      <c r="AM10" s="142"/>
+      <c r="AN10" s="142"/>
+      <c r="AO10" s="142"/>
+      <c r="AP10" s="142"/>
+      <c r="AQ10" s="142"/>
+      <c r="AR10" s="142"/>
+      <c r="AS10" s="142"/>
+      <c r="AT10" s="142"/>
+      <c r="AU10" s="142"/>
+      <c r="AV10" s="142"/>
+      <c r="AW10" s="142"/>
+      <c r="AX10" s="142"/>
+      <c r="AY10" s="142"/>
+      <c r="AZ10" s="142"/>
+      <c r="BA10" s="142"/>
+      <c r="BB10" s="142"/>
+      <c r="BC10" s="142"/>
+      <c r="BD10" s="142"/>
+      <c r="BE10" s="142"/>
+      <c r="BF10" s="142"/>
+      <c r="BG10" s="142"/>
+      <c r="BH10" s="142"/>
+      <c r="BI10" s="142"/>
+      <c r="BJ10" s="142"/>
+      <c r="BK10" s="142"/>
+      <c r="BL10" s="141" t="s">
         <v>363</v>
       </c>
-      <c r="BM10" s="130"/>
-      <c r="BN10" s="130"/>
-      <c r="BO10" s="130"/>
-      <c r="BP10" s="130"/>
-      <c r="BQ10" s="130"/>
-      <c r="BR10" s="130"/>
-      <c r="BS10" s="130"/>
-      <c r="BT10" s="130"/>
-      <c r="BU10" s="130"/>
-      <c r="BV10" s="130"/>
-      <c r="BW10" s="130"/>
-      <c r="BX10" s="130"/>
-      <c r="BY10" s="130"/>
-      <c r="BZ10" s="130"/>
-      <c r="CA10" s="130"/>
-      <c r="CB10" s="130"/>
-      <c r="CC10" s="130"/>
-      <c r="CD10" s="130"/>
-      <c r="CE10" s="130"/>
-      <c r="CF10" s="130"/>
-      <c r="CG10" s="130"/>
-      <c r="CH10" s="130"/>
-      <c r="CI10" s="130"/>
-      <c r="CJ10" s="130"/>
-      <c r="CK10" s="130"/>
-      <c r="CL10" s="130"/>
-      <c r="CM10" s="130"/>
+      <c r="BM10" s="142"/>
+      <c r="BN10" s="142"/>
+      <c r="BO10" s="142"/>
+      <c r="BP10" s="142"/>
+      <c r="BQ10" s="142"/>
+      <c r="BR10" s="142"/>
+      <c r="BS10" s="142"/>
+      <c r="BT10" s="142"/>
+      <c r="BU10" s="142"/>
+      <c r="BV10" s="142"/>
+      <c r="BW10" s="142"/>
+      <c r="BX10" s="142"/>
+      <c r="BY10" s="142"/>
+      <c r="BZ10" s="142"/>
+      <c r="CA10" s="142"/>
+      <c r="CB10" s="142"/>
+      <c r="CC10" s="142"/>
+      <c r="CD10" s="142"/>
+      <c r="CE10" s="142"/>
+      <c r="CF10" s="142"/>
+      <c r="CG10" s="142"/>
+      <c r="CH10" s="142"/>
+      <c r="CI10" s="142"/>
+      <c r="CJ10" s="142"/>
+      <c r="CK10" s="142"/>
+      <c r="CL10" s="142"/>
+      <c r="CM10" s="142"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="135" t="s">
         <v>361</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="122" t="s">
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="135" t="s">
         <v>360</v>
       </c>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="122" t="s">
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="122" t="s">
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="135" t="s">
         <v>358</v>
       </c>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="122" t="s">
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="135" t="s">
         <v>361</v>
       </c>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="122" t="s">
+      <c r="AK11" s="136"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="136"/>
+      <c r="AN11" s="136"/>
+      <c r="AO11" s="136"/>
+      <c r="AP11" s="137"/>
+      <c r="AQ11" s="135" t="s">
         <v>360</v>
       </c>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="122" t="s">
+      <c r="AR11" s="136"/>
+      <c r="AS11" s="136"/>
+      <c r="AT11" s="136"/>
+      <c r="AU11" s="136"/>
+      <c r="AV11" s="136"/>
+      <c r="AW11" s="137"/>
+      <c r="AX11" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="122" t="s">
+      <c r="AY11" s="136"/>
+      <c r="AZ11" s="136"/>
+      <c r="BA11" s="136"/>
+      <c r="BB11" s="136"/>
+      <c r="BC11" s="136"/>
+      <c r="BD11" s="137"/>
+      <c r="BE11" s="135" t="s">
         <v>358</v>
       </c>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="123"/>
-      <c r="BJ11" s="123"/>
-      <c r="BK11" s="124"/>
-      <c r="BL11" s="122" t="s">
+      <c r="BF11" s="136"/>
+      <c r="BG11" s="136"/>
+      <c r="BH11" s="136"/>
+      <c r="BI11" s="136"/>
+      <c r="BJ11" s="136"/>
+      <c r="BK11" s="137"/>
+      <c r="BL11" s="135" t="s">
         <v>361</v>
       </c>
-      <c r="BM11" s="123"/>
-      <c r="BN11" s="123"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="123"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="124"/>
-      <c r="BS11" s="122" t="s">
+      <c r="BM11" s="136"/>
+      <c r="BN11" s="136"/>
+      <c r="BO11" s="136"/>
+      <c r="BP11" s="136"/>
+      <c r="BQ11" s="136"/>
+      <c r="BR11" s="137"/>
+      <c r="BS11" s="135" t="s">
         <v>360</v>
       </c>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
-      <c r="BV11" s="123"/>
-      <c r="BW11" s="123"/>
-      <c r="BX11" s="123"/>
-      <c r="BY11" s="124"/>
-      <c r="BZ11" s="122" t="s">
+      <c r="BT11" s="136"/>
+      <c r="BU11" s="136"/>
+      <c r="BV11" s="136"/>
+      <c r="BW11" s="136"/>
+      <c r="BX11" s="136"/>
+      <c r="BY11" s="137"/>
+      <c r="BZ11" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="CA11" s="123"/>
-      <c r="CB11" s="123"/>
-      <c r="CC11" s="123"/>
-      <c r="CD11" s="123"/>
-      <c r="CE11" s="123"/>
-      <c r="CF11" s="124"/>
-      <c r="CG11" s="122" t="s">
+      <c r="CA11" s="136"/>
+      <c r="CB11" s="136"/>
+      <c r="CC11" s="136"/>
+      <c r="CD11" s="136"/>
+      <c r="CE11" s="136"/>
+      <c r="CF11" s="137"/>
+      <c r="CG11" s="135" t="s">
         <v>358</v>
       </c>
-      <c r="CH11" s="123"/>
-      <c r="CI11" s="123"/>
-      <c r="CJ11" s="123"/>
-      <c r="CK11" s="123"/>
-      <c r="CL11" s="123"/>
-      <c r="CM11" s="124"/>
+      <c r="CH11" s="136"/>
+      <c r="CI11" s="136"/>
+      <c r="CJ11" s="136"/>
+      <c r="CK11" s="136"/>
+      <c r="CL11" s="136"/>
+      <c r="CM11" s="137"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="105" t="s">
         <v>357</v>
       </c>
@@ -5210,7 +5212,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="138" t="s">
         <v>349</v>
       </c>
       <c r="B13" s="92" t="s">
@@ -5317,8 +5319,8 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="127"/>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="138" t="s">
         <v>345</v>
       </c>
       <c r="C14" s="93" t="s">
@@ -5422,8 +5424,8 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="92" t="s">
         <v>343</v>
       </c>
@@ -5525,8 +5527,8 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="93" t="s">
         <v>342</v>
       </c>
@@ -5628,8 +5630,8 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="93" t="s">
         <v>340</v>
       </c>
@@ -5731,8 +5733,8 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="93" t="s">
         <v>338</v>
       </c>
@@ -5834,10 +5836,10 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="127" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="130" t="s">
         <v>336</v>
       </c>
       <c r="C19" s="93" t="s">
@@ -5941,8 +5943,8 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="135"/>
-      <c r="B20" s="138"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="93" t="s">
         <v>333</v>
       </c>
@@ -6044,8 +6046,8 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="135"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="96" t="s">
         <v>330</v>
       </c>
@@ -6147,8 +6149,8 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="135"/>
-      <c r="B22" s="137" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="130" t="s">
         <v>327</v>
       </c>
       <c r="C22" s="93" t="s">
@@ -6252,10 +6254,10 @@
       <c r="CM22" s="91"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="135"/>
-      <c r="B23" s="138"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="93" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D23" s="93" t="s">
         <v>413</v>
@@ -6351,16 +6353,16 @@
       <c r="CM23" s="91"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="136"/>
-      <c r="B24" s="139"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="93" t="s">
         <v>415</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="E24" s="118" t="s">
         <v>416</v>
-      </c>
-      <c r="E24" s="120" t="s">
-        <v>417</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="92"/>
@@ -6450,15 +6452,13 @@
       <c r="CM24" s="91"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="93" t="s">
-        <v>418</v>
-      </c>
-      <c r="D25" s="93" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" s="120"/>
+        <v>439</v>
+      </c>
+      <c r="D25" s="93"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
@@ -6547,24 +6547,14 @@
       <c r="CM25" s="91"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="131" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="93" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="95">
-        <v>45470</v>
-      </c>
-      <c r="F26" s="95">
-        <v>45476</v>
-      </c>
+      <c r="A26" s="128"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
@@ -6600,20 +6590,20 @@
       <c r="AM26" s="92"/>
       <c r="AN26" s="92"/>
       <c r="AO26" s="92"/>
-      <c r="AP26" s="94"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="94"/>
-      <c r="AV26" s="94"/>
+      <c r="AP26" s="92"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="92"/>
+      <c r="AS26" s="92"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="92"/>
+      <c r="AV26" s="92"/>
       <c r="AW26" s="92"/>
       <c r="AX26" s="92"/>
       <c r="AY26" s="91"/>
       <c r="AZ26" s="91"/>
       <c r="BA26" s="91"/>
       <c r="BB26" s="91"/>
-      <c r="BC26" s="91"/>
+      <c r="BC26" s="97"/>
       <c r="BD26" s="91"/>
       <c r="BE26" s="91"/>
       <c r="BF26" s="91"/>
@@ -6652,17 +6642,15 @@
       <c r="CM26" s="91"/>
     </row>
     <row r="27" spans="1:91">
-      <c r="A27" s="92"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="132"/>
-      <c r="C27" s="96" t="s">
-        <v>381</v>
+      <c r="C27" s="93" t="s">
+        <v>417</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>321</v>
-      </c>
-      <c r="E27" s="95">
-        <v>45475</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E27" s="118"/>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -6704,14 +6692,14 @@
       <c r="AR27" s="92"/>
       <c r="AS27" s="92"/>
       <c r="AT27" s="92"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="94"/>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="94"/>
-      <c r="AY27" s="97"/>
-      <c r="AZ27" s="97"/>
-      <c r="BA27" s="97"/>
-      <c r="BB27" s="97"/>
+      <c r="AU27" s="92"/>
+      <c r="AV27" s="92"/>
+      <c r="AW27" s="92"/>
+      <c r="AX27" s="92"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
       <c r="BC27" s="97"/>
       <c r="BD27" s="91"/>
       <c r="BE27" s="91"/>
@@ -6751,18 +6739,24 @@
       <c r="CM27" s="91"/>
     </row>
     <row r="28" spans="1:91">
-      <c r="A28" s="92"/>
-      <c r="B28" s="133"/>
+      <c r="A28" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>323</v>
+      </c>
       <c r="C28" s="96" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>412</v>
+        <v>321</v>
       </c>
       <c r="E28" s="95">
-        <v>45478</v>
-      </c>
-      <c r="F28" s="92"/>
+        <v>45470</v>
+      </c>
+      <c r="F28" s="95">
+        <v>45476</v>
+      </c>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
       <c r="I28" s="92"/>
@@ -6798,13 +6792,13 @@
       <c r="AM28" s="92"/>
       <c r="AN28" s="92"/>
       <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
       <c r="AW28" s="92"/>
       <c r="AX28" s="92"/>
       <c r="AY28" s="91"/>
@@ -6851,15 +6845,19 @@
     </row>
     <row r="29" spans="1:91">
       <c r="A29" s="92"/>
-      <c r="B29" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" s="92"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="96" t="s">
+        <v>381</v>
+      </c>
       <c r="D29" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
+        <v>321</v>
+      </c>
+      <c r="E29" s="95">
+        <v>45475</v>
+      </c>
+      <c r="F29" s="95">
+        <v>45488</v>
+      </c>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
       <c r="I29" s="92"/>
@@ -6900,20 +6898,20 @@
       <c r="AR29" s="92"/>
       <c r="AS29" s="92"/>
       <c r="AT29" s="92"/>
-      <c r="AU29" s="92"/>
-      <c r="AV29" s="92"/>
-      <c r="AW29" s="92"/>
-      <c r="AX29" s="92"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="91"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="91"/>
-      <c r="BH29" s="91"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="97"/>
+      <c r="AZ29" s="97"/>
+      <c r="BA29" s="97"/>
+      <c r="BB29" s="97"/>
+      <c r="BC29" s="97"/>
+      <c r="BD29" s="97"/>
+      <c r="BE29" s="97"/>
+      <c r="BF29" s="97"/>
+      <c r="BG29" s="97"/>
+      <c r="BH29" s="97"/>
       <c r="BI29" s="91"/>
       <c r="BJ29" s="91"/>
       <c r="BK29" s="91"/>
@@ -6947,13 +6945,17 @@
       <c r="CM29" s="91"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="95">
+        <v>45478</v>
+      </c>
       <c r="F30" s="92"/>
       <c r="G30" s="92"/>
       <c r="H30" s="92"/>
@@ -7043,9 +7045,13 @@
     </row>
     <row r="31" spans="1:91">
       <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
+      <c r="B31" s="93" t="s">
+        <v>320</v>
+      </c>
       <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="D31" s="93" t="s">
+        <v>413</v>
+      </c>
       <c r="E31" s="92"/>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -7135,190 +7141,192 @@
       <c r="CM31" s="91"/>
     </row>
     <row r="32" spans="1:91">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="88"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="88"/>
-      <c r="AQ32" s="88"/>
-      <c r="AR32" s="88"/>
-      <c r="AS32" s="88"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="88"/>
-      <c r="AV32" s="88"/>
-      <c r="AW32" s="88"/>
-      <c r="AX32" s="88"/>
-      <c r="AY32" s="88"/>
-      <c r="AZ32" s="88"/>
-      <c r="BA32" s="88"/>
-      <c r="BB32" s="88"/>
-      <c r="BC32" s="88"/>
-      <c r="BD32" s="88"/>
-      <c r="BE32" s="88"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="88"/>
-      <c r="BH32" s="88"/>
-      <c r="BI32" s="88"/>
-      <c r="BJ32" s="88"/>
-      <c r="BK32" s="88"/>
-      <c r="BL32" s="88"/>
-      <c r="BM32" s="88"/>
-      <c r="BN32" s="88"/>
-      <c r="BO32" s="88"/>
-      <c r="BP32" s="87"/>
-      <c r="BQ32" s="87"/>
-      <c r="BR32" s="87"/>
-      <c r="BS32" s="87"/>
-      <c r="BT32" s="87"/>
-      <c r="BU32" s="87"/>
-      <c r="BV32" s="87"/>
-      <c r="BW32" s="87"/>
-      <c r="BX32" s="87"/>
-      <c r="BY32" s="87"/>
-      <c r="BZ32" s="87"/>
-      <c r="CA32" s="87"/>
-      <c r="CB32" s="87"/>
-      <c r="CC32" s="87"/>
-      <c r="CD32" s="87"/>
-      <c r="CE32" s="87"/>
-      <c r="CF32" s="87"/>
-      <c r="CG32" s="87"/>
-      <c r="CH32" s="87"/>
-      <c r="CI32" s="87"/>
-      <c r="CJ32" s="87"/>
-      <c r="CK32" s="87"/>
-      <c r="CL32" s="87"/>
-      <c r="CM32" s="87"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="92"/>
+      <c r="AN32" s="92"/>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="92"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="92"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="92"/>
+      <c r="AX32" s="92"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="91"/>
+      <c r="BA32" s="91"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="91"/>
+      <c r="BF32" s="91"/>
+      <c r="BG32" s="91"/>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="91"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="92"/>
+      <c r="BM32" s="92"/>
+      <c r="BN32" s="92"/>
+      <c r="BO32" s="92"/>
+      <c r="BP32" s="92"/>
+      <c r="BQ32" s="92"/>
+      <c r="BR32" s="92"/>
+      <c r="BS32" s="92"/>
+      <c r="BT32" s="92"/>
+      <c r="BU32" s="92"/>
+      <c r="BV32" s="92"/>
+      <c r="BW32" s="92"/>
+      <c r="BX32" s="92"/>
+      <c r="BY32" s="92"/>
+      <c r="BZ32" s="92"/>
+      <c r="CA32" s="91"/>
+      <c r="CB32" s="91"/>
+      <c r="CC32" s="91"/>
+      <c r="CD32" s="91"/>
+      <c r="CE32" s="91"/>
+      <c r="CF32" s="91"/>
+      <c r="CG32" s="91"/>
+      <c r="CH32" s="91"/>
+      <c r="CI32" s="91"/>
+      <c r="CJ32" s="91"/>
+      <c r="CK32" s="91"/>
+      <c r="CL32" s="91"/>
+      <c r="CM32" s="91"/>
     </row>
     <row r="33" spans="1:91">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="88"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="88"/>
-      <c r="AQ33" s="88"/>
-      <c r="AR33" s="88"/>
-      <c r="AS33" s="88"/>
-      <c r="AT33" s="88"/>
-      <c r="AU33" s="88"/>
-      <c r="AV33" s="88"/>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="88"/>
-      <c r="AY33" s="88"/>
-      <c r="AZ33" s="88"/>
-      <c r="BA33" s="88"/>
-      <c r="BB33" s="88"/>
-      <c r="BC33" s="88"/>
-      <c r="BD33" s="88"/>
-      <c r="BE33" s="88"/>
-      <c r="BF33" s="88"/>
-      <c r="BG33" s="88"/>
-      <c r="BH33" s="88"/>
-      <c r="BI33" s="88"/>
-      <c r="BJ33" s="88"/>
-      <c r="BK33" s="88"/>
-      <c r="BL33" s="88"/>
-      <c r="BM33" s="88"/>
-      <c r="BN33" s="88"/>
-      <c r="BO33" s="88"/>
-      <c r="BP33" s="87"/>
-      <c r="BQ33" s="87"/>
-      <c r="BR33" s="87"/>
-      <c r="BS33" s="87"/>
-      <c r="BT33" s="87"/>
-      <c r="BU33" s="87"/>
-      <c r="BV33" s="87"/>
-      <c r="BW33" s="87"/>
-      <c r="BX33" s="87"/>
-      <c r="BY33" s="87"/>
-      <c r="BZ33" s="87"/>
-      <c r="CA33" s="87"/>
-      <c r="CB33" s="87"/>
-      <c r="CC33" s="87"/>
-      <c r="CD33" s="87"/>
-      <c r="CE33" s="87"/>
-      <c r="CF33" s="87"/>
-      <c r="CG33" s="87"/>
-      <c r="CH33" s="87"/>
-      <c r="CI33" s="87"/>
-      <c r="CJ33" s="87"/>
-      <c r="CK33" s="87"/>
-      <c r="CL33" s="87"/>
-      <c r="CM33" s="87"/>
+      <c r="A33" s="92" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="92"/>
+      <c r="AM33" s="92"/>
+      <c r="AN33" s="92"/>
+      <c r="AO33" s="92"/>
+      <c r="AP33" s="92"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="92"/>
+      <c r="AS33" s="92"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="92"/>
+      <c r="AV33" s="92"/>
+      <c r="AW33" s="92"/>
+      <c r="AX33" s="92"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="91"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="91"/>
+      <c r="BG33" s="91"/>
+      <c r="BH33" s="91"/>
+      <c r="BI33" s="91"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="92"/>
+      <c r="BM33" s="92"/>
+      <c r="BN33" s="92"/>
+      <c r="BO33" s="92"/>
+      <c r="BP33" s="92"/>
+      <c r="BQ33" s="92"/>
+      <c r="BR33" s="92"/>
+      <c r="BS33" s="92"/>
+      <c r="BT33" s="92"/>
+      <c r="BU33" s="92"/>
+      <c r="BV33" s="92"/>
+      <c r="BW33" s="92"/>
+      <c r="BX33" s="92"/>
+      <c r="BY33" s="92"/>
+      <c r="BZ33" s="92"/>
+      <c r="CA33" s="91"/>
+      <c r="CB33" s="91"/>
+      <c r="CC33" s="91"/>
+      <c r="CD33" s="91"/>
+      <c r="CE33" s="91"/>
+      <c r="CF33" s="91"/>
+      <c r="CG33" s="91"/>
+      <c r="CH33" s="91"/>
+      <c r="CI33" s="91"/>
+      <c r="CJ33" s="91"/>
+      <c r="CK33" s="91"/>
+      <c r="CL33" s="91"/>
+      <c r="CM33" s="91"/>
     </row>
     <row r="34" spans="1:91">
       <c r="A34" s="90"/>
@@ -7413,18 +7421,201 @@
       <c r="CL34" s="87"/>
       <c r="CM34" s="87"/>
     </row>
+    <row r="35" spans="1:91">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="88"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="88"/>
+      <c r="AI35" s="88"/>
+      <c r="AJ35" s="88"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="88"/>
+      <c r="AN35" s="88"/>
+      <c r="AO35" s="88"/>
+      <c r="AP35" s="88"/>
+      <c r="AQ35" s="88"/>
+      <c r="AR35" s="88"/>
+      <c r="AS35" s="88"/>
+      <c r="AT35" s="88"/>
+      <c r="AU35" s="88"/>
+      <c r="AV35" s="88"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="88"/>
+      <c r="AY35" s="88"/>
+      <c r="AZ35" s="88"/>
+      <c r="BA35" s="88"/>
+      <c r="BB35" s="88"/>
+      <c r="BC35" s="88"/>
+      <c r="BD35" s="88"/>
+      <c r="BE35" s="88"/>
+      <c r="BF35" s="88"/>
+      <c r="BG35" s="88"/>
+      <c r="BH35" s="88"/>
+      <c r="BI35" s="88"/>
+      <c r="BJ35" s="88"/>
+      <c r="BK35" s="88"/>
+      <c r="BL35" s="88"/>
+      <c r="BM35" s="88"/>
+      <c r="BN35" s="88"/>
+      <c r="BO35" s="88"/>
+      <c r="BP35" s="87"/>
+      <c r="BQ35" s="87"/>
+      <c r="BR35" s="87"/>
+      <c r="BS35" s="87"/>
+      <c r="BT35" s="87"/>
+      <c r="BU35" s="87"/>
+      <c r="BV35" s="87"/>
+      <c r="BW35" s="87"/>
+      <c r="BX35" s="87"/>
+      <c r="BY35" s="87"/>
+      <c r="BZ35" s="87"/>
+      <c r="CA35" s="87"/>
+      <c r="CB35" s="87"/>
+      <c r="CC35" s="87"/>
+      <c r="CD35" s="87"/>
+      <c r="CE35" s="87"/>
+      <c r="CF35" s="87"/>
+      <c r="CG35" s="87"/>
+      <c r="CH35" s="87"/>
+      <c r="CI35" s="87"/>
+      <c r="CJ35" s="87"/>
+      <c r="CK35" s="87"/>
+      <c r="CL35" s="87"/>
+      <c r="CM35" s="87"/>
+    </row>
+    <row r="36" spans="1:91">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="88"/>
+      <c r="AA36" s="88"/>
+      <c r="AB36" s="88"/>
+      <c r="AC36" s="88"/>
+      <c r="AD36" s="88"/>
+      <c r="AE36" s="88"/>
+      <c r="AF36" s="88"/>
+      <c r="AG36" s="88"/>
+      <c r="AH36" s="88"/>
+      <c r="AI36" s="88"/>
+      <c r="AJ36" s="88"/>
+      <c r="AK36" s="88"/>
+      <c r="AL36" s="88"/>
+      <c r="AM36" s="88"/>
+      <c r="AN36" s="88"/>
+      <c r="AO36" s="88"/>
+      <c r="AP36" s="88"/>
+      <c r="AQ36" s="88"/>
+      <c r="AR36" s="88"/>
+      <c r="AS36" s="88"/>
+      <c r="AT36" s="88"/>
+      <c r="AU36" s="88"/>
+      <c r="AV36" s="88"/>
+      <c r="AW36" s="88"/>
+      <c r="AX36" s="88"/>
+      <c r="AY36" s="88"/>
+      <c r="AZ36" s="88"/>
+      <c r="BA36" s="88"/>
+      <c r="BB36" s="88"/>
+      <c r="BC36" s="88"/>
+      <c r="BD36" s="88"/>
+      <c r="BE36" s="88"/>
+      <c r="BF36" s="88"/>
+      <c r="BG36" s="88"/>
+      <c r="BH36" s="88"/>
+      <c r="BI36" s="88"/>
+      <c r="BJ36" s="88"/>
+      <c r="BK36" s="88"/>
+      <c r="BL36" s="88"/>
+      <c r="BM36" s="88"/>
+      <c r="BN36" s="88"/>
+      <c r="BO36" s="88"/>
+      <c r="BP36" s="87"/>
+      <c r="BQ36" s="87"/>
+      <c r="BR36" s="87"/>
+      <c r="BS36" s="87"/>
+      <c r="BT36" s="87"/>
+      <c r="BU36" s="87"/>
+      <c r="BV36" s="87"/>
+      <c r="BW36" s="87"/>
+      <c r="BX36" s="87"/>
+      <c r="BY36" s="87"/>
+      <c r="BZ36" s="87"/>
+      <c r="CA36" s="87"/>
+      <c r="CB36" s="87"/>
+      <c r="CC36" s="87"/>
+      <c r="CD36" s="87"/>
+      <c r="CE36" s="87"/>
+      <c r="CF36" s="87"/>
+      <c r="CG36" s="87"/>
+      <c r="CH36" s="87"/>
+      <c r="CI36" s="87"/>
+      <c r="CJ36" s="87"/>
+      <c r="CK36" s="87"/>
+      <c r="CL36" s="87"/>
+      <c r="CM36" s="87"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -7441,13 +7632,16 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A19:A27"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7459,8 +7653,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7476,61 +7670,61 @@
       <c r="A2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="164">
+      <c r="B2" s="144">
         <v>1</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
     </row>
     <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="33" t="s">
         <v>184</v>
       </c>
@@ -7572,65 +7766,65 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
         <v>186</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>429</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>430</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="167" t="s">
         <v>384</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
       <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="146"/>
-      <c r="C13" s="121" t="s">
-        <v>428</v>
+      <c r="B13" s="168"/>
+      <c r="C13" s="119" t="s">
+        <v>427</v>
       </c>
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
       <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="147"/>
-      <c r="C14" s="121" t="s">
+      <c r="B14" s="169"/>
+      <c r="C14" s="119" t="s">
         <v>386</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="109"/>
-      <c r="C15" s="121"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="109"/>
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
@@ -7643,13 +7837,13 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="23">
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="33" t="s">
@@ -7661,94 +7855,94 @@
       <c r="D18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="142" t="s">
-        <v>426</v>
-      </c>
-      <c r="F18" s="143"/>
+      <c r="E18" s="164" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="165"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="143"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="165"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>423</v>
-      </c>
       <c r="D20" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="143"/>
+        <v>424</v>
+      </c>
+      <c r="E20" s="166"/>
+      <c r="F20" s="165"/>
     </row>
     <row r="25" spans="2:6" ht="18" thickBot="1"/>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="157">
+      <c r="B26" s="151">
         <v>2</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
     </row>
     <row r="27" spans="2:6" ht="20">
       <c r="B27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="161"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="155"/>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
     </row>
     <row r="29" spans="2:6" ht="20">
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
     </row>
     <row r="30" spans="2:6" ht="18">
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="160"/>
     </row>
     <row r="31" spans="2:6" ht="18">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="33" t="s">
         <v>184</v>
       </c>
@@ -7760,14 +7954,14 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="120" t="s">
         <v>383</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>387</v>
@@ -7775,37 +7969,37 @@
       <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="121" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>435</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="123" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="121" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="214" t="s">
+      <c r="C34" s="123" t="s">
         <v>436</v>
       </c>
-      <c r="D33" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="E33" s="215" t="s">
+      <c r="D34" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="122" t="s">
         <v>387</v>
       </c>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="213" t="s">
-        <v>434</v>
-      </c>
-      <c r="C34" s="215" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="E34" s="214" t="s">
-        <v>387</v>
-      </c>
       <c r="F34" s="44"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="213"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="43"/>
       <c r="D35" s="21"/>
       <c r="E35" s="43"/>
@@ -7819,13 +8013,13 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="2:6" ht="20">
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="153"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
     </row>
     <row r="38" spans="2:6" ht="18">
       <c r="B38" s="32" t="s">
@@ -7862,13 +8056,13 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="2:6" ht="23">
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="156"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="163"/>
     </row>
     <row r="43" spans="2:6" ht="18">
       <c r="B43" s="32" t="s">
@@ -7976,61 +8170,61 @@
     </row>
     <row r="58" spans="2:6" ht="18" thickBot="1"/>
     <row r="59" spans="2:6" ht="21" thickBot="1">
-      <c r="B59" s="157">
+      <c r="B59" s="151">
         <v>3</v>
       </c>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="159"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="153"/>
     </row>
     <row r="60" spans="2:6" ht="20">
       <c r="B60" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="161"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="155"/>
     </row>
     <row r="61" spans="2:6" ht="21" thickBot="1">
       <c r="B61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="162" t="s">
+      <c r="C61" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="163"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="150"/>
     </row>
     <row r="62" spans="2:6" ht="20">
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="153"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="158"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="149" t="s">
+      <c r="C63" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="149" t="s">
+      <c r="D63" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="149"/>
-      <c r="F63" s="150"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="160"/>
     </row>
     <row r="64" spans="2:6" ht="18">
-      <c r="B64" s="148"/>
-      <c r="C64" s="149"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="148"/>
       <c r="D64" s="33" t="s">
         <v>184</v>
       </c>
@@ -8070,13 +8264,13 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="151" t="s">
+      <c r="B69" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="153"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="157"/>
+      <c r="E69" s="157"/>
+      <c r="F69" s="158"/>
     </row>
     <row r="70" spans="2:6" ht="18">
       <c r="B70" s="32" t="s">
@@ -8113,13 +8307,13 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:6" ht="23">
-      <c r="B74" s="154" t="s">
+      <c r="B74" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="155"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="156"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="162"/>
+      <c r="F74" s="163"/>
     </row>
     <row r="75" spans="2:6" ht="18">
       <c r="B75" s="32" t="s">
@@ -8227,61 +8421,61 @@
     </row>
     <row r="90" spans="2:6" ht="18" thickBot="1"/>
     <row r="91" spans="2:6" ht="21" thickBot="1">
-      <c r="B91" s="157">
+      <c r="B91" s="151">
         <v>4</v>
       </c>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="159"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="152"/>
+      <c r="F91" s="153"/>
     </row>
     <row r="92" spans="2:6" ht="20">
       <c r="B92" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="160" t="s">
+      <c r="C92" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="160"/>
-      <c r="E92" s="160"/>
-      <c r="F92" s="161"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="155"/>
     </row>
     <row r="93" spans="2:6" ht="21" thickBot="1">
       <c r="B93" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="162" t="s">
+      <c r="C93" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="163"/>
+      <c r="D93" s="149"/>
+      <c r="E93" s="149"/>
+      <c r="F93" s="150"/>
     </row>
     <row r="94" spans="2:6" ht="20">
-      <c r="B94" s="151" t="s">
+      <c r="B94" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="152"/>
-      <c r="D94" s="152"/>
-      <c r="E94" s="152"/>
-      <c r="F94" s="153"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="157"/>
+      <c r="E94" s="157"/>
+      <c r="F94" s="158"/>
     </row>
     <row r="95" spans="2:6" ht="18">
-      <c r="B95" s="148" t="s">
+      <c r="B95" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="149" t="s">
+      <c r="C95" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="149" t="s">
+      <c r="D95" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="149"/>
-      <c r="F95" s="150"/>
+      <c r="E95" s="148"/>
+      <c r="F95" s="160"/>
     </row>
     <row r="96" spans="2:6" ht="18">
-      <c r="B96" s="148"/>
-      <c r="C96" s="149"/>
+      <c r="B96" s="159"/>
+      <c r="C96" s="148"/>
       <c r="D96" s="33" t="s">
         <v>184</v>
       </c>
@@ -8321,13 +8515,13 @@
       <c r="F100" s="29"/>
     </row>
     <row r="101" spans="2:6" ht="20">
-      <c r="B101" s="151" t="s">
+      <c r="B101" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="152"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="153"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="157"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="158"/>
     </row>
     <row r="102" spans="2:6" ht="18">
       <c r="B102" s="32" t="s">
@@ -8364,13 +8558,13 @@
       <c r="F105" s="29"/>
     </row>
     <row r="106" spans="2:6" ht="23">
-      <c r="B106" s="154" t="s">
+      <c r="B106" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="156"/>
+      <c r="C106" s="162"/>
+      <c r="D106" s="162"/>
+      <c r="E106" s="162"/>
+      <c r="F106" s="163"/>
     </row>
     <row r="107" spans="2:6" ht="18">
       <c r="B107" s="32" t="s">
@@ -8478,30 +8672,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B94:F94"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -8518,6 +8688,30 @@
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="C60:F60"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8549,17 +8743,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="3:11" ht="20">
       <c r="C3" s="53" t="s">
@@ -8591,10 +8785,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="170" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="21"/>
@@ -8612,8 +8806,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="170"/>
-      <c r="D5" s="168"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -8629,8 +8823,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="170"/>
-      <c r="D6" s="168"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -8646,8 +8840,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="170"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -8663,8 +8857,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="170"/>
-      <c r="D8" s="168"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="170"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -8680,8 +8874,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="170"/>
-      <c r="D9" s="168"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -8697,8 +8891,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="170"/>
-      <c r="D10" s="168" t="s">
+      <c r="C10" s="172"/>
+      <c r="D10" s="170" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="21"/>
@@ -8716,8 +8910,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="170"/>
-      <c r="D11" s="168"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="170"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -8733,8 +8927,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="171"/>
-      <c r="D12" s="168" t="s">
+      <c r="C12" s="173"/>
+      <c r="D12" s="170" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="21"/>
@@ -8752,8 +8946,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="171"/>
-      <c r="D13" s="177"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -8769,8 +8963,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="171"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -8786,8 +8980,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="171"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="173"/>
+      <c r="D15" s="170" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="21"/>
@@ -8805,8 +8999,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="171"/>
-      <c r="D16" s="177"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -8822,8 +9016,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="171"/>
-      <c r="D17" s="168"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="170"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -8839,8 +9033,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="171"/>
-      <c r="D18" s="168"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -8856,8 +9050,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="171"/>
-      <c r="D19" s="168"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -8873,8 +9067,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="171"/>
-      <c r="D20" s="168"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -8890,8 +9084,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="171"/>
-      <c r="D21" s="168"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="170"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -8907,8 +9101,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="171"/>
-      <c r="D22" s="168"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="170"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -8924,8 +9118,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="171"/>
-      <c r="D23" s="168"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="170"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -8941,8 +9135,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="171"/>
-      <c r="D24" s="168"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="170"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -8958,8 +9152,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="171"/>
-      <c r="D25" s="168" t="s">
+      <c r="C25" s="173"/>
+      <c r="D25" s="170" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="21"/>
@@ -8977,8 +9171,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="171"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="170"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -8994,8 +9188,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="171"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="170"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -9011,8 +9205,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="172"/>
-      <c r="D28" s="168"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="170"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -9028,8 +9222,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="172"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="170"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -9045,8 +9239,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="172"/>
-      <c r="D30" s="168"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="170"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -9062,8 +9256,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="172"/>
-      <c r="D31" s="168"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="170"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -9079,8 +9273,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="172"/>
-      <c r="D32" s="168"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="170"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -9096,8 +9290,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="172"/>
-      <c r="D33" s="168"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -9113,8 +9307,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="172"/>
-      <c r="D34" s="168"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -9130,8 +9324,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="172"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -9147,8 +9341,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="172"/>
-      <c r="D36" s="168"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -9164,8 +9358,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="172"/>
-      <c r="D37" s="168" t="s">
+      <c r="C37" s="174"/>
+      <c r="D37" s="170" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="21"/>
@@ -9183,8 +9377,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="172"/>
-      <c r="D38" s="168"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -9200,8 +9394,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="172"/>
-      <c r="D39" s="168"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -9217,8 +9411,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="172"/>
-      <c r="D40" s="168"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -9234,8 +9428,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="172"/>
-      <c r="D41" s="168"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -9251,8 +9445,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="172"/>
-      <c r="D42" s="168"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -9268,8 +9462,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="172"/>
-      <c r="D43" s="168"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -9285,8 +9479,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="172"/>
-      <c r="D44" s="168"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -9302,8 +9496,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="172"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -9319,8 +9513,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="173"/>
-      <c r="D46" s="168"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -9373,61 +9567,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="181"/>
-      <c r="N1" s="178" t="s">
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="183"/>
+      <c r="N1" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" s="180"/>
+      <c r="AK1" s="180"/>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
     </row>
     <row r="2" spans="2:53" ht="31" thickBot="1">
       <c r="B2" s="55" t="s">
@@ -12277,7 +12471,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -12294,17 +12488,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -12392,17 +12586,17 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="20">
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -12515,18 +12709,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
     </row>
     <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
@@ -12541,20 +12735,20 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="191" t="s">
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -12569,12 +12763,12 @@
       <c r="G4" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="200"/>
     </row>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="38" t="s">
@@ -12584,13 +12778,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="196"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -12704,13 +12898,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="189"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12962,181 +13156,181 @@
       <c r="B2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="210"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="205"/>
     </row>
     <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="155"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="203"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="208"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="203"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="208"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="203"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="208"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="202" t="s">
+      <c r="C7" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="203"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="208"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="163"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="150"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="208"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="213"/>
     </row>
     <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="209" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="204" t="s">
+      <c r="E11" s="209" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204" t="s">
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="204" t="s">
+      <c r="I11" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="204" t="s">
+      <c r="J11" s="209" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="204" t="s">
+      <c r="K11" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="204" t="s">
+      <c r="L11" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="204" t="s">
+      <c r="M11" s="209" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="8" t="s">
         <v>159</v>
       </c>
@@ -13149,12 +13343,12 @@
       <c r="G12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -13446,11 +13640,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -13463,6 +13652,11 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\이성훈\project\CloseUp\architecture\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17DB7-4DBB-3B4C-A00E-2C1E2D003E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="2440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="2445" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="451">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1570,14 +1569,98 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>좋아요 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 클릭</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일첨부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글달기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인하지않은 유저가 좋아요 버튼을 눌렀을 시 confirm창으로 로그인을 해야 이용가능한 서비스이다 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>onfirm창을 아니요를 클릭시 confirm창을 다시 출력되는 문제</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>avascript에서 오류를 수정해야 함</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현예정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현예정</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1868,6 +1951,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3002,7 +3092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3369,6 +3459,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="68" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3378,55 +3513,82 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3445,66 +3607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3609,6 +3711,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3630,37 +3741,19 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="40% - 강조색1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="강조색1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="강조색1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색1 2" xfId="5"/>
+    <cellStyle name="40% - 강조색1" xfId="3"/>
+    <cellStyle name="40% - 강조색1 2" xfId="6"/>
+    <cellStyle name="강조색1" xfId="1"/>
+    <cellStyle name="강조색1 2" xfId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4021,32 +4114,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CM34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="86" customWidth="1"/>
-    <col min="2" max="3" width="30.83203125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="86" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="86"/>
-    <col min="7" max="7" width="5.83203125" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="86" customWidth="1"/>
+    <col min="2" max="3" width="30.875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="86" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="86"/>
+    <col min="7" max="7" width="5.875" style="86" customWidth="1"/>
     <col min="8" max="91" width="1.5" style="86" customWidth="1"/>
-    <col min="92" max="16384" width="10.83203125" style="86"/>
+    <col min="92" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:91">
       <c r="A3" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="136" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
@@ -4140,10 +4233,10 @@
       <c r="A4" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="135" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="141"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
@@ -4237,10 +4330,10 @@
       <c r="A5" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="135" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="141"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -4334,10 +4427,10 @@
       <c r="A6" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="141"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -4431,10 +4524,10 @@
       <c r="A7" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="135">
         <v>45436</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -4528,8 +4621,8 @@
       <c r="A8" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4715,244 +4808,244 @@
       <c r="CM9" s="87"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="145" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="145" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="145" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="145" t="s">
         <v>368</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="145" t="s">
         <v>367</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="129" t="s">
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="130"/>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="130"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="130"/>
-      <c r="AX10" s="130"/>
-      <c r="AY10" s="130"/>
-      <c r="AZ10" s="130"/>
-      <c r="BA10" s="130"/>
-      <c r="BB10" s="130"/>
-      <c r="BC10" s="130"/>
-      <c r="BD10" s="130"/>
-      <c r="BE10" s="130"/>
-      <c r="BF10" s="130"/>
-      <c r="BG10" s="130"/>
-      <c r="BH10" s="130"/>
-      <c r="BI10" s="130"/>
-      <c r="BJ10" s="130"/>
-      <c r="BK10" s="130"/>
-      <c r="BL10" s="129" t="s">
+      <c r="AK10" s="144"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="144"/>
+      <c r="AN10" s="144"/>
+      <c r="AO10" s="144"/>
+      <c r="AP10" s="144"/>
+      <c r="AQ10" s="144"/>
+      <c r="AR10" s="144"/>
+      <c r="AS10" s="144"/>
+      <c r="AT10" s="144"/>
+      <c r="AU10" s="144"/>
+      <c r="AV10" s="144"/>
+      <c r="AW10" s="144"/>
+      <c r="AX10" s="144"/>
+      <c r="AY10" s="144"/>
+      <c r="AZ10" s="144"/>
+      <c r="BA10" s="144"/>
+      <c r="BB10" s="144"/>
+      <c r="BC10" s="144"/>
+      <c r="BD10" s="144"/>
+      <c r="BE10" s="144"/>
+      <c r="BF10" s="144"/>
+      <c r="BG10" s="144"/>
+      <c r="BH10" s="144"/>
+      <c r="BI10" s="144"/>
+      <c r="BJ10" s="144"/>
+      <c r="BK10" s="144"/>
+      <c r="BL10" s="143" t="s">
         <v>363</v>
       </c>
-      <c r="BM10" s="130"/>
-      <c r="BN10" s="130"/>
-      <c r="BO10" s="130"/>
-      <c r="BP10" s="130"/>
-      <c r="BQ10" s="130"/>
-      <c r="BR10" s="130"/>
-      <c r="BS10" s="130"/>
-      <c r="BT10" s="130"/>
-      <c r="BU10" s="130"/>
-      <c r="BV10" s="130"/>
-      <c r="BW10" s="130"/>
-      <c r="BX10" s="130"/>
-      <c r="BY10" s="130"/>
-      <c r="BZ10" s="130"/>
-      <c r="CA10" s="130"/>
-      <c r="CB10" s="130"/>
-      <c r="CC10" s="130"/>
-      <c r="CD10" s="130"/>
-      <c r="CE10" s="130"/>
-      <c r="CF10" s="130"/>
-      <c r="CG10" s="130"/>
-      <c r="CH10" s="130"/>
-      <c r="CI10" s="130"/>
-      <c r="CJ10" s="130"/>
-      <c r="CK10" s="130"/>
-      <c r="CL10" s="130"/>
-      <c r="CM10" s="130"/>
+      <c r="BM10" s="144"/>
+      <c r="BN10" s="144"/>
+      <c r="BO10" s="144"/>
+      <c r="BP10" s="144"/>
+      <c r="BQ10" s="144"/>
+      <c r="BR10" s="144"/>
+      <c r="BS10" s="144"/>
+      <c r="BT10" s="144"/>
+      <c r="BU10" s="144"/>
+      <c r="BV10" s="144"/>
+      <c r="BW10" s="144"/>
+      <c r="BX10" s="144"/>
+      <c r="BY10" s="144"/>
+      <c r="BZ10" s="144"/>
+      <c r="CA10" s="144"/>
+      <c r="CB10" s="144"/>
+      <c r="CC10" s="144"/>
+      <c r="CD10" s="144"/>
+      <c r="CE10" s="144"/>
+      <c r="CF10" s="144"/>
+      <c r="CG10" s="144"/>
+      <c r="CH10" s="144"/>
+      <c r="CI10" s="144"/>
+      <c r="CJ10" s="144"/>
+      <c r="CK10" s="144"/>
+      <c r="CL10" s="144"/>
+      <c r="CM10" s="144"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="122" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="122" t="s">
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="122" t="s">
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="137" t="s">
         <v>358</v>
       </c>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="122" t="s">
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="138"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="122" t="s">
+      <c r="AK11" s="138"/>
+      <c r="AL11" s="138"/>
+      <c r="AM11" s="138"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="139"/>
+      <c r="AQ11" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="122" t="s">
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="138"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="138"/>
+      <c r="AV11" s="138"/>
+      <c r="AW11" s="139"/>
+      <c r="AX11" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="122" t="s">
+      <c r="AY11" s="138"/>
+      <c r="AZ11" s="138"/>
+      <c r="BA11" s="138"/>
+      <c r="BB11" s="138"/>
+      <c r="BC11" s="138"/>
+      <c r="BD11" s="139"/>
+      <c r="BE11" s="137" t="s">
         <v>358</v>
       </c>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="123"/>
-      <c r="BJ11" s="123"/>
-      <c r="BK11" s="124"/>
-      <c r="BL11" s="122" t="s">
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="138"/>
+      <c r="BH11" s="138"/>
+      <c r="BI11" s="138"/>
+      <c r="BJ11" s="138"/>
+      <c r="BK11" s="139"/>
+      <c r="BL11" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="BM11" s="123"/>
-      <c r="BN11" s="123"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="123"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="124"/>
-      <c r="BS11" s="122" t="s">
+      <c r="BM11" s="138"/>
+      <c r="BN11" s="138"/>
+      <c r="BO11" s="138"/>
+      <c r="BP11" s="138"/>
+      <c r="BQ11" s="138"/>
+      <c r="BR11" s="139"/>
+      <c r="BS11" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
-      <c r="BV11" s="123"/>
-      <c r="BW11" s="123"/>
-      <c r="BX11" s="123"/>
-      <c r="BY11" s="124"/>
-      <c r="BZ11" s="122" t="s">
+      <c r="BT11" s="138"/>
+      <c r="BU11" s="138"/>
+      <c r="BV11" s="138"/>
+      <c r="BW11" s="138"/>
+      <c r="BX11" s="138"/>
+      <c r="BY11" s="139"/>
+      <c r="BZ11" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="CA11" s="123"/>
-      <c r="CB11" s="123"/>
-      <c r="CC11" s="123"/>
-      <c r="CD11" s="123"/>
-      <c r="CE11" s="123"/>
-      <c r="CF11" s="124"/>
-      <c r="CG11" s="122" t="s">
+      <c r="CA11" s="138"/>
+      <c r="CB11" s="138"/>
+      <c r="CC11" s="138"/>
+      <c r="CD11" s="138"/>
+      <c r="CE11" s="138"/>
+      <c r="CF11" s="139"/>
+      <c r="CG11" s="137" t="s">
         <v>358</v>
       </c>
-      <c r="CH11" s="123"/>
-      <c r="CI11" s="123"/>
-      <c r="CJ11" s="123"/>
-      <c r="CK11" s="123"/>
-      <c r="CL11" s="123"/>
-      <c r="CM11" s="124"/>
+      <c r="CH11" s="138"/>
+      <c r="CI11" s="138"/>
+      <c r="CJ11" s="138"/>
+      <c r="CK11" s="138"/>
+      <c r="CL11" s="138"/>
+      <c r="CM11" s="139"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
       <c r="G12" s="105" t="s">
         <v>357</v>
       </c>
@@ -5210,7 +5303,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="140" t="s">
         <v>349</v>
       </c>
       <c r="B13" s="92" t="s">
@@ -5317,8 +5410,8 @@
       <c r="CM13" s="91"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="127"/>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="140" t="s">
         <v>345</v>
       </c>
       <c r="C14" s="93" t="s">
@@ -5422,8 +5515,8 @@
       <c r="CM14" s="91"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="92" t="s">
         <v>343</v>
       </c>
@@ -5525,8 +5618,8 @@
       <c r="CM15" s="91"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="93" t="s">
         <v>342</v>
       </c>
@@ -5628,8 +5721,8 @@
       <c r="CM16" s="91"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="93" t="s">
         <v>340</v>
       </c>
@@ -5731,8 +5824,8 @@
       <c r="CM17" s="91"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="93" t="s">
         <v>338</v>
       </c>
@@ -5834,10 +5927,10 @@
       <c r="CM18" s="91"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="129" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="132" t="s">
         <v>336</v>
       </c>
       <c r="C19" s="93" t="s">
@@ -5941,8 +6034,8 @@
       <c r="CM19" s="91"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="135"/>
-      <c r="B20" s="138"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="93" t="s">
         <v>333</v>
       </c>
@@ -6044,8 +6137,8 @@
       <c r="CM20" s="91"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="135"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="96" t="s">
         <v>330</v>
       </c>
@@ -6147,8 +6240,8 @@
       <c r="CM21" s="91"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="135"/>
-      <c r="B22" s="137" t="s">
+      <c r="A22" s="130"/>
+      <c r="B22" s="132" t="s">
         <v>327</v>
       </c>
       <c r="C22" s="93" t="s">
@@ -6252,8 +6345,8 @@
       <c r="CM22" s="91"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="135"/>
-      <c r="B23" s="138"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="93" t="s">
         <v>414</v>
       </c>
@@ -6351,8 +6444,8 @@
       <c r="CM23" s="91"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="136"/>
-      <c r="B24" s="139"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="93" t="s">
         <v>415</v>
       </c>
@@ -6550,7 +6643,7 @@
       <c r="A26" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="126" t="s">
         <v>323</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -6653,7 +6746,7 @@
     </row>
     <row r="27" spans="1:91">
       <c r="A27" s="92"/>
-      <c r="B27" s="132"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="96" t="s">
         <v>381</v>
       </c>
@@ -6752,7 +6845,7 @@
     </row>
     <row r="28" spans="1:91">
       <c r="A28" s="92"/>
-      <c r="B28" s="133"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="96" t="s">
         <v>382</v>
       </c>
@@ -7415,16 +7508,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -7441,13 +7531,16 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7455,82 +7548,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20">
+    <row r="2" spans="1:6" ht="20.25">
       <c r="A2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="164">
+      <c r="B2" s="146">
         <v>1</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-    </row>
-    <row r="3" spans="1:6" ht="20">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25">
       <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-    </row>
-    <row r="4" spans="1:6" ht="20">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25">
       <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-    </row>
-    <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="165" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25">
+      <c r="B5" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="149" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25">
+      <c r="B6" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25">
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="33" t="s">
         <v>184</v>
       </c>
@@ -7571,16 +7664,16 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="165" t="s">
+    <row r="10" spans="1:6" ht="20.25">
+      <c r="B10" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-    </row>
-    <row r="11" spans="1:6" ht="18">
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25">
       <c r="B11" s="33" t="s">
         <v>186</v>
       </c>
@@ -7598,7 +7691,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="169" t="s">
         <v>384</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -7609,7 +7702,7 @@
       <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="146"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="121" t="s">
         <v>428</v>
       </c>
@@ -7618,7 +7711,7 @@
       <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="147"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="121" t="s">
         <v>386</v>
       </c>
@@ -7642,16 +7735,16 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="2:6" ht="23">
-      <c r="B17" s="166" t="s">
+    <row r="17" spans="2:6" ht="26.25">
+      <c r="B17" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-    </row>
-    <row r="18" spans="2:6" ht="18">
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+    </row>
+    <row r="18" spans="2:6" ht="17.25">
       <c r="B18" s="33" t="s">
         <v>176</v>
       </c>
@@ -7661,10 +7754,10 @@
       <c r="D18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="166" t="s">
         <v>426</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="167"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="21" t="s">
@@ -7676,8 +7769,8 @@
       <c r="D19" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="143"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="167"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="54" t="s">
@@ -7689,66 +7782,66 @@
       <c r="D20" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="143"/>
-    </row>
-    <row r="25" spans="2:6" ht="18" thickBot="1"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="167"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="157">
+      <c r="B26" s="153">
         <v>2</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-    </row>
-    <row r="27" spans="2:6" ht="20">
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="155"/>
+    </row>
+    <row r="27" spans="2:6" ht="20.25">
       <c r="B27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="161"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
-    </row>
-    <row r="29" spans="2:6" ht="20">
-      <c r="B29" s="151" t="s">
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+    </row>
+    <row r="29" spans="2:6" ht="20.25">
+      <c r="B29" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-    </row>
-    <row r="30" spans="2:6" ht="18">
-      <c r="B30" s="148" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="160"/>
+    </row>
+    <row r="30" spans="2:6" ht="17.25">
+      <c r="B30" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
-    </row>
-    <row r="31" spans="2:6" ht="18">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="162"/>
+    </row>
+    <row r="31" spans="2:6" ht="17.25">
+      <c r="B31" s="161"/>
+      <c r="C31" s="150"/>
       <c r="D31" s="33" t="s">
         <v>184</v>
       </c>
@@ -7760,7 +7853,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="122" t="s">
         <v>383</v>
       </c>
       <c r="C32" s="54" t="s">
@@ -7775,59 +7868,59 @@
       <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="123" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="214" t="s">
+      <c r="C33" s="124" t="s">
         <v>436</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E33" s="215" t="s">
+      <c r="E33" s="125" t="s">
         <v>387</v>
       </c>
       <c r="F33" s="44"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="123" t="s">
         <v>434</v>
       </c>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="125" t="s">
         <v>437</v>
       </c>
       <c r="D34" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E34" s="214" t="s">
+      <c r="E34" s="124" t="s">
         <v>387</v>
       </c>
       <c r="F34" s="44"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="213"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="43"/>
       <c r="D35" s="21"/>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="2:6" ht="18" thickBot="1">
+    <row r="36" spans="2:6" ht="17.25" thickBot="1">
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="21"/>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:6" ht="20">
-      <c r="B37" s="151" t="s">
+    <row r="37" spans="2:6" ht="20.25">
+      <c r="B37" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="153"/>
-    </row>
-    <row r="38" spans="2:6" ht="18">
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="160"/>
+    </row>
+    <row r="38" spans="2:6" ht="17.25">
       <c r="B38" s="32" t="s">
         <v>186</v>
       </c>
@@ -7854,23 +7947,23 @@
       <c r="E40" s="21"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="2:6" ht="18" thickBot="1">
+    <row r="41" spans="2:6" ht="17.25" thickBot="1">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="2:6" ht="23">
-      <c r="B42" s="154" t="s">
+    <row r="42" spans="2:6" ht="26.25">
+      <c r="B42" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="156"/>
-    </row>
-    <row r="43" spans="2:6" ht="18">
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="165"/>
+    </row>
+    <row r="43" spans="2:6" ht="17.25">
       <c r="B43" s="32" t="s">
         <v>176</v>
       </c>
@@ -7967,70 +8060,70 @@
       <c r="E55" s="21"/>
       <c r="F55" s="26"/>
     </row>
-    <row r="56" spans="2:6" ht="18" thickBot="1">
+    <row r="56" spans="2:6" ht="17.25" thickBot="1">
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="58" spans="2:6" ht="18" thickBot="1"/>
+    <row r="58" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="59" spans="2:6" ht="21" thickBot="1">
-      <c r="B59" s="157">
+      <c r="B59" s="153">
         <v>3</v>
       </c>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="159"/>
-    </row>
-    <row r="60" spans="2:6" ht="20">
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="155"/>
+    </row>
+    <row r="60" spans="2:6" ht="20.25">
       <c r="B60" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="161"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="157"/>
     </row>
     <row r="61" spans="2:6" ht="21" thickBot="1">
       <c r="B61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="162" t="s">
+      <c r="C61" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="163"/>
-    </row>
-    <row r="62" spans="2:6" ht="20">
-      <c r="B62" s="151" t="s">
+      <c r="D61" s="151"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="152"/>
+    </row>
+    <row r="62" spans="2:6" ht="20.25">
+      <c r="B62" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="153"/>
-    </row>
-    <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="148" t="s">
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160"/>
+    </row>
+    <row r="63" spans="2:6" ht="17.25">
+      <c r="B63" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="149" t="s">
+      <c r="C63" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="149" t="s">
+      <c r="D63" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="149"/>
-      <c r="F63" s="150"/>
-    </row>
-    <row r="64" spans="2:6" ht="18">
-      <c r="B64" s="148"/>
-      <c r="C64" s="149"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="162"/>
+    </row>
+    <row r="64" spans="2:6" ht="17.25">
+      <c r="B64" s="161"/>
+      <c r="C64" s="150"/>
       <c r="D64" s="33" t="s">
         <v>184</v>
       </c>
@@ -8062,23 +8155,23 @@
       <c r="E67" s="43"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="2:6" ht="18" thickBot="1">
+    <row r="68" spans="2:6" ht="17.25" thickBot="1">
       <c r="B68" s="27"/>
       <c r="C68" s="28"/>
       <c r="D68" s="21"/>
       <c r="E68" s="28"/>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="151" t="s">
+    <row r="69" spans="2:6" ht="20.25">
+      <c r="B69" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="153"/>
-    </row>
-    <row r="70" spans="2:6" ht="18">
+      <c r="C69" s="159"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="160"/>
+    </row>
+    <row r="70" spans="2:6" ht="17.25">
       <c r="B70" s="32" t="s">
         <v>186</v>
       </c>
@@ -8105,23 +8198,23 @@
       <c r="E72" s="21"/>
       <c r="F72" s="26"/>
     </row>
-    <row r="73" spans="2:6" ht="18" thickBot="1">
+    <row r="73" spans="2:6" ht="17.25" thickBot="1">
       <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="2:6" ht="23">
-      <c r="B74" s="154" t="s">
+    <row r="74" spans="2:6" ht="26.25">
+      <c r="B74" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="155"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="156"/>
-    </row>
-    <row r="75" spans="2:6" ht="18">
+      <c r="C74" s="164"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="165"/>
+    </row>
+    <row r="75" spans="2:6" ht="17.25">
       <c r="B75" s="32" t="s">
         <v>176</v>
       </c>
@@ -8218,70 +8311,70 @@
       <c r="E87" s="21"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="2:6" ht="18" thickBot="1">
+    <row r="88" spans="2:6" ht="17.25" thickBot="1">
       <c r="B88" s="27"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="90" spans="2:6" ht="18" thickBot="1"/>
+    <row r="90" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="91" spans="2:6" ht="21" thickBot="1">
-      <c r="B91" s="157">
+      <c r="B91" s="153">
         <v>4</v>
       </c>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="159"/>
-    </row>
-    <row r="92" spans="2:6" ht="20">
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154"/>
+      <c r="F91" s="155"/>
+    </row>
+    <row r="92" spans="2:6" ht="20.25">
       <c r="B92" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="160" t="s">
+      <c r="C92" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="160"/>
-      <c r="E92" s="160"/>
-      <c r="F92" s="161"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156"/>
+      <c r="F92" s="157"/>
     </row>
     <row r="93" spans="2:6" ht="21" thickBot="1">
       <c r="B93" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="162" t="s">
+      <c r="C93" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="163"/>
-    </row>
-    <row r="94" spans="2:6" ht="20">
-      <c r="B94" s="151" t="s">
+      <c r="D93" s="151"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="152"/>
+    </row>
+    <row r="94" spans="2:6" ht="20.25">
+      <c r="B94" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="152"/>
-      <c r="D94" s="152"/>
-      <c r="E94" s="152"/>
-      <c r="F94" s="153"/>
-    </row>
-    <row r="95" spans="2:6" ht="18">
-      <c r="B95" s="148" t="s">
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="160"/>
+    </row>
+    <row r="95" spans="2:6" ht="17.25">
+      <c r="B95" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="149" t="s">
+      <c r="C95" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="149" t="s">
+      <c r="D95" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="149"/>
-      <c r="F95" s="150"/>
-    </row>
-    <row r="96" spans="2:6" ht="18">
-      <c r="B96" s="148"/>
-      <c r="C96" s="149"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="162"/>
+    </row>
+    <row r="96" spans="2:6" ht="17.25">
+      <c r="B96" s="161"/>
+      <c r="C96" s="150"/>
       <c r="D96" s="33" t="s">
         <v>184</v>
       </c>
@@ -8313,23 +8406,23 @@
       <c r="E99" s="43"/>
       <c r="F99" s="44"/>
     </row>
-    <row r="100" spans="2:6" ht="18" thickBot="1">
+    <row r="100" spans="2:6" ht="17.25" thickBot="1">
       <c r="B100" s="27"/>
       <c r="C100" s="28"/>
       <c r="D100" s="21"/>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="2:6" ht="20">
-      <c r="B101" s="151" t="s">
+    <row r="101" spans="2:6" ht="20.25">
+      <c r="B101" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="152"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="153"/>
-    </row>
-    <row r="102" spans="2:6" ht="18">
+      <c r="C101" s="159"/>
+      <c r="D101" s="159"/>
+      <c r="E101" s="159"/>
+      <c r="F101" s="160"/>
+    </row>
+    <row r="102" spans="2:6" ht="17.25">
       <c r="B102" s="32" t="s">
         <v>186</v>
       </c>
@@ -8356,23 +8449,23 @@
       <c r="E104" s="21"/>
       <c r="F104" s="26"/>
     </row>
-    <row r="105" spans="2:6" ht="18" thickBot="1">
+    <row r="105" spans="2:6" ht="17.25" thickBot="1">
       <c r="B105" s="27"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="2:6" ht="23">
-      <c r="B106" s="154" t="s">
+    <row r="106" spans="2:6" ht="26.25">
+      <c r="B106" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="156"/>
-    </row>
-    <row r="107" spans="2:6" ht="18">
+      <c r="C106" s="164"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="164"/>
+      <c r="F106" s="165"/>
+    </row>
+    <row r="107" spans="2:6" ht="17.25">
       <c r="B107" s="32" t="s">
         <v>176</v>
       </c>
@@ -8469,7 +8562,7 @@
       <c r="E119" s="21"/>
       <c r="F119" s="26"/>
     </row>
-    <row r="120" spans="2:6" ht="18" thickBot="1">
+    <row r="120" spans="2:6" ht="17.25" thickBot="1">
       <c r="B120" s="27"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -8478,30 +8571,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B94:F94"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -8518,6 +8587,30 @@
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="C60:F60"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8526,7 +8619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
@@ -8534,34 +8627,34 @@
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
     <col min="4" max="4" width="13" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="104.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="174" t="s">
+    <row r="2" spans="3:11" ht="33.75">
+      <c r="C2" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
-    </row>
-    <row r="3" spans="3:11" ht="20">
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
+    </row>
+    <row r="3" spans="3:11" ht="20.25">
       <c r="C3" s="53" t="s">
         <v>65</v>
       </c>
@@ -8591,10 +8684,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="172" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="21"/>
@@ -8612,8 +8705,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="170"/>
-      <c r="D5" s="168"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -8629,8 +8722,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="170"/>
-      <c r="D6" s="168"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="172"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -8646,8 +8739,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="170"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -8663,8 +8756,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="170"/>
-      <c r="D8" s="168"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="172"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -8680,8 +8773,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="170"/>
-      <c r="D9" s="168"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -8697,8 +8790,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="170"/>
-      <c r="D10" s="168" t="s">
+      <c r="C10" s="174"/>
+      <c r="D10" s="172" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="21"/>
@@ -8716,8 +8809,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="170"/>
-      <c r="D11" s="168"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -8732,9 +8825,9 @@
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="171"/>
-      <c r="D12" s="168" t="s">
+    <row r="12" spans="3:11" ht="16.7" customHeight="1">
+      <c r="C12" s="175"/>
+      <c r="D12" s="172" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="21"/>
@@ -8752,8 +8845,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="171"/>
-      <c r="D13" s="177"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -8769,8 +8862,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="171"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -8786,8 +8879,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="171"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="172" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="21"/>
@@ -8805,8 +8898,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="171"/>
-      <c r="D16" s="177"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="181"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -8822,8 +8915,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="171"/>
-      <c r="D17" s="168"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -8839,8 +8932,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="171"/>
-      <c r="D18" s="168"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="172"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -8856,8 +8949,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="171"/>
-      <c r="D19" s="168"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -8873,8 +8966,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="171"/>
-      <c r="D20" s="168"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="172"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -8890,8 +8983,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="171"/>
-      <c r="D21" s="168"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="172"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -8907,8 +9000,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="171"/>
-      <c r="D22" s="168"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="172"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -8924,8 +9017,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="171"/>
-      <c r="D23" s="168"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -8941,8 +9034,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="171"/>
-      <c r="D24" s="168"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -8958,8 +9051,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="171"/>
-      <c r="D25" s="168" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="172" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="21"/>
@@ -8977,8 +9070,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="171"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="172"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -8994,8 +9087,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="171"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -9011,8 +9104,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="172"/>
-      <c r="D28" s="168"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="172"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -9028,8 +9121,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="172"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="172"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -9045,8 +9138,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="172"/>
-      <c r="D30" s="168"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -9062,8 +9155,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="172"/>
-      <c r="D31" s="168"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="172"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -9079,8 +9172,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="172"/>
-      <c r="D32" s="168"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="172"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -9096,8 +9189,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="172"/>
-      <c r="D33" s="168"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="172"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -9113,8 +9206,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="172"/>
-      <c r="D34" s="168"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="172"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -9130,8 +9223,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="172"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="172"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -9147,8 +9240,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="172"/>
-      <c r="D36" s="168"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="172"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -9164,8 +9257,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="172"/>
-      <c r="D37" s="168" t="s">
+      <c r="C37" s="176"/>
+      <c r="D37" s="172" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="21"/>
@@ -9183,8 +9276,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="172"/>
-      <c r="D38" s="168"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -9200,8 +9293,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="172"/>
-      <c r="D39" s="168"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -9217,8 +9310,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="172"/>
-      <c r="D40" s="168"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="172"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -9234,8 +9327,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="172"/>
-      <c r="D41" s="168"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="172"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -9251,8 +9344,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="172"/>
-      <c r="D42" s="168"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="172"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -9268,8 +9361,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="172"/>
-      <c r="D43" s="168"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="172"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -9285,8 +9378,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="172"/>
-      <c r="D44" s="168"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="172"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -9302,8 +9395,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="172"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="172"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -9319,8 +9412,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="173"/>
-      <c r="D46" s="168"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="172"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -9353,7 +9446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:BA153"/>
   <sheetViews>
@@ -9361,75 +9454,75 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="2:53" ht="39" thickBot="1">
+      <c r="B1" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="181"/>
-      <c r="N1" s="178" t="s">
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="N1" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-    </row>
-    <row r="2" spans="2:53" ht="31" thickBot="1">
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="182"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="182"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="182"/>
+      <c r="AL1" s="182"/>
+      <c r="AM1" s="182"/>
+      <c r="AN1" s="182"/>
+      <c r="AO1" s="182"/>
+      <c r="AP1" s="182"/>
+      <c r="AQ1" s="182"/>
+      <c r="AR1" s="182"/>
+      <c r="AS1" s="182"/>
+      <c r="AT1" s="182"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182"/>
+      <c r="BA1" s="182"/>
+    </row>
+    <row r="2" spans="2:53" ht="32.25" thickBot="1">
       <c r="B2" s="55" t="s">
         <v>216</v>
       </c>
@@ -9446,7 +9539,7 @@
       <c r="K2" s="57"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="2:53" ht="31" thickBot="1">
+    <row r="3" spans="2:53" ht="32.25" thickBot="1">
       <c r="B3" s="59" t="s">
         <v>218</v>
       </c>
@@ -9481,7 +9574,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:53" ht="23">
+    <row r="4" spans="2:53" ht="26.25">
       <c r="B4" s="62" t="s">
         <v>229</v>
       </c>
@@ -9504,7 +9597,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:53" ht="23">
+    <row r="5" spans="2:53" ht="26.25">
       <c r="B5" s="65" t="s">
         <v>234</v>
       </c>
@@ -9525,7 +9618,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="2:53" ht="23">
+    <row r="6" spans="2:53" ht="26.25">
       <c r="B6" s="65" t="s">
         <v>237</v>
       </c>
@@ -9546,7 +9639,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="2:53" ht="23">
+    <row r="7" spans="2:53" ht="26.25">
       <c r="B7" s="65" t="s">
         <v>239</v>
       </c>
@@ -9567,7 +9660,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="23">
+    <row r="8" spans="2:53" ht="26.25">
       <c r="B8" s="65" t="s">
         <v>241</v>
       </c>
@@ -9588,7 +9681,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="2:53" ht="23">
+    <row r="9" spans="2:53" ht="26.25">
       <c r="B9" s="65" t="s">
         <v>244</v>
       </c>
@@ -9609,7 +9702,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="2:53" ht="23">
+    <row r="10" spans="2:53" ht="26.25">
       <c r="B10" s="65" t="s">
         <v>246</v>
       </c>
@@ -9630,7 +9723,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="2:53" ht="23">
+    <row r="11" spans="2:53" ht="26.25">
       <c r="B11" s="65" t="s">
         <v>248</v>
       </c>
@@ -9651,7 +9744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:53" ht="23">
+    <row r="12" spans="2:53" ht="26.25">
       <c r="B12" s="65" t="s">
         <v>251</v>
       </c>
@@ -9672,7 +9765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:53" ht="24" thickBot="1">
+    <row r="13" spans="2:53" ht="27" thickBot="1">
       <c r="B13" s="68" t="s">
         <v>253</v>
       </c>
@@ -9693,7 +9786,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:53" ht="23">
+    <row r="14" spans="2:53" ht="26.25">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -9706,7 +9799,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="2:53" ht="23">
+    <row r="15" spans="2:53" ht="26.25">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -9719,7 +9812,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="2:53" ht="24" thickBot="1">
+    <row r="16" spans="2:53" ht="27" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -9732,7 +9825,7 @@
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="2:12" ht="31" thickBot="1">
+    <row r="17" spans="2:12" ht="32.25" thickBot="1">
       <c r="B17" s="55" t="s">
         <v>216</v>
       </c>
@@ -9749,7 +9842,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="31" thickBot="1">
+    <row r="18" spans="2:12" ht="32.25" thickBot="1">
       <c r="B18" s="59" t="s">
         <v>218</v>
       </c>
@@ -9784,7 +9877,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="23">
+    <row r="19" spans="2:12" ht="26.25">
       <c r="B19" s="62" t="s">
         <v>229</v>
       </c>
@@ -9807,7 +9900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="23">
+    <row r="20" spans="2:12" ht="26.25">
       <c r="B20" s="65" t="s">
         <v>258</v>
       </c>
@@ -9830,7 +9923,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="23">
+    <row r="21" spans="2:12" ht="26.25">
       <c r="B21" s="65" t="s">
         <v>262</v>
       </c>
@@ -9853,7 +9946,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="23">
+    <row r="22" spans="2:12" ht="26.25">
       <c r="B22" s="65" t="s">
         <v>264</v>
       </c>
@@ -9874,7 +9967,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="23">
+    <row r="23" spans="2:12" ht="26.25">
       <c r="B23" s="65" t="s">
         <v>266</v>
       </c>
@@ -9895,7 +9988,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="23">
+    <row r="24" spans="2:12" ht="26.25">
       <c r="B24" s="65" t="s">
         <v>269</v>
       </c>
@@ -9916,7 +10009,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="23">
+    <row r="25" spans="2:12" ht="26.25">
       <c r="B25" s="65" t="s">
         <v>272</v>
       </c>
@@ -9937,7 +10030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="24" thickBot="1">
+    <row r="26" spans="2:12" ht="27" thickBot="1">
       <c r="B26" s="68" t="s">
         <v>275</v>
       </c>
@@ -9958,7 +10051,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="23">
+    <row r="27" spans="2:12" ht="26.25">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -9971,7 +10064,7 @@
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="2:12" ht="23">
+    <row r="28" spans="2:12" ht="26.25">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -9984,7 +10077,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="2:12" ht="36" thickBot="1">
+    <row r="29" spans="2:12" ht="39" thickBot="1">
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -9997,7 +10090,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
     </row>
-    <row r="30" spans="2:12" ht="31" thickBot="1">
+    <row r="30" spans="2:12" ht="32.25" thickBot="1">
       <c r="B30" s="55" t="s">
         <v>216</v>
       </c>
@@ -10014,7 +10107,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="58"/>
     </row>
-    <row r="31" spans="2:12" ht="31" thickBot="1">
+    <row r="31" spans="2:12" ht="32.25" thickBot="1">
       <c r="B31" s="59" t="s">
         <v>218</v>
       </c>
@@ -10049,7 +10142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="23">
+    <row r="32" spans="2:12" ht="26.25">
       <c r="B32" s="74" t="s">
         <v>229</v>
       </c>
@@ -10072,7 +10165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="23">
+    <row r="33" spans="2:12" ht="26.25">
       <c r="B33" s="77" t="s">
         <v>278</v>
       </c>
@@ -10095,7 +10188,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="23">
+    <row r="34" spans="2:12" ht="26.25">
       <c r="B34" s="77" t="s">
         <v>262</v>
       </c>
@@ -10118,7 +10211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="23">
+    <row r="35" spans="2:12" ht="26.25">
       <c r="B35" s="65" t="s">
         <v>280</v>
       </c>
@@ -10141,7 +10234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="23">
+    <row r="36" spans="2:12" ht="26.25">
       <c r="B36" s="65" t="s">
         <v>272</v>
       </c>
@@ -10162,7 +10255,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="23">
+    <row r="37" spans="2:12" ht="26.25">
       <c r="B37" s="65" t="s">
         <v>266</v>
       </c>
@@ -10183,7 +10276,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="24" thickBot="1">
+    <row r="38" spans="2:12" ht="27" thickBot="1">
       <c r="B38" s="68" t="s">
         <v>275</v>
       </c>
@@ -10204,7 +10297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="23">
+    <row r="39" spans="2:12" ht="26.25">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -10217,7 +10310,7 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
     </row>
-    <row r="40" spans="2:12" ht="35">
+    <row r="40" spans="2:12" ht="38.25">
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -10230,7 +10323,7 @@
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
     </row>
-    <row r="41" spans="2:12" ht="36" thickBot="1">
+    <row r="41" spans="2:12" ht="39" thickBot="1">
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -10243,7 +10336,7 @@
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
     </row>
-    <row r="42" spans="2:12" ht="31" thickBot="1">
+    <row r="42" spans="2:12" ht="32.25" thickBot="1">
       <c r="B42" s="55" t="s">
         <v>216</v>
       </c>
@@ -10260,7 +10353,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="58"/>
     </row>
-    <row r="43" spans="2:12" ht="31" thickBot="1">
+    <row r="43" spans="2:12" ht="32.25" thickBot="1">
       <c r="B43" s="59" t="s">
         <v>218</v>
       </c>
@@ -10295,7 +10388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="23">
+    <row r="44" spans="2:12" ht="26.25">
       <c r="B44" s="74" t="s">
         <v>229</v>
       </c>
@@ -10318,7 +10411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="23">
+    <row r="45" spans="2:12" ht="26.25">
       <c r="B45" s="65" t="s">
         <v>278</v>
       </c>
@@ -10341,7 +10434,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="23">
+    <row r="46" spans="2:12" ht="26.25">
       <c r="B46" s="65" t="s">
         <v>237</v>
       </c>
@@ -10362,7 +10455,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="23">
+    <row r="47" spans="2:12" ht="26.25">
       <c r="B47" s="65" t="s">
         <v>284</v>
       </c>
@@ -10383,7 +10476,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="23">
+    <row r="48" spans="2:12" ht="26.25">
       <c r="B48" s="65" t="s">
         <v>286</v>
       </c>
@@ -10404,7 +10497,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="23">
+    <row r="49" spans="2:12" ht="26.25">
       <c r="B49" s="65" t="s">
         <v>288</v>
       </c>
@@ -10425,7 +10518,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="24" thickBot="1">
+    <row r="50" spans="2:12" ht="27" thickBot="1">
       <c r="B50" s="68" t="s">
         <v>291</v>
       </c>
@@ -10446,7 +10539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="35">
+    <row r="51" spans="2:12" ht="38.25">
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -10459,7 +10552,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
     </row>
-    <row r="52" spans="2:12" ht="35">
+    <row r="52" spans="2:12" ht="38.25">
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -10472,7 +10565,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
     </row>
-    <row r="53" spans="2:12" ht="36" thickBot="1">
+    <row r="53" spans="2:12" ht="39" thickBot="1">
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -10485,7 +10578,7 @@
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
     </row>
-    <row r="54" spans="2:12" ht="31" thickBot="1">
+    <row r="54" spans="2:12" ht="32.25" thickBot="1">
       <c r="B54" s="55" t="s">
         <v>216</v>
       </c>
@@ -10502,7 +10595,7 @@
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
     </row>
-    <row r="55" spans="2:12" ht="31" thickBot="1">
+    <row r="55" spans="2:12" ht="32.25" thickBot="1">
       <c r="B55" s="59" t="s">
         <v>218</v>
       </c>
@@ -10537,7 +10630,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="23">
+    <row r="56" spans="2:12" ht="26.25">
       <c r="B56" s="74" t="s">
         <v>229</v>
       </c>
@@ -10560,7 +10653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="23">
+    <row r="57" spans="2:12" ht="26.25">
       <c r="B57" s="65" t="s">
         <v>294</v>
       </c>
@@ -10583,7 +10676,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="23">
+    <row r="58" spans="2:12" ht="26.25">
       <c r="B58" s="65" t="s">
         <v>237</v>
       </c>
@@ -10604,7 +10697,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="23">
+    <row r="59" spans="2:12" ht="26.25">
       <c r="B59" s="65" t="s">
         <v>284</v>
       </c>
@@ -10625,7 +10718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="23">
+    <row r="60" spans="2:12" ht="26.25">
       <c r="B60" s="65" t="s">
         <v>286</v>
       </c>
@@ -10646,7 +10739,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="23">
+    <row r="61" spans="2:12" ht="26.25">
       <c r="B61" s="65" t="s">
         <v>288</v>
       </c>
@@ -10667,7 +10760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="24" thickBot="1">
+    <row r="62" spans="2:12" ht="27" thickBot="1">
       <c r="B62" s="68" t="s">
         <v>291</v>
       </c>
@@ -10688,7 +10781,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="35">
+    <row r="63" spans="2:12" ht="38.25">
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
@@ -10701,7 +10794,7 @@
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
     </row>
-    <row r="64" spans="2:12" ht="35">
+    <row r="64" spans="2:12" ht="38.25">
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
@@ -10714,7 +10807,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
     </row>
-    <row r="65" spans="2:12" ht="36" thickBot="1">
+    <row r="65" spans="2:12" ht="39" thickBot="1">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
@@ -10727,7 +10820,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
     </row>
-    <row r="66" spans="2:12" ht="31" thickBot="1">
+    <row r="66" spans="2:12" ht="32.25" thickBot="1">
       <c r="B66" s="55" t="s">
         <v>216</v>
       </c>
@@ -10744,7 +10837,7 @@
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
     </row>
-    <row r="67" spans="2:12" ht="31" thickBot="1">
+    <row r="67" spans="2:12" ht="32.25" thickBot="1">
       <c r="B67" s="59" t="s">
         <v>218</v>
       </c>
@@ -10779,7 +10872,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="23">
+    <row r="68" spans="2:12" ht="26.25">
       <c r="B68" s="74" t="s">
         <v>264</v>
       </c>
@@ -10802,7 +10895,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="23">
+    <row r="69" spans="2:12" ht="26.25">
       <c r="B69" s="65" t="s">
         <v>410</v>
       </c>
@@ -10825,7 +10918,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="23">
+    <row r="70" spans="2:12" ht="26.25">
       <c r="B70" s="65" t="s">
         <v>299</v>
       </c>
@@ -10848,7 +10941,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="24" thickBot="1">
+    <row r="71" spans="2:12" ht="27" thickBot="1">
       <c r="B71" s="68" t="s">
         <v>301</v>
       </c>
@@ -10869,7 +10962,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="23">
+    <row r="72" spans="2:12" ht="26.25">
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
@@ -10882,7 +10975,7 @@
       <c r="K72" s="71"/>
       <c r="L72" s="71"/>
     </row>
-    <row r="73" spans="2:12" ht="23">
+    <row r="73" spans="2:12" ht="26.25">
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
@@ -10895,7 +10988,7 @@
       <c r="K73" s="71"/>
       <c r="L73" s="71"/>
     </row>
-    <row r="74" spans="2:12" ht="24" thickBot="1">
+    <row r="74" spans="2:12" ht="27" thickBot="1">
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
@@ -10908,7 +11001,7 @@
       <c r="K74" s="71"/>
       <c r="L74" s="71"/>
     </row>
-    <row r="75" spans="2:12" ht="31" thickBot="1">
+    <row r="75" spans="2:12" ht="32.25" thickBot="1">
       <c r="B75" s="55" t="s">
         <v>216</v>
       </c>
@@ -10925,7 +11018,7 @@
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
     </row>
-    <row r="76" spans="2:12" ht="31" thickBot="1">
+    <row r="76" spans="2:12" ht="32.25" thickBot="1">
       <c r="B76" s="59" t="s">
         <v>218</v>
       </c>
@@ -10960,7 +11053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="23">
+    <row r="77" spans="2:12" ht="26.25">
       <c r="B77" s="74" t="s">
         <v>229</v>
       </c>
@@ -10983,7 +11076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="23">
+    <row r="78" spans="2:12" ht="26.25">
       <c r="B78" s="65" t="s">
         <v>411</v>
       </c>
@@ -11006,7 +11099,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="23">
+    <row r="79" spans="2:12" ht="26.25">
       <c r="B79" s="65" t="s">
         <v>264</v>
       </c>
@@ -11027,7 +11120,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="24" thickBot="1">
+    <row r="80" spans="2:12" ht="27" thickBot="1">
       <c r="B80" s="68" t="s">
         <v>266</v>
       </c>
@@ -11048,7 +11141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="35">
+    <row r="81" spans="2:12" ht="38.25">
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -11061,7 +11154,7 @@
       <c r="K81" s="72"/>
       <c r="L81" s="72"/>
     </row>
-    <row r="82" spans="2:12" ht="35">
+    <row r="82" spans="2:12" ht="38.25">
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
@@ -11074,7 +11167,7 @@
       <c r="K82" s="72"/>
       <c r="L82" s="72"/>
     </row>
-    <row r="83" spans="2:12" ht="36" thickBot="1">
+    <row r="83" spans="2:12" ht="39" thickBot="1">
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
@@ -11087,7 +11180,7 @@
       <c r="K83" s="72"/>
       <c r="L83" s="72"/>
     </row>
-    <row r="84" spans="2:12" ht="31" thickBot="1">
+    <row r="84" spans="2:12" ht="32.25" thickBot="1">
       <c r="B84" s="55" t="s">
         <v>216</v>
       </c>
@@ -11104,7 +11197,7 @@
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
     </row>
-    <row r="85" spans="2:12" ht="31" thickBot="1">
+    <row r="85" spans="2:12" ht="32.25" thickBot="1">
       <c r="B85" s="59" t="s">
         <v>218</v>
       </c>
@@ -11139,7 +11232,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="23">
+    <row r="86" spans="2:12" ht="26.25">
       <c r="B86" s="74" t="s">
         <v>229</v>
       </c>
@@ -11162,7 +11255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="23">
+    <row r="87" spans="2:12" ht="26.25">
       <c r="B87" s="65" t="s">
         <v>262</v>
       </c>
@@ -11185,7 +11278,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="23">
+    <row r="88" spans="2:12" ht="26.25">
       <c r="B88" s="65" t="s">
         <v>305</v>
       </c>
@@ -11208,7 +11301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="24" thickBot="1">
+    <row r="89" spans="2:12" ht="27" thickBot="1">
       <c r="B89" s="68" t="s">
         <v>307</v>
       </c>
@@ -11229,7 +11322,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="35">
+    <row r="90" spans="2:12" ht="38.25">
       <c r="B90" s="72"/>
       <c r="C90" s="72"/>
       <c r="D90" s="72"/>
@@ -11242,7 +11335,7 @@
       <c r="K90" s="72"/>
       <c r="L90" s="72"/>
     </row>
-    <row r="91" spans="2:12" ht="35">
+    <row r="91" spans="2:12" ht="38.25">
       <c r="B91" s="72"/>
       <c r="C91" s="72"/>
       <c r="D91" s="72"/>
@@ -11255,7 +11348,7 @@
       <c r="K91" s="72"/>
       <c r="L91" s="72"/>
     </row>
-    <row r="92" spans="2:12" ht="36" thickBot="1">
+    <row r="92" spans="2:12" ht="39" thickBot="1">
       <c r="B92" s="72"/>
       <c r="C92" s="72"/>
       <c r="D92" s="72"/>
@@ -11268,7 +11361,7 @@
       <c r="K92" s="72"/>
       <c r="L92" s="72"/>
     </row>
-    <row r="93" spans="2:12" ht="31" thickBot="1">
+    <row r="93" spans="2:12" ht="32.25" thickBot="1">
       <c r="B93" s="55" t="s">
         <v>216</v>
       </c>
@@ -11285,7 +11378,7 @@
       <c r="K93" s="57"/>
       <c r="L93" s="58"/>
     </row>
-    <row r="94" spans="2:12" ht="31" thickBot="1">
+    <row r="94" spans="2:12" ht="32.25" thickBot="1">
       <c r="B94" s="59" t="s">
         <v>218</v>
       </c>
@@ -11320,7 +11413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="23">
+    <row r="95" spans="2:12" ht="26.25">
       <c r="B95" s="74" t="s">
         <v>262</v>
       </c>
@@ -11343,7 +11436,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="23">
+    <row r="96" spans="2:12" ht="26.25">
       <c r="B96" s="65" t="s">
         <v>278</v>
       </c>
@@ -11366,7 +11459,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="24" thickBot="1">
+    <row r="97" spans="2:12" ht="27" thickBot="1">
       <c r="B97" s="68" t="s">
         <v>310</v>
       </c>
@@ -11385,7 +11478,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="23">
+    <row r="98" spans="2:12" ht="26.25">
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
@@ -11398,7 +11491,7 @@
       <c r="K98" s="71"/>
       <c r="L98" s="71"/>
     </row>
-    <row r="99" spans="2:12" ht="35">
+    <row r="99" spans="2:12" ht="38.25">
       <c r="B99" s="72"/>
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
@@ -11411,7 +11504,7 @@
       <c r="K99" s="72"/>
       <c r="L99" s="72"/>
     </row>
-    <row r="100" spans="2:12" ht="36" thickBot="1">
+    <row r="100" spans="2:12" ht="39" thickBot="1">
       <c r="B100" s="72"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -11424,7 +11517,7 @@
       <c r="K100" s="72"/>
       <c r="L100" s="72"/>
     </row>
-    <row r="101" spans="2:12" ht="31" thickBot="1">
+    <row r="101" spans="2:12" ht="32.25" thickBot="1">
       <c r="B101" s="55" t="s">
         <v>216</v>
       </c>
@@ -11441,7 +11534,7 @@
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
     </row>
-    <row r="102" spans="2:12" ht="31" thickBot="1">
+    <row r="102" spans="2:12" ht="32.25" thickBot="1">
       <c r="B102" s="59" t="s">
         <v>218</v>
       </c>
@@ -11476,7 +11569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="23">
+    <row r="103" spans="2:12" ht="26.25">
       <c r="B103" s="74" t="s">
         <v>313</v>
       </c>
@@ -11499,7 +11592,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="24" thickBot="1">
+    <row r="104" spans="2:12" ht="27" thickBot="1">
       <c r="B104" s="68" t="s">
         <v>237</v>
       </c>
@@ -11520,7 +11613,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="23">
+    <row r="105" spans="2:12" ht="26.25">
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
@@ -11533,8 +11626,8 @@
       <c r="K105" s="71"/>
       <c r="L105" s="71"/>
     </row>
-    <row r="107" spans="2:12" ht="18" thickBot="1"/>
-    <row r="108" spans="2:12" ht="31" thickBot="1">
+    <row r="107" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="108" spans="2:12" ht="32.25" thickBot="1">
       <c r="B108" s="55" t="s">
         <v>216</v>
       </c>
@@ -11551,7 +11644,7 @@
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
     </row>
-    <row r="109" spans="2:12" ht="31" thickBot="1">
+    <row r="109" spans="2:12" ht="32.25" thickBot="1">
       <c r="B109" s="59" t="s">
         <v>218</v>
       </c>
@@ -11586,7 +11679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="23">
+    <row r="110" spans="2:12" ht="26.25">
       <c r="B110" s="74" t="s">
         <v>313</v>
       </c>
@@ -11609,7 +11702,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="24" thickBot="1">
+    <row r="111" spans="2:12" ht="27" thickBot="1">
       <c r="B111" s="68" t="s">
         <v>237</v>
       </c>
@@ -11630,8 +11723,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="18" thickBot="1"/>
-    <row r="115" spans="2:12" ht="31" thickBot="1">
+    <row r="114" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:12" ht="32.25" thickBot="1">
       <c r="B115" s="55" t="s">
         <v>216</v>
       </c>
@@ -11648,7 +11741,7 @@
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
     </row>
-    <row r="116" spans="2:12" ht="31" thickBot="1">
+    <row r="116" spans="2:12" ht="32.25" thickBot="1">
       <c r="B116" s="59" t="s">
         <v>218</v>
       </c>
@@ -11683,7 +11776,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="23">
+    <row r="117" spans="2:12" ht="26.25">
       <c r="B117" s="74" t="s">
         <v>262</v>
       </c>
@@ -11706,7 +11799,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="24" thickBot="1">
+    <row r="118" spans="2:12" ht="27" thickBot="1">
       <c r="B118" s="68" t="s">
         <v>410</v>
       </c>
@@ -11729,8 +11822,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="18" thickBot="1"/>
-    <row r="122" spans="2:12" ht="31" thickBot="1">
+    <row r="121" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:12" ht="32.25" thickBot="1">
       <c r="B122" s="55" t="s">
         <v>216</v>
       </c>
@@ -11747,7 +11840,7 @@
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
     </row>
-    <row r="123" spans="2:12" ht="31" thickBot="1">
+    <row r="123" spans="2:12" ht="32.25" thickBot="1">
       <c r="B123" s="59" t="s">
         <v>218</v>
       </c>
@@ -11782,7 +11875,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="24" thickBot="1">
+    <row r="124" spans="2:12" ht="27" thickBot="1">
       <c r="B124" s="81" t="s">
         <v>229</v>
       </c>
@@ -11805,7 +11898,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="23">
+    <row r="125" spans="2:12" ht="26.25">
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
@@ -11818,8 +11911,8 @@
       <c r="K125" s="71"/>
       <c r="L125" s="71"/>
     </row>
-    <row r="127" spans="2:12" ht="18" thickBot="1"/>
-    <row r="128" spans="2:12" ht="31" thickBot="1">
+    <row r="127" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="128" spans="2:12" ht="32.25" thickBot="1">
       <c r="B128" s="55" t="s">
         <v>216</v>
       </c>
@@ -11836,7 +11929,7 @@
       <c r="K128" s="57"/>
       <c r="L128" s="58"/>
     </row>
-    <row r="129" spans="2:12" ht="31" thickBot="1">
+    <row r="129" spans="2:12" ht="32.25" thickBot="1">
       <c r="B129" s="59" t="s">
         <v>218</v>
       </c>
@@ -11871,7 +11964,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="23">
+    <row r="130" spans="2:12" ht="26.25">
       <c r="B130" s="74" t="s">
         <v>262</v>
       </c>
@@ -11894,7 +11987,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="23">
+    <row r="131" spans="2:12" ht="26.25">
       <c r="B131" s="77" t="s">
         <v>403</v>
       </c>
@@ -11915,7 +12008,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="24" thickBot="1">
+    <row r="132" spans="2:12" ht="27" thickBot="1">
       <c r="B132" s="110" t="s">
         <v>389</v>
       </c>
@@ -11936,7 +12029,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="23">
+    <row r="133" spans="2:12" ht="26.25">
       <c r="B133" s="71"/>
       <c r="C133" s="71"/>
       <c r="D133" s="71"/>
@@ -11949,8 +12042,8 @@
       <c r="K133" s="71"/>
       <c r="L133" s="71"/>
     </row>
-    <row r="135" spans="2:12" ht="18" thickBot="1"/>
-    <row r="136" spans="2:12" ht="31" thickBot="1">
+    <row r="135" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="136" spans="2:12" ht="32.25" thickBot="1">
       <c r="B136" s="55" t="s">
         <v>216</v>
       </c>
@@ -11967,7 +12060,7 @@
       <c r="K136" s="57"/>
       <c r="L136" s="58"/>
     </row>
-    <row r="137" spans="2:12" ht="31" thickBot="1">
+    <row r="137" spans="2:12" ht="32.25" thickBot="1">
       <c r="B137" s="59" t="s">
         <v>218</v>
       </c>
@@ -12002,7 +12095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="23">
+    <row r="138" spans="2:12" ht="26.25">
       <c r="B138" s="74" t="s">
         <v>393</v>
       </c>
@@ -12025,7 +12118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="24" thickBot="1">
+    <row r="139" spans="2:12" ht="27" thickBot="1">
       <c r="B139" s="115" t="s">
         <v>395</v>
       </c>
@@ -12048,7 +12141,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="23">
+    <row r="140" spans="2:12" ht="26.25">
       <c r="B140" s="71"/>
       <c r="C140" s="71"/>
       <c r="D140" s="71"/>
@@ -12061,8 +12154,8 @@
       <c r="K140" s="71"/>
       <c r="L140" s="71"/>
     </row>
-    <row r="142" spans="2:12" ht="18" thickBot="1"/>
-    <row r="143" spans="2:12" ht="31" thickBot="1">
+    <row r="142" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="143" spans="2:12" ht="32.25" thickBot="1">
       <c r="B143" s="55" t="s">
         <v>216</v>
       </c>
@@ -12079,7 +12172,7 @@
       <c r="K143" s="57"/>
       <c r="L143" s="58"/>
     </row>
-    <row r="144" spans="2:12" ht="31" thickBot="1">
+    <row r="144" spans="2:12" ht="32.25" thickBot="1">
       <c r="B144" s="59" t="s">
         <v>218</v>
       </c>
@@ -12114,7 +12207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="23">
+    <row r="145" spans="2:12" ht="26.25">
       <c r="B145" s="74" t="s">
         <v>393</v>
       </c>
@@ -12137,7 +12230,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="24" thickBot="1">
+    <row r="146" spans="2:12" ht="27" thickBot="1">
       <c r="B146" s="115" t="s">
         <v>395</v>
       </c>
@@ -12160,8 +12253,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="18" thickBot="1"/>
-    <row r="150" spans="2:12" ht="31" thickBot="1">
+    <row r="149" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="150" spans="2:12" ht="32.25" thickBot="1">
       <c r="B150" s="55" t="s">
         <v>216</v>
       </c>
@@ -12178,7 +12271,7 @@
       <c r="K150" s="57"/>
       <c r="L150" s="58"/>
     </row>
-    <row r="151" spans="2:12" ht="31" thickBot="1">
+    <row r="151" spans="2:12" ht="32.25" thickBot="1">
       <c r="B151" s="59" t="s">
         <v>218</v>
       </c>
@@ -12213,7 +12306,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="23">
+    <row r="152" spans="2:12" ht="26.25">
       <c r="B152" s="74" t="s">
         <v>393</v>
       </c>
@@ -12236,7 +12329,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="24" thickBot="1">
+    <row r="153" spans="2:12" ht="27" thickBot="1">
       <c r="B153" s="115" t="s">
         <v>409</v>
       </c>
@@ -12272,7 +12365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J18"/>
   <sheetViews>
@@ -12280,31 +12373,31 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="182" t="s">
+    <row r="2" spans="2:10" ht="20.25">
+      <c r="B2" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -12391,18 +12484,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20">
-      <c r="B15" s="185" t="s">
+    <row r="15" spans="2:10" ht="20.25">
+      <c r="B15" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="191"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -12493,7 +12586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K29"/>
   <sheetViews>
@@ -12501,34 +12594,34 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="24.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="22" customWidth="1"/>
     <col min="10" max="10" width="23" style="22" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="190" t="s">
+    <row r="1" spans="2:11" ht="31.5">
+      <c r="B1" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-    </row>
-    <row r="2" spans="2:11" ht="27">
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+    </row>
+    <row r="2" spans="2:11" ht="26.25">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -12540,21 +12633,21 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="199" t="s">
+    <row r="3" spans="2:11" ht="31.5">
+      <c r="B3" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="191" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -12569,14 +12662,14 @@
       <c r="G4" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
-    </row>
-    <row r="5" spans="2:11" ht="23">
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="202"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.25">
       <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
@@ -12584,13 +12677,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="196"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -12698,19 +12791,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="23">
+    <row r="13" spans="2:11" ht="26.25">
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="189"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -12934,209 +13027,209 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="115.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="115.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.75" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="206" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="210"/>
-    </row>
-    <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="207"/>
+    </row>
+    <row r="3" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161"/>
-    </row>
-    <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="157"/>
+    </row>
+    <row r="4" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="203"/>
-    </row>
-    <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="210"/>
+    </row>
+    <row r="5" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="203"/>
-    </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="210"/>
+    </row>
+    <row r="6" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="203"/>
-    </row>
-    <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="210"/>
+    </row>
+    <row r="7" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="202" t="s">
+      <c r="C7" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="203"/>
-    </row>
-    <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="210"/>
+    </row>
+    <row r="8" spans="2:13" s="4" customFormat="1" ht="20.25">
       <c r="B8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="163"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="208"/>
-    </row>
-    <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="204" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="215"/>
+    </row>
+    <row r="11" spans="2:13" ht="26.25">
+      <c r="B11" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="211" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="204" t="s">
+      <c r="E11" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204" t="s">
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="204" t="s">
+      <c r="I11" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="204" t="s">
+      <c r="J11" s="211" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="204" t="s">
+      <c r="K11" s="211" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="204" t="s">
+      <c r="L11" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="204" t="s">
+      <c r="M11" s="211" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
+    <row r="12" spans="2:13" ht="26.25">
+      <c r="B12" s="211"/>
+      <c r="C12" s="211"/>
       <c r="D12" s="8" t="s">
         <v>159</v>
       </c>
@@ -13149,12 +13242,12 @@
       <c r="G12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -13192,27 +13285,49 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="6"/>
+    <row r="14" spans="2:13" ht="66">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="216" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="216" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="216" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" s="216" t="s">
+        <v>446</v>
+      </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="216" t="s">
+        <v>447</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="216" t="s">
+        <v>448</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="216" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="216" t="s">
+        <v>444</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="216" t="s">
+        <v>449</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -13221,12 +13336,20 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="216" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="216" t="s">
+        <v>445</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="216" t="s">
+        <v>450</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -13446,11 +13569,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -13463,6 +13581,11 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A4B066-9C08-834B-85BD-893668A8DAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE57988-87A4-4F41-90A9-1508FF6FF70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="3180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="3180" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -1657,7 +1657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1948,6 +1948,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3560,6 +3569,60 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="65" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3569,55 +3632,73 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3636,66 +3717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3749,6 +3770,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3789,6 +3819,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3812,37 +3851,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4218,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:CM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -4237,10 +4246,10 @@
       <c r="A3" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="156" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
@@ -4334,10 +4343,10 @@
       <c r="A4" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="155" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="83"/>
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
@@ -4431,10 +4440,10 @@
       <c r="A5" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
@@ -4528,10 +4537,10 @@
       <c r="A6" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="156" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="156"/>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -4625,10 +4634,10 @@
       <c r="A7" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="157">
+      <c r="B7" s="155">
         <v>45436</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
@@ -4722,8 +4731,8 @@
       <c r="A8" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
       <c r="F8" s="83"/>
@@ -4909,244 +4918,244 @@
       <c r="CM9" s="82"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="162" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="162" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="162" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="162" t="s">
         <v>353</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="162" t="s">
         <v>352</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="162" t="s">
         <v>351</v>
       </c>
       <c r="G10" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="H10" s="146" t="s">
+      <c r="H10" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="147"/>
-      <c r="AJ10" s="146" t="s">
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="161"/>
+      <c r="AJ10" s="160" t="s">
         <v>348</v>
       </c>
-      <c r="AK10" s="147"/>
-      <c r="AL10" s="147"/>
-      <c r="AM10" s="147"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
-      <c r="AT10" s="147"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="147"/>
-      <c r="AW10" s="147"/>
-      <c r="AX10" s="147"/>
-      <c r="AY10" s="147"/>
-      <c r="AZ10" s="147"/>
-      <c r="BA10" s="147"/>
-      <c r="BB10" s="147"/>
-      <c r="BC10" s="147"/>
-      <c r="BD10" s="147"/>
-      <c r="BE10" s="147"/>
-      <c r="BF10" s="147"/>
-      <c r="BG10" s="147"/>
-      <c r="BH10" s="147"/>
-      <c r="BI10" s="147"/>
-      <c r="BJ10" s="147"/>
-      <c r="BK10" s="147"/>
-      <c r="BL10" s="146" t="s">
+      <c r="AK10" s="161"/>
+      <c r="AL10" s="161"/>
+      <c r="AM10" s="161"/>
+      <c r="AN10" s="161"/>
+      <c r="AO10" s="161"/>
+      <c r="AP10" s="161"/>
+      <c r="AQ10" s="161"/>
+      <c r="AR10" s="161"/>
+      <c r="AS10" s="161"/>
+      <c r="AT10" s="161"/>
+      <c r="AU10" s="161"/>
+      <c r="AV10" s="161"/>
+      <c r="AW10" s="161"/>
+      <c r="AX10" s="161"/>
+      <c r="AY10" s="161"/>
+      <c r="AZ10" s="161"/>
+      <c r="BA10" s="161"/>
+      <c r="BB10" s="161"/>
+      <c r="BC10" s="161"/>
+      <c r="BD10" s="161"/>
+      <c r="BE10" s="161"/>
+      <c r="BF10" s="161"/>
+      <c r="BG10" s="161"/>
+      <c r="BH10" s="161"/>
+      <c r="BI10" s="161"/>
+      <c r="BJ10" s="161"/>
+      <c r="BK10" s="161"/>
+      <c r="BL10" s="160" t="s">
         <v>347</v>
       </c>
-      <c r="BM10" s="147"/>
-      <c r="BN10" s="147"/>
-      <c r="BO10" s="147"/>
-      <c r="BP10" s="147"/>
-      <c r="BQ10" s="147"/>
-      <c r="BR10" s="147"/>
-      <c r="BS10" s="147"/>
-      <c r="BT10" s="147"/>
-      <c r="BU10" s="147"/>
-      <c r="BV10" s="147"/>
-      <c r="BW10" s="147"/>
-      <c r="BX10" s="147"/>
-      <c r="BY10" s="147"/>
-      <c r="BZ10" s="147"/>
-      <c r="CA10" s="147"/>
-      <c r="CB10" s="147"/>
-      <c r="CC10" s="147"/>
-      <c r="CD10" s="147"/>
-      <c r="CE10" s="147"/>
-      <c r="CF10" s="147"/>
-      <c r="CG10" s="147"/>
-      <c r="CH10" s="147"/>
-      <c r="CI10" s="147"/>
-      <c r="CJ10" s="147"/>
-      <c r="CK10" s="147"/>
-      <c r="CL10" s="147"/>
-      <c r="CM10" s="147"/>
+      <c r="BM10" s="161"/>
+      <c r="BN10" s="161"/>
+      <c r="BO10" s="161"/>
+      <c r="BP10" s="161"/>
+      <c r="BQ10" s="161"/>
+      <c r="BR10" s="161"/>
+      <c r="BS10" s="161"/>
+      <c r="BT10" s="161"/>
+      <c r="BU10" s="161"/>
+      <c r="BV10" s="161"/>
+      <c r="BW10" s="161"/>
+      <c r="BX10" s="161"/>
+      <c r="BY10" s="161"/>
+      <c r="BZ10" s="161"/>
+      <c r="CA10" s="161"/>
+      <c r="CB10" s="161"/>
+      <c r="CC10" s="161"/>
+      <c r="CD10" s="161"/>
+      <c r="CE10" s="161"/>
+      <c r="CF10" s="161"/>
+      <c r="CG10" s="161"/>
+      <c r="CH10" s="161"/>
+      <c r="CI10" s="161"/>
+      <c r="CJ10" s="161"/>
+      <c r="CK10" s="161"/>
+      <c r="CL10" s="161"/>
+      <c r="CM10" s="161"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="142"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="H11" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="139" t="s">
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="139" t="s">
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="157" t="s">
         <v>343</v>
       </c>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="139" t="s">
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="158"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="157" t="s">
         <v>342</v>
       </c>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="140"/>
-      <c r="AH11" s="140"/>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="139" t="s">
+      <c r="AD11" s="158"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="159"/>
+      <c r="AJ11" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="140"/>
-      <c r="AO11" s="140"/>
-      <c r="AP11" s="141"/>
-      <c r="AQ11" s="139" t="s">
+      <c r="AK11" s="158"/>
+      <c r="AL11" s="158"/>
+      <c r="AM11" s="158"/>
+      <c r="AN11" s="158"/>
+      <c r="AO11" s="158"/>
+      <c r="AP11" s="159"/>
+      <c r="AQ11" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="AR11" s="140"/>
-      <c r="AS11" s="140"/>
-      <c r="AT11" s="140"/>
-      <c r="AU11" s="140"/>
-      <c r="AV11" s="140"/>
-      <c r="AW11" s="141"/>
-      <c r="AX11" s="139" t="s">
+      <c r="AR11" s="158"/>
+      <c r="AS11" s="158"/>
+      <c r="AT11" s="158"/>
+      <c r="AU11" s="158"/>
+      <c r="AV11" s="158"/>
+      <c r="AW11" s="159"/>
+      <c r="AX11" s="157" t="s">
         <v>343</v>
       </c>
-      <c r="AY11" s="140"/>
-      <c r="AZ11" s="140"/>
-      <c r="BA11" s="140"/>
-      <c r="BB11" s="140"/>
-      <c r="BC11" s="140"/>
-      <c r="BD11" s="141"/>
-      <c r="BE11" s="139" t="s">
+      <c r="AY11" s="158"/>
+      <c r="AZ11" s="158"/>
+      <c r="BA11" s="158"/>
+      <c r="BB11" s="158"/>
+      <c r="BC11" s="158"/>
+      <c r="BD11" s="159"/>
+      <c r="BE11" s="157" t="s">
         <v>342</v>
       </c>
-      <c r="BF11" s="140"/>
-      <c r="BG11" s="140"/>
-      <c r="BH11" s="140"/>
-      <c r="BI11" s="140"/>
-      <c r="BJ11" s="140"/>
-      <c r="BK11" s="141"/>
-      <c r="BL11" s="139" t="s">
+      <c r="BF11" s="158"/>
+      <c r="BG11" s="158"/>
+      <c r="BH11" s="158"/>
+      <c r="BI11" s="158"/>
+      <c r="BJ11" s="158"/>
+      <c r="BK11" s="159"/>
+      <c r="BL11" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="BM11" s="140"/>
-      <c r="BN11" s="140"/>
-      <c r="BO11" s="140"/>
-      <c r="BP11" s="140"/>
-      <c r="BQ11" s="140"/>
-      <c r="BR11" s="141"/>
-      <c r="BS11" s="139" t="s">
+      <c r="BM11" s="158"/>
+      <c r="BN11" s="158"/>
+      <c r="BO11" s="158"/>
+      <c r="BP11" s="158"/>
+      <c r="BQ11" s="158"/>
+      <c r="BR11" s="159"/>
+      <c r="BS11" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="BT11" s="140"/>
-      <c r="BU11" s="140"/>
-      <c r="BV11" s="140"/>
-      <c r="BW11" s="140"/>
-      <c r="BX11" s="140"/>
-      <c r="BY11" s="141"/>
-      <c r="BZ11" s="139" t="s">
+      <c r="BT11" s="158"/>
+      <c r="BU11" s="158"/>
+      <c r="BV11" s="158"/>
+      <c r="BW11" s="158"/>
+      <c r="BX11" s="158"/>
+      <c r="BY11" s="159"/>
+      <c r="BZ11" s="157" t="s">
         <v>343</v>
       </c>
-      <c r="CA11" s="140"/>
-      <c r="CB11" s="140"/>
-      <c r="CC11" s="140"/>
-      <c r="CD11" s="140"/>
-      <c r="CE11" s="140"/>
-      <c r="CF11" s="141"/>
-      <c r="CG11" s="139" t="s">
+      <c r="CA11" s="158"/>
+      <c r="CB11" s="158"/>
+      <c r="CC11" s="158"/>
+      <c r="CD11" s="158"/>
+      <c r="CE11" s="158"/>
+      <c r="CF11" s="159"/>
+      <c r="CG11" s="157" t="s">
         <v>342</v>
       </c>
-      <c r="CH11" s="140"/>
-      <c r="CI11" s="140"/>
-      <c r="CJ11" s="140"/>
-      <c r="CK11" s="140"/>
-      <c r="CL11" s="140"/>
-      <c r="CM11" s="141"/>
+      <c r="CH11" s="158"/>
+      <c r="CI11" s="158"/>
+      <c r="CJ11" s="158"/>
+      <c r="CK11" s="158"/>
+      <c r="CL11" s="158"/>
+      <c r="CM11" s="159"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="142"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
       <c r="G12" s="100" t="s">
         <v>341</v>
       </c>
@@ -5404,7 +5413,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="149" t="s">
         <v>333</v>
       </c>
       <c r="B13" s="87" t="s">
@@ -5511,8 +5520,8 @@
       <c r="CM13" s="86"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="144"/>
-      <c r="B14" s="143" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="149" t="s">
         <v>329</v>
       </c>
       <c r="C14" s="88" t="s">
@@ -5616,8 +5625,8 @@
       <c r="CM14" s="86"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="87" t="s">
         <v>327</v>
       </c>
@@ -5719,8 +5728,8 @@
       <c r="CM15" s="86"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="88" t="s">
         <v>326</v>
       </c>
@@ -5822,8 +5831,8 @@
       <c r="CM16" s="86"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="88" t="s">
         <v>324</v>
       </c>
@@ -5925,8 +5934,8 @@
       <c r="CM17" s="86"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="145"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="88" t="s">
         <v>322</v>
       </c>
@@ -6028,10 +6037,10 @@
       <c r="CM18" s="86"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="152" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="88" t="s">
@@ -6135,8 +6144,8 @@
       <c r="CM19" s="86"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="152"/>
-      <c r="B20" s="155"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="88" t="s">
         <v>317</v>
       </c>
@@ -6238,8 +6247,8 @@
       <c r="CM20" s="86"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="152"/>
-      <c r="B21" s="156"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="91" t="s">
         <v>314</v>
       </c>
@@ -6341,8 +6350,8 @@
       <c r="CM21" s="86"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="152"/>
-      <c r="B22" s="154" t="s">
+      <c r="A22" s="144"/>
+      <c r="B22" s="152" t="s">
         <v>311</v>
       </c>
       <c r="C22" s="88" t="s">
@@ -6446,8 +6455,8 @@
       <c r="CM22" s="86"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="152"/>
-      <c r="B23" s="155"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="88" t="s">
         <v>383</v>
       </c>
@@ -6545,8 +6554,8 @@
       <c r="CM23" s="86"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="152"/>
-      <c r="B24" s="156"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="88" t="s">
         <v>384</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="AZ24" s="86"/>
       <c r="BA24" s="86"/>
       <c r="BB24" s="86"/>
-      <c r="BC24" s="233"/>
+      <c r="BC24" s="86"/>
       <c r="BD24" s="86"/>
       <c r="BE24" s="86"/>
       <c r="BF24" s="86"/>
@@ -6644,7 +6653,7 @@
       <c r="CM24" s="86"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="153"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="113" t="s">
         <v>451</v>
       </c>
@@ -6704,7 +6713,7 @@
       <c r="AZ25" s="86"/>
       <c r="BA25" s="86"/>
       <c r="BB25" s="86"/>
-      <c r="BC25" s="233"/>
+      <c r="BC25" s="86"/>
       <c r="BD25" s="86"/>
       <c r="BE25" s="86"/>
       <c r="BF25" s="86"/>
@@ -6743,10 +6752,10 @@
       <c r="CM25" s="86"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="146" t="s">
         <v>307</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -6850,8 +6859,8 @@
       <c r="CM26" s="86"/>
     </row>
     <row r="27" spans="1:91">
-      <c r="A27" s="144"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="91" t="s">
         <v>365</v>
       </c>
@@ -6953,8 +6962,8 @@
       <c r="CM27" s="86"/>
     </row>
     <row r="28" spans="1:91">
-      <c r="A28" s="144"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="91" t="s">
         <v>366</v>
       </c>
@@ -7048,8 +7057,8 @@
       <c r="CM28" s="86"/>
     </row>
     <row r="29" spans="1:91">
-      <c r="A29" s="144"/>
-      <c r="B29" s="148" t="s">
+      <c r="A29" s="150"/>
+      <c r="B29" s="146" t="s">
         <v>304</v>
       </c>
       <c r="C29" s="91" t="s">
@@ -7145,8 +7154,8 @@
       <c r="CM29" s="86"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="144"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="91" t="s">
         <v>456</v>
       </c>
@@ -7240,8 +7249,8 @@
       <c r="CM30" s="86"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="144"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="88" t="s">
         <v>442</v>
       </c>
@@ -7335,8 +7344,8 @@
       <c r="CM31" s="86"/>
     </row>
     <row r="32" spans="1:91">
-      <c r="A32" s="144"/>
-      <c r="B32" s="149"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="88" t="s">
         <v>443</v>
       </c>
@@ -7430,8 +7439,8 @@
       <c r="CM32" s="86"/>
     </row>
     <row r="33" spans="1:91">
-      <c r="A33" s="144"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="88" t="s">
         <v>444</v>
       </c>
@@ -7525,8 +7534,8 @@
       <c r="CM33" s="86"/>
     </row>
     <row r="34" spans="1:91">
-      <c r="A34" s="144"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="88" t="s">
         <v>445</v>
       </c>
@@ -7622,8 +7631,8 @@
       <c r="CM34" s="86"/>
     </row>
     <row r="35" spans="1:91">
-      <c r="A35" s="144"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="88" t="s">
         <v>446</v>
       </c>
@@ -7719,8 +7728,8 @@
       <c r="CM35" s="86"/>
     </row>
     <row r="36" spans="1:91">
-      <c r="A36" s="144"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="88" t="s">
         <v>447</v>
       </c>
@@ -7814,8 +7823,8 @@
       <c r="CM36" s="86"/>
     </row>
     <row r="37" spans="1:91">
-      <c r="A37" s="144"/>
-      <c r="B37" s="149"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="120" t="s">
         <v>448</v>
       </c>
@@ -7838,19 +7847,19 @@
       <c r="T37" s="98"/>
       <c r="U37" s="98"/>
       <c r="V37" s="98"/>
-      <c r="W37" s="229"/>
-      <c r="X37" s="229"/>
-      <c r="Y37" s="229"/>
-      <c r="Z37" s="229"/>
-      <c r="AA37" s="229"/>
-      <c r="AB37" s="229"/>
-      <c r="AC37" s="229"/>
-      <c r="AD37" s="229"/>
-      <c r="AE37" s="229"/>
-      <c r="AF37" s="229"/>
-      <c r="AG37" s="229"/>
-      <c r="AH37" s="229"/>
-      <c r="AI37" s="229"/>
+      <c r="W37" s="139"/>
+      <c r="X37" s="139"/>
+      <c r="Y37" s="139"/>
+      <c r="Z37" s="139"/>
+      <c r="AA37" s="139"/>
+      <c r="AB37" s="139"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="139"/>
+      <c r="AE37" s="139"/>
+      <c r="AF37" s="139"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="139"/>
+      <c r="AI37" s="139"/>
       <c r="AJ37" s="98"/>
       <c r="AK37" s="98"/>
       <c r="AL37" s="98"/>
@@ -7866,19 +7875,19 @@
       <c r="AV37" s="98"/>
       <c r="AW37" s="98"/>
       <c r="AX37" s="98"/>
-      <c r="AY37" s="229"/>
-      <c r="AZ37" s="229"/>
-      <c r="BA37" s="229"/>
-      <c r="BB37" s="229"/>
-      <c r="BC37" s="229"/>
-      <c r="BD37" s="229"/>
-      <c r="BE37" s="229"/>
-      <c r="BF37" s="229"/>
-      <c r="BG37" s="229"/>
-      <c r="BH37" s="229"/>
-      <c r="BI37" s="229"/>
-      <c r="BJ37" s="229"/>
-      <c r="BK37" s="229"/>
+      <c r="AY37" s="139"/>
+      <c r="AZ37" s="139"/>
+      <c r="BA37" s="139"/>
+      <c r="BB37" s="139"/>
+      <c r="BC37" s="139"/>
+      <c r="BD37" s="139"/>
+      <c r="BE37" s="139"/>
+      <c r="BF37" s="139"/>
+      <c r="BG37" s="139"/>
+      <c r="BH37" s="139"/>
+      <c r="BI37" s="139"/>
+      <c r="BJ37" s="139"/>
+      <c r="BK37" s="139"/>
       <c r="BL37" s="98"/>
       <c r="BM37" s="98"/>
       <c r="BN37" s="98"/>
@@ -7894,23 +7903,23 @@
       <c r="BX37" s="98"/>
       <c r="BY37" s="98"/>
       <c r="BZ37" s="98"/>
-      <c r="CA37" s="229"/>
-      <c r="CB37" s="229"/>
-      <c r="CC37" s="229"/>
-      <c r="CD37" s="229"/>
-      <c r="CE37" s="229"/>
-      <c r="CF37" s="229"/>
-      <c r="CG37" s="229"/>
-      <c r="CH37" s="229"/>
-      <c r="CI37" s="229"/>
-      <c r="CJ37" s="229"/>
-      <c r="CK37" s="229"/>
-      <c r="CL37" s="229"/>
-      <c r="CM37" s="229"/>
-    </row>
-    <row r="38" spans="1:91" s="230" customFormat="1">
-      <c r="A38" s="144"/>
-      <c r="B38" s="149"/>
+      <c r="CA37" s="139"/>
+      <c r="CB37" s="139"/>
+      <c r="CC37" s="139"/>
+      <c r="CD37" s="139"/>
+      <c r="CE37" s="139"/>
+      <c r="CF37" s="139"/>
+      <c r="CG37" s="139"/>
+      <c r="CH37" s="139"/>
+      <c r="CI37" s="139"/>
+      <c r="CJ37" s="139"/>
+      <c r="CK37" s="139"/>
+      <c r="CL37" s="139"/>
+      <c r="CM37" s="139"/>
+    </row>
+    <row r="38" spans="1:91" s="140" customFormat="1">
+      <c r="A38" s="150"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="88" t="s">
         <v>449</v>
       </c>
@@ -8003,9 +8012,9 @@
       <c r="CL38" s="86"/>
       <c r="CM38" s="86"/>
     </row>
-    <row r="39" spans="1:91" s="230" customFormat="1">
-      <c r="A39" s="144"/>
-      <c r="B39" s="149"/>
+    <row r="39" spans="1:91" s="140" customFormat="1">
+      <c r="A39" s="150"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="88" t="s">
         <v>457</v>
       </c>
@@ -8098,16 +8107,16 @@
       <c r="CL39" s="86"/>
       <c r="CM39" s="86"/>
     </row>
-    <row r="40" spans="1:91" s="230" customFormat="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="150"/>
+    <row r="40" spans="1:91" s="140" customFormat="1">
+      <c r="A40" s="151"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="88" t="s">
         <v>450</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
       <c r="F40" s="87"/>
-      <c r="G40" s="231"/>
+      <c r="G40" s="141"/>
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
       <c r="J40" s="87"/>
@@ -8168,30 +8177,30 @@
       <c r="BM40" s="86"/>
       <c r="BN40" s="86"/>
       <c r="BO40" s="86"/>
-      <c r="BP40" s="232"/>
-      <c r="BQ40" s="232"/>
-      <c r="BR40" s="232"/>
-      <c r="BS40" s="232"/>
-      <c r="BT40" s="232"/>
-      <c r="BU40" s="232"/>
-      <c r="BV40" s="232"/>
-      <c r="BW40" s="232"/>
-      <c r="BX40" s="232"/>
-      <c r="BY40" s="232"/>
-      <c r="BZ40" s="232"/>
-      <c r="CA40" s="232"/>
-      <c r="CB40" s="232"/>
-      <c r="CC40" s="232"/>
-      <c r="CD40" s="232"/>
-      <c r="CE40" s="232"/>
-      <c r="CF40" s="232"/>
-      <c r="CG40" s="232"/>
-      <c r="CH40" s="232"/>
-      <c r="CI40" s="232"/>
-      <c r="CJ40" s="232"/>
-      <c r="CK40" s="232"/>
-      <c r="CL40" s="232"/>
-      <c r="CM40" s="232"/>
+      <c r="BP40" s="142"/>
+      <c r="BQ40" s="142"/>
+      <c r="BR40" s="142"/>
+      <c r="BS40" s="142"/>
+      <c r="BT40" s="142"/>
+      <c r="BU40" s="142"/>
+      <c r="BV40" s="142"/>
+      <c r="BW40" s="142"/>
+      <c r="BX40" s="142"/>
+      <c r="BY40" s="142"/>
+      <c r="BZ40" s="142"/>
+      <c r="CA40" s="142"/>
+      <c r="CB40" s="142"/>
+      <c r="CC40" s="142"/>
+      <c r="CD40" s="142"/>
+      <c r="CE40" s="142"/>
+      <c r="CF40" s="142"/>
+      <c r="CG40" s="142"/>
+      <c r="CH40" s="142"/>
+      <c r="CI40" s="142"/>
+      <c r="CJ40" s="142"/>
+      <c r="CK40" s="142"/>
+      <c r="CL40" s="142"/>
+      <c r="CM40" s="142"/>
     </row>
     <row r="41" spans="1:91">
       <c r="A41" s="85"/>
@@ -8381,18 +8390,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -8409,13 +8413,18 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8427,7 +8436,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -8444,61 +8453,61 @@
       <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="181">
+      <c r="B2" s="163">
         <v>1</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
     </row>
     <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="33" t="s">
         <v>178</v>
       </c>
@@ -8540,13 +8549,13 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
@@ -8566,7 +8575,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="186" t="s">
         <v>368</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -8577,7 +8586,7 @@
       <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="163"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="115" t="s">
         <v>396</v>
       </c>
@@ -8586,7 +8595,7 @@
       <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="164"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="115" t="s">
         <v>370</v>
       </c>
@@ -8611,13 +8620,13 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="23">
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="33" t="s">
@@ -8629,10 +8638,10 @@
       <c r="D18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="183" t="s">
         <v>394</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="184"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="21" t="s">
@@ -8644,8 +8653,8 @@
       <c r="D19" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="160"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="184"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="54" t="s">
@@ -8657,66 +8666,66 @@
       <c r="D20" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="E20" s="161"/>
-      <c r="F20" s="160"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="184"/>
     </row>
     <row r="25" spans="2:6" ht="18" thickBot="1"/>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="174">
+      <c r="B26" s="170">
         <v>2</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
     </row>
     <row r="27" spans="2:6" ht="20">
       <c r="B27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="178"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="169"/>
     </row>
     <row r="29" spans="2:6" ht="20">
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="170"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
     </row>
     <row r="30" spans="2:6" ht="18">
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="166" t="s">
+      <c r="C30" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="179"/>
     </row>
     <row r="31" spans="2:6" ht="18">
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="167"/>
       <c r="D31" s="33" t="s">
         <v>178</v>
       </c>
@@ -8787,13 +8796,13 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="2:6" ht="20">
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="170"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="177"/>
     </row>
     <row r="38" spans="2:6" ht="18">
       <c r="B38" s="32" t="s">
@@ -8830,13 +8839,13 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="2:6" ht="23">
-      <c r="B42" s="171" t="s">
+      <c r="B42" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="173"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="182"/>
     </row>
     <row r="43" spans="2:6" ht="18">
       <c r="B43" s="32" t="s">
@@ -8944,61 +8953,61 @@
     </row>
     <row r="58" spans="2:6" ht="18" thickBot="1"/>
     <row r="59" spans="2:6" ht="21" thickBot="1">
-      <c r="B59" s="174">
+      <c r="B59" s="170">
         <v>3</v>
       </c>
-      <c r="C59" s="175"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="176"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="172"/>
     </row>
     <row r="60" spans="2:6" ht="20">
       <c r="B60" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="177" t="s">
+      <c r="C60" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="177"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="178"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="174"/>
     </row>
     <row r="61" spans="2:6" ht="21" thickBot="1">
       <c r="B61" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="179" t="s">
+      <c r="C61" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="179"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="180"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="169"/>
     </row>
     <row r="62" spans="2:6" ht="20">
-      <c r="B62" s="168" t="s">
+      <c r="B62" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="170"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="177"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="166" t="s">
+      <c r="C63" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="166" t="s">
+      <c r="D63" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="166"/>
-      <c r="F63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="179"/>
     </row>
     <row r="64" spans="2:6" ht="18">
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="167"/>
       <c r="D64" s="33" t="s">
         <v>178</v>
       </c>
@@ -9038,13 +9047,13 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="168" t="s">
+      <c r="B69" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="170"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="177"/>
     </row>
     <row r="70" spans="2:6" ht="18">
       <c r="B70" s="32" t="s">
@@ -9081,13 +9090,13 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:6" ht="23">
-      <c r="B74" s="171" t="s">
+      <c r="B74" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="172"/>
-      <c r="F74" s="173"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="181"/>
+      <c r="F74" s="182"/>
     </row>
     <row r="75" spans="2:6" ht="18">
       <c r="B75" s="32" t="s">
@@ -9195,61 +9204,61 @@
     </row>
     <row r="90" spans="2:6" ht="18" thickBot="1"/>
     <row r="91" spans="2:6" ht="21" thickBot="1">
-      <c r="B91" s="174">
+      <c r="B91" s="170">
         <v>4</v>
       </c>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="176"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="171"/>
+      <c r="F91" s="172"/>
     </row>
     <row r="92" spans="2:6" ht="20">
       <c r="B92" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="177" t="s">
+      <c r="C92" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="177"/>
-      <c r="E92" s="177"/>
-      <c r="F92" s="178"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="173"/>
+      <c r="F92" s="174"/>
     </row>
     <row r="93" spans="2:6" ht="21" thickBot="1">
       <c r="B93" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="179" t="s">
+      <c r="C93" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="179"/>
-      <c r="E93" s="179"/>
-      <c r="F93" s="180"/>
+      <c r="D93" s="168"/>
+      <c r="E93" s="168"/>
+      <c r="F93" s="169"/>
     </row>
     <row r="94" spans="2:6" ht="20">
-      <c r="B94" s="168" t="s">
+      <c r="B94" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="169"/>
-      <c r="D94" s="169"/>
-      <c r="E94" s="169"/>
-      <c r="F94" s="170"/>
+      <c r="C94" s="176"/>
+      <c r="D94" s="176"/>
+      <c r="E94" s="176"/>
+      <c r="F94" s="177"/>
     </row>
     <row r="95" spans="2:6" ht="18">
-      <c r="B95" s="165" t="s">
+      <c r="B95" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="166" t="s">
+      <c r="C95" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="166" t="s">
+      <c r="D95" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="166"/>
-      <c r="F95" s="167"/>
+      <c r="E95" s="167"/>
+      <c r="F95" s="179"/>
     </row>
     <row r="96" spans="2:6" ht="18">
-      <c r="B96" s="165"/>
-      <c r="C96" s="166"/>
+      <c r="B96" s="178"/>
+      <c r="C96" s="167"/>
       <c r="D96" s="33" t="s">
         <v>178</v>
       </c>
@@ -9289,13 +9298,13 @@
       <c r="F100" s="29"/>
     </row>
     <row r="101" spans="2:6" ht="20">
-      <c r="B101" s="168" t="s">
+      <c r="B101" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="169"/>
-      <c r="D101" s="169"/>
-      <c r="E101" s="169"/>
-      <c r="F101" s="170"/>
+      <c r="C101" s="176"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="176"/>
+      <c r="F101" s="177"/>
     </row>
     <row r="102" spans="2:6" ht="18">
       <c r="B102" s="32" t="s">
@@ -9332,13 +9341,13 @@
       <c r="F105" s="29"/>
     </row>
     <row r="106" spans="2:6" ht="23">
-      <c r="B106" s="171" t="s">
+      <c r="B106" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="172"/>
-      <c r="D106" s="172"/>
-      <c r="E106" s="172"/>
-      <c r="F106" s="173"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="181"/>
+      <c r="F106" s="182"/>
     </row>
     <row r="107" spans="2:6" ht="18">
       <c r="B107" s="32" t="s">
@@ -9446,30 +9455,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B94:F94"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -9486,6 +9471,30 @@
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="C60:F60"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -9498,8 +9507,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -9517,17 +9526,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="195" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="193"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="197"/>
     </row>
     <row r="3" spans="3:11" ht="20">
       <c r="C3" s="53" t="s">
@@ -9559,10 +9568,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="185" t="s">
+      <c r="D4" s="189" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="21"/>
@@ -9580,8 +9589,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="187"/>
-      <c r="D5" s="185"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -9597,8 +9606,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="187"/>
-      <c r="D6" s="185"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -9614,8 +9623,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="187"/>
-      <c r="D7" s="185"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -9631,8 +9640,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="187"/>
-      <c r="D8" s="185"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="189"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -9648,8 +9657,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="187"/>
-      <c r="D9" s="185"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -9665,8 +9674,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="187"/>
-      <c r="D10" s="185" t="s">
+      <c r="C10" s="191"/>
+      <c r="D10" s="189" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="21"/>
@@ -9684,8 +9693,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="187"/>
-      <c r="D11" s="185"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -9701,8 +9710,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="188"/>
-      <c r="D12" s="185" t="s">
+      <c r="C12" s="192"/>
+      <c r="D12" s="189" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="21"/>
@@ -9720,8 +9729,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="188"/>
-      <c r="D13" s="194"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -9737,8 +9746,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="188"/>
-      <c r="D14" s="185"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="189"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -9754,8 +9763,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="188"/>
-      <c r="D15" s="185" t="s">
+      <c r="C15" s="192"/>
+      <c r="D15" s="189" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="21"/>
@@ -9773,8 +9782,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="188"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -9790,8 +9799,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="188"/>
-      <c r="D17" s="185"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="189"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -9807,8 +9816,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="188"/>
-      <c r="D18" s="185"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="189"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -9824,8 +9833,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="188"/>
-      <c r="D19" s="185"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="189"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -9841,8 +9850,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="188"/>
-      <c r="D20" s="185"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="189"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -9858,8 +9867,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="188"/>
-      <c r="D21" s="185"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="189"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -9875,8 +9884,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -9892,8 +9901,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="188"/>
-      <c r="D23" s="185"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="189"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -9909,8 +9918,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="188"/>
-      <c r="D24" s="185"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="189"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -9926,8 +9935,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="188"/>
-      <c r="D25" s="185" t="s">
+      <c r="C25" s="192"/>
+      <c r="D25" s="189" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="21"/>
@@ -9945,8 +9954,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="188"/>
-      <c r="D26" s="185"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -9962,8 +9971,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="188"/>
-      <c r="D27" s="185"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="189"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -9979,8 +9988,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="189"/>
-      <c r="D28" s="185"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -9996,8 +10005,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="189"/>
-      <c r="D29" s="185"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="189"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -10013,8 +10022,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="189"/>
-      <c r="D30" s="185"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="189"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -10030,8 +10039,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="189"/>
-      <c r="D31" s="185"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="189"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -10047,8 +10056,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="189"/>
-      <c r="D32" s="185"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="189"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -10064,8 +10073,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="189"/>
-      <c r="D33" s="185"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="189"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -10081,8 +10090,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="189"/>
-      <c r="D34" s="185"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="189"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -10098,8 +10107,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="189"/>
-      <c r="D35" s="185"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="189"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -10115,8 +10124,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="189"/>
-      <c r="D36" s="185"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="189"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -10132,8 +10141,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="189"/>
-      <c r="D37" s="185" t="s">
+      <c r="C37" s="193"/>
+      <c r="D37" s="189" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="21"/>
@@ -10151,8 +10160,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="189"/>
-      <c r="D38" s="185"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="189"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -10168,8 +10177,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="189"/>
-      <c r="D39" s="185"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="189"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -10185,8 +10194,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="189"/>
-      <c r="D40" s="185"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="189"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -10202,8 +10211,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="189"/>
-      <c r="D41" s="185"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="189"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -10219,8 +10228,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="189"/>
-      <c r="D42" s="185"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="189"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -10236,8 +10245,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="189"/>
-      <c r="D43" s="185"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="189"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -10253,8 +10262,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="189"/>
-      <c r="D44" s="185"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="189"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -10270,8 +10279,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="189"/>
-      <c r="D45" s="185"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="189"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -10287,8 +10296,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="190"/>
-      <c r="D46" s="185"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="189"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -10325,7 +10334,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:BA168"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -10341,61 +10350,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="198"/>
-      <c r="N1" s="195" t="s">
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="202"/>
+      <c r="N1" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="199"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="199"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="199"/>
+      <c r="AW1" s="199"/>
+      <c r="AX1" s="199"/>
+      <c r="AY1" s="199"/>
+      <c r="AZ1" s="199"/>
+      <c r="BA1" s="199"/>
     </row>
     <row r="2" spans="2:53" ht="31" thickBot="1">
       <c r="B2" s="55" t="s">
@@ -12579,7 +12588,7 @@
       <c r="B115" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C115" s="56" t="s">
+      <c r="C115" s="233" t="s">
         <v>301</v>
       </c>
       <c r="D115" s="57"/>
@@ -13269,17 +13278,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -13372,17 +13381,17 @@
       <c r="J6" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="20">
-      <c r="B16" s="226" t="s">
+      <c r="B16" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="228"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="18" t="s">
@@ -13495,18 +13504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
@@ -13521,20 +13530,20 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="205" t="s">
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="207"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="214"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -13549,12 +13558,12 @@
       <c r="G4" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="211" t="s">
+      <c r="H4" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="212"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="219"/>
     </row>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="38" t="s">
@@ -13564,13 +13573,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="208" t="s">
+      <c r="G5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="210"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="217"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -13684,13 +13693,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="202" t="s">
+      <c r="G13" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="203"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -13963,160 +13972,160 @@
       <c r="C3" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="178"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="174"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="217"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="227"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="216" t="s">
+      <c r="C5" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="217"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="227"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B6" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="217"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="216" t="s">
+      <c r="C7" s="226" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="217"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="227"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="229" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="180"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="169"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="222"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="232"/>
     </row>
     <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="228" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="218" t="s">
+      <c r="E11" s="228" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218" t="s">
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="218" t="s">
+      <c r="I11" s="228" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="218" t="s">
+      <c r="J11" s="228" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="218" t="s">
+      <c r="K11" s="228" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="218" t="s">
+      <c r="L11" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="218" t="s">
+      <c r="M11" s="228" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="218"/>
-      <c r="C12" s="218"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
       <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
@@ -14129,12 +14138,12 @@
       <c r="G12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -14426,11 +14435,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -14443,6 +14447,11 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE57988-87A4-4F41-90A9-1508FF6FF70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C8F32C-EF3A-624A-A700-D8988BAB5B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="3180" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="3180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="459">
   <si>
     <t>로그인 오류</t>
   </si>
@@ -1650,6 +1650,10 @@
   </si>
   <si>
     <t>결제</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -3581,6 +3585,42 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="65" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="64" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3599,15 +3639,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3617,28 +3648,70 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="29" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="65" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="64" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3651,72 +3724,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3821,15 +3828,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3851,7 +3849,13 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4225,10 +4229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:CM42"/>
+  <dimension ref="A3:CM43"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -4246,10 +4250,10 @@
       <c r="A3" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
@@ -4343,10 +4347,10 @@
       <c r="A4" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="153" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="83"/>
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
@@ -4440,10 +4444,10 @@
       <c r="A5" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
@@ -4537,10 +4541,10 @@
       <c r="A6" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="154" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -4634,10 +4638,10 @@
       <c r="A7" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="155">
+      <c r="B7" s="153">
         <v>45436</v>
       </c>
-      <c r="C7" s="156"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
@@ -4731,8 +4735,8 @@
       <c r="A8" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
       <c r="F8" s="83"/>
@@ -4918,244 +4922,244 @@
       <c r="CM9" s="82"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="147" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="147" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="147" t="s">
         <v>351</v>
       </c>
       <c r="G10" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="H10" s="160" t="s">
+      <c r="H10" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="161"/>
-      <c r="AJ10" s="160" t="s">
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="AK10" s="161"/>
-      <c r="AL10" s="161"/>
-      <c r="AM10" s="161"/>
-      <c r="AN10" s="161"/>
-      <c r="AO10" s="161"/>
-      <c r="AP10" s="161"/>
-      <c r="AQ10" s="161"/>
-      <c r="AR10" s="161"/>
-      <c r="AS10" s="161"/>
-      <c r="AT10" s="161"/>
-      <c r="AU10" s="161"/>
-      <c r="AV10" s="161"/>
-      <c r="AW10" s="161"/>
-      <c r="AX10" s="161"/>
-      <c r="AY10" s="161"/>
-      <c r="AZ10" s="161"/>
-      <c r="BA10" s="161"/>
-      <c r="BB10" s="161"/>
-      <c r="BC10" s="161"/>
-      <c r="BD10" s="161"/>
-      <c r="BE10" s="161"/>
-      <c r="BF10" s="161"/>
-      <c r="BG10" s="161"/>
-      <c r="BH10" s="161"/>
-      <c r="BI10" s="161"/>
-      <c r="BJ10" s="161"/>
-      <c r="BK10" s="161"/>
-      <c r="BL10" s="160" t="s">
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="152"/>
+      <c r="AY10" s="152"/>
+      <c r="AZ10" s="152"/>
+      <c r="BA10" s="152"/>
+      <c r="BB10" s="152"/>
+      <c r="BC10" s="152"/>
+      <c r="BD10" s="152"/>
+      <c r="BE10" s="152"/>
+      <c r="BF10" s="152"/>
+      <c r="BG10" s="152"/>
+      <c r="BH10" s="152"/>
+      <c r="BI10" s="152"/>
+      <c r="BJ10" s="152"/>
+      <c r="BK10" s="152"/>
+      <c r="BL10" s="151" t="s">
         <v>347</v>
       </c>
-      <c r="BM10" s="161"/>
-      <c r="BN10" s="161"/>
-      <c r="BO10" s="161"/>
-      <c r="BP10" s="161"/>
-      <c r="BQ10" s="161"/>
-      <c r="BR10" s="161"/>
-      <c r="BS10" s="161"/>
-      <c r="BT10" s="161"/>
-      <c r="BU10" s="161"/>
-      <c r="BV10" s="161"/>
-      <c r="BW10" s="161"/>
-      <c r="BX10" s="161"/>
-      <c r="BY10" s="161"/>
-      <c r="BZ10" s="161"/>
-      <c r="CA10" s="161"/>
-      <c r="CB10" s="161"/>
-      <c r="CC10" s="161"/>
-      <c r="CD10" s="161"/>
-      <c r="CE10" s="161"/>
-      <c r="CF10" s="161"/>
-      <c r="CG10" s="161"/>
-      <c r="CH10" s="161"/>
-      <c r="CI10" s="161"/>
-      <c r="CJ10" s="161"/>
-      <c r="CK10" s="161"/>
-      <c r="CL10" s="161"/>
-      <c r="CM10" s="161"/>
+      <c r="BM10" s="152"/>
+      <c r="BN10" s="152"/>
+      <c r="BO10" s="152"/>
+      <c r="BP10" s="152"/>
+      <c r="BQ10" s="152"/>
+      <c r="BR10" s="152"/>
+      <c r="BS10" s="152"/>
+      <c r="BT10" s="152"/>
+      <c r="BU10" s="152"/>
+      <c r="BV10" s="152"/>
+      <c r="BW10" s="152"/>
+      <c r="BX10" s="152"/>
+      <c r="BY10" s="152"/>
+      <c r="BZ10" s="152"/>
+      <c r="CA10" s="152"/>
+      <c r="CB10" s="152"/>
+      <c r="CC10" s="152"/>
+      <c r="CD10" s="152"/>
+      <c r="CE10" s="152"/>
+      <c r="CF10" s="152"/>
+      <c r="CG10" s="152"/>
+      <c r="CH10" s="152"/>
+      <c r="CI10" s="152"/>
+      <c r="CJ10" s="152"/>
+      <c r="CK10" s="152"/>
+      <c r="CL10" s="152"/>
+      <c r="CM10" s="152"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="H11" s="157" t="s">
+      <c r="H11" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="157" t="s">
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="157" t="s">
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="157" t="s">
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="157" t="s">
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="145"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="146"/>
+      <c r="AJ11" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="158"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="158"/>
-      <c r="AP11" s="159"/>
-      <c r="AQ11" s="157" t="s">
+      <c r="AK11" s="145"/>
+      <c r="AL11" s="145"/>
+      <c r="AM11" s="145"/>
+      <c r="AN11" s="145"/>
+      <c r="AO11" s="145"/>
+      <c r="AP11" s="146"/>
+      <c r="AQ11" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="AR11" s="158"/>
-      <c r="AS11" s="158"/>
-      <c r="AT11" s="158"/>
-      <c r="AU11" s="158"/>
-      <c r="AV11" s="158"/>
-      <c r="AW11" s="159"/>
-      <c r="AX11" s="157" t="s">
+      <c r="AR11" s="145"/>
+      <c r="AS11" s="145"/>
+      <c r="AT11" s="145"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="145"/>
+      <c r="AW11" s="146"/>
+      <c r="AX11" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="AY11" s="158"/>
-      <c r="AZ11" s="158"/>
-      <c r="BA11" s="158"/>
-      <c r="BB11" s="158"/>
-      <c r="BC11" s="158"/>
-      <c r="BD11" s="159"/>
-      <c r="BE11" s="157" t="s">
+      <c r="AY11" s="145"/>
+      <c r="AZ11" s="145"/>
+      <c r="BA11" s="145"/>
+      <c r="BB11" s="145"/>
+      <c r="BC11" s="145"/>
+      <c r="BD11" s="146"/>
+      <c r="BE11" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="BF11" s="158"/>
-      <c r="BG11" s="158"/>
-      <c r="BH11" s="158"/>
-      <c r="BI11" s="158"/>
-      <c r="BJ11" s="158"/>
-      <c r="BK11" s="159"/>
-      <c r="BL11" s="157" t="s">
+      <c r="BF11" s="145"/>
+      <c r="BG11" s="145"/>
+      <c r="BH11" s="145"/>
+      <c r="BI11" s="145"/>
+      <c r="BJ11" s="145"/>
+      <c r="BK11" s="146"/>
+      <c r="BL11" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="BM11" s="158"/>
-      <c r="BN11" s="158"/>
-      <c r="BO11" s="158"/>
-      <c r="BP11" s="158"/>
-      <c r="BQ11" s="158"/>
-      <c r="BR11" s="159"/>
-      <c r="BS11" s="157" t="s">
+      <c r="BM11" s="145"/>
+      <c r="BN11" s="145"/>
+      <c r="BO11" s="145"/>
+      <c r="BP11" s="145"/>
+      <c r="BQ11" s="145"/>
+      <c r="BR11" s="146"/>
+      <c r="BS11" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="BT11" s="158"/>
-      <c r="BU11" s="158"/>
-      <c r="BV11" s="158"/>
-      <c r="BW11" s="158"/>
-      <c r="BX11" s="158"/>
-      <c r="BY11" s="159"/>
-      <c r="BZ11" s="157" t="s">
+      <c r="BT11" s="145"/>
+      <c r="BU11" s="145"/>
+      <c r="BV11" s="145"/>
+      <c r="BW11" s="145"/>
+      <c r="BX11" s="145"/>
+      <c r="BY11" s="146"/>
+      <c r="BZ11" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="CA11" s="158"/>
-      <c r="CB11" s="158"/>
-      <c r="CC11" s="158"/>
-      <c r="CD11" s="158"/>
-      <c r="CE11" s="158"/>
-      <c r="CF11" s="159"/>
-      <c r="CG11" s="157" t="s">
+      <c r="CA11" s="145"/>
+      <c r="CB11" s="145"/>
+      <c r="CC11" s="145"/>
+      <c r="CD11" s="145"/>
+      <c r="CE11" s="145"/>
+      <c r="CF11" s="146"/>
+      <c r="CG11" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="CH11" s="158"/>
-      <c r="CI11" s="158"/>
-      <c r="CJ11" s="158"/>
-      <c r="CK11" s="158"/>
-      <c r="CL11" s="158"/>
-      <c r="CM11" s="159"/>
+      <c r="CH11" s="145"/>
+      <c r="CI11" s="145"/>
+      <c r="CJ11" s="145"/>
+      <c r="CK11" s="145"/>
+      <c r="CL11" s="145"/>
+      <c r="CM11" s="146"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="162"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="100" t="s">
         <v>341</v>
       </c>
@@ -5413,7 +5417,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="148" t="s">
         <v>333</v>
       </c>
       <c r="B13" s="87" t="s">
@@ -5520,8 +5524,8 @@
       <c r="CM13" s="86"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="150"/>
-      <c r="B14" s="149" t="s">
+      <c r="A14" s="149"/>
+      <c r="B14" s="148" t="s">
         <v>329</v>
       </c>
       <c r="C14" s="88" t="s">
@@ -5625,8 +5629,8 @@
       <c r="CM14" s="86"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="150"/>
-      <c r="B15" s="150"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="87" t="s">
         <v>327</v>
       </c>
@@ -5728,8 +5732,8 @@
       <c r="CM15" s="86"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="88" t="s">
         <v>326</v>
       </c>
@@ -5831,8 +5835,8 @@
       <c r="CM16" s="86"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="150"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="88" t="s">
         <v>324</v>
       </c>
@@ -5934,8 +5938,8 @@
       <c r="CM17" s="86"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="151"/>
-      <c r="B18" s="151"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="88" t="s">
         <v>322</v>
       </c>
@@ -6037,10 +6041,10 @@
       <c r="CM18" s="86"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="155" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="161" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="88" t="s">
@@ -6144,8 +6148,8 @@
       <c r="CM19" s="86"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="144"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="88" t="s">
         <v>317</v>
       </c>
@@ -6247,8 +6251,8 @@
       <c r="CM20" s="86"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="144"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="91" t="s">
         <v>314</v>
       </c>
@@ -6350,8 +6354,8 @@
       <c r="CM21" s="86"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="144"/>
-      <c r="B22" s="152" t="s">
+      <c r="A22" s="156"/>
+      <c r="B22" s="161" t="s">
         <v>311</v>
       </c>
       <c r="C22" s="88" t="s">
@@ -6455,8 +6459,8 @@
       <c r="CM22" s="86"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="144"/>
-      <c r="B23" s="153"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="88" t="s">
         <v>383</v>
       </c>
@@ -6554,8 +6558,8 @@
       <c r="CM23" s="86"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="144"/>
-      <c r="B24" s="154"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="88" t="s">
         <v>384</v>
       </c>
@@ -6653,7 +6657,7 @@
       <c r="CM24" s="86"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="145"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="113" t="s">
         <v>451</v>
       </c>
@@ -6752,10 +6756,10 @@
       <c r="CM25" s="86"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="148" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="158" t="s">
         <v>307</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -6859,8 +6863,8 @@
       <c r="CM26" s="86"/>
     </row>
     <row r="27" spans="1:91">
-      <c r="A27" s="150"/>
-      <c r="B27" s="147"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="91" t="s">
         <v>365</v>
       </c>
@@ -6962,8 +6966,8 @@
       <c r="CM27" s="86"/>
     </row>
     <row r="28" spans="1:91">
-      <c r="A28" s="150"/>
-      <c r="B28" s="148"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="91" t="s">
         <v>366</v>
       </c>
@@ -7057,14 +7061,16 @@
       <c r="CM28" s="86"/>
     </row>
     <row r="29" spans="1:91">
-      <c r="A29" s="150"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="149"/>
+      <c r="B29" s="158" t="s">
         <v>304</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="88" t="s">
+        <v>323</v>
+      </c>
       <c r="E29" s="90"/>
       <c r="F29" s="87"/>
       <c r="G29" s="87"/>
@@ -7154,12 +7160,14 @@
       <c r="CM29" s="86"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="150"/>
-      <c r="B30" s="147"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="88" t="s">
+        <v>381</v>
+      </c>
       <c r="E30" s="90"/>
       <c r="F30" s="87"/>
       <c r="G30" s="87"/>
@@ -7249,8 +7257,8 @@
       <c r="CM30" s="86"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="150"/>
-      <c r="B31" s="147"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="88" t="s">
         <v>442</v>
       </c>
@@ -7344,12 +7352,14 @@
       <c r="CM31" s="86"/>
     </row>
     <row r="32" spans="1:91">
-      <c r="A32" s="150"/>
-      <c r="B32" s="147"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="88" t="s">
         <v>443</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="88" t="s">
+        <v>382</v>
+      </c>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
       <c r="G32" s="87"/>
@@ -7439,8 +7449,8 @@
       <c r="CM32" s="86"/>
     </row>
     <row r="33" spans="1:91">
-      <c r="A33" s="150"/>
-      <c r="B33" s="147"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="88" t="s">
         <v>444</v>
       </c>
@@ -7534,8 +7544,8 @@
       <c r="CM33" s="86"/>
     </row>
     <row r="34" spans="1:91">
-      <c r="A34" s="150"/>
-      <c r="B34" s="147"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="88" t="s">
         <v>445</v>
       </c>
@@ -7631,8 +7641,8 @@
       <c r="CM34" s="86"/>
     </row>
     <row r="35" spans="1:91">
-      <c r="A35" s="150"/>
-      <c r="B35" s="147"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="88" t="s">
         <v>446</v>
       </c>
@@ -7728,8 +7738,8 @@
       <c r="CM35" s="86"/>
     </row>
     <row r="36" spans="1:91">
-      <c r="A36" s="150"/>
-      <c r="B36" s="147"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="88" t="s">
         <v>447</v>
       </c>
@@ -7823,8 +7833,8 @@
       <c r="CM36" s="86"/>
     </row>
     <row r="37" spans="1:91">
-      <c r="A37" s="150"/>
-      <c r="B37" s="147"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="120" t="s">
         <v>448</v>
       </c>
@@ -7917,106 +7927,106 @@
       <c r="CL37" s="139"/>
       <c r="CM37" s="139"/>
     </row>
-    <row r="38" spans="1:91" s="140" customFormat="1">
-      <c r="A38" s="150"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="88" t="s">
+    <row r="38" spans="1:91">
+      <c r="A38" s="149"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="120" t="s">
+        <v>458</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="139"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="139"/>
+      <c r="AE38" s="139"/>
+      <c r="AF38" s="139"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="139"/>
+      <c r="AI38" s="139"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="98"/>
+      <c r="AO38" s="98"/>
+      <c r="AP38" s="98"/>
+      <c r="AQ38" s="98"/>
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98"/>
+      <c r="AT38" s="98"/>
+      <c r="AU38" s="98"/>
+      <c r="AV38" s="98"/>
+      <c r="AW38" s="98"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="139"/>
+      <c r="AZ38" s="139"/>
+      <c r="BA38" s="139"/>
+      <c r="BB38" s="139"/>
+      <c r="BC38" s="139"/>
+      <c r="BD38" s="139"/>
+      <c r="BE38" s="139"/>
+      <c r="BF38" s="139"/>
+      <c r="BG38" s="139"/>
+      <c r="BH38" s="139"/>
+      <c r="BI38" s="139"/>
+      <c r="BJ38" s="139"/>
+      <c r="BK38" s="139"/>
+      <c r="BL38" s="98"/>
+      <c r="BM38" s="98"/>
+      <c r="BN38" s="98"/>
+      <c r="BO38" s="98"/>
+      <c r="BP38" s="98"/>
+      <c r="BQ38" s="98"/>
+      <c r="BR38" s="98"/>
+      <c r="BS38" s="98"/>
+      <c r="BT38" s="98"/>
+      <c r="BU38" s="98"/>
+      <c r="BV38" s="98"/>
+      <c r="BW38" s="98"/>
+      <c r="BX38" s="98"/>
+      <c r="BY38" s="98"/>
+      <c r="BZ38" s="98"/>
+      <c r="CA38" s="139"/>
+      <c r="CB38" s="139"/>
+      <c r="CC38" s="139"/>
+      <c r="CD38" s="139"/>
+      <c r="CE38" s="139"/>
+      <c r="CF38" s="139"/>
+      <c r="CG38" s="139"/>
+      <c r="CH38" s="139"/>
+      <c r="CI38" s="139"/>
+      <c r="CJ38" s="139"/>
+      <c r="CK38" s="139"/>
+      <c r="CL38" s="139"/>
+      <c r="CM38" s="139"/>
+    </row>
+    <row r="39" spans="1:91" s="140" customFormat="1">
+      <c r="A39" s="149"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="88" t="s">
         <v>449</v>
-      </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="86"/>
-      <c r="Y38" s="86"/>
-      <c r="Z38" s="86"/>
-      <c r="AA38" s="86"/>
-      <c r="AB38" s="86"/>
-      <c r="AC38" s="86"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="86"/>
-      <c r="AH38" s="86"/>
-      <c r="AI38" s="86"/>
-      <c r="AJ38" s="87"/>
-      <c r="AK38" s="87"/>
-      <c r="AL38" s="87"/>
-      <c r="AM38" s="87"/>
-      <c r="AN38" s="87"/>
-      <c r="AO38" s="87"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="87"/>
-      <c r="AR38" s="87"/>
-      <c r="AS38" s="87"/>
-      <c r="AT38" s="87"/>
-      <c r="AU38" s="87"/>
-      <c r="AV38" s="87"/>
-      <c r="AW38" s="87"/>
-      <c r="AX38" s="87"/>
-      <c r="AY38" s="86"/>
-      <c r="AZ38" s="86"/>
-      <c r="BA38" s="86"/>
-      <c r="BB38" s="86"/>
-      <c r="BC38" s="86"/>
-      <c r="BD38" s="86"/>
-      <c r="BE38" s="86"/>
-      <c r="BF38" s="86"/>
-      <c r="BG38" s="86"/>
-      <c r="BH38" s="86"/>
-      <c r="BI38" s="86"/>
-      <c r="BJ38" s="86"/>
-      <c r="BK38" s="86"/>
-      <c r="BL38" s="87"/>
-      <c r="BM38" s="87"/>
-      <c r="BN38" s="87"/>
-      <c r="BO38" s="87"/>
-      <c r="BP38" s="87"/>
-      <c r="BQ38" s="87"/>
-      <c r="BR38" s="87"/>
-      <c r="BS38" s="87"/>
-      <c r="BT38" s="87"/>
-      <c r="BU38" s="87"/>
-      <c r="BV38" s="87"/>
-      <c r="BW38" s="87"/>
-      <c r="BX38" s="87"/>
-      <c r="BY38" s="87"/>
-      <c r="BZ38" s="87"/>
-      <c r="CA38" s="86"/>
-      <c r="CB38" s="86"/>
-      <c r="CC38" s="86"/>
-      <c r="CD38" s="86"/>
-      <c r="CE38" s="86"/>
-      <c r="CF38" s="86"/>
-      <c r="CG38" s="86"/>
-      <c r="CH38" s="86"/>
-      <c r="CI38" s="86"/>
-      <c r="CJ38" s="86"/>
-      <c r="CK38" s="86"/>
-      <c r="CL38" s="86"/>
-      <c r="CM38" s="86"/>
-    </row>
-    <row r="39" spans="1:91" s="140" customFormat="1">
-      <c r="A39" s="150"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="88" t="s">
-        <v>457</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -8108,15 +8118,15 @@
       <c r="CM39" s="86"/>
     </row>
     <row r="40" spans="1:91" s="140" customFormat="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="88" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
       <c r="F40" s="87"/>
-      <c r="G40" s="141"/>
+      <c r="G40" s="87"/>
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
       <c r="J40" s="87"/>
@@ -8145,21 +8155,21 @@
       <c r="AG40" s="86"/>
       <c r="AH40" s="86"/>
       <c r="AI40" s="86"/>
-      <c r="AJ40" s="86"/>
-      <c r="AK40" s="86"/>
-      <c r="AL40" s="86"/>
-      <c r="AM40" s="86"/>
-      <c r="AN40" s="86"/>
-      <c r="AO40" s="86"/>
-      <c r="AP40" s="86"/>
-      <c r="AQ40" s="86"/>
-      <c r="AR40" s="86"/>
-      <c r="AS40" s="86"/>
-      <c r="AT40" s="86"/>
-      <c r="AU40" s="86"/>
-      <c r="AV40" s="86"/>
-      <c r="AW40" s="86"/>
-      <c r="AX40" s="86"/>
+      <c r="AJ40" s="87"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="87"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="87"/>
+      <c r="AO40" s="87"/>
+      <c r="AP40" s="87"/>
+      <c r="AQ40" s="87"/>
+      <c r="AR40" s="87"/>
+      <c r="AS40" s="87"/>
+      <c r="AT40" s="87"/>
+      <c r="AU40" s="87"/>
+      <c r="AV40" s="87"/>
+      <c r="AW40" s="87"/>
+      <c r="AX40" s="87"/>
       <c r="AY40" s="86"/>
       <c r="AZ40" s="86"/>
       <c r="BA40" s="86"/>
@@ -8173,127 +8183,129 @@
       <c r="BI40" s="86"/>
       <c r="BJ40" s="86"/>
       <c r="BK40" s="86"/>
-      <c r="BL40" s="86"/>
-      <c r="BM40" s="86"/>
-      <c r="BN40" s="86"/>
-      <c r="BO40" s="86"/>
-      <c r="BP40" s="142"/>
-      <c r="BQ40" s="142"/>
-      <c r="BR40" s="142"/>
-      <c r="BS40" s="142"/>
-      <c r="BT40" s="142"/>
-      <c r="BU40" s="142"/>
-      <c r="BV40" s="142"/>
-      <c r="BW40" s="142"/>
-      <c r="BX40" s="142"/>
-      <c r="BY40" s="142"/>
-      <c r="BZ40" s="142"/>
-      <c r="CA40" s="142"/>
-      <c r="CB40" s="142"/>
-      <c r="CC40" s="142"/>
-      <c r="CD40" s="142"/>
-      <c r="CE40" s="142"/>
-      <c r="CF40" s="142"/>
-      <c r="CG40" s="142"/>
-      <c r="CH40" s="142"/>
-      <c r="CI40" s="142"/>
-      <c r="CJ40" s="142"/>
-      <c r="CK40" s="142"/>
-      <c r="CL40" s="142"/>
-      <c r="CM40" s="142"/>
-    </row>
-    <row r="41" spans="1:91">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="83"/>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="83"/>
-      <c r="AH41" s="83"/>
-      <c r="AI41" s="83"/>
-      <c r="AJ41" s="83"/>
-      <c r="AK41" s="83"/>
-      <c r="AL41" s="83"/>
-      <c r="AM41" s="83"/>
-      <c r="AN41" s="83"/>
-      <c r="AO41" s="83"/>
-      <c r="AP41" s="83"/>
-      <c r="AQ41" s="83"/>
-      <c r="AR41" s="83"/>
-      <c r="AS41" s="83"/>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="83"/>
-      <c r="AV41" s="83"/>
-      <c r="AW41" s="83"/>
-      <c r="AX41" s="83"/>
-      <c r="AY41" s="83"/>
-      <c r="AZ41" s="83"/>
-      <c r="BA41" s="83"/>
-      <c r="BB41" s="83"/>
-      <c r="BC41" s="83"/>
-      <c r="BD41" s="83"/>
-      <c r="BE41" s="83"/>
-      <c r="BF41" s="83"/>
-      <c r="BG41" s="83"/>
-      <c r="BH41" s="83"/>
-      <c r="BI41" s="83"/>
-      <c r="BJ41" s="83"/>
-      <c r="BK41" s="83"/>
-      <c r="BL41" s="83"/>
-      <c r="BM41" s="83"/>
-      <c r="BN41" s="83"/>
-      <c r="BO41" s="83"/>
-      <c r="BP41" s="82"/>
-      <c r="BQ41" s="82"/>
-      <c r="BR41" s="82"/>
-      <c r="BS41" s="82"/>
-      <c r="BT41" s="82"/>
-      <c r="BU41" s="82"/>
-      <c r="BV41" s="82"/>
-      <c r="BW41" s="82"/>
-      <c r="BX41" s="82"/>
-      <c r="BY41" s="82"/>
-      <c r="BZ41" s="82"/>
-      <c r="CA41" s="82"/>
-      <c r="CB41" s="82"/>
-      <c r="CC41" s="82"/>
-      <c r="CD41" s="82"/>
-      <c r="CE41" s="82"/>
-      <c r="CF41" s="82"/>
-      <c r="CG41" s="82"/>
-      <c r="CH41" s="82"/>
-      <c r="CI41" s="82"/>
-      <c r="CJ41" s="82"/>
-      <c r="CK41" s="82"/>
-      <c r="CL41" s="82"/>
-      <c r="CM41" s="82"/>
+      <c r="BL40" s="87"/>
+      <c r="BM40" s="87"/>
+      <c r="BN40" s="87"/>
+      <c r="BO40" s="87"/>
+      <c r="BP40" s="87"/>
+      <c r="BQ40" s="87"/>
+      <c r="BR40" s="87"/>
+      <c r="BS40" s="87"/>
+      <c r="BT40" s="87"/>
+      <c r="BU40" s="87"/>
+      <c r="BV40" s="87"/>
+      <c r="BW40" s="87"/>
+      <c r="BX40" s="87"/>
+      <c r="BY40" s="87"/>
+      <c r="BZ40" s="87"/>
+      <c r="CA40" s="86"/>
+      <c r="CB40" s="86"/>
+      <c r="CC40" s="86"/>
+      <c r="CD40" s="86"/>
+      <c r="CE40" s="86"/>
+      <c r="CF40" s="86"/>
+      <c r="CG40" s="86"/>
+      <c r="CH40" s="86"/>
+      <c r="CI40" s="86"/>
+      <c r="CJ40" s="86"/>
+      <c r="CK40" s="86"/>
+      <c r="CL40" s="86"/>
+      <c r="CM40" s="86"/>
+    </row>
+    <row r="41" spans="1:91" s="140" customFormat="1">
+      <c r="A41" s="150"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="86"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="86"/>
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="86"/>
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="86"/>
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="86"/>
+      <c r="AL41" s="86"/>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="86"/>
+      <c r="AP41" s="86"/>
+      <c r="AQ41" s="86"/>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86"/>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="86"/>
+      <c r="BD41" s="86"/>
+      <c r="BE41" s="86"/>
+      <c r="BF41" s="86"/>
+      <c r="BG41" s="86"/>
+      <c r="BH41" s="86"/>
+      <c r="BI41" s="86"/>
+      <c r="BJ41" s="86"/>
+      <c r="BK41" s="86"/>
+      <c r="BL41" s="86"/>
+      <c r="BM41" s="86"/>
+      <c r="BN41" s="86"/>
+      <c r="BO41" s="86"/>
+      <c r="BP41" s="142"/>
+      <c r="BQ41" s="142"/>
+      <c r="BR41" s="142"/>
+      <c r="BS41" s="142"/>
+      <c r="BT41" s="142"/>
+      <c r="BU41" s="142"/>
+      <c r="BV41" s="142"/>
+      <c r="BW41" s="142"/>
+      <c r="BX41" s="142"/>
+      <c r="BY41" s="142"/>
+      <c r="BZ41" s="142"/>
+      <c r="CA41" s="142"/>
+      <c r="CB41" s="142"/>
+      <c r="CC41" s="142"/>
+      <c r="CD41" s="142"/>
+      <c r="CE41" s="142"/>
+      <c r="CF41" s="142"/>
+      <c r="CG41" s="142"/>
+      <c r="CH41" s="142"/>
+      <c r="CI41" s="142"/>
+      <c r="CJ41" s="142"/>
+      <c r="CK41" s="142"/>
+      <c r="CL41" s="142"/>
+      <c r="CM41" s="142"/>
     </row>
     <row r="42" spans="1:91">
       <c r="A42" s="85"/>
@@ -8388,15 +8400,113 @@
       <c r="CL42" s="82"/>
       <c r="CM42" s="82"/>
     </row>
+    <row r="43" spans="1:91">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="83"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="83"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="83"/>
+      <c r="AN43" s="83"/>
+      <c r="AO43" s="83"/>
+      <c r="AP43" s="83"/>
+      <c r="AQ43" s="83"/>
+      <c r="AR43" s="83"/>
+      <c r="AS43" s="83"/>
+      <c r="AT43" s="83"/>
+      <c r="AU43" s="83"/>
+      <c r="AV43" s="83"/>
+      <c r="AW43" s="83"/>
+      <c r="AX43" s="83"/>
+      <c r="AY43" s="83"/>
+      <c r="AZ43" s="83"/>
+      <c r="BA43" s="83"/>
+      <c r="BB43" s="83"/>
+      <c r="BC43" s="83"/>
+      <c r="BD43" s="83"/>
+      <c r="BE43" s="83"/>
+      <c r="BF43" s="83"/>
+      <c r="BG43" s="83"/>
+      <c r="BH43" s="83"/>
+      <c r="BI43" s="83"/>
+      <c r="BJ43" s="83"/>
+      <c r="BK43" s="83"/>
+      <c r="BL43" s="83"/>
+      <c r="BM43" s="83"/>
+      <c r="BN43" s="83"/>
+      <c r="BO43" s="83"/>
+      <c r="BP43" s="82"/>
+      <c r="BQ43" s="82"/>
+      <c r="BR43" s="82"/>
+      <c r="BS43" s="82"/>
+      <c r="BT43" s="82"/>
+      <c r="BU43" s="82"/>
+      <c r="BV43" s="82"/>
+      <c r="BW43" s="82"/>
+      <c r="BX43" s="82"/>
+      <c r="BY43" s="82"/>
+      <c r="BZ43" s="82"/>
+      <c r="CA43" s="82"/>
+      <c r="CB43" s="82"/>
+      <c r="CC43" s="82"/>
+      <c r="CD43" s="82"/>
+      <c r="CE43" s="82"/>
+      <c r="CF43" s="82"/>
+      <c r="CG43" s="82"/>
+      <c r="CH43" s="82"/>
+      <c r="CI43" s="82"/>
+      <c r="CJ43" s="82"/>
+      <c r="CK43" s="82"/>
+      <c r="CL43" s="82"/>
+      <c r="CM43" s="82"/>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -8413,18 +8523,13 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8453,61 +8558,61 @@
       <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="163">
+      <c r="B2" s="186">
         <v>1</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="187" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
       <c r="D7" s="33" t="s">
         <v>178</v>
       </c>
@@ -8549,13 +8654,13 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
@@ -8575,7 +8680,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="167" t="s">
         <v>368</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -8586,7 +8691,7 @@
       <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="187"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="115" t="s">
         <v>396</v>
       </c>
@@ -8595,7 +8700,7 @@
       <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="188"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="115" t="s">
         <v>370</v>
       </c>
@@ -8620,13 +8725,13 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="23">
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="33" t="s">
@@ -8638,10 +8743,10 @@
       <c r="D18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="F18" s="184"/>
+      <c r="F18" s="165"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="21" t="s">
@@ -8653,8 +8758,8 @@
       <c r="D19" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="E19" s="185"/>
-      <c r="F19" s="184"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="165"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="54" t="s">
@@ -8666,66 +8771,66 @@
       <c r="D20" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="E20" s="185"/>
-      <c r="F20" s="184"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="165"/>
     </row>
     <row r="25" spans="2:6" ht="18" thickBot="1"/>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="170">
+      <c r="B26" s="179">
         <v>2</v>
       </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
     </row>
     <row r="27" spans="2:6" ht="20">
       <c r="B27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="183"/>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="168" t="s">
+      <c r="C28" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="169"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
     </row>
     <row r="29" spans="2:6" ht="20">
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175"/>
     </row>
     <row r="30" spans="2:6" ht="18">
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="167" t="s">
+      <c r="D30" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="179"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="2:6" ht="18">
-      <c r="B31" s="178"/>
-      <c r="C31" s="167"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
       <c r="D31" s="33" t="s">
         <v>178</v>
       </c>
@@ -8796,13 +8901,13 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="2:6" ht="20">
-      <c r="B37" s="175" t="s">
+      <c r="B37" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="177"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="175"/>
     </row>
     <row r="38" spans="2:6" ht="18">
       <c r="B38" s="32" t="s">
@@ -8839,13 +8944,13 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="2:6" ht="23">
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="182"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="178"/>
     </row>
     <row r="43" spans="2:6" ht="18">
       <c r="B43" s="32" t="s">
@@ -8953,61 +9058,61 @@
     </row>
     <row r="58" spans="2:6" ht="18" thickBot="1"/>
     <row r="59" spans="2:6" ht="21" thickBot="1">
-      <c r="B59" s="170">
+      <c r="B59" s="179">
         <v>3</v>
       </c>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="172"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180"/>
+      <c r="E59" s="180"/>
+      <c r="F59" s="181"/>
     </row>
     <row r="60" spans="2:6" ht="20">
       <c r="B60" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="173" t="s">
+      <c r="C60" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="174"/>
+      <c r="D60" s="182"/>
+      <c r="E60" s="182"/>
+      <c r="F60" s="183"/>
     </row>
     <row r="61" spans="2:6" ht="21" thickBot="1">
       <c r="B61" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="168" t="s">
+      <c r="C61" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="169"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="184"/>
+      <c r="F61" s="185"/>
     </row>
     <row r="62" spans="2:6" ht="20">
-      <c r="B62" s="175" t="s">
+      <c r="B62" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="177"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
+      <c r="E62" s="174"/>
+      <c r="F62" s="175"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="178" t="s">
+      <c r="B63" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="167" t="s">
+      <c r="C63" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="167" t="s">
+      <c r="D63" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="167"/>
-      <c r="F63" s="179"/>
+      <c r="E63" s="171"/>
+      <c r="F63" s="172"/>
     </row>
     <row r="64" spans="2:6" ht="18">
-      <c r="B64" s="178"/>
-      <c r="C64" s="167"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="171"/>
       <c r="D64" s="33" t="s">
         <v>178</v>
       </c>
@@ -9047,13 +9152,13 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="175" t="s">
+      <c r="B69" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="176"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="176"/>
-      <c r="F69" s="177"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="174"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="175"/>
     </row>
     <row r="70" spans="2:6" ht="18">
       <c r="B70" s="32" t="s">
@@ -9090,13 +9195,13 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:6" ht="23">
-      <c r="B74" s="180" t="s">
+      <c r="B74" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="181"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="181"/>
-      <c r="F74" s="182"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="177"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="178"/>
     </row>
     <row r="75" spans="2:6" ht="18">
       <c r="B75" s="32" t="s">
@@ -9204,61 +9309,61 @@
     </row>
     <row r="90" spans="2:6" ht="18" thickBot="1"/>
     <row r="91" spans="2:6" ht="21" thickBot="1">
-      <c r="B91" s="170">
+      <c r="B91" s="179">
         <v>4</v>
       </c>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="172"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="180"/>
+      <c r="E91" s="180"/>
+      <c r="F91" s="181"/>
     </row>
     <row r="92" spans="2:6" ht="20">
       <c r="B92" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="173" t="s">
+      <c r="C92" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="173"/>
-      <c r="E92" s="173"/>
-      <c r="F92" s="174"/>
+      <c r="D92" s="182"/>
+      <c r="E92" s="182"/>
+      <c r="F92" s="183"/>
     </row>
     <row r="93" spans="2:6" ht="21" thickBot="1">
       <c r="B93" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="168" t="s">
+      <c r="C93" s="184" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="F93" s="169"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="185"/>
     </row>
     <row r="94" spans="2:6" ht="20">
-      <c r="B94" s="175" t="s">
+      <c r="B94" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="176"/>
-      <c r="D94" s="176"/>
-      <c r="E94" s="176"/>
-      <c r="F94" s="177"/>
+      <c r="C94" s="174"/>
+      <c r="D94" s="174"/>
+      <c r="E94" s="174"/>
+      <c r="F94" s="175"/>
     </row>
     <row r="95" spans="2:6" ht="18">
-      <c r="B95" s="178" t="s">
+      <c r="B95" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="167" t="s">
+      <c r="C95" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="167" t="s">
+      <c r="D95" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="167"/>
-      <c r="F95" s="179"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="172"/>
     </row>
     <row r="96" spans="2:6" ht="18">
-      <c r="B96" s="178"/>
-      <c r="C96" s="167"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="171"/>
       <c r="D96" s="33" t="s">
         <v>178</v>
       </c>
@@ -9298,13 +9403,13 @@
       <c r="F100" s="29"/>
     </row>
     <row r="101" spans="2:6" ht="20">
-      <c r="B101" s="175" t="s">
+      <c r="B101" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="176"/>
-      <c r="D101" s="176"/>
-      <c r="E101" s="176"/>
-      <c r="F101" s="177"/>
+      <c r="C101" s="174"/>
+      <c r="D101" s="174"/>
+      <c r="E101" s="174"/>
+      <c r="F101" s="175"/>
     </row>
     <row r="102" spans="2:6" ht="18">
       <c r="B102" s="32" t="s">
@@ -9341,13 +9446,13 @@
       <c r="F105" s="29"/>
     </row>
     <row r="106" spans="2:6" ht="23">
-      <c r="B106" s="180" t="s">
+      <c r="B106" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="181"/>
-      <c r="D106" s="181"/>
-      <c r="E106" s="181"/>
-      <c r="F106" s="182"/>
+      <c r="C106" s="177"/>
+      <c r="D106" s="177"/>
+      <c r="E106" s="177"/>
+      <c r="F106" s="178"/>
     </row>
     <row r="107" spans="2:6" ht="18">
       <c r="B107" s="32" t="s">
@@ -9455,6 +9560,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:F94"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -9471,30 +9600,6 @@
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="C60:F60"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -9507,7 +9612,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -9526,17 +9631,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="32">
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="198"/>
     </row>
     <row r="3" spans="3:11" ht="20">
       <c r="C3" s="53" t="s">
@@ -9568,10 +9673,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="190" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="21"/>
@@ -9589,8 +9694,8 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C5" s="191"/>
-      <c r="D5" s="189"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -9606,8 +9711,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C6" s="191"/>
-      <c r="D6" s="189"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -9623,8 +9728,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C7" s="191"/>
-      <c r="D7" s="189"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
@@ -9640,8 +9745,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C8" s="191"/>
-      <c r="D8" s="189"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="190"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -9657,8 +9762,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1">
-      <c r="C9" s="191"/>
-      <c r="D9" s="189"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="190"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
@@ -9674,8 +9779,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="191"/>
-      <c r="D10" s="189" t="s">
+      <c r="C10" s="192"/>
+      <c r="D10" s="190" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="21"/>
@@ -9693,8 +9798,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="191"/>
-      <c r="D11" s="189"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="190"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -9710,8 +9815,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="3:11" ht="16.75" customHeight="1">
-      <c r="C12" s="192"/>
-      <c r="D12" s="189" t="s">
+      <c r="C12" s="193"/>
+      <c r="D12" s="190" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="21"/>
@@ -9729,8 +9834,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="192"/>
-      <c r="D13" s="198"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -9746,8 +9851,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="192"/>
-      <c r="D14" s="189"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -9763,8 +9868,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="192"/>
-      <c r="D15" s="189" t="s">
+      <c r="C15" s="193"/>
+      <c r="D15" s="190" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="21"/>
@@ -9782,8 +9887,8 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="192"/>
-      <c r="D16" s="198"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
@@ -9799,8 +9904,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="192"/>
-      <c r="D17" s="189"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -9816,8 +9921,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="192"/>
-      <c r="D18" s="189"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="190"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
@@ -9833,8 +9938,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="192"/>
-      <c r="D19" s="189"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -9850,8 +9955,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="192"/>
-      <c r="D20" s="189"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="190"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -9867,8 +9972,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="192"/>
-      <c r="D21" s="189"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="190"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
@@ -9884,8 +9989,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="192"/>
-      <c r="D22" s="189"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="s">
@@ -9901,8 +10006,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="192"/>
-      <c r="D23" s="189"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
@@ -9918,8 +10023,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="192"/>
-      <c r="D24" s="189"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="190"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -9935,8 +10040,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="192"/>
-      <c r="D25" s="189" t="s">
+      <c r="C25" s="193"/>
+      <c r="D25" s="190" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="21"/>
@@ -9954,8 +10059,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="192"/>
-      <c r="D26" s="189"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="190"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
@@ -9971,8 +10076,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="192"/>
-      <c r="D27" s="189"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="190"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
@@ -9988,8 +10093,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="193"/>
-      <c r="D28" s="189"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="190"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -10005,8 +10110,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="193"/>
-      <c r="D29" s="189"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="190"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
@@ -10022,8 +10127,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="193"/>
-      <c r="D30" s="189"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="190"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
@@ -10039,8 +10144,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="193"/>
-      <c r="D31" s="189"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="190"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
@@ -10056,8 +10161,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="193"/>
-      <c r="D32" s="189"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="190"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -10073,8 +10178,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="193"/>
-      <c r="D33" s="189"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="190"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -10090,8 +10195,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="193"/>
-      <c r="D34" s="189"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="190"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
@@ -10107,8 +10212,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="193"/>
-      <c r="D35" s="189"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="190"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -10124,8 +10229,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="193"/>
-      <c r="D36" s="189"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="190"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -10141,8 +10246,8 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="193"/>
-      <c r="D37" s="189" t="s">
+      <c r="C37" s="194"/>
+      <c r="D37" s="190" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="21"/>
@@ -10160,8 +10265,8 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="193"/>
-      <c r="D38" s="189"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="190"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
@@ -10177,8 +10282,8 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="193"/>
-      <c r="D39" s="189"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="190"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
@@ -10194,8 +10299,8 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="193"/>
-      <c r="D40" s="189"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="190"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
@@ -10211,8 +10316,8 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="193"/>
-      <c r="D41" s="189"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="190"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
@@ -10228,8 +10333,8 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="193"/>
-      <c r="D42" s="189"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="190"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
@@ -10245,8 +10350,8 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="193"/>
-      <c r="D43" s="189"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="190"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
@@ -10262,8 +10367,8 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="193"/>
-      <c r="D44" s="189"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="190"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
@@ -10279,8 +10384,8 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="193"/>
-      <c r="D45" s="189"/>
+      <c r="C45" s="194"/>
+      <c r="D45" s="190"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
@@ -10296,8 +10401,8 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="194"/>
-      <c r="D46" s="189"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="190"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
@@ -10350,61 +10455,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="36" thickBot="1">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="202"/>
-      <c r="N1" s="199" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="N1" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="199"/>
-      <c r="AO1" s="199"/>
-      <c r="AP1" s="199"/>
-      <c r="AQ1" s="199"/>
-      <c r="AR1" s="199"/>
-      <c r="AS1" s="199"/>
-      <c r="AT1" s="199"/>
-      <c r="AU1" s="199"/>
-      <c r="AV1" s="199"/>
-      <c r="AW1" s="199"/>
-      <c r="AX1" s="199"/>
-      <c r="AY1" s="199"/>
-      <c r="AZ1" s="199"/>
-      <c r="BA1" s="199"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
+      <c r="AK1" s="200"/>
+      <c r="AL1" s="200"/>
+      <c r="AM1" s="200"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="200"/>
+      <c r="AQ1" s="200"/>
+      <c r="AR1" s="200"/>
+      <c r="AS1" s="200"/>
+      <c r="AT1" s="200"/>
+      <c r="AU1" s="200"/>
+      <c r="AV1" s="200"/>
+      <c r="AW1" s="200"/>
+      <c r="AX1" s="200"/>
+      <c r="AY1" s="200"/>
+      <c r="AZ1" s="200"/>
+      <c r="BA1" s="200"/>
     </row>
     <row r="2" spans="2:53" ht="31" thickBot="1">
       <c r="B2" s="55" t="s">
@@ -12588,7 +12693,7 @@
       <c r="B115" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C115" s="233" t="s">
+      <c r="C115" s="143" t="s">
         <v>301</v>
       </c>
       <c r="D115" s="57"/>
@@ -13278,17 +13383,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="18" t="s">
@@ -13381,17 +13486,17 @@
       <c r="J6" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="20">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="18" t="s">
@@ -13504,18 +13609,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
     </row>
     <row r="2" spans="2:11" ht="27">
       <c r="B2" s="23"/>
@@ -13530,20 +13635,20 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="30">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="212" t="s">
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="215"/>
     </row>
     <row r="4" spans="2:11" ht="38.25" customHeight="1">
       <c r="B4" s="48" t="s">
@@ -13558,12 +13663,12 @@
       <c r="G4" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="218" t="s">
+      <c r="H4" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="220"/>
     </row>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="38" t="s">
@@ -13573,13 +13678,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="215" t="s">
+      <c r="G5" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="36"/>
@@ -13693,13 +13798,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="209" t="s">
+      <c r="G13" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="211"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36"/>
@@ -13951,181 +14056,181 @@
       <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="232"/>
     </row>
     <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="174"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="183"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="224" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="227"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="225"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="227"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="225"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B6" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="227"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="225"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="227"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="225"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="229" t="s">
+      <c r="C8" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="169"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="185"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="232"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="230"/>
     </row>
     <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="226" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="228" t="s">
+      <c r="E11" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228" t="s">
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="228" t="s">
+      <c r="I11" s="226" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="228" t="s">
+      <c r="J11" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="228" t="s">
+      <c r="K11" s="226" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="228" t="s">
+      <c r="L11" s="226" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="228" t="s">
+      <c r="M11" s="226" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="228"/>
-      <c r="C12" s="228"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
       <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
@@ -14138,12 +14243,12 @@
       <c r="G12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -14435,6 +14540,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -14447,11 +14557,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/architecture/document/팀프로젝트_설계.xlsx
+++ b/architecture/document/팀프로젝트_설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryeong/Desktop/CloseUp/architecture/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA9E71-5E5A-9F48-AA21-1E4309C18F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2CC7CC-9968-674D-B17D-6EA54F8FB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="1060" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20600" yWindow="2500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="10" r:id="rId1"/>
@@ -3674,6 +3674,48 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="28" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="17" borderId="64" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3683,127 +3725,85 @@
     <xf numFmtId="0" fontId="33" fillId="17" borderId="55" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3914,6 +3914,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3934,15 +3943,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4317,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:CM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB23" sqref="BB23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -4336,10 +4336,10 @@
       <c r="A3" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="167" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="164"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
@@ -4433,10 +4433,10 @@
       <c r="A4" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="166" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="164"/>
+      <c r="C4" s="167"/>
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
@@ -4530,10 +4530,10 @@
       <c r="A5" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="166" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="164"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
@@ -4627,10 +4627,10 @@
       <c r="A6" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="167" t="s">
         <v>355</v>
       </c>
-      <c r="C6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
@@ -4724,10 +4724,10 @@
       <c r="A7" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="163">
+      <c r="B7" s="166">
         <v>45436</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -4821,8 +4821,8 @@
       <c r="A8" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="82"/>
@@ -5010,244 +5010,244 @@
       <c r="CM9" s="81"/>
     </row>
     <row r="10" spans="1:91">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="173" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="173" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="173" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="173" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="173" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="173" t="s">
         <v>347</v>
       </c>
       <c r="G10" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="171" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="162"/>
-      <c r="AJ10" s="161" t="s">
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="171" t="s">
         <v>344</v>
       </c>
-      <c r="AK10" s="162"/>
-      <c r="AL10" s="162"/>
-      <c r="AM10" s="162"/>
-      <c r="AN10" s="162"/>
-      <c r="AO10" s="162"/>
-      <c r="AP10" s="162"/>
-      <c r="AQ10" s="162"/>
-      <c r="AR10" s="162"/>
-      <c r="AS10" s="162"/>
-      <c r="AT10" s="162"/>
-      <c r="AU10" s="162"/>
-      <c r="AV10" s="162"/>
-      <c r="AW10" s="162"/>
-      <c r="AX10" s="162"/>
-      <c r="AY10" s="162"/>
-      <c r="AZ10" s="162"/>
-      <c r="BA10" s="162"/>
-      <c r="BB10" s="162"/>
-      <c r="BC10" s="162"/>
-      <c r="BD10" s="162"/>
-      <c r="BE10" s="162"/>
-      <c r="BF10" s="162"/>
-      <c r="BG10" s="162"/>
-      <c r="BH10" s="162"/>
-      <c r="BI10" s="162"/>
-      <c r="BJ10" s="162"/>
-      <c r="BK10" s="162"/>
-      <c r="BL10" s="161" t="s">
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="172"/>
+      <c r="AM10" s="172"/>
+      <c r="AN10" s="172"/>
+      <c r="AO10" s="172"/>
+      <c r="AP10" s="172"/>
+      <c r="AQ10" s="172"/>
+      <c r="AR10" s="172"/>
+      <c r="AS10" s="172"/>
+      <c r="AT10" s="172"/>
+      <c r="AU10" s="172"/>
+      <c r="AV10" s="172"/>
+      <c r="AW10" s="172"/>
+      <c r="AX10" s="172"/>
+      <c r="AY10" s="172"/>
+      <c r="AZ10" s="172"/>
+      <c r="BA10" s="172"/>
+      <c r="BB10" s="172"/>
+      <c r="BC10" s="172"/>
+      <c r="BD10" s="172"/>
+      <c r="BE10" s="172"/>
+      <c r="BF10" s="172"/>
+      <c r="BG10" s="172"/>
+      <c r="BH10" s="172"/>
+      <c r="BI10" s="172"/>
+      <c r="BJ10" s="172"/>
+      <c r="BK10" s="172"/>
+      <c r="BL10" s="171" t="s">
         <v>343</v>
       </c>
-      <c r="BM10" s="162"/>
-      <c r="BN10" s="162"/>
-      <c r="BO10" s="162"/>
-      <c r="BP10" s="162"/>
-      <c r="BQ10" s="162"/>
-      <c r="BR10" s="162"/>
-      <c r="BS10" s="162"/>
-      <c r="BT10" s="162"/>
-      <c r="BU10" s="162"/>
-      <c r="BV10" s="162"/>
-      <c r="BW10" s="162"/>
-      <c r="BX10" s="162"/>
-      <c r="BY10" s="162"/>
-      <c r="BZ10" s="162"/>
-      <c r="CA10" s="162"/>
-      <c r="CB10" s="162"/>
-      <c r="CC10" s="162"/>
-      <c r="CD10" s="162"/>
-      <c r="CE10" s="162"/>
-      <c r="CF10" s="162"/>
-      <c r="CG10" s="162"/>
-      <c r="CH10" s="162"/>
-      <c r="CI10" s="162"/>
-      <c r="CJ10" s="162"/>
-      <c r="CK10" s="162"/>
-      <c r="CL10" s="162"/>
-      <c r="CM10" s="162"/>
+      <c r="BM10" s="172"/>
+      <c r="BN10" s="172"/>
+      <c r="BO10" s="172"/>
+      <c r="BP10" s="172"/>
+      <c r="BQ10" s="172"/>
+      <c r="BR10" s="172"/>
+      <c r="BS10" s="172"/>
+      <c r="BT10" s="172"/>
+      <c r="BU10" s="172"/>
+      <c r="BV10" s="172"/>
+      <c r="BW10" s="172"/>
+      <c r="BX10" s="172"/>
+      <c r="BY10" s="172"/>
+      <c r="BZ10" s="172"/>
+      <c r="CA10" s="172"/>
+      <c r="CB10" s="172"/>
+      <c r="CC10" s="172"/>
+      <c r="CD10" s="172"/>
+      <c r="CE10" s="172"/>
+      <c r="CF10" s="172"/>
+      <c r="CG10" s="172"/>
+      <c r="CH10" s="172"/>
+      <c r="CI10" s="172"/>
+      <c r="CJ10" s="172"/>
+      <c r="CK10" s="172"/>
+      <c r="CL10" s="172"/>
+      <c r="CM10" s="172"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="99" t="s">
         <v>342</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="168" t="s">
         <v>341</v>
       </c>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="154" t="s">
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="168" t="s">
         <v>340</v>
       </c>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="154" t="s">
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="154" t="s">
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="168" t="s">
         <v>338</v>
       </c>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="155"/>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="154" t="s">
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="170"/>
+      <c r="AJ11" s="168" t="s">
         <v>341</v>
       </c>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="155"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="154" t="s">
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="169"/>
+      <c r="AM11" s="169"/>
+      <c r="AN11" s="169"/>
+      <c r="AO11" s="169"/>
+      <c r="AP11" s="170"/>
+      <c r="AQ11" s="168" t="s">
         <v>340</v>
       </c>
-      <c r="AR11" s="155"/>
-      <c r="AS11" s="155"/>
-      <c r="AT11" s="155"/>
-      <c r="AU11" s="155"/>
-      <c r="AV11" s="155"/>
-      <c r="AW11" s="156"/>
-      <c r="AX11" s="154" t="s">
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="169"/>
+      <c r="AT11" s="169"/>
+      <c r="AU11" s="169"/>
+      <c r="AV11" s="169"/>
+      <c r="AW11" s="170"/>
+      <c r="AX11" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="AY11" s="155"/>
-      <c r="AZ11" s="155"/>
-      <c r="BA11" s="155"/>
-      <c r="BB11" s="155"/>
-      <c r="BC11" s="155"/>
-      <c r="BD11" s="156"/>
-      <c r="BE11" s="154" t="s">
+      <c r="AY11" s="169"/>
+      <c r="AZ11" s="169"/>
+      <c r="BA11" s="169"/>
+      <c r="BB11" s="169"/>
+      <c r="BC11" s="169"/>
+      <c r="BD11" s="170"/>
+      <c r="BE11" s="168" t="s">
         <v>338</v>
       </c>
-      <c r="BF11" s="155"/>
-      <c r="BG11" s="155"/>
-      <c r="BH11" s="155"/>
-      <c r="BI11" s="155"/>
-      <c r="BJ11" s="155"/>
-      <c r="BK11" s="156"/>
-      <c r="BL11" s="154" t="s">
+      <c r="BF11" s="169"/>
+      <c r="BG11" s="169"/>
+      <c r="BH11" s="169"/>
+      <c r="BI11" s="169"/>
+      <c r="BJ11" s="169"/>
+      <c r="BK11" s="170"/>
+      <c r="BL11" s="168" t="s">
         <v>341</v>
       </c>
-      <c r="BM11" s="155"/>
-      <c r="BN11" s="155"/>
-      <c r="BO11" s="155"/>
-      <c r="BP11" s="155"/>
-      <c r="BQ11" s="155"/>
-      <c r="BR11" s="156"/>
-      <c r="BS11" s="154" t="s">
+      <c r="BM11" s="169"/>
+      <c r="BN11" s="169"/>
+      <c r="BO11" s="169"/>
+      <c r="BP11" s="169"/>
+      <c r="BQ11" s="169"/>
+      <c r="BR11" s="170"/>
+      <c r="BS11" s="168" t="s">
         <v>340</v>
       </c>
-      <c r="BT11" s="155"/>
-      <c r="BU11" s="155"/>
-      <c r="BV11" s="155"/>
-      <c r="BW11" s="155"/>
-      <c r="BX11" s="155"/>
-      <c r="BY11" s="156"/>
-      <c r="BZ11" s="154" t="s">
+      <c r="BT11" s="169"/>
+      <c r="BU11" s="169"/>
+      <c r="BV11" s="169"/>
+      <c r="BW11" s="169"/>
+      <c r="BX11" s="169"/>
+      <c r="BY11" s="170"/>
+      <c r="BZ11" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="CA11" s="155"/>
-      <c r="CB11" s="155"/>
-      <c r="CC11" s="155"/>
-      <c r="CD11" s="155"/>
-      <c r="CE11" s="155"/>
-      <c r="CF11" s="156"/>
-      <c r="CG11" s="154" t="s">
+      <c r="CA11" s="169"/>
+      <c r="CB11" s="169"/>
+      <c r="CC11" s="169"/>
+      <c r="CD11" s="169"/>
+      <c r="CE11" s="169"/>
+      <c r="CF11" s="170"/>
+      <c r="CG11" s="168" t="s">
         <v>338</v>
       </c>
-      <c r="CH11" s="155"/>
-      <c r="CI11" s="155"/>
-      <c r="CJ11" s="155"/>
-      <c r="CK11" s="155"/>
-      <c r="CL11" s="155"/>
-      <c r="CM11" s="156"/>
+      <c r="CH11" s="169"/>
+      <c r="CI11" s="169"/>
+      <c r="CJ11" s="169"/>
+      <c r="CK11" s="169"/>
+      <c r="CL11" s="169"/>
+      <c r="CM11" s="170"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
+      <c r="A12" s="173"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="99" t="s">
         <v>337</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="160" t="s">
         <v>329</v>
       </c>
       <c r="B13" s="86" t="s">
@@ -5612,8 +5612,8 @@
       <c r="CM13" s="85"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="159"/>
-      <c r="B14" s="158" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="160" t="s">
         <v>325</v>
       </c>
       <c r="C14" s="87" t="s">
@@ -5717,8 +5717,8 @@
       <c r="CM14" s="85"/>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="86" t="s">
         <v>323</v>
       </c>
@@ -5820,8 +5820,8 @@
       <c r="CM15" s="85"/>
     </row>
     <row r="16" spans="1:91">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="87" t="s">
         <v>322</v>
       </c>
@@ -5923,8 +5923,8 @@
       <c r="CM16" s="85"/>
     </row>
     <row r="17" spans="1:91">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="87" t="s">
         <v>320</v>
       </c>
@@ -6026,8 +6026,8 @@
       <c r="CM17" s="85"/>
     </row>
     <row r="18" spans="1:91">
-      <c r="A18" s="160"/>
-      <c r="B18" s="160"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="87" t="s">
         <v>318</v>
       </c>
@@ -6129,10 +6129,10 @@
       <c r="CM18" s="85"/>
     </row>
     <row r="19" spans="1:91">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="154" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="163" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="87" t="s">
@@ -6236,8 +6236,8 @@
       <c r="CM19" s="85"/>
     </row>
     <row r="20" spans="1:91">
-      <c r="A20" s="166"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="87" t="s">
         <v>313</v>
       </c>
@@ -6339,8 +6339,8 @@
       <c r="CM20" s="85"/>
     </row>
     <row r="21" spans="1:91">
-      <c r="A21" s="166"/>
-      <c r="B21" s="173"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="90" t="s">
         <v>310</v>
       </c>
@@ -6442,8 +6442,8 @@
       <c r="CM21" s="85"/>
     </row>
     <row r="22" spans="1:91">
-      <c r="A22" s="166"/>
-      <c r="B22" s="171" t="s">
+      <c r="A22" s="155"/>
+      <c r="B22" s="163" t="s">
         <v>307</v>
       </c>
       <c r="C22" s="87" t="s">
@@ -6547,8 +6547,8 @@
       <c r="CM22" s="85"/>
     </row>
     <row r="23" spans="1:91">
-      <c r="A23" s="166"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="87" t="s">
         <v>376</v>
       </c>
@@ -6644,8 +6644,8 @@
       <c r="CM23" s="85"/>
     </row>
     <row r="24" spans="1:91">
-      <c r="A24" s="166"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="155"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="87" t="s">
         <v>377</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="CM24" s="85"/>
     </row>
     <row r="25" spans="1:91">
-      <c r="A25" s="167"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="111" t="s">
         <v>428</v>
       </c>
@@ -6840,10 +6840,10 @@
       <c r="CM25" s="85"/>
     </row>
     <row r="26" spans="1:91">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="157" t="s">
         <v>303</v>
       </c>
       <c r="C26" s="90" t="s">
@@ -6947,8 +6947,8 @@
       <c r="CM26" s="85"/>
     </row>
     <row r="27" spans="1:91">
-      <c r="A27" s="159"/>
-      <c r="B27" s="169"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="90" t="s">
         <v>361</v>
       </c>
@@ -7050,8 +7050,8 @@
       <c r="CM27" s="85"/>
     </row>
     <row r="28" spans="1:91">
-      <c r="A28" s="159"/>
-      <c r="B28" s="170"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="90" t="s">
         <v>362</v>
       </c>
@@ -7150,8 +7150,8 @@
       <c r="CM28" s="85"/>
     </row>
     <row r="29" spans="1:91">
-      <c r="A29" s="159"/>
-      <c r="B29" s="168" t="s">
+      <c r="A29" s="161"/>
+      <c r="B29" s="157" t="s">
         <v>300</v>
       </c>
       <c r="C29" s="90" t="s">
@@ -7249,8 +7249,8 @@
       <c r="CM29" s="85"/>
     </row>
     <row r="30" spans="1:91">
-      <c r="A30" s="159"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="90" t="s">
         <v>433</v>
       </c>
@@ -7352,8 +7352,8 @@
       <c r="CM30" s="85"/>
     </row>
     <row r="31" spans="1:91">
-      <c r="A31" s="159"/>
-      <c r="B31" s="169"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="87" t="s">
         <v>421</v>
       </c>
@@ -7449,8 +7449,8 @@
       <c r="CM31" s="85"/>
     </row>
     <row r="32" spans="1:91">
-      <c r="A32" s="159"/>
-      <c r="B32" s="169"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="87" t="s">
         <v>422</v>
       </c>
@@ -7552,8 +7552,8 @@
       <c r="CM32" s="85"/>
     </row>
     <row r="33" spans="1:91">
-      <c r="A33" s="159"/>
-      <c r="B33" s="169"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="87" t="s">
         <v>423</v>
       </c>
@@ -7649,8 +7649,8 @@
       <c r="CM33" s="85"/>
     </row>
     <row r="34" spans="1:91">
-      <c r="A34" s="159"/>
-      <c r="B34" s="169"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="87" t="s">
         <v>424</v>
       </c>
@@ -7752,8 +7752,8 @@
       <c r="CM34" s="85"/>
     </row>
     <row r="35" spans="1:91">
-      <c r="A35" s="159"/>
-      <c r="B35" s="169"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="87" t="s">
         <v>425</v>
       </c>
@@ -7855,8 +7855,8 @@
       <c r="CM35" s="85"/>
     </row>
     <row r="36" spans="1:91">
-      <c r="A36" s="159"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="87" t="s">
         <v>436</v>
       </c>
@@ -7958,8 +7958,8 @@
       <c r="CM36" s="85"/>
     </row>
     <row r="37" spans="1:91">
-      <c r="A37" s="159"/>
-      <c r="B37" s="169"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="115" t="s">
         <v>435</v>
       </c>
@@ -8055,8 +8055,8 @@
       <c r="CM37" s="134"/>
     </row>
     <row r="38" spans="1:91" s="135" customFormat="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="87" t="s">
         <v>426</v>
       </c>
@@ -8150,8 +8150,8 @@
       <c r="CM38" s="85"/>
     </row>
     <row r="39" spans="1:91" s="135" customFormat="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="87" t="s">
         <v>434</v>
       </c>
@@ -8245,8 +8245,8 @@
       <c r="CM39" s="85"/>
     </row>
     <row r="40" spans="1:91" s="135" customFormat="1">
-      <c r="A40" s="160"/>
-      <c r="B40" s="170"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="87" t="s">
         <v>427</v>
       </c>
@@ -8641,18 +8641,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="BZ11:CF11"/>
     <mergeCell ref="CG11:CM11"/>
     <mergeCell ref="A13:A18"/>
@@ -8669,13 +8664,18 @@
     <mergeCell ref="AX11:BD11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8704,61 +8704,61 @@
       <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="181">
+      <c r="B2" s="177">
         <v>1</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
     </row>
     <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="184" t="s">
+      <c r="D6" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="33" t="s">
         <v>176</v>
       </c>
@@ -8800,13 +8800,13 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="23">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="33" t="s">
@@ -8818,10 +8818,10 @@
       <c r="D11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="E11" s="181" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="175"/>
+      <c r="F11" s="182"/>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="B12" s="152" t="s">
@@ -8833,8 +8833,8 @@
       <c r="D12" s="152" t="s">
         <v>454</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="197"/>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="B13" s="152" t="s">
@@ -8846,10 +8846,10 @@
       <c r="D13" s="152" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="181" t="s">
         <v>470</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="197"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="21" t="s">
@@ -8861,72 +8861,72 @@
       <c r="D14" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="175"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="182"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="175"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="182"/>
     </row>
     <row r="21" spans="2:6" ht="20">
-      <c r="B21" s="181">
+      <c r="B21" s="177">
         <v>2</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
     </row>
     <row r="22" spans="2:6" ht="20">
       <c r="B22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="182" t="s">
+      <c r="C22" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
     </row>
     <row r="23" spans="2:6" ht="20">
       <c r="B23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
     </row>
     <row r="24" spans="2:6" ht="20">
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
     </row>
     <row r="25" spans="2:6" ht="18">
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="184" t="s">
+      <c r="D25" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
     </row>
     <row r="26" spans="2:6" ht="18">
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="33" t="s">
         <v>176</v>
       </c>
@@ -9009,13 +9009,13 @@
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="2:6" ht="23">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
     </row>
     <row r="33" spans="2:6" ht="18">
       <c r="B33" s="33" t="s">
@@ -9027,10 +9027,10 @@
       <c r="D33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="181" t="s">
         <v>383</v>
       </c>
-      <c r="F33" s="175"/>
+      <c r="F33" s="182"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="53" t="s">
@@ -9042,8 +9042,8 @@
       <c r="D34" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="E34" s="174"/>
-      <c r="F34" s="178"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="176"/>
     </row>
     <row r="35" spans="2:6" s="153" customFormat="1">
       <c r="B35" s="53" t="s">
@@ -9055,10 +9055,10 @@
       <c r="D35" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="E35" s="176" t="s">
+      <c r="E35" s="181" t="s">
         <v>470</v>
       </c>
-      <c r="F35" s="177"/>
+      <c r="F35" s="197"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="53" t="s">
@@ -9070,8 +9070,8 @@
       <c r="D36" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="178"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="176"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="53" t="s">
@@ -9083,10 +9083,10 @@
       <c r="D37" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="E37" s="174" t="s">
+      <c r="E37" s="175" t="s">
         <v>465</v>
       </c>
-      <c r="F37" s="178"/>
+      <c r="F37" s="176"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="53" t="s">
@@ -9098,10 +9098,10 @@
       <c r="D38" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="E38" s="174" t="s">
+      <c r="E38" s="175" t="s">
         <v>462</v>
       </c>
-      <c r="F38" s="178"/>
+      <c r="F38" s="176"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="53" t="s">
@@ -9113,41 +9113,41 @@
       <c r="D39" s="53" t="s">
         <v>464</v>
       </c>
-      <c r="E39" s="174" t="s">
+      <c r="E39" s="175" t="s">
         <v>465</v>
       </c>
-      <c r="F39" s="178"/>
+      <c r="F39" s="176"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="178"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="176"/>
     </row>
     <row r="41" spans="2:6">
       <c r="C41" s="114"/>
     </row>
     <row r="42" spans="2:6" ht="18" thickBot="1"/>
     <row r="43" spans="2:6" ht="21" thickBot="1">
-      <c r="B43" s="190">
+      <c r="B43" s="189">
         <v>3</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="191"/>
     </row>
     <row r="44" spans="2:6" ht="20">
       <c r="B44" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="193" t="s">
+      <c r="C44" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="194"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="193"/>
     </row>
     <row r="45" spans="2:6" ht="21" thickBot="1">
       <c r="B45" s="30" t="s">
@@ -9161,30 +9161,30 @@
       <c r="F45" s="199"/>
     </row>
     <row r="46" spans="2:6" ht="20">
-      <c r="B46" s="187" t="s">
+      <c r="B46" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="188"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="189"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="188"/>
     </row>
     <row r="47" spans="2:6" ht="18">
-      <c r="B47" s="185" t="s">
+      <c r="B47" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="184" t="s">
+      <c r="C47" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="184" t="s">
+      <c r="D47" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="184"/>
-      <c r="F47" s="186"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="185"/>
     </row>
     <row r="48" spans="2:6" ht="18">
-      <c r="B48" s="185"/>
-      <c r="C48" s="184"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="174"/>
       <c r="D48" s="33" t="s">
         <v>176</v>
       </c>
@@ -9224,13 +9224,13 @@
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="2:6" ht="23">
-      <c r="B53" s="195" t="s">
+      <c r="B53" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="196"/>
-      <c r="D53" s="196"/>
-      <c r="E53" s="196"/>
-      <c r="F53" s="197"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="195"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="196"/>
     </row>
     <row r="54" spans="2:6" ht="18">
       <c r="B54" s="32" t="s">
@@ -9337,24 +9337,24 @@
       <c r="F67" s="29"/>
     </row>
     <row r="70" spans="2:6" ht="21" thickBot="1">
-      <c r="B70" s="190">
+      <c r="B70" s="189">
         <v>4</v>
       </c>
-      <c r="C70" s="191"/>
-      <c r="D70" s="191"/>
-      <c r="E70" s="191"/>
-      <c r="F70" s="192"/>
+      <c r="C70" s="190"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="190"/>
+      <c r="F70" s="191"/>
     </row>
     <row r="71" spans="2:6" ht="20">
       <c r="B71" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="193" t="s">
+      <c r="C71" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="193"/>
-      <c r="E71" s="193"/>
-      <c r="F71" s="194"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="193"/>
     </row>
     <row r="72" spans="2:6" ht="21" thickBot="1">
       <c r="B72" s="30" t="s">
@@ -9368,30 +9368,30 @@
       <c r="F72" s="199"/>
     </row>
     <row r="73" spans="2:6" ht="20">
-      <c r="B73" s="187" t="s">
+      <c r="B73" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="188"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="188"/>
-      <c r="F73" s="189"/>
+      <c r="C73" s="187"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="188"/>
     </row>
     <row r="74" spans="2:6" ht="18">
-      <c r="B74" s="185" t="s">
+      <c r="B74" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="184" t="s">
+      <c r="C74" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="184" t="s">
+      <c r="D74" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="184"/>
-      <c r="F74" s="186"/>
+      <c r="E74" s="174"/>
+      <c r="F74" s="185"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="185"/>
-      <c r="C75" s="184"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="174"/>
       <c r="D75" s="33" t="s">
         <v>176</v>
       </c>
@@ -9431,13 +9431,13 @@
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="2:6" ht="23">
-      <c r="B80" s="195" t="s">
+      <c r="B80" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="196"/>
-      <c r="D80" s="196"/>
-      <c r="E80" s="196"/>
-      <c r="F80" s="197"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="195"/>
+      <c r="E80" s="195"/>
+      <c r="F80" s="196"/>
     </row>
     <row r="81" spans="2:6" ht="18">
       <c r="B81" s="32" t="s">
@@ -9544,55 +9544,55 @@
       <c r="F94" s="29"/>
     </row>
     <row r="97" spans="2:6" ht="20">
-      <c r="B97" s="181"/>
-      <c r="C97" s="181"/>
-      <c r="D97" s="181"/>
-      <c r="E97" s="181"/>
-      <c r="F97" s="181"/>
+      <c r="B97" s="177"/>
+      <c r="C97" s="177"/>
+      <c r="D97" s="177"/>
+      <c r="E97" s="177"/>
+      <c r="F97" s="177"/>
     </row>
     <row r="98" spans="2:6" ht="20">
       <c r="B98" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="182"/>
-      <c r="F98" s="182"/>
+      <c r="C98" s="179"/>
+      <c r="D98" s="179"/>
+      <c r="E98" s="179"/>
+      <c r="F98" s="179"/>
     </row>
     <row r="99" spans="2:6" ht="20">
       <c r="B99" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="182"/>
-      <c r="D99" s="182"/>
-      <c r="E99" s="182"/>
-      <c r="F99" s="182"/>
+      <c r="C99" s="179"/>
+      <c r="D99" s="179"/>
+      <c r="E99" s="179"/>
+      <c r="F99" s="179"/>
     </row>
     <row r="100" spans="2:6" ht="20">
-      <c r="B100" s="183" t="s">
+      <c r="B100" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="C100" s="183"/>
-      <c r="D100" s="183"/>
-      <c r="E100" s="183"/>
-      <c r="F100" s="183"/>
+      <c r="C100" s="180"/>
+      <c r="D100" s="180"/>
+      <c r="E100" s="180"/>
+      <c r="F100" s="180"/>
     </row>
     <row r="101" spans="2:6" ht="18">
-      <c r="B101" s="184" t="s">
+      <c r="B101" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="184" t="s">
+      <c r="C101" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="184" t="s">
+      <c r="D101" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="184"/>
-      <c r="F101" s="184"/>
+      <c r="E101" s="174"/>
+      <c r="F101" s="174"/>
     </row>
     <row r="102" spans="2:6" ht="18">
-      <c r="B102" s="184"/>
-      <c r="C102" s="184"/>
+      <c r="B102" s="174"/>
+      <c r="C102" s="174"/>
       <c r="D102" s="33" t="s">
         <v>176</v>
       </c>
@@ -9639,13 +9639,13 @@
       <c r="F107" s="21"/>
     </row>
     <row r="108" spans="2:6" ht="23">
-      <c r="B108" s="179" t="s">
+      <c r="B108" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="C108" s="179"/>
-      <c r="D108" s="179"/>
-      <c r="E108" s="179"/>
-      <c r="F108" s="179"/>
+      <c r="C108" s="178"/>
+      <c r="D108" s="178"/>
+      <c r="E108" s="178"/>
+      <c r="F108" s="178"/>
     </row>
     <row r="109" spans="2:6" ht="18">
       <c r="B109" s="33" t="s">
@@ -9657,45 +9657,45 @@
       <c r="D109" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="176" t="s">
+      <c r="E109" s="181" t="s">
         <v>383</v>
       </c>
-      <c r="F109" s="175"/>
+      <c r="F109" s="182"/>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
       <c r="D110" s="53"/>
-      <c r="E110" s="180"/>
-      <c r="F110" s="175"/>
+      <c r="E110" s="183"/>
+      <c r="F110" s="182"/>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="53"/>
       <c r="C111" s="53"/>
       <c r="D111" s="53"/>
-      <c r="E111" s="180"/>
-      <c r="F111" s="175"/>
+      <c r="E111" s="183"/>
+      <c r="F111" s="182"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="53"/>
       <c r="C112" s="53"/>
       <c r="D112" s="53"/>
-      <c r="E112" s="174"/>
-      <c r="F112" s="175"/>
+      <c r="E112" s="175"/>
+      <c r="F112" s="182"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="53"/>
       <c r="C113" s="53"/>
       <c r="D113" s="53"/>
-      <c r="E113" s="174"/>
-      <c r="F113" s="175"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="182"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="53"/>
       <c r="C114" s="53"/>
       <c r="D114" s="53"/>
-      <c r="E114" s="174"/>
-      <c r="F114" s="175"/>
+      <c r="E114" s="175"/>
+      <c r="F114" s="182"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="21"/>
@@ -9706,33 +9706,22 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="D101:F101"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E33:F33"/>
@@ -9749,22 +9738,33 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -14221,115 +14221,115 @@
       <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="242"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="235"/>
     </row>
     <row r="3" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="194"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="237" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="235"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="238"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="235"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="238"/>
     </row>
     <row r="6" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B6" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="235"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="238"/>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="237" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="235"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="238"/>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="20">
       <c r="B8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="240" t="s">
         <v>136</v>
       </c>
       <c r="D8" s="198"/>
@@ -14344,58 +14344,58 @@
       <c r="M8" s="199"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1">
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="240"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
+      <c r="M10" s="243"/>
     </row>
     <row r="11" spans="2:13" ht="24">
-      <c r="B11" s="236" t="s">
+      <c r="B11" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="236" t="s">
+      <c r="C11" s="239" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="236" t="s">
+      <c r="E11" s="239" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="236"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="236" t="s">
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="236" t="s">
+      <c r="I11" s="239" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="236" t="s">
+      <c r="J11" s="239" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="236" t="s">
+      <c r="K11" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="236" t="s">
+      <c r="L11" s="239" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="236" t="s">
+      <c r="M11" s="239" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="239"/>
       <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
@@ -14408,12 +14408,12 @@
       <c r="G12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -14705,11 +14705,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:H12"/>
@@ -14722,6 +14717,11 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
